--- a/public/data/persons.xlsx
+++ b/public/data/persons.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="818">
   <si>
     <t>Источник</t>
-  </si>
-  <si>
-    <t>Дегтярев В.А.</t>
   </si>
   <si>
     <t>&lt;link rel="stylesheet" href="/w/load.php?debug=false&amp;amp;lang=ru&amp;amp;modules=noscript&amp;amp;only=styles&amp;amp;skin=vector"/&gt;</t>
@@ -1658,45 +1655,6 @@
     <t>Головачёв</t>
   </si>
   <si>
-    <t>Гордов В.Н.</t>
-  </si>
-  <si>
-    <t>Гришин И.Т.</t>
-  </si>
-  <si>
-    <t>Жадов А.С.</t>
-  </si>
-  <si>
-    <t>Колпакчи В.Я.</t>
-  </si>
-  <si>
-    <t>Коротеев К.А.</t>
-  </si>
-  <si>
-    <t>Красовский С.А.</t>
-  </si>
-  <si>
-    <t>Кузнецов В.И</t>
-  </si>
-  <si>
-    <t>Лучинский А.А.</t>
-  </si>
-  <si>
-    <t>Поплавский С.Г.</t>
-  </si>
-  <si>
-    <t>Попов В.С.</t>
-  </si>
-  <si>
-    <t>Пухов Н.П.</t>
-  </si>
-  <si>
-    <t>Сверчевский К.К.</t>
-  </si>
-  <si>
-    <t>Федюнинский И.И.</t>
-  </si>
-  <si>
     <t>Цветаев</t>
   </si>
   <si>
@@ -1904,9 +1862,6 @@
 </t>
   </si>
   <si>
-    <t>Катуков Михаил Ефимович</t>
-  </si>
-  <si>
     <t>Клубов</t>
   </si>
   <si>
@@ -1937,9 +1892,6 @@
     <t>Колдунов</t>
   </si>
   <si>
-    <t>Конев Иван Степанович</t>
-  </si>
-  <si>
     <t>16 (28).12.1897</t>
   </si>
   <si>
@@ -2204,9 +2156,6 @@
     <t>Командующий 69-й армией</t>
   </si>
   <si>
-    <t>Командующий 1-м Украинским фронтом</t>
-  </si>
-  <si>
     <t>Командующий 1-й армией Войска Польского</t>
   </si>
   <si>
@@ -2325,6 +2274,249 @@
   </si>
   <si>
     <t xml:space="preserve">Чуйков </t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/15/Vasily_Ivanovich_Chuikov.jpg/250px-Vasily_Ivanovich_Chuikov.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/ru/thumb/7/7b/Fedyuninskiy.jpg/270px-Fedyuninskiy.jpg</t>
+  </si>
+  <si>
+    <t>Федюнинский</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/ru/thumb/4/40/Pavel_Rybalko.jpg/170px-Pavel_Rybalko.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/ru/thumb/9/9b/Перхорович_Франц_Иосифович.jpg/239px-Перхорович_Франц_Иосифович.jpg</t>
+  </si>
+  <si>
+    <t>Гордов</t>
+  </si>
+  <si>
+    <t>Гришин</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Колпакчи </t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/ru/9/93/Колпакчи%2C_Владимир_Яковлевич.jpg</t>
+  </si>
+  <si>
+    <t>26.08 (07.09).1899</t>
+  </si>
+  <si>
+    <t>Катуков</t>
+  </si>
+  <si>
+    <t>Попов</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/5/5a/Генерал-полковник_Попов_Василий_Степанович.jpg</t>
+  </si>
+  <si>
+    <t>Вячеслав</t>
+  </si>
+  <si>
+    <t>5 (17).01.1893</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/ff/Alexander_Novikov%2C_1943.jpg/274px-Alexander_Novikov%2C_1943.jpg</t>
+  </si>
+  <si>
+    <t>3 (15).01.1894</t>
+  </si>
+  <si>
+    <t>с. Усть-Усолка Соликамского уезда Пермской губернии</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/ru/thumb/5/56/Василий_Иванович_Кузнецов.jpg/470px-Василий_Иванович_Кузнецов.jpg</t>
+  </si>
+  <si>
+    <t>Кароль</t>
+  </si>
+  <si>
+    <t>Карлович</t>
+  </si>
+  <si>
+    <t>Сверчевский</t>
+  </si>
+  <si>
+    <t>Павлович</t>
+  </si>
+  <si>
+    <t>Станислав</t>
+  </si>
+  <si>
+    <t>Гилярович</t>
+  </si>
+  <si>
+    <t>Поплавский</t>
+  </si>
+  <si>
+    <t>9 (22).04.1902</t>
+  </si>
+  <si>
+    <t>26.12.1893 (08.01.1894)</t>
+  </si>
+  <si>
+    <t>Пухов</t>
+  </si>
+  <si>
+    <t>13 (25).01.1895</t>
+  </si>
+  <si>
+    <t>Акимович</t>
+  </si>
+  <si>
+    <t>20.08.1897</t>
+  </si>
+  <si>
+    <t>с. Глухи, Быховский уезд, Могилёвская губерния, Российская империя</t>
+  </si>
+  <si>
+    <t>Аполлонович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коротеев </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лучинский </t>
+  </si>
+  <si>
+    <t>10 (23).03.1900</t>
+  </si>
+  <si>
+    <t>Киев, Российская империя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красовский </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жадов </t>
+  </si>
+  <si>
+    <t>17 (30).03.1901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дегтярев </t>
+  </si>
+  <si>
+    <t>деревня Пахотино, Российская империя</t>
+  </si>
+  <si>
+    <t>21.03.1891</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/ru/thumb/f/f8/AVGorbatov.jpg/408px-AVGorbatov.jpg</t>
+  </si>
+  <si>
+    <t>с. Матвеевка, Мензелинский уезд, Уфимская губерния, Российская империя</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/ru/7/74/Гордов%2C_Василий_Николаевич.jpg</t>
+  </si>
+  <si>
+    <t>Никольское, Орловский уезд, Орловская губерния, Российская империя</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/ru/6/6d/Жадов_А.С.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/3/34/Генерал-полковник_Гришин_Иван_Тихонович.jpg</t>
+  </si>
+  <si>
+    <t>19.11 (01.12).1896</t>
+  </si>
+  <si>
+    <t>Стрелковка, Малоярославецкий уезд, Калужская губерния, Российская империя</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/43/Zhukov-LIFE-1944-1945.jpg</t>
+  </si>
+  <si>
+    <t>4 (17).09.1900</t>
+  </si>
+  <si>
+    <t>Большое Уварово, Московская губерния, Российская империя</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/40/Михаил_Ефимович_Катуков.jpg</t>
+  </si>
+  <si>
+    <t>д. Лодейно, Щеткинская волость, Никольский уезд, Вологодская губерния, Российская империя</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Ivan_Stepanovich_Konev.jpg/800px-Ivan_Stepanovich_Konev.jpg</t>
+  </si>
+  <si>
+    <t>пос. Щегловка, Богодуховский уезд, Харьковская губерния, Российская империя</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/ru/8/87/KoroteevKonstApoll.jpg</t>
+  </si>
+  <si>
+    <t>18 (30).11.1899</t>
+  </si>
+  <si>
+    <t>х. Сулимин, Полтавская губерния, Российская империя</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/ru/7/72/Kravchenko_ag.jpg</t>
+  </si>
+  <si>
+    <t>с. Голяевка, Тамалинская волость, Балашовский уезд, Саратовская губерния, Российская империя</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/ru/c/c5/KrylovNikIv.jpg</t>
+  </si>
+  <si>
+    <t>Малоархангельск, Орловская губерния, Российская империя</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/ru/thumb/8/88/Цветаев%2C_Вячеслав_Дмитриевич.jpg/800px-Цветаев%2C_Вячеслав_Дмитриевич.jpg</t>
+  </si>
+  <si>
+    <t>дер. Гилёва, Успенская волость, Тюменский уезд, Тобольская губерния, Российская империя</t>
+  </si>
+  <si>
+    <t>22 (10).02.1897</t>
+  </si>
+  <si>
+    <t>Варшава, Царство Польское, Российская империя</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/ru/a/af/Сверчевский%2C_Кароль_Карлович.jpg</t>
+  </si>
+  <si>
+    <t>с. Малый Выстороп, Лебединский уезд, Харьковская губерния, Российская империя</t>
+  </si>
+  <si>
+    <t>9 (21).12.1896</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/ba/Konstanty_Rokossowski%2C_1945.jpg/800px-Konstanty_Rokossowski%2C_1945.jpg</t>
+  </si>
+  <si>
+    <t>с. Гришово, Тырновская волость, Перемышльский уезд, Калужская губерния, Российская империя</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6e/Nikolay_Pukhov_in_the_1950s.jpg/800px-Nikolay_Pukhov_in_the_1950s.jpg</t>
+  </si>
+  <si>
+    <t>с. Малокирсановка, Область Войска Донского, Российская империя</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/c/c2/Pavel_Kutakhov_4.jpg</t>
+  </si>
+  <si>
+    <t>с. Вендичаны, Могилёвский уезд, Подольская губерния, Российская империя</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/a0/Stanislav_Poplavsky.jpg</t>
   </si>
 </sst>
 </file>
@@ -2398,7 +2590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2417,9 +2609,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3094,11 +3283,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:P149"/>
+  <dimension ref="A1:P146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J132" sqref="J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3121,3534 +3310,3797 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
-        <v>99</v>
-      </c>
       <c r="E1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N1" t="s">
+        <v>363</v>
+      </c>
+      <c r="O1" t="s">
         <v>364</v>
       </c>
-      <c r="O1" t="s">
-        <v>365</v>
-      </c>
       <c r="P1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="129" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>321</v>
+        <v>468</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>469</v>
       </c>
       <c r="D2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E2" s="11">
-        <v>4786</v>
+        <v>470</v>
+      </c>
+      <c r="E2" s="10">
+        <v>8428</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>325</v>
+        <v>566</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>328</v>
+        <v>493</v>
       </c>
       <c r="K2" s="3">
         <v>30210</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O2" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="P2" t="s">
         <v>452</v>
-      </c>
-      <c r="P2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="157.5" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>309</v>
+        <v>471</v>
       </c>
       <c r="C3" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E3" s="11">
-        <v>6186</v>
+        <v>255</v>
+      </c>
+      <c r="E3" s="10">
+        <v>7395</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>606</v>
+        <v>567</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>311</v>
+        <v>493</v>
       </c>
       <c r="K3" s="3">
         <v>15906</v>
       </c>
       <c r="L3" t="s">
+        <v>444</v>
+      </c>
+      <c r="N3" t="s">
         <v>445</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>447</v>
-      </c>
       <c r="P3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="210" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>363</v>
-      </c>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>151</v>
+        <v>472</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>162</v>
+        <v>473</v>
+      </c>
+      <c r="E4" s="10">
+        <v>7599</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>163</v>
+        <v>568</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>164</v>
+        <v>357</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>155</v>
+        <v>493</v>
       </c>
       <c r="K4" s="3">
         <v>22443</v>
       </c>
       <c r="L4" t="s">
+        <v>391</v>
+      </c>
+      <c r="N4" t="s">
         <v>392</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>393</v>
       </c>
-      <c r="O4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>190</v>
+        <v>474</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="11">
-        <v>2683</v>
+        <v>166</v>
+      </c>
+      <c r="E5" s="10">
+        <v>7531</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>15</v>
+        <v>569</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>194</v>
+        <v>357</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>197</v>
+        <v>493</v>
       </c>
       <c r="K5" s="3">
         <v>15153</v>
       </c>
       <c r="L5" t="s">
+        <v>398</v>
+      </c>
+      <c r="N5" t="s">
         <v>399</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="P5" t="s">
         <v>401</v>
-      </c>
-      <c r="P5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="86.25" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>228</v>
+        <v>475</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>476</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E6" s="11">
-        <v>5623</v>
+        <v>477</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>570</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>229</v>
+        <v>571</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>231</v>
+        <v>493</v>
       </c>
       <c r="K6" s="3">
         <v>15955</v>
       </c>
       <c r="L6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N6" t="s">
         <v>415</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" s="8" t="s">
         <v>416</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="100.5" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>279</v>
+        <v>478</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>479</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>282</v>
+        <v>572</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>283</v>
+        <v>573</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>281</v>
+        <v>575</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>285</v>
+        <v>493</v>
       </c>
       <c r="K7" s="3">
         <v>18834</v>
       </c>
       <c r="L7" t="s">
+        <v>433</v>
+      </c>
+      <c r="N7" t="s">
+        <v>433</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>434</v>
-      </c>
-      <c r="N7" t="s">
-        <v>434</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="143.25" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>287</v>
+        <v>480</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>481</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="11">
-        <v>3405</v>
+        <v>482</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>576</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>290</v>
+        <v>577</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>293</v>
+        <v>493</v>
       </c>
       <c r="K8" s="3">
         <v>34087</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O8" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="P8" t="s">
         <v>436</v>
       </c>
-      <c r="P8" t="s">
-        <v>437</v>
-      </c>
     </row>
     <row r="9" spans="1:16" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>363</v>
-      </c>
       <c r="B9" s="9" t="s">
-        <v>1</v>
+        <v>483</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>112</v>
+        <v>484</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>578</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>106</v>
+        <v>579</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>114</v>
+        <v>493</v>
       </c>
       <c r="K9" s="3">
         <v>17914</v>
       </c>
       <c r="L9" t="s">
+        <v>367</v>
+      </c>
+      <c r="N9" t="s">
+        <v>367</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="N9" t="s">
-        <v>368</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>369</v>
-      </c>
       <c r="P9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>363</v>
-      </c>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>178</v>
+        <v>485</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>486</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1467</v>
+        <v>166</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>580</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>131</v>
+        <v>581</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>183</v>
+        <v>493</v>
       </c>
       <c r="K10" s="3">
         <v>28403</v>
       </c>
       <c r="L10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O10" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="P10" t="s">
         <v>395</v>
       </c>
-      <c r="P10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" ht="72" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>101</v>
+        <v>485</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>634</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>157</v>
+        <v>166</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>688</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>158</v>
+        <v>689</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>159</v>
+        <v>684</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>161</v>
+        <v>544</v>
       </c>
       <c r="K11" s="3">
         <v>27198</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N11" t="s">
+        <v>384</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="O11" s="8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>239</v>
+        <v>487</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>488</v>
       </c>
       <c r="D12" t="s">
-        <v>241</v>
-      </c>
-      <c r="E12" s="11">
-        <v>3660</v>
+        <v>489</v>
+      </c>
+      <c r="E12" s="10">
+        <v>8253</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>242</v>
+        <v>582</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>243</v>
+        <v>357</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>246</v>
+        <v>493</v>
       </c>
       <c r="K12" s="3">
         <v>15659</v>
       </c>
       <c r="L12" t="s">
+        <v>419</v>
+      </c>
+      <c r="N12" t="s">
         <v>420</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" s="8" t="s">
         <v>421</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="143.25" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>315</v>
+        <v>490</v>
       </c>
       <c r="C13" t="s">
-        <v>310</v>
+        <v>491</v>
       </c>
       <c r="D13" t="s">
-        <v>316</v>
-      </c>
-      <c r="E13" s="11">
-        <v>6102</v>
+        <v>492</v>
+      </c>
+      <c r="E13" s="10">
+        <v>7534</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>317</v>
+        <v>584</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>603</v>
+        <v>357</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>320</v>
+        <v>493</v>
       </c>
       <c r="K13" s="3">
         <v>15231</v>
       </c>
       <c r="L13" t="s">
+        <v>447</v>
+      </c>
+      <c r="N13" t="s">
         <v>448</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="P13" t="s">
         <v>450</v>
       </c>
-      <c r="P13" t="s">
-        <v>451</v>
-      </c>
     </row>
     <row r="14" spans="1:16" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>363</v>
-      </c>
       <c r="B14" s="9" t="s">
-        <v>135</v>
+        <v>494</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>132</v>
+        <v>495</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>141</v>
+        <v>493</v>
       </c>
       <c r="K14" s="3">
         <v>28895</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="157.5" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>337</v>
+        <v>710</v>
       </c>
       <c r="C15" t="s">
-        <v>338</v>
+        <v>634</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="11">
-        <v>10876</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>339</v>
+        <v>110</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>711</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>602</v>
+        <v>685</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>342</v>
+        <v>544</v>
       </c>
       <c r="K15" s="3">
         <v>16203</v>
       </c>
       <c r="L15" t="s">
+        <v>456</v>
+      </c>
+      <c r="N15" t="s">
+        <v>456</v>
+      </c>
+      <c r="O15" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="N15" t="s">
-        <v>457</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>100</v>
+        <v>496</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" s="11">
-        <v>7465</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>133</v>
+        <v>497</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>143</v>
+        <v>493</v>
       </c>
       <c r="K16" s="3">
         <v>33397</v>
       </c>
       <c r="L16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O16" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P16" t="s">
         <v>383</v>
-      </c>
-      <c r="P16" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="86.25" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>198</v>
+        <v>712</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="11">
-        <v>8348</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>201</v>
+        <v>713</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>714</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>202</v>
+        <v>686</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>205</v>
+        <v>544</v>
       </c>
       <c r="K17" s="3">
         <v>16320</v>
       </c>
       <c r="L17" t="s">
+        <v>402</v>
+      </c>
+      <c r="N17" t="s">
         <v>403</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="O17" s="8" t="s">
-        <v>405</v>
-      </c>
       <c r="P17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="86.25" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="C18" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="11">
-        <v>4377</v>
+        <v>322</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4786</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>605</v>
+        <v>323</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>262</v>
+        <v>324</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>263</v>
+        <v>326</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="K18" s="3">
         <v>16015</v>
       </c>
       <c r="L18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>329</v>
+        <v>498</v>
       </c>
       <c r="C19" t="s">
-        <v>330</v>
+        <v>499</v>
       </c>
       <c r="D19" t="s">
-        <v>331</v>
-      </c>
-      <c r="E19" s="11">
-        <v>8657</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>333</v>
+        <v>126</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>336</v>
+        <v>493</v>
       </c>
       <c r="K19" s="3">
         <v>15309</v>
       </c>
       <c r="L19" t="s">
+        <v>454</v>
+      </c>
+      <c r="O19" s="8" t="s">
         <v>455</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="171.75" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>343</v>
+        <v>715</v>
       </c>
       <c r="C20" t="s">
-        <v>344</v>
+        <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>345</v>
-      </c>
-      <c r="E20" s="11">
-        <v>11000</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>346</v>
+        <v>126</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>716</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>347</v>
+        <v>687</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>350</v>
+        <v>544</v>
       </c>
       <c r="K20" s="3">
         <v>16119</v>
       </c>
       <c r="L20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N20" t="s">
+        <v>458</v>
+      </c>
+      <c r="O20" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="O20" s="8" t="s">
-        <v>460</v>
-      </c>
     </row>
     <row r="21" spans="1:16" ht="72" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>363</v>
-      </c>
       <c r="B21" s="9" t="s">
-        <v>128</v>
+        <v>675</v>
       </c>
       <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
         <v>116</v>
       </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>126</v>
+      <c r="E21" s="10">
+        <v>150</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>129</v>
+        <v>676</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>131</v>
+        <v>674</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>125</v>
+        <v>544</v>
       </c>
       <c r="K21" s="3">
         <v>14910</v>
       </c>
       <c r="L21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="171.75" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>273</v>
+        <v>500</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="D22" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="11">
-        <v>4226</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>277</v>
+        <v>501</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>274</v>
+        <v>493</v>
       </c>
       <c r="K22" s="3">
         <v>16140</v>
       </c>
       <c r="L22" t="s">
+        <v>431</v>
+      </c>
+      <c r="N22" t="s">
         <v>432</v>
       </c>
-      <c r="N22" t="s">
-        <v>433</v>
-      </c>
       <c r="O22" s="8" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="100.5" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>248</v>
+        <v>502</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>250</v>
-      </c>
-      <c r="E23" s="11">
-        <v>21400</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>252</v>
+        <v>503</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>251</v>
+        <v>493</v>
       </c>
       <c r="K23" s="3">
         <v>15386</v>
       </c>
       <c r="L23" t="s">
+        <v>422</v>
+      </c>
+      <c r="N23" t="s">
+        <v>422</v>
+      </c>
+      <c r="O23" s="8" t="s">
         <v>423</v>
-      </c>
-      <c r="N23" t="s">
-        <v>423</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="200.25" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>302</v>
+        <v>504</v>
       </c>
       <c r="C24" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="D24" t="s">
-        <v>304</v>
-      </c>
-      <c r="E24" s="11">
-        <v>7901</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>305</v>
+        <v>505</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>306</v>
+        <v>493</v>
       </c>
       <c r="K24" s="3">
         <v>15919</v>
       </c>
       <c r="L24" t="s">
+        <v>442</v>
+      </c>
+      <c r="N24" t="s">
+        <v>441</v>
+      </c>
+      <c r="O24" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="N24" t="s">
-        <v>442</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>444</v>
-      </c>
       <c r="P24" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>363</v>
-      </c>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="57.75" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
-        <v>120</v>
+        <v>506</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>507</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="11">
-        <v>1421</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>119</v>
+        <v>508</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>123</v>
+        <v>493</v>
       </c>
       <c r="K25" s="3">
         <v>14912</v>
       </c>
       <c r="L25" t="s">
+        <v>370</v>
+      </c>
+      <c r="N25" t="s">
         <v>371</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="O25" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="P25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="72" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>363</v>
-      </c>
       <c r="B26" s="9" t="s">
-        <v>184</v>
+        <v>308</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>309</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" s="11">
-        <v>32552</v>
+        <v>312</v>
+      </c>
+      <c r="E26" s="10">
+        <v>6186</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>15</v>
+        <v>592</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>131</v>
+        <v>304</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>189</v>
+        <v>310</v>
       </c>
       <c r="K26" s="3">
         <v>18168</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O26" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="P26" t="s">
         <v>397</v>
       </c>
-      <c r="P26" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:16" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>191</v>
+        <v>509</v>
       </c>
       <c r="C27" t="s">
-        <v>214</v>
+        <v>510</v>
       </c>
       <c r="D27" t="s">
-        <v>215</v>
-      </c>
-      <c r="E27" s="11">
-        <v>5985</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>194</v>
+        <v>511</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>219</v>
+        <v>493</v>
       </c>
       <c r="K27" s="3">
         <v>37029</v>
       </c>
       <c r="L27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N27" t="s">
+        <v>409</v>
+      </c>
+      <c r="O27" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="O27" s="8" t="s">
-        <v>411</v>
-      </c>
       <c r="P27" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="57.75" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>148</v>
+        <v>512</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>513</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="11">
-        <v>4764</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>389</v>
+        <v>493</v>
       </c>
       <c r="K28" s="3">
         <v>23340</v>
       </c>
       <c r="L28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="129" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>206</v>
+        <v>718</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="D29" t="s">
-        <v>208</v>
-      </c>
-      <c r="E29" s="11">
-        <v>8802</v>
+        <v>717</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>719</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>209</v>
+        <v>720</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>210</v>
+        <v>690</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>213</v>
+        <v>544</v>
       </c>
       <c r="K29" s="3">
         <v>15764</v>
       </c>
       <c r="L29" t="s">
+        <v>406</v>
+      </c>
+      <c r="N29" t="s">
+        <v>405</v>
+      </c>
+      <c r="O29" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="N29" t="s">
-        <v>406</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="57.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:16" ht="210" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>362</v>
+      </c>
       <c r="B30" s="9" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="11">
-        <v>738</v>
+        <v>152</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>226</v>
+        <v>153</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="K30" s="3">
         <v>29587</v>
       </c>
       <c r="L30" t="s">
+        <v>411</v>
+      </c>
+      <c r="N30" t="s">
         <v>412</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="O30" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:16" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
-        <v>294</v>
+        <v>514</v>
       </c>
       <c r="C31" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="D31" t="s">
-        <v>296</v>
-      </c>
-      <c r="E31" s="11">
-        <v>6038</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>298</v>
+        <v>116</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>301</v>
+        <v>493</v>
       </c>
       <c r="K31" s="3">
         <v>27329</v>
       </c>
       <c r="L31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N31" t="s">
+        <v>439</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="P31" t="s">
         <v>440</v>
       </c>
-      <c r="O31" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="P31" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="240" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:16" ht="186" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>357</v>
+        <v>515</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" s="11">
-        <v>4814</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>358</v>
+        <v>516</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>361</v>
+        <v>493</v>
       </c>
       <c r="K32" s="3">
         <v>31364</v>
       </c>
       <c r="L32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N32" t="s">
+        <v>465</v>
+      </c>
+      <c r="O32" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="O32" s="8" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="171.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:16" ht="171.75" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
-        <v>351</v>
+        <v>517</v>
       </c>
       <c r="C33" t="s">
-        <v>267</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>352</v>
-      </c>
-      <c r="E33" s="11">
-        <v>9548</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>333</v>
+        <v>110</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>356</v>
+        <v>493</v>
       </c>
       <c r="K33" s="3">
         <v>16263</v>
       </c>
       <c r="L33" t="s">
+        <v>461</v>
+      </c>
+      <c r="N33" t="s">
+        <v>463</v>
+      </c>
+      <c r="O33" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="N33" t="s">
-        <v>464</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="157.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:16" ht="157.5" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
-        <v>266</v>
+        <v>518</v>
       </c>
       <c r="C34" t="s">
-        <v>267</v>
+        <v>519</v>
       </c>
       <c r="D34" t="s">
-        <v>268</v>
-      </c>
-      <c r="E34" s="11">
-        <v>9054</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>601</v>
+        <v>255</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>272</v>
+        <v>493</v>
       </c>
       <c r="K34" s="3">
         <v>16098</v>
       </c>
       <c r="L34" t="s">
+        <v>428</v>
+      </c>
+      <c r="N34" t="s">
+        <v>430</v>
+      </c>
+      <c r="O34" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="N34" t="s">
-        <v>431</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:16" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>145</v>
+        <v>520</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
+        <v>521</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="11">
-        <v>215</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>169</v>
+        <v>522</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>171</v>
+        <v>493</v>
       </c>
       <c r="K35" s="3">
         <v>36848</v>
       </c>
       <c r="L35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N35" t="s">
+        <v>386</v>
+      </c>
+      <c r="O35" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="O35" s="8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="57.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:16" ht="57.75" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>254</v>
+        <v>523</v>
       </c>
       <c r="C36" t="s">
-        <v>255</v>
+        <v>524</v>
       </c>
       <c r="D36" t="s">
-        <v>256</v>
-      </c>
-      <c r="E36" s="11">
-        <v>6836</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>194</v>
+        <v>525</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>259</v>
+        <v>493</v>
       </c>
       <c r="K36" s="3">
         <v>15276</v>
       </c>
       <c r="L36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N36" t="s">
+        <v>425</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="P36" t="s">
         <v>426</v>
       </c>
-      <c r="O36" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="P36" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:16" ht="45" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="C37" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
-        <v>235</v>
-      </c>
-      <c r="E37" s="11">
-        <v>1031</v>
+        <v>192</v>
+      </c>
+      <c r="E37" s="10">
+        <v>2683</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>236</v>
+        <v>14</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="K37" s="3">
         <v>16097</v>
       </c>
       <c r="L37" t="s">
+        <v>228</v>
+      </c>
+      <c r="N37" t="s">
+        <v>417</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38" s="10">
+        <v>5623</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="N37" t="s">
-        <v>418</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>363</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>108</v>
+      <c r="I38" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="K38" s="3">
         <v>18334</v>
       </c>
       <c r="L38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N38" t="s">
+        <v>365</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="P38" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="C39" t="s">
-        <v>470</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>471</v>
-      </c>
-      <c r="E39" s="11">
-        <v>8428</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>580</v>
+        <v>527</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="C40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" t="s">
+        <v>529</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" t="s">
+        <v>279</v>
+      </c>
+      <c r="D41" t="s">
         <v>214</v>
       </c>
-      <c r="D40" t="s">
-        <v>256</v>
-      </c>
-      <c r="E40" s="11">
-        <v>7395</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="C41" t="s">
-        <v>474</v>
-      </c>
-      <c r="E41" s="11">
-        <v>7599</v>
+      <c r="E41" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>582</v>
+        <v>282</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>358</v>
+        <v>280</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="C42" t="s">
+        <v>513</v>
+      </c>
+      <c r="D42" t="s">
         <v>110</v>
       </c>
-      <c r="D42" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" s="11">
-        <v>7531</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>358</v>
-      </c>
       <c r="H42" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="C43" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="D43" t="s">
-        <v>478</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>588</v>
+        <v>508</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="C44" t="s">
-        <v>480</v>
+        <v>254</v>
       </c>
       <c r="D44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="C45" t="s">
-        <v>482</v>
+        <v>254</v>
       </c>
       <c r="D45" t="s">
-        <v>483</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
-        <v>484</v>
+        <v>721</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>485</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>592</v>
+        <v>255</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>781</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>593</v>
+        <v>780</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>691</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>494</v>
+        <v>544</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>782</v>
       </c>
       <c r="K46" s="3">
         <v>30215</v>
       </c>
       <c r="L46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>486</v>
+        <v>742</v>
       </c>
       <c r="C47" t="s">
-        <v>487</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>594</v>
+        <v>116</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>724</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>595</v>
+        <v>783</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>692</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>494</v>
+        <v>544</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>784</v>
       </c>
       <c r="K47" s="3">
         <v>31156</v>
       </c>
       <c r="L47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
-        <v>488</v>
+        <v>535</v>
       </c>
       <c r="C48" t="s">
-        <v>489</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>490</v>
-      </c>
-      <c r="E48" s="11">
-        <v>8253</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>358</v>
+        <v>536</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K48" s="3">
         <v>41953</v>
       </c>
       <c r="L48" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="C49" t="s">
-        <v>492</v>
+        <v>191</v>
       </c>
       <c r="D49" t="s">
+        <v>166</v>
+      </c>
+      <c r="H49" s="9" t="s">
         <v>493</v>
-      </c>
-      <c r="E49" s="11">
-        <v>7534</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>494</v>
       </c>
       <c r="K49" s="3">
         <v>28120</v>
       </c>
       <c r="L49" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C50" t="s">
+        <v>260</v>
+      </c>
+      <c r="D50" t="s">
+        <v>539</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" t="s">
+        <v>185</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C52" t="s">
+        <v>287</v>
+      </c>
+      <c r="D52" t="s">
+        <v>288</v>
+      </c>
+      <c r="E52" s="10">
+        <v>3405</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" t="s">
+        <v>166</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="C54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" t="s">
+        <v>725</v>
+      </c>
+      <c r="E54" s="10">
+        <v>716</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="C55" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" t="s">
+        <v>344</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C56" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" t="s">
+        <v>543</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C57" t="s">
+        <v>546</v>
+      </c>
+      <c r="D57" t="s">
+        <v>547</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>362</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" t="s">
+        <v>549</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C60" t="s">
+        <v>469</v>
+      </c>
+      <c r="D60" t="s">
+        <v>344</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="C61" t="s">
+        <v>552</v>
+      </c>
+      <c r="D61" t="s">
+        <v>553</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="C62" t="s">
+        <v>555</v>
+      </c>
+      <c r="D62" t="s">
+        <v>110</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="C63" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" t="s">
+        <v>557</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>362</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" s="10">
+        <v>1467</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C65" t="s">
+        <v>513</v>
+      </c>
+      <c r="D65" t="s">
+        <v>116</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" t="s">
+        <v>240</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="C67" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" t="s">
+        <v>661</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B68" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" t="s">
+        <v>155</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" t="s">
+        <v>155</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C70" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" t="s">
+        <v>344</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B71" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" t="s">
+        <v>239</v>
+      </c>
+      <c r="D71" t="s">
+        <v>240</v>
+      </c>
+      <c r="E71" s="10">
+        <v>3660</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="C72" t="s">
+        <v>248</v>
+      </c>
+      <c r="D72" t="s">
+        <v>255</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B73" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C73" t="s">
+        <v>309</v>
+      </c>
+      <c r="D73" t="s">
+        <v>315</v>
+      </c>
+      <c r="E73" s="10">
+        <v>6102</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C74" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" t="s">
+        <v>240</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>362</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C76" t="s">
+        <v>337</v>
+      </c>
+      <c r="D76" t="s">
+        <v>166</v>
+      </c>
+      <c r="E76" s="10">
+        <v>10876</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="C77" t="s">
+        <v>486</v>
+      </c>
+      <c r="D77" t="s">
+        <v>185</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C78" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" t="s">
+        <v>565</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B79" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="C79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" t="s">
+        <v>650</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="9" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="C50" t="s">
-        <v>179</v>
-      </c>
-      <c r="D50" t="s">
-        <v>496</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="C80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D80" t="s">
+        <v>511</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="C81" t="s">
+        <v>602</v>
+      </c>
+      <c r="D81" t="s">
+        <v>603</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B82" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" t="s">
+        <v>172</v>
+      </c>
+      <c r="E82" s="10">
+        <v>7465</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C83" t="s">
+        <v>499</v>
+      </c>
+      <c r="D83" t="s">
+        <v>539</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C84" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" t="s">
+        <v>166</v>
+      </c>
+      <c r="E84" s="12">
+        <v>8664</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B85" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="C85" t="s">
+        <v>744</v>
+      </c>
+      <c r="D85" t="s">
+        <v>508</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B86" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" t="s">
+        <v>198</v>
+      </c>
+      <c r="D86" t="s">
+        <v>199</v>
+      </c>
+      <c r="E86" s="10">
+        <v>8348</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B87" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="C87" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" t="s">
+        <v>635</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B88" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" t="s">
+        <v>260</v>
+      </c>
+      <c r="D88" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" s="10">
+        <v>4377</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B89" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="C89" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" t="s">
+        <v>771</v>
+      </c>
+      <c r="E89" s="10">
+        <v>422</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B90" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C90" t="s">
+        <v>329</v>
+      </c>
+      <c r="D90" t="s">
+        <v>330</v>
+      </c>
+      <c r="E90" s="10">
+        <v>8657</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="B91" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C91" t="s">
+        <v>343</v>
+      </c>
+      <c r="D91" t="s">
+        <v>344</v>
+      </c>
+      <c r="E91" s="10">
+        <v>11000</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C92" t="s">
+        <v>611</v>
+      </c>
+      <c r="D92" t="s">
+        <v>612</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>362</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="C94" t="s">
+        <v>620</v>
+      </c>
+      <c r="D94" t="s">
+        <v>621</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B95" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="C95" t="s">
+        <v>618</v>
+      </c>
+      <c r="D95" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B96" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="C96" t="s">
+        <v>476</v>
+      </c>
+      <c r="D96" t="s">
+        <v>768</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B97" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C97" t="s">
+        <v>476</v>
+      </c>
+      <c r="D97" t="s">
+        <v>166</v>
+      </c>
+      <c r="E97" s="10">
+        <v>7299</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C98" t="s">
+        <v>191</v>
+      </c>
+      <c r="D98" t="s">
+        <v>166</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B99" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C99" t="s">
+        <v>191</v>
+      </c>
+      <c r="D99" t="s">
+        <v>166</v>
+      </c>
+      <c r="E99" s="10">
+        <v>4226</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C100" t="s">
+        <v>629</v>
+      </c>
+      <c r="D100" t="s">
+        <v>255</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B101" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C101" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101" t="s">
+        <v>166</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B102" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C102" t="s">
+        <v>248</v>
+      </c>
+      <c r="D102" t="s">
+        <v>249</v>
+      </c>
+      <c r="E102" s="10">
+        <v>21400</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B103" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="C103" t="s">
+        <v>633</v>
+      </c>
+      <c r="D103" t="s">
+        <v>533</v>
+      </c>
+      <c r="E103" s="10">
+        <v>7947</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B104" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="C104" t="s">
+        <v>634</v>
+      </c>
+      <c r="D104" t="s">
+        <v>635</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B105" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="C105" t="s">
+        <v>469</v>
+      </c>
+      <c r="D105" t="s">
+        <v>543</v>
+      </c>
+      <c r="E105" s="10">
+        <v>7077</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B106" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="C106" t="s">
+        <v>641</v>
+      </c>
+      <c r="D106" t="s">
+        <v>640</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="C107" t="s">
+        <v>254</v>
+      </c>
+      <c r="D107" t="s">
+        <v>116</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B108" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C108" t="s">
+        <v>302</v>
+      </c>
+      <c r="D108" t="s">
+        <v>303</v>
+      </c>
+      <c r="E108" s="10">
+        <v>7901</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>362</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E109" s="10">
+        <v>1421</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="C110" t="s">
+        <v>135</v>
+      </c>
+      <c r="D110" t="s">
+        <v>640</v>
+      </c>
+      <c r="E110" s="10">
+        <v>6849</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B111" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="C111" t="s">
+        <v>165</v>
+      </c>
+      <c r="D111" t="s">
+        <v>344</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="C112" t="s">
+        <v>213</v>
+      </c>
+      <c r="D112" t="s">
+        <v>650</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>362</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C113" t="s">
+        <v>184</v>
+      </c>
+      <c r="D113" t="s">
+        <v>185</v>
+      </c>
+      <c r="E113" s="10">
+        <v>32552</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B114" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C114" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" t="s">
+        <v>240</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B115" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="C115" t="s">
+        <v>653</v>
+      </c>
+      <c r="D115" t="s">
+        <v>508</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B116" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C116" t="s">
+        <v>213</v>
+      </c>
+      <c r="D116" t="s">
+        <v>214</v>
+      </c>
+      <c r="E116" s="10">
+        <v>5985</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B117" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C117" t="s">
+        <v>165</v>
+      </c>
+      <c r="D117" t="s">
+        <v>166</v>
+      </c>
+      <c r="E117" s="10">
+        <v>4764</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B118" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="C118" t="s">
+        <v>171</v>
+      </c>
+      <c r="D118" t="s">
+        <v>657</v>
+      </c>
+      <c r="E118" s="10">
+        <v>7551</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B119" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="C119" t="s">
+        <v>165</v>
+      </c>
+      <c r="D119" t="s">
+        <v>492</v>
+      </c>
+      <c r="E119" s="10">
+        <v>7484</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B120" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="C120" t="s">
+        <v>555</v>
+      </c>
+      <c r="D120" t="s">
+        <v>661</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B121" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C121" t="s">
+        <v>206</v>
+      </c>
+      <c r="D121" t="s">
+        <v>207</v>
+      </c>
+      <c r="E121" s="10">
+        <v>8802</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B122" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="C122" t="s">
+        <v>620</v>
+      </c>
+      <c r="D122" t="s">
+        <v>185</v>
+      </c>
+      <c r="E122" s="10">
+        <v>7085</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B123" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="C123" t="s">
+        <v>109</v>
+      </c>
+      <c r="D123" t="s">
+        <v>126</v>
+      </c>
+      <c r="E123" s="10">
+        <v>8399</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B124" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="C124" t="s">
+        <v>507</v>
+      </c>
+      <c r="D124" t="s">
+        <v>155</v>
+      </c>
+      <c r="E124" s="10">
+        <v>8429</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B125" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C125" t="s">
+        <v>165</v>
+      </c>
+      <c r="D125" t="s">
+        <v>344</v>
+      </c>
+      <c r="E125" s="12">
+        <v>324</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B126" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="C126" t="s">
+        <v>115</v>
+      </c>
+      <c r="D126" t="s">
+        <v>214</v>
+      </c>
+      <c r="E126" s="10">
+        <v>7993</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B127" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C127" t="s">
+        <v>220</v>
+      </c>
+      <c r="D127" t="s">
+        <v>126</v>
+      </c>
+      <c r="E127" s="10">
+        <v>738</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B128" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C128" t="s">
+        <v>294</v>
+      </c>
+      <c r="D128" t="s">
+        <v>295</v>
+      </c>
+      <c r="E128" s="10">
+        <v>6038</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B129" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="C129" t="s">
+        <v>727</v>
+      </c>
+      <c r="D129" t="s">
+        <v>728</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B130" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C130" t="s">
+        <v>681</v>
+      </c>
+      <c r="D130" t="s">
+        <v>650</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="B131" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C131" t="s">
+        <v>165</v>
+      </c>
+      <c r="D131" t="s">
+        <v>166</v>
+      </c>
+      <c r="E131" s="10">
+        <v>4814</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B132" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="C132" t="s">
+        <v>761</v>
+      </c>
+      <c r="D132" t="s">
+        <v>762</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B133" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="C133" t="s">
+        <v>109</v>
+      </c>
+      <c r="D133" t="s">
+        <v>635</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B134" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C134" t="s">
+        <v>266</v>
+      </c>
+      <c r="D134" t="s">
+        <v>351</v>
+      </c>
+      <c r="E134" s="10">
+        <v>9548</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B135" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="C135" t="s">
+        <v>191</v>
+      </c>
+      <c r="D135" t="s">
+        <v>760</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B136" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="C136" t="s">
+        <v>239</v>
+      </c>
+      <c r="D136" t="s">
+        <v>155</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B137" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="C137" t="s">
+        <v>634</v>
+      </c>
+      <c r="D137" t="s">
+        <v>661</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B138" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C138" t="s">
+        <v>266</v>
+      </c>
+      <c r="D138" t="s">
+        <v>267</v>
+      </c>
+      <c r="E138" s="10">
+        <v>9054</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B139" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="C139" t="s">
+        <v>757</v>
+      </c>
+      <c r="D139" t="s">
+        <v>758</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B140" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140" t="s">
+        <v>145</v>
+      </c>
+      <c r="D140" t="s">
+        <v>146</v>
+      </c>
+      <c r="E140" s="10">
+        <v>215</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B141" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C141" t="s">
+        <v>254</v>
+      </c>
+      <c r="D141" t="s">
+        <v>255</v>
+      </c>
+      <c r="E141" s="10">
+        <v>6836</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B142" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="C142" t="s">
+        <v>171</v>
+      </c>
+      <c r="D142" t="s">
+        <v>166</v>
+      </c>
+      <c r="E142" s="12">
+        <v>212</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B143" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C143" t="s">
+        <v>233</v>
+      </c>
+      <c r="D143" t="s">
+        <v>234</v>
+      </c>
+      <c r="E143" s="10">
+        <v>1031</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B144" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C144" t="s">
+        <v>751</v>
+      </c>
+      <c r="D144" t="s">
+        <v>543</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B145" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C145" t="s">
+        <v>109</v>
+      </c>
+      <c r="D145" t="s">
+        <v>166</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>362</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C146" t="s">
+        <v>101</v>
+      </c>
+      <c r="D146" t="s">
         <v>102</v>
       </c>
-      <c r="D51" t="s">
-        <v>498</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="C52" t="s">
-        <v>500</v>
-      </c>
-      <c r="D52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="C53" t="s">
-        <v>172</v>
-      </c>
-      <c r="D53" t="s">
-        <v>502</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="C54" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" t="s">
-        <v>504</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="C55" t="s">
-        <v>261</v>
-      </c>
-      <c r="D55" t="s">
-        <v>506</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="C56" t="s">
-        <v>508</v>
-      </c>
-      <c r="D56" t="s">
-        <v>509</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="C57" t="s">
-        <v>511</v>
-      </c>
-      <c r="D57" t="s">
-        <v>512</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="C58" t="s">
-        <v>514</v>
-      </c>
-      <c r="D58" t="s">
-        <v>186</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="C59" t="s">
-        <v>234</v>
-      </c>
-      <c r="D59" t="s">
-        <v>117</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="C60" t="s">
-        <v>185</v>
-      </c>
-      <c r="D60" t="s">
-        <v>517</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="C61" t="s">
-        <v>172</v>
-      </c>
-      <c r="D61" t="s">
-        <v>111</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="C62" t="s">
-        <v>520</v>
-      </c>
-      <c r="D62" t="s">
-        <v>256</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="C63" t="s">
-        <v>522</v>
-      </c>
-      <c r="D63" t="s">
-        <v>523</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="C64" t="s">
-        <v>525</v>
-      </c>
-      <c r="D64" t="s">
-        <v>526</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="C65" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" t="s">
-        <v>528</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="C66" t="s">
-        <v>199</v>
-      </c>
-      <c r="D66" t="s">
-        <v>530</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="C67" t="s">
-        <v>514</v>
-      </c>
-      <c r="D67" t="s">
-        <v>111</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="C68" t="s">
-        <v>487</v>
-      </c>
-      <c r="D68" t="s">
-        <v>509</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="C69" t="s">
-        <v>255</v>
-      </c>
-      <c r="D69" t="s">
-        <v>547</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="C70" t="s">
-        <v>255</v>
-      </c>
-      <c r="D70" t="s">
-        <v>256</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="C71" t="s">
-        <v>136</v>
-      </c>
-      <c r="D71" t="s">
-        <v>550</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="C72" t="s">
-        <v>192</v>
-      </c>
-      <c r="D72" t="s">
-        <v>167</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C73" t="s">
-        <v>261</v>
-      </c>
-      <c r="D73" t="s">
-        <v>553</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C74" t="s">
-        <v>102</v>
-      </c>
-      <c r="D74" t="s">
-        <v>186</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="C75" t="s">
-        <v>136</v>
-      </c>
-      <c r="D75" t="s">
-        <v>167</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="C76" t="s">
-        <v>214</v>
-      </c>
-      <c r="D76" t="s">
-        <v>345</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="C77" t="s">
-        <v>192</v>
-      </c>
-      <c r="D77" t="s">
-        <v>557</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="C78" t="s">
-        <v>560</v>
-      </c>
-      <c r="D78" t="s">
-        <v>561</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="C79" t="s">
-        <v>136</v>
-      </c>
-      <c r="D79" t="s">
-        <v>563</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="C80" t="s">
-        <v>470</v>
-      </c>
-      <c r="D80" t="s">
-        <v>345</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="C81" t="s">
-        <v>566</v>
-      </c>
-      <c r="D81" t="s">
-        <v>567</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="C82" t="s">
-        <v>569</v>
-      </c>
-      <c r="D82" t="s">
-        <v>111</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="C83" t="s">
-        <v>214</v>
-      </c>
-      <c r="D83" t="s">
-        <v>571</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="C84" t="s">
-        <v>514</v>
-      </c>
-      <c r="D84" t="s">
-        <v>117</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="C85" t="s">
-        <v>110</v>
-      </c>
-      <c r="D85" t="s">
-        <v>241</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="C86" t="s">
-        <v>110</v>
-      </c>
-      <c r="D86" t="s">
-        <v>345</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="C87" t="s">
-        <v>249</v>
-      </c>
-      <c r="D87" t="s">
-        <v>256</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="C88" t="s">
-        <v>166</v>
-      </c>
-      <c r="D88" t="s">
-        <v>241</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="C89" t="s">
-        <v>487</v>
-      </c>
-      <c r="D89" t="s">
-        <v>186</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="C90" t="s">
-        <v>166</v>
-      </c>
-      <c r="D90" t="s">
-        <v>579</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C91" t="s">
-        <v>514</v>
-      </c>
-      <c r="D91" t="s">
-        <v>512</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>615</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B92" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="C92" t="s">
-        <v>617</v>
-      </c>
-      <c r="D92" t="s">
-        <v>618</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C93" t="s">
-        <v>500</v>
-      </c>
-      <c r="D93" t="s">
-        <v>553</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C94" t="s">
-        <v>166</v>
-      </c>
-      <c r="D94" t="s">
-        <v>167</v>
-      </c>
-      <c r="E94" s="13">
-        <v>8664</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="C95" t="s">
-        <v>627</v>
-      </c>
-      <c r="D95" t="s">
-        <v>628</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="C96" t="s">
-        <v>636</v>
-      </c>
-      <c r="D96" t="s">
-        <v>637</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B97" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="C97" t="s">
-        <v>477</v>
-      </c>
-      <c r="D97" t="s">
-        <v>167</v>
-      </c>
-      <c r="E97" s="11">
-        <v>7299</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C98" t="s">
-        <v>645</v>
-      </c>
-      <c r="D98" t="s">
-        <v>256</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B99" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="C99" t="s">
-        <v>649</v>
-      </c>
-      <c r="D99" t="s">
-        <v>547</v>
-      </c>
-      <c r="E99" s="11">
-        <v>7947</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B100" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="C100" t="s">
-        <v>470</v>
-      </c>
-      <c r="D100" t="s">
-        <v>557</v>
-      </c>
-      <c r="E100" s="11">
-        <v>7077</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="C101" t="s">
-        <v>255</v>
-      </c>
-      <c r="D101" t="s">
-        <v>117</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="C102" t="s">
-        <v>136</v>
-      </c>
-      <c r="D102" t="s">
-        <v>656</v>
-      </c>
-      <c r="E102" s="11">
-        <v>6849</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="C103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D103" t="s">
-        <v>666</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B104" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="C104" t="s">
-        <v>172</v>
-      </c>
-      <c r="D104" t="s">
-        <v>673</v>
-      </c>
-      <c r="E104" s="11">
-        <v>7551</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B105" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="C105" t="s">
-        <v>166</v>
-      </c>
-      <c r="D105" t="s">
-        <v>493</v>
-      </c>
-      <c r="E105" s="11">
-        <v>7484</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B106" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="C106" t="s">
-        <v>636</v>
-      </c>
-      <c r="D106" t="s">
-        <v>186</v>
-      </c>
-      <c r="E106" s="11">
-        <v>7085</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B107" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="C107" t="s">
-        <v>110</v>
-      </c>
-      <c r="D107" t="s">
-        <v>127</v>
-      </c>
-      <c r="E107" s="11">
-        <v>8399</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="H107" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B108" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="C108" t="s">
-        <v>508</v>
-      </c>
-      <c r="D108" t="s">
-        <v>156</v>
-      </c>
-      <c r="E108" s="11">
-        <v>8429</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B109" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="C109" t="s">
-        <v>116</v>
-      </c>
-      <c r="D109" t="s">
-        <v>215</v>
-      </c>
-      <c r="E109" s="11">
-        <v>7993</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B112" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C112" t="s">
-        <v>102</v>
-      </c>
-      <c r="D112" t="s">
-        <v>156</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B113" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="C113" t="s">
-        <v>172</v>
-      </c>
-      <c r="D113" t="s">
-        <v>651</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B114" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="C114" t="s">
-        <v>240</v>
-      </c>
-      <c r="D114" t="s">
-        <v>156</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B115" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="C115" t="s">
-        <v>166</v>
-      </c>
-      <c r="D115" t="s">
-        <v>117</v>
-      </c>
-      <c r="E115" s="11">
-        <v>150</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B116" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C116" t="s">
-        <v>116</v>
-      </c>
-      <c r="D116" t="s">
-        <v>241</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>695</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B117" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="C117" t="s">
-        <v>697</v>
-      </c>
-      <c r="D117" t="s">
-        <v>666</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B118" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="C118" t="s">
-        <v>650</v>
-      </c>
-      <c r="D118" t="s">
-        <v>167</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B119" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="C119" t="s">
-        <v>650</v>
-      </c>
-      <c r="D119" t="s">
-        <v>111</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B120" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="C120" t="s">
-        <v>192</v>
-      </c>
-      <c r="D120" t="s">
-        <v>730</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>702</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B121" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="C121" t="s">
-        <v>500</v>
-      </c>
-      <c r="D121" t="s">
-        <v>127</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>703</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B122" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="C122" t="s">
-        <v>240</v>
-      </c>
-      <c r="D122" t="s">
-        <v>734</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="C123" t="s">
-        <v>166</v>
-      </c>
-      <c r="D123" t="s">
-        <v>256</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="H123" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B124" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="C124" t="s">
-        <v>110</v>
-      </c>
-      <c r="D124" t="s">
-        <v>117</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>741</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B125" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="C125" t="s">
-        <v>172</v>
-      </c>
-      <c r="D125" t="s">
-        <v>742</v>
-      </c>
-      <c r="E125" s="11">
-        <v>716</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>743</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>709</v>
-      </c>
-      <c r="H125" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B126" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="G126" s="9" t="s">
-        <v>710</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B127" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="G127" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="H127" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B128" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="G128" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B129" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="E129" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>713</v>
-      </c>
-      <c r="H129" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B130" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="G130" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B131" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="C131" t="s">
-        <v>634</v>
-      </c>
-      <c r="D131" t="s">
-        <v>147</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B132" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>725</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B133" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="C133" t="s">
-        <v>192</v>
-      </c>
-      <c r="D133" t="s">
-        <v>167</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="H133" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B134" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B135" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="C135" t="s">
-        <v>650</v>
-      </c>
-      <c r="D135" t="s">
-        <v>651</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="G135" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="H135" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B136" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="C136" t="s">
-        <v>657</v>
-      </c>
-      <c r="D136" t="s">
-        <v>656</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="G136" s="9" t="s">
-        <v>659</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B137" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="G137" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="H137" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B138" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="C138" t="s">
-        <v>669</v>
-      </c>
-      <c r="D138" t="s">
-        <v>509</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>671</v>
-      </c>
-      <c r="G138" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="H138" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B139" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="C139" t="s">
-        <v>569</v>
-      </c>
-      <c r="D139" t="s">
-        <v>677</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="G139" s="9" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B140" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="C140" t="s">
-        <v>166</v>
-      </c>
-      <c r="D140" t="s">
-        <v>345</v>
-      </c>
-      <c r="E140" s="12"/>
-      <c r="G140" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B141" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="C141" t="s">
-        <v>744</v>
-      </c>
-      <c r="D141" t="s">
-        <v>745</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>715</v>
-      </c>
-      <c r="H141" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B142" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="G142" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B143" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="H143" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B144" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="G144" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="H144" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B145" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="C145" t="s">
-        <v>650</v>
-      </c>
-      <c r="D145" t="s">
-        <v>677</v>
-      </c>
-      <c r="E145" s="12" t="s">
-        <v>750</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="H145" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="146" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B146" s="9" t="s">
-        <v>543</v>
+      <c r="E146" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>719</v>
+        <v>105</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B147" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="G147" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="H147" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B148" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B149" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="C149" t="s">
-        <v>110</v>
-      </c>
-      <c r="D149" t="s">
-        <v>167</v>
-      </c>
-      <c r="E149" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="F149" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="G149" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="H149" s="9" t="s">
-        <v>558</v>
+        <v>108</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J38"/>
+  <autoFilter ref="A1:J38">
+    <sortState ref="A2:J147">
+      <sortCondition ref="B1:B38"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:P38">
     <sortCondition ref="B2:B38"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I38" r:id="rId1"/>
-    <hyperlink ref="J38" r:id="rId2"/>
-    <hyperlink ref="I9" r:id="rId3"/>
-    <hyperlink ref="J9" r:id="rId4"/>
-    <hyperlink ref="J25" r:id="rId5"/>
-    <hyperlink ref="I21" r:id="rId6"/>
-    <hyperlink ref="J21" r:id="rId7" location="/media/File:Koshkin_MI.jpg"/>
-    <hyperlink ref="I14" r:id="rId8"/>
-    <hyperlink ref="J14" r:id="rId9"/>
-    <hyperlink ref="I16" r:id="rId10"/>
-    <hyperlink ref="J16" r:id="rId11"/>
-    <hyperlink ref="I11" r:id="rId12"/>
-    <hyperlink ref="I35" r:id="rId13"/>
-    <hyperlink ref="I28" r:id="rId14"/>
-    <hyperlink ref="I4" r:id="rId15"/>
-    <hyperlink ref="J4" r:id="rId16"/>
-    <hyperlink ref="J11" r:id="rId17"/>
-    <hyperlink ref="J35" r:id="rId18"/>
-    <hyperlink ref="J10" r:id="rId19"/>
-    <hyperlink ref="J17" r:id="rId20"/>
+    <hyperlink ref="I146" r:id="rId1"/>
+    <hyperlink ref="J146" r:id="rId2"/>
+    <hyperlink ref="I58" r:id="rId3"/>
+    <hyperlink ref="J58" r:id="rId4"/>
+    <hyperlink ref="J109" r:id="rId5"/>
+    <hyperlink ref="I93" r:id="rId6"/>
+    <hyperlink ref="J93" r:id="rId7" location="/media/File:Koshkin_MI.jpg"/>
+    <hyperlink ref="I75" r:id="rId8"/>
+    <hyperlink ref="J75" r:id="rId9"/>
+    <hyperlink ref="I82" r:id="rId10"/>
+    <hyperlink ref="J82" r:id="rId11"/>
+    <hyperlink ref="I68" r:id="rId12"/>
+    <hyperlink ref="I140" r:id="rId13"/>
+    <hyperlink ref="I117" r:id="rId14"/>
+    <hyperlink ref="I30" r:id="rId15"/>
+    <hyperlink ref="J30" r:id="rId16"/>
+    <hyperlink ref="J68" r:id="rId17"/>
+    <hyperlink ref="J140" r:id="rId18"/>
+    <hyperlink ref="J64" r:id="rId19"/>
+    <hyperlink ref="J86" r:id="rId20"/>
     <hyperlink ref="O14" r:id="rId21" display="https://topwar.ru/history/"/>
-    <hyperlink ref="I36" r:id="rId22"/>
+    <hyperlink ref="I141" r:id="rId22"/>
+    <hyperlink ref="J46" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -6667,217 +7119,217 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG1" t="s">
         <v>8</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG2" t="s">
         <v>10</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG3" s="3">
         <v>15245</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" spans="1:34" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-    </row>
-    <row r="38" spans="1:34" ht="183" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="U38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="16"/>
+    </row>
+    <row r="39" spans="1:34" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="U38" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="17"/>
-      <c r="AG38" s="17"/>
-      <c r="AH38" s="17"/>
-    </row>
-    <row r="39" spans="1:34" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="16"/>
+    </row>
+    <row r="40" spans="1:34" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
-      <c r="AC39" s="17"/>
-      <c r="AD39" s="17"/>
-      <c r="AE39" s="17"/>
-      <c r="AF39" s="17"/>
-      <c r="AG39" s="17"/>
-      <c r="AH39" s="17"/>
-    </row>
-    <row r="40" spans="1:34" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
-      <c r="AH40" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16"/>
+      <c r="AG40" s="16"/>
+      <c r="AH40" s="16"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
@@ -6913,17 +7365,17 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W3" s="3">
         <v>1467</v>
@@ -6931,15 +7383,15 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W5" s="3">
         <v>28403</v>
@@ -6947,47 +7399,47 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -7012,7 +7464,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q1" s="3">
         <v>32552</v>
@@ -7020,15 +7472,15 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="3">
         <v>18168</v>
@@ -7036,18 +7488,18 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="A14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -7082,7 +7534,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="L16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -7094,7 +7546,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -7106,7 +7558,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -7118,7 +7570,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="L19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -7130,7 +7582,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="L20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -7142,7 +7594,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -7154,7 +7606,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="L22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -7166,7 +7618,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="L23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -7178,7 +7630,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="L24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -7190,7 +7642,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="L25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -7202,7 +7654,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="L26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -7214,7 +7666,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="L27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -7226,7 +7678,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="L28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -7238,262 +7690,262 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="L29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/persons.xlsx
+++ b/public/data/persons.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Герои" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="1010">
   <si>
     <t>Источник</t>
   </si>
@@ -538,9 +538,6 @@
     <t>с. Ображиевка Глуховского у. Черниговской губ.</t>
   </si>
   <si>
-    <t>Лётчик-ас, наиболее результативный лётчик-истребитель в авиации союзников (64 победы).</t>
-  </si>
-  <si>
     <t>Дал первое систематическое учение о локальной анестезии с использованием этилового спирта, вводимого в нервные пучки, а также обосновал систематическое применение антисептических методов для гнойной хирурги еще до изобретения антибиотиков.  Высказал ряд важных идей в отдельных медицинских областях, в том числе  военно-полевой хирургии и анестезиологии.</t>
   </si>
   <si>
@@ -977,12 +974,6 @@
   </si>
   <si>
     <t>Давыдовна</t>
-  </si>
-  <si>
-    <t>с. Добровольное, Ставрапольская губ</t>
-  </si>
-  <si>
-    <t>летчик</t>
   </si>
   <si>
     <t>Командир ночного бомбордировочного полка</t>
@@ -1225,9 +1216,6 @@
     <t>В апреле 1942 был сбит в воздушном бою. В госпитале Маресьеву были ампутированы обе ноги в области голени, но в 1943 году Маресьев снова вернулся на фронт, где после ранения сбил 7 немецких самолетов</t>
   </si>
   <si>
-    <t>Сухиничи, Калужская обл.</t>
-  </si>
-  <si>
     <t>Тульская обл.</t>
   </si>
   <si>
@@ -1275,9 +1263,6 @@
   </si>
   <si>
     <t>Черкассы, Киев, Гомель</t>
-  </si>
-  <si>
-    <t>Львов</t>
   </si>
   <si>
     <t>Ровно, Львов</t>
@@ -1627,9 +1612,6 @@
     <t>Терентьевич</t>
   </si>
   <si>
-    <t>с. Киевское Крымского района Краснодарского края</t>
-  </si>
-  <si>
     <t>п. Кесова Гора, Бежецкий уезд, Тверская губерния, РСФСР</t>
   </si>
   <si>
@@ -1651,12 +1633,6 @@
     <t>с. Тютняры, Екатеринбургский уезд, Пермская губерния</t>
   </si>
   <si>
-    <t>пехотинец</t>
-  </si>
-  <si>
-    <t>танкист</t>
-  </si>
-  <si>
     <t>22.01 (04.02).1910</t>
   </si>
   <si>
@@ -1777,15 +1753,9 @@
     <t>Командующий 1-го Белорусского фронта</t>
   </si>
   <si>
-    <t>Командующий 1-го Украинского фронта</t>
-  </si>
-  <si>
     <t xml:space="preserve">Андрей </t>
   </si>
   <si>
-    <t>Командующий 6-й танковой армией</t>
-  </si>
-  <si>
     <t>Григорий</t>
   </si>
   <si>
@@ -1837,9 +1807,6 @@
     <t>Кутахов</t>
   </si>
   <si>
-    <t>Главнокомандующий Военно-воздушными силами СССР</t>
-  </si>
-  <si>
     <t>3 (16).08.1914</t>
   </si>
   <si>
@@ -1918,9 +1885,6 @@
     <t>28.04 (11.05).1902</t>
   </si>
   <si>
-    <t>Командующий 40-й армией Воронежского фронта</t>
-  </si>
-  <si>
     <t>Мыльников</t>
   </si>
   <si>
@@ -1936,9 +1900,6 @@
     <t>Командующий Военно-воздушными силами Рабоче-крестьянской Красной армии</t>
   </si>
   <si>
-    <t>Командующий 2-го Белорусского фронта</t>
-  </si>
-  <si>
     <t>Одинцов</t>
   </si>
   <si>
@@ -1963,9 +1924,6 @@
     <t xml:space="preserve">16 (28).12.1899 </t>
   </si>
   <si>
-    <t>Начальник штаба 1-го Украинского фронта</t>
-  </si>
-  <si>
     <t xml:space="preserve">Иван </t>
   </si>
   <si>
@@ -1975,18 +1933,12 @@
     <t>Трубчевск, Орловская губерния</t>
   </si>
   <si>
-    <t>Командующий 65-й армией</t>
-  </si>
-  <si>
     <t>Командующий 61-й армией</t>
   </si>
   <si>
     <t>Командующий 5-й ударной армией</t>
   </si>
   <si>
-    <t>Командующий 2-й гвардейской танковой армией</t>
-  </si>
-  <si>
     <t>Командующий 4-й воздушной армии</t>
   </si>
   <si>
@@ -1996,46 +1948,16 @@
     <t>Командующий 3-й гвардейской армией</t>
   </si>
   <si>
-    <t>Командующий 49-й армией</t>
-  </si>
-  <si>
-    <t>Командующий 5-й гвардейской армией</t>
-  </si>
-  <si>
     <t>Командующий 1-й гвардейской танковой армией</t>
   </si>
   <si>
-    <t>Командующий 69-й армией</t>
-  </si>
-  <si>
     <t>Командующий 1-й армией Войска Польского</t>
   </si>
   <si>
-    <t>Командующий 47-й армией</t>
-  </si>
-  <si>
     <t>Командующий 70-й армией</t>
   </si>
   <si>
-    <t>Командующий 3-й гвардейской танковой армией</t>
-  </si>
-  <si>
-    <t>Командующий 13-й армией</t>
-  </si>
-  <si>
-    <t>Командующий 2-й армией Войска Польского</t>
-  </si>
-  <si>
-    <t>Командующий 2-й ударной армией</t>
-  </si>
-  <si>
     <t>Командующий 33-й армией</t>
-  </si>
-  <si>
-    <t>Командующий 8-й гвардейской армией</t>
-  </si>
-  <si>
-    <t>Командующий 28-й армией</t>
   </si>
   <si>
     <t>Командующий 3-й ударной армией</t>
@@ -2979,6 +2901,192 @@
   </si>
   <si>
     <t>26.10.1944, 01.11.1968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.07.1937, 21.03.1940 </t>
+  </si>
+  <si>
+    <t>11.03.1944, 06.04.1945</t>
+  </si>
+  <si>
+    <t>Зарайск, Рязанская губерния, Российская империя</t>
+  </si>
+  <si>
+    <t>Устиновская волость, Елисаветградский уезд, Херсонская губерния, Российская империя</t>
+  </si>
+  <si>
+    <t>хутор Новокузнецовка, станица Мечётинская, Область Войска Донского, Российская империя</t>
+  </si>
+  <si>
+    <t>23.02.1945, 19.04.1945</t>
+  </si>
+  <si>
+    <t>22.02.1939, 29.08.1939</t>
+  </si>
+  <si>
+    <t>Коломна, Московская область, Россия</t>
+  </si>
+  <si>
+    <t>10.01.1944,
+26.04.1944</t>
+  </si>
+  <si>
+    <t>Киев</t>
+  </si>
+  <si>
+    <t>Герой Советского Союза. Войска генерал-полковника Цветаева  отличились в ходе Висло-Одерской наступательной операции на Пулавском плацдарме.</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/Цветаев,_Вячеслав_Дмитриевич</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/Федюнинский,_Иван_Иванович</t>
+  </si>
+  <si>
+    <t> 27.10.1941</t>
+  </si>
+  <si>
+    <t>с. Добровольное, Благодарненский уезд, Ставропольская губерния</t>
+  </si>
+  <si>
+    <t> 16.09.1982</t>
+  </si>
+  <si>
+    <t>с. Новокрасновка, Ворошиловградская область (сейчас Луганская область Украины), УССР, СССР</t>
+  </si>
+  <si>
+    <t> 05.12.1977</t>
+  </si>
+  <si>
+    <t>Москва, РСФСР, СССР</t>
+  </si>
+  <si>
+    <t>29.07.1944, 08.09.1945</t>
+  </si>
+  <si>
+    <t>Симферополь,
+Крымская область,
+УССР, СССР</t>
+  </si>
+  <si>
+    <t>с. Киевское, Крымский район, Краснодарский край, РСФСР, СССР</t>
+  </si>
+  <si>
+    <t>19.04.1945,  29.06.1945</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/Конев,_Иван_Степанович</t>
+  </si>
+  <si>
+    <t>05.05.1990 </t>
+  </si>
+  <si>
+    <t>с. Дмитровка, Шахтёрский район, Донецкая область, УССР</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/Малинин,_Михаил_Сергеевич</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ef/М.С._Малинин.jpg/274px-М.С._Малинин.jpg</t>
+  </si>
+  <si>
+    <t> 08.06.1976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Командующий 49-й армией </t>
+  </si>
+  <si>
+    <t>Военачальник</t>
+  </si>
+  <si>
+    <t>Военачальник (командующий 65-й армией)</t>
+  </si>
+  <si>
+    <t>Военачальнк (командующий 2-й гвардейской танковой армией)</t>
+  </si>
+  <si>
+    <t>Военачальник (командующий 8-й гвардейской армией)</t>
+  </si>
+  <si>
+    <t>Военачальник (командующий 2-й ударной армией)</t>
+  </si>
+  <si>
+    <t>Военачальнк (командующий 2-й армией Войска Польского)</t>
+  </si>
+  <si>
+    <t>Военачальник (командующий 3-й гвардейской танковой армией)</t>
+  </si>
+  <si>
+    <t>Военачальник (командующий 2-го Белорусского фронта)</t>
+  </si>
+  <si>
+    <t>Трижды Герой Советского Союза. Наиболее результативный лётчик-истребитель в авиации стран антигитлеровской коалиции (64 победы).</t>
+  </si>
+  <si>
+    <t>04.02.1944,  19.08.1944,  18.08.1945</t>
+  </si>
+  <si>
+    <t>Военачальник (командующий 69-й армией)</t>
+  </si>
+  <si>
+    <t>Военачальник (командующий 1-го Украинского фронта)</t>
+  </si>
+  <si>
+    <t>Дважды Герой Советского Союза. Полк под его командованием имел самое большое количество лётчиков, получивших звание Героя Советского Союза.</t>
+  </si>
+  <si>
+    <t>Военачальник (командующий 5-й гвардейской армией)</t>
+  </si>
+  <si>
+    <t>Военачальник (начальник штаба 1-го Украинского фронта)</t>
+  </si>
+  <si>
+    <t>Военачальник (командующий 47-й армией)</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/Чуйков,_Василий_Иванович</t>
+  </si>
+  <si>
+    <t> 02.07.1967</t>
+  </si>
+  <si>
+    <t>с. Гришино, Екатеринославская губерния, Российская империя</t>
+  </si>
+  <si>
+    <t>Военачальник (командующий 40-й армией Воронежского фронта)</t>
+  </si>
+  <si>
+    <t>Военачальник (командующий 28-й армией)</t>
+  </si>
+  <si>
+    <t>Военачальник (Главнокомандующий Военно-воздушными силами СССР)</t>
+  </si>
+  <si>
+    <t>Ижевск, Вотская автономная область, Советская Россия</t>
+  </si>
+  <si>
+    <t>21.07.1858</t>
+  </si>
+  <si>
+    <t>Военачальник (командующий 6-й танковой армией)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дважды Герой Советского Союза. Возглавлял штабы Калининского (с декабря 1942), Резервного (с апреля 1943), Степного (с июня 1943) и 2-го Украинского (с октября 1943 по май 1945) фронтов. </t>
+  </si>
+  <si>
+    <t>Лётчик (командир эскадрильи)</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/d5/Kirill_Moskalenko_1.jpg</t>
+  </si>
+  <si>
+    <t>с. Солдатское, Казанковская волость, Елисаветградский уезд, Николаевская губерния</t>
+  </si>
+  <si>
+    <t>Военачальник (командующий 13-й армией)</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/ru/a/aa/Nedbailo_AK.jpg</t>
   </si>
 </sst>
 </file>
@@ -3065,7 +3173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3106,6 +3214,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3117,6 +3233,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3524,7 +3661,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3559,7 +3696,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3772,8 +3909,8 @@
   <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3781,13 +3918,13 @@
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="63.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="43.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="82.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="76.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="44.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="35" style="6" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" customWidth="1"/>
     <col min="12" max="12" width="23.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="19.5703125" customWidth="1"/>
@@ -3798,7 +3935,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>96</v>
@@ -3831,152 +3968,154 @@
         <v>11</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
       <c r="B2" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="E2" s="9">
         <v>8428</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>529</v>
+        <v>970</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>786</v>
+        <v>760</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="K2" s="10">
+        <v>748</v>
+      </c>
+      <c r="K2" s="9">
         <v>30210</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="8" t="s">
+        <v>971</v>
+      </c>
       <c r="N2" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>785</v>
-      </c>
-      <c r="P2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E3" s="9">
         <v>7395</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>351</v>
+        <v>544</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>787</v>
+        <v>761</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="K3" s="10">
         <v>15906</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="8" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="6" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="6" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9">
         <v>7599</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>351</v>
+        <v>544</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>788</v>
+        <v>762</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>776</v>
+        <v>750</v>
       </c>
       <c r="K4" s="9">
         <v>22443</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>109</v>
@@ -3988,145 +4127,145 @@
         <v>7531</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>351</v>
+        <v>544</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>789</v>
+        <v>763</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="K5" s="10">
         <v>15153</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O5" s="13"/>
       <c r="P5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>537</v>
+        <v>204</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>790</v>
+        <v>764</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="K6" s="10">
         <v>15955</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="8" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>538</v>
+        <v>196</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="K7" s="10">
         <v>18834</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="8" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:16" s="6" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>792</v>
+        <v>766</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="K8" s="9">
         <v>34087</v>
@@ -4136,83 +4275,83 @@
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="O8" s="13"/>
       <c r="P8" s="6" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="6" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>167</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>793</v>
+        <v>767</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="K9" s="9">
         <v>17914</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="O9" s="14"/>
       <c r="P9" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>162</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>645</v>
+        <v>980</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="K10" s="10">
         <v>31186</v>
@@ -4224,43 +4363,43 @@
       <c r="N10" s="8"/>
       <c r="O10" s="13"/>
       <c r="P10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E11" s="9">
         <v>8253</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>798</v>
+        <v>772</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>799</v>
+        <v>773</v>
       </c>
       <c r="K11" s="10">
         <v>15659</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="8"/>
@@ -4269,75 +4408,75 @@
     <row r="12" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E12" s="9">
         <v>7534</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>800</v>
+        <v>774</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
       <c r="K12" s="10">
         <v>15231</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>783</v>
+        <v>757</v>
       </c>
       <c r="P12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>846</v>
+        <v>820</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>847</v>
+        <v>821</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>804</v>
+        <v>778</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>805</v>
+        <v>779</v>
       </c>
       <c r="K13" s="10">
         <v>28895</v>
@@ -4351,78 +4490,78 @@
       </c>
       <c r="O13" s="13"/>
       <c r="P13" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>669</v>
+        <v>643</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>670</v>
+        <v>644</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>807</v>
+        <v>781</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>806</v>
+        <v>780</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>808</v>
+        <v>782</v>
       </c>
       <c r="K14" s="10">
         <v>16203</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="6" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E15" s="9">
         <v>7776</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>810</v>
+        <v>784</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>809</v>
+        <v>783</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>811</v>
+        <v>785</v>
       </c>
       <c r="K15" s="9">
         <v>33397</v>
@@ -4431,185 +4570,185 @@
         <v>14</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>974</v>
+        <v>948</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="O15" s="13"/>
       <c r="P15" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>672</v>
+        <v>646</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>813</v>
+        <v>787</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
-        <v>812</v>
+        <v>786</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>814</v>
+        <v>788</v>
       </c>
       <c r="K16" s="10">
         <v>16320</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="O16" s="13"/>
       <c r="P16" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="187.5" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="E17" s="9">
         <v>4786</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="15" t="s">
+        <v>963</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="J17" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="K17" s="10">
-        <v>16015</v>
+      <c r="K17" s="10" t="s">
+        <v>964</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="8" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="D18" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>126</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>849</v>
+        <v>823</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>813</v>
+        <v>787</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>816</v>
+        <v>790</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="K18" s="10">
+        <v>791</v>
+      </c>
+      <c r="K18" s="9">
         <v>15309</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="M18" s="7"/>
+        <v>427</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>950</v>
+      </c>
       <c r="N18" s="8"/>
       <c r="O18" s="13"/>
     </row>
     <row r="19" spans="1:16" ht="262.5" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>511</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>981</v>
+      </c>
+      <c r="H19" s="8"/>
       <c r="I19" s="8" t="s">
-        <v>816</v>
+        <v>790</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>817</v>
+        <v>791</v>
       </c>
       <c r="K19" s="10">
         <v>16119</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="8" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>161</v>
@@ -4621,334 +4760,336 @@
         <v>150</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>819</v>
+        <v>793</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>818</v>
+        <v>792</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="K20" s="10">
         <v>14910</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>167</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>823</v>
+        <v>797</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>822</v>
+        <v>796</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>821</v>
+        <v>795</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>824</v>
-      </c>
-      <c r="K21" s="9">
-        <v>16140</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="M21" s="8"/>
+        <v>798</v>
+      </c>
+      <c r="K21" s="18">
+        <v>27526</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>957</v>
+      </c>
       <c r="N21" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>783</v>
+        <v>757</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>826</v>
+        <v>800</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>825</v>
+        <v>799</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>828</v>
+        <v>802</v>
       </c>
       <c r="K22" s="10">
         <v>15386</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="8" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E23" s="9">
         <v>7974</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>830</v>
+        <v>804</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>829</v>
+        <v>803</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>831</v>
+        <v>805</v>
       </c>
       <c r="K23" s="10">
         <v>15919</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="O23" s="13"/>
       <c r="P23" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="112.5" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E24" s="9">
         <v>8625</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>832</v>
+        <v>806</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>833</v>
+        <v>807</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
       <c r="K24" s="10">
         <v>14912</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>364</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="O24" s="13"/>
       <c r="P24" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="D25" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E25" s="9">
         <v>6186</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="K25" s="10">
-        <v>18168</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>224</v>
+        <v>303</v>
+      </c>
+      <c r="K25" s="20">
+        <v>15906</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>965</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>815</v>
+        <v>789</v>
       </c>
       <c r="P25" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="6" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>181</v>
+        <v>479</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>836</v>
+        <v>810</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>837</v>
+        <v>811</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>835</v>
+        <v>809</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>838</v>
-      </c>
-      <c r="K26" s="10">
-        <v>23340</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="M26" s="7"/>
+        <v>812</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>966</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>968</v>
+      </c>
       <c r="N26" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="O26" s="13"/>
     </row>
-    <row r="27" spans="1:16" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>839</v>
+        <v>813</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>840</v>
+        <v>814</v>
       </c>
       <c r="K27" s="10">
         <v>15764</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="O27" s="13"/>
     </row>
     <row r="28" spans="1:16" s="6" customFormat="1" ht="225" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>149</v>
@@ -4969,7 +5110,7 @@
         <v>159</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>152</v>
@@ -4977,24 +5118,24 @@
       <c r="J28" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K28" s="9">
-        <v>29587</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>398</v>
+      <c r="K28" s="18">
+        <v>22443</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>969</v>
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>167</v>
@@ -5006,97 +5147,97 @@
         <v>7909</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>851</v>
+        <v>825</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>850</v>
+        <v>824</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>852</v>
+        <v>826</v>
       </c>
       <c r="K29" s="10">
         <v>16263</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="8" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>854</v>
+        <v>828</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>855</v>
+        <v>829</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="K30" s="10">
         <v>16098</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M30" s="7"/>
       <c r="N30" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="O30" s="13"/>
     </row>
-    <row r="31" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>859</v>
+        <v>833</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>857</v>
+        <v>831</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>860</v>
+        <v>834</v>
       </c>
       <c r="K31" s="10">
         <v>36848</v>
@@ -5106,62 +5247,64 @@
       </c>
       <c r="M31" s="7"/>
       <c r="N31" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="O31" s="13"/>
     </row>
-    <row r="32" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
+    <row r="32" spans="1:16" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>489</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>862</v>
+        <v>836</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>863</v>
+        <v>837</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>861</v>
+        <v>835</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>864</v>
-      </c>
-      <c r="K32" s="10">
+        <v>838</v>
+      </c>
+      <c r="K32" s="9">
         <v>15276</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M32" s="7"/>
+      <c r="M32" s="8" t="s">
+        <v>954</v>
+      </c>
       <c r="N32" s="8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="O32" s="13"/>
-      <c r="P32" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="75" x14ac:dyDescent="0.3">
+      <c r="P32" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="150" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="E33" s="9">
         <v>2683</v>
@@ -5170,59 +5313,59 @@
         <v>14</v>
       </c>
       <c r="G33" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="J33" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="K33" s="10">
         <v>16097</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="8" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="150" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>161</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E34" s="9">
         <v>5623</v>
       </c>
       <c r="F34" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="H34" s="8" t="s">
+      <c r="I34" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="K34" s="10">
         <v>18334</v>
@@ -5232,41 +5375,41 @@
       </c>
       <c r="M34" s="7"/>
       <c r="N34" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>843</v>
+        <v>817</v>
       </c>
       <c r="P34" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="8" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>866</v>
+        <v>840</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>867</v>
+        <v>841</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>865</v>
+        <v>839</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>868</v>
+        <v>842</v>
       </c>
       <c r="K35" s="10">
         <v>24649</v>
@@ -5278,35 +5421,35 @@
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E36" s="9">
         <v>6554</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>870</v>
+        <v>844</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>869</v>
+        <v>843</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>871</v>
+        <v>845</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>959</v>
+        <v>933</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>14</v>
@@ -5318,147 +5461,147 @@
     <row r="37" spans="1:16" ht="150" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="H37" s="8" t="s">
+      <c r="I37" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J37" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>280</v>
       </c>
       <c r="K37" s="10">
         <v>18834</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>960</v>
+        <v>934</v>
       </c>
       <c r="M37" s="7"/>
       <c r="N37" s="8"/>
       <c r="O37" s="15" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="8" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>873</v>
+        <v>847</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>874</v>
+        <v>848</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>872</v>
+        <v>846</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>875</v>
+        <v>849</v>
       </c>
       <c r="K38" s="10">
         <v>16502</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>961</v>
+        <v>935</v>
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
     </row>
-    <row r="39" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E39" s="9">
         <v>6559</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>877</v>
+        <v>851</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>878</v>
+        <v>852</v>
       </c>
       <c r="K39" s="10">
         <v>26482</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>962</v>
+        <v>936</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
     </row>
-    <row r="40" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>880</v>
+        <v>854</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>879</v>
+        <v>853</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>882</v>
+        <v>856</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>963</v>
+        <v>937</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>14</v>
@@ -5467,34 +5610,34 @@
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
     </row>
-    <row r="41" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>161</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>883</v>
+        <v>857</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>741</v>
+        <v>715</v>
       </c>
       <c r="K41" s="10">
         <v>30215</v>
@@ -5506,10 +5649,10 @@
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
     </row>
-    <row r="42" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>109</v>
@@ -5518,20 +5661,20 @@
         <v>116</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>742</v>
+        <v>716</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>743</v>
+        <v>717</v>
       </c>
       <c r="K42" s="10">
         <v>31156</v>
@@ -5543,50 +5686,50 @@
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
     </row>
-    <row r="43" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>884</v>
+        <v>858</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>885</v>
+        <v>859</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>886</v>
+        <v>860</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>887</v>
+        <v>861</v>
       </c>
       <c r="K43" s="10">
         <v>41953</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
     </row>
-    <row r="44" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>162</v>
@@ -5595,54 +5738,54 @@
         <v>5814</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>889</v>
+        <v>863</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>888</v>
+        <v>862</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>890</v>
+        <v>864</v>
       </c>
       <c r="K44" s="10">
         <v>28120</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="M44" s="7"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
     </row>
-    <row r="45" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>892</v>
+        <v>866</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>893</v>
+        <v>867</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>891</v>
+        <v>865</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>894</v>
+        <v>868</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="8"/>
@@ -5650,137 +5793,145 @@
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
     </row>
-    <row r="46" spans="1:16" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="E46" s="9">
         <v>3405</v>
       </c>
       <c r="F46" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H46" s="8" t="s">
+      <c r="I46" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="J46" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="K46" s="7"/>
       <c r="L46" s="8"/>
       <c r="M46" s="7"/>
       <c r="N46" s="8"/>
       <c r="O46" s="15" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
+        <v>926</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
       <c r="B47" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C47" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="8" t="s">
         <v>162</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>896</v>
+        <v>870</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>897</v>
+        <v>871</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>895</v>
+        <v>869</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="K47" s="7"/>
+        <v>872</v>
+      </c>
+      <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="7"/>
+      <c r="M47" s="9" t="s">
+        <v>955</v>
+      </c>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
     </row>
-    <row r="48" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="E48" s="9">
         <v>716</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>511</v>
+        <v>659</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>979</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>978</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>899</v>
+        <v>873</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="8"/>
+        <v>720</v>
+      </c>
+      <c r="K48" s="20">
+        <v>18799</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="M48" s="7"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
     </row>
-    <row r="49" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E49" s="9">
         <v>6632</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>901</v>
-      </c>
-      <c r="G49" s="8"/>
+        <v>875</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>544</v>
+      </c>
       <c r="H49" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>900</v>
+        <v>874</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>902</v>
+        <v>876</v>
       </c>
       <c r="K49" s="7"/>
       <c r="L49" s="8"/>
@@ -5788,32 +5939,34 @@
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
     </row>
-    <row r="50" spans="1:15" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="8" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>904</v>
+        <v>878</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>905</v>
-      </c>
-      <c r="G50" s="8"/>
+        <v>879</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>979</v>
+      </c>
       <c r="H50" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>903</v>
+        <v>877</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>906</v>
+        <v>880</v>
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="8"/>
@@ -5823,10 +5976,10 @@
     </row>
     <row r="51" spans="1:15" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>738</v>
+        <v>712</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>109</v>
@@ -5838,7 +5991,7 @@
         <v>111</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>105</v>
@@ -5857,68 +6010,78 @@
       <c r="M51" s="7"/>
       <c r="N51" s="8"/>
       <c r="O51" s="15" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="6" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C52" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>516</v>
+      <c r="D52" s="8" t="s">
+        <v>511</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>908</v>
+        <v>882</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="G52" s="8"/>
+        <v>883</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>544</v>
+      </c>
       <c r="H52" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>907</v>
+        <v>881</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>910</v>
-      </c>
-      <c r="K52" s="7"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="7"/>
+        <v>884</v>
+      </c>
+      <c r="K52" s="9">
+        <v>26090</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>949</v>
+      </c>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
     </row>
-    <row r="53" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="8" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>911</v>
+        <v>885</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>912</v>
-      </c>
-      <c r="G53" s="8"/>
+        <v>886</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>979</v>
+      </c>
       <c r="H53" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>913</v>
+        <v>887</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>914</v>
+        <v>888</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="8"/>
@@ -5926,32 +6089,32 @@
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
     </row>
-    <row r="54" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="8" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>916</v>
+        <v>890</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>917</v>
+        <v>891</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>915</v>
+        <v>889</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>918</v>
+        <v>892</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54" s="8"/>
@@ -5959,15 +6122,15 @@
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
     </row>
-    <row r="55" spans="1:15" s="6" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" s="6" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>102</v>
@@ -5976,35 +6139,35 @@
         <v>1467</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>130</v>
       </c>
       <c r="H55" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I55" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="J55" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
       <c r="O55" s="15" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="8" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>116</v>
@@ -6013,17 +6176,17 @@
         <v>8438</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>920</v>
+        <v>894</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>919</v>
+        <v>893</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>921</v>
+        <v>895</v>
       </c>
       <c r="K56" s="7"/>
       <c r="L56" s="8"/>
@@ -6031,32 +6194,34 @@
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
     </row>
-    <row r="57" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>923</v>
+        <v>897</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>924</v>
-      </c>
-      <c r="G57" s="8"/>
+        <v>898</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>1005</v>
+      </c>
       <c r="H57" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>922</v>
+        <v>896</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>925</v>
+        <v>899</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="8"/>
@@ -6064,35 +6229,37 @@
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
     </row>
-    <row r="58" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="75" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="8" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>737</v>
+        <v>711</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>511</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>992</v>
+      </c>
+      <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="K58" s="7"/>
-      <c r="L58" s="8"/>
+        <v>719</v>
+      </c>
+      <c r="K58" s="20">
+        <v>28439</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="M58" s="7"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
@@ -6109,19 +6276,19 @@
         <v>154</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>795</v>
+        <v>769</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>796</v>
+        <v>770</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>155</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>797</v>
+        <v>771</v>
       </c>
       <c r="J59" s="8" t="s">
         <v>156</v>
@@ -6133,105 +6300,113 @@
       <c r="M59" s="7"/>
       <c r="N59" s="8"/>
       <c r="O59" s="15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="8" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>927</v>
+        <v>901</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>928</v>
-      </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8" t="s">
-        <v>467</v>
+        <v>902</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>991</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>926</v>
+        <v>900</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="K60" s="7"/>
-      <c r="L60" s="8"/>
+        <v>903</v>
+      </c>
+      <c r="K60" s="10">
+        <v>22420</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>956</v>
+      </c>
       <c r="M60" s="7"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
     </row>
-    <row r="61" spans="1:15" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="E61" s="9">
         <v>3660</v>
       </c>
       <c r="F61" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G61" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="G61" s="8" t="s">
-        <v>238</v>
-      </c>
       <c r="H61" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I61" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="J61" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="K61" s="7"/>
       <c r="L61" s="8"/>
       <c r="M61" s="7"/>
       <c r="N61" s="8"/>
       <c r="O61" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="8" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>931</v>
+        <v>905</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>932</v>
-      </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8" t="s">
-        <v>467</v>
+        <v>906</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>979</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>1004</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>930</v>
+        <v>904</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
       <c r="K62" s="7"/>
       <c r="L62" s="8"/>
@@ -6242,43 +6417,43 @@
     <row r="63" spans="1:15" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="E63" s="9">
         <v>6102</v>
       </c>
       <c r="F63" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="H63" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="G63" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="H63" s="8" t="s">
+      <c r="I63" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="I63" s="8" t="s">
+      <c r="J63" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>313</v>
       </c>
       <c r="K63" s="7"/>
       <c r="L63" s="8"/>
       <c r="M63" s="7"/>
       <c r="N63" s="8"/>
       <c r="O63" s="15" t="s">
-        <v>803</v>
+        <v>777</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="150" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>134</v>
@@ -6312,16 +6487,16 @@
       <c r="M64" s="7"/>
       <c r="N64" s="8"/>
       <c r="O64" s="15" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>162</v>
@@ -6330,54 +6505,54 @@
         <v>10876</v>
       </c>
       <c r="F65" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="J65" s="8" t="s">
         <v>332</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>335</v>
       </c>
       <c r="K65" s="7"/>
       <c r="L65" s="8"/>
       <c r="M65" s="7"/>
       <c r="N65" s="8"/>
       <c r="O65" s="15" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="75" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>935</v>
+        <v>909</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>936</v>
+        <v>910</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>934</v>
+        <v>908</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>937</v>
+        <v>911</v>
       </c>
       <c r="K66" s="7"/>
       <c r="L66" s="8"/>
@@ -6385,32 +6560,32 @@
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
     </row>
-    <row r="67" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="8" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>161</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>939</v>
+        <v>913</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>940</v>
+        <v>914</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>938</v>
+        <v>912</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>941</v>
+        <v>915</v>
       </c>
       <c r="K67" s="7"/>
       <c r="L67" s="8"/>
@@ -6421,34 +6596,38 @@
     <row r="68" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>948</v>
+        <v>922</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="K68" s="7"/>
-      <c r="L68" s="8"/>
+        <v>723</v>
+      </c>
+      <c r="K68" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="M68" s="7"/>
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
@@ -6456,31 +6635,31 @@
     <row r="69" spans="1:15" ht="75" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="8" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>944</v>
+        <v>918</v>
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="8"/>
@@ -6488,34 +6667,34 @@
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
     </row>
-    <row r="70" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="75" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="8" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>945</v>
+        <v>919</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>946</v>
+        <v>920</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>947</v>
+        <v>921</v>
       </c>
       <c r="K70" s="7"/>
       <c r="L70" s="8"/>
@@ -6523,15 +6702,15 @@
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
     </row>
-    <row r="71" spans="1:15" ht="75" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
+    <row r="71" spans="1:15" s="6" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="8" t="s">
         <v>168</v>
       </c>
       <c r="E71" s="9">
@@ -6543,8 +6722,8 @@
       <c r="G71" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="H71" s="8" t="s">
-        <v>170</v>
+      <c r="H71" s="15" t="s">
+        <v>987</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>141</v>
@@ -6552,42 +6731,44 @@
       <c r="J71" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="K71" s="7"/>
+      <c r="K71" s="8"/>
       <c r="L71" s="8"/>
-      <c r="M71" s="7"/>
+      <c r="M71" s="15" t="s">
+        <v>988</v>
+      </c>
       <c r="N71" s="8"/>
       <c r="O71" s="15" t="s">
-        <v>954</v>
+        <v>928</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>949</v>
+        <v>923</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>950</v>
+        <v>924</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>951</v>
+        <v>925</v>
       </c>
       <c r="K72" s="7"/>
       <c r="L72" s="8"/>
@@ -6598,7 +6779,7 @@
     <row r="73" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="8" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>161</v>
@@ -6611,10 +6792,10 @@
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
@@ -6624,32 +6805,30 @@
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
     </row>
-    <row r="74" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="75" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="8" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>511</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>989</v>
+      </c>
+      <c r="H74" s="8"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8" t="s">
-        <v>705</v>
+        <v>679</v>
       </c>
       <c r="K74" s="7"/>
       <c r="L74" s="8"/>
@@ -6657,71 +6836,73 @@
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
     </row>
-    <row r="75" spans="1:15" ht="150" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="D75" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="E75" s="9">
         <v>8348</v>
       </c>
       <c r="F75" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="H75" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="I75" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="I75" s="8" t="s">
+      <c r="J75" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="K75" s="7"/>
       <c r="L75" s="8"/>
       <c r="M75" s="7"/>
       <c r="N75" s="8"/>
       <c r="O75" s="15" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="8" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="I76" s="8"/>
+        <v>724</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>990</v>
+      </c>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8" t="s">
+        <v>972</v>
+      </c>
       <c r="J76" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="K76" s="7"/>
+        <v>725</v>
+      </c>
+      <c r="K76" s="20">
+        <v>26805</v>
+      </c>
       <c r="L76" s="8"/>
       <c r="M76" s="7"/>
       <c r="N76" s="8"/>
@@ -6730,10 +6911,10 @@
     <row r="77" spans="1:15" s="6" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>256</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>145</v>
@@ -6742,54 +6923,54 @@
         <v>4377</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G77" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I77" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="H77" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="I77" s="8" t="s">
+      <c r="J77" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
       <c r="O77" s="15" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="8" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="E78" s="9">
         <v>422</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>752</v>
+        <v>726</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8" t="s">
-        <v>753</v>
+        <v>727</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="8"/>
@@ -6797,71 +6978,71 @@
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
     </row>
-    <row r="79" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E79" s="9">
         <v>8657</v>
       </c>
       <c r="F79" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="I79" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="J79" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>329</v>
       </c>
       <c r="K79" s="7"/>
       <c r="L79" s="8"/>
       <c r="M79" s="7"/>
       <c r="N79" s="8"/>
       <c r="O79" s="15" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E80" s="28">
+        <v>11000</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="G80" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="H80" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="E80" s="9">
-        <v>11000</v>
-      </c>
-      <c r="F80" s="8" t="s">
+      <c r="I80" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="J80" s="8" t="s">
         <v>340</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>343</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="8"/>
@@ -6872,23 +7053,23 @@
     <row r="81" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="8" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>576</v>
+        <v>566</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>568</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
@@ -6898,9 +7079,9 @@
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
     </row>
-    <row r="82" spans="1:15" ht="75" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="150" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>127</v>
@@ -6911,7 +7092,7 @@
       <c r="D82" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="29" t="s">
         <v>125</v>
       </c>
       <c r="F82" s="8" t="s">
@@ -6935,65 +7116,65 @@
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
     </row>
-    <row r="83" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
+    <row r="83" spans="1:15" s="6" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>585</v>
+        <v>569</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>575</v>
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="8" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>965</v>
+        <v>939</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>964</v>
-      </c>
-      <c r="K83" s="7"/>
+        <v>938</v>
+      </c>
+      <c r="K83" s="8"/>
       <c r="L83" s="8"/>
-      <c r="M83" s="7"/>
+      <c r="M83" s="15" t="s">
+        <v>955</v>
+      </c>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
     </row>
-    <row r="84" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="8" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E84" s="8" t="s">
-        <v>754</v>
+      <c r="E84" s="29" t="s">
+        <v>728</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>511</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H84" s="8"/>
       <c r="I84" s="8"/>
       <c r="J84" s="8" t="s">
-        <v>756</v>
+        <v>730</v>
       </c>
       <c r="K84" s="7"/>
       <c r="L84" s="8"/>
@@ -7001,34 +7182,34 @@
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
     </row>
-    <row r="85" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="8" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>728</v>
+        <v>701</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>702</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>729</v>
+        <v>703</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>966</v>
+        <v>940</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>967</v>
+        <v>941</v>
       </c>
       <c r="K85" s="7"/>
       <c r="L85" s="8"/>
@@ -7036,35 +7217,39 @@
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
     </row>
-    <row r="86" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
       <c r="B86" s="8" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="28">
         <v>7299</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>968</v>
+        <v>942</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>969</v>
-      </c>
-      <c r="K86" s="7"/>
-      <c r="L86" s="8"/>
+        <v>943</v>
+      </c>
+      <c r="K86" s="31">
+        <v>27413</v>
+      </c>
+      <c r="L86" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="M86" s="7"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
@@ -7072,29 +7257,29 @@
     <row r="87" spans="1:15" ht="75" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
       <c r="B87" s="8" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E87" s="11" t="s">
-        <v>589</v>
+      <c r="E87" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>757</v>
+        <v>731</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8" t="s">
-        <v>758</v>
+        <v>732</v>
       </c>
       <c r="K87" s="7"/>
       <c r="L87" s="8"/>
@@ -7105,60 +7290,60 @@
     <row r="88" spans="1:15" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
       <c r="B88" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="28">
         <v>4226</v>
       </c>
       <c r="F88" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G88" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="H88" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="H88" s="8" t="s">
-        <v>273</v>
-      </c>
       <c r="I88" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K88" s="7"/>
       <c r="L88" s="8"/>
       <c r="M88" s="7"/>
       <c r="N88" s="8"/>
       <c r="O88" s="15" t="s">
-        <v>958</v>
+        <v>932</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>593</v>
+        <v>250</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>583</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="8" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
@@ -7168,10 +7353,10 @@
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
     </row>
-    <row r="90" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
       <c r="B90" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>109</v>
@@ -7179,21 +7364,21 @@
       <c r="D90" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E90" s="11" t="s">
-        <v>713</v>
+      <c r="E90" s="29" t="s">
+        <v>687</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>714</v>
+        <v>688</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>666</v>
+        <v>640</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
       <c r="K90" s="7"/>
       <c r="L90" s="8"/>
@@ -7201,34 +7386,34 @@
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
     </row>
-    <row r="91" spans="1:15" ht="75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
       <c r="B91" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="D91" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="E91" s="30" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="J91" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="E91" s="9">
-        <v>21400</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="J91" s="8" t="s">
-        <v>246</v>
       </c>
       <c r="K91" s="7"/>
       <c r="L91" s="8"/>
@@ -7239,23 +7424,25 @@
     <row r="92" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
       <c r="B92" s="8" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="E92" s="9">
+        <v>497</v>
+      </c>
+      <c r="E92" s="28">
         <v>7947</v>
       </c>
-      <c r="F92" s="8"/>
+      <c r="F92" s="8" t="s">
+        <v>1001</v>
+      </c>
       <c r="G92" s="8" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
@@ -7265,32 +7452,30 @@
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
     </row>
-    <row r="93" spans="1:15" ht="75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
       <c r="B93" s="8" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>600</v>
+        <v>587</v>
+      </c>
+      <c r="E93" s="29" t="s">
+        <v>589</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>511</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H93" s="8"/>
       <c r="I93" s="8"/>
       <c r="J93" s="8" t="s">
-        <v>771</v>
+        <v>745</v>
       </c>
       <c r="K93" s="7"/>
       <c r="L93" s="8"/>
@@ -7298,32 +7483,32 @@
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
     </row>
-    <row r="94" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="75" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
       <c r="B94" s="8" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="E94" s="9">
+        <v>505</v>
+      </c>
+      <c r="E94" s="28">
         <v>7077</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="8" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>972</v>
+        <v>946</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>973</v>
+        <v>947</v>
       </c>
       <c r="K94" s="7"/>
       <c r="L94" s="8"/>
@@ -7334,29 +7519,31 @@
     <row r="95" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
       <c r="B95" s="8" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="F95" s="8"/>
+        <v>591</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>953</v>
+      </c>
       <c r="G95" s="8" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>970</v>
+        <v>944</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>971</v>
+        <v>945</v>
       </c>
       <c r="K95" s="7"/>
       <c r="L95" s="8"/>
@@ -7367,23 +7554,25 @@
     <row r="96" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
       <c r="B96" s="8" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E96" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="F96" s="8"/>
+      <c r="E96" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>951</v>
+      </c>
       <c r="G96" s="8" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
@@ -7396,13 +7585,13 @@
     <row r="97" spans="1:15" ht="318.75" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
       <c r="B97" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="D97" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="E97" s="9">
         <v>7901</v>
@@ -7411,28 +7600,34 @@
         <v>14</v>
       </c>
       <c r="G97" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="H97" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="H97" s="8" t="s">
-        <v>301</v>
-      </c>
       <c r="I97" s="8" t="s">
-        <v>956</v>
+        <v>930</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>957</v>
-      </c>
-      <c r="K97" s="7"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="7"/>
+        <v>931</v>
+      </c>
+      <c r="K97" s="20">
+        <v>15919</v>
+      </c>
+      <c r="L97" s="15" t="s">
+        <v>974</v>
+      </c>
+      <c r="M97" s="19" t="s">
+        <v>973</v>
+      </c>
       <c r="N97" s="8"/>
       <c r="O97" s="15" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="112.5" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>119</v>
@@ -7465,28 +7660,30 @@
       <c r="L98" s="8"/>
       <c r="M98" s="7"/>
       <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
+      <c r="O98" s="15" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="99" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
       <c r="B99" s="8" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="E99" s="9">
         <v>6849</v>
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="8" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
@@ -7496,29 +7693,27 @@
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
     </row>
-    <row r="100" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
       <c r="B100" s="8" t="s">
-        <v>732</v>
+        <v>706</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>161</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>511</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>999</v>
+      </c>
+      <c r="H100" s="8"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="7"/>
@@ -7530,23 +7725,25 @@
     <row r="101" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
       <c r="B101" s="8" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="F101" s="8"/>
+        <v>603</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>952</v>
+      </c>
       <c r="G101" s="8" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
@@ -7558,16 +7755,16 @@
     </row>
     <row r="102" spans="1:15" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B102" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="D102" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="E102" s="9">
         <v>32552</v>
@@ -7579,47 +7776,51 @@
         <v>130</v>
       </c>
       <c r="H102" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I102" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I102" s="8" t="s">
+      <c r="J102" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="J102" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="K102" s="7"/>
       <c r="L102" s="8"/>
       <c r="M102" s="7"/>
       <c r="N102" s="8"/>
       <c r="O102" s="15" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="75" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
       <c r="B103" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
+        <v>506</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>976</v>
+      </c>
       <c r="K103" s="7"/>
       <c r="L103" s="8"/>
       <c r="M103" s="7"/>
@@ -7629,23 +7830,23 @@
     <row r="104" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
       <c r="B104" s="8" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="F104" s="8"/>
       <c r="G104" s="8" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
@@ -7655,44 +7856,44 @@
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
     </row>
-    <row r="105" spans="1:15" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
       <c r="B105" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C105" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="E105" s="9">
         <v>5985</v>
       </c>
       <c r="F105" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H105" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G105" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H105" s="8" t="s">
+      <c r="I105" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="I105" s="8" t="s">
+      <c r="J105" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="J105" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="K105" s="7"/>
       <c r="L105" s="8"/>
       <c r="M105" s="7"/>
       <c r="N105" s="8"/>
       <c r="O105" s="15" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="131.25" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="150" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
       <c r="B106" s="8" t="s">
         <v>146</v>
@@ -7707,48 +7908,48 @@
         <v>4764</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>160</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="I106" s="8" t="s">
         <v>148</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K106" s="7"/>
       <c r="L106" s="8"/>
       <c r="M106" s="7"/>
       <c r="N106" s="8"/>
       <c r="O106" s="15" t="s">
-        <v>955</v>
+        <v>929</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
       <c r="B107" s="8" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="E107" s="9">
         <v>7551</v>
       </c>
       <c r="F107" s="8"/>
       <c r="G107" s="8" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
@@ -7761,23 +7962,23 @@
     <row r="108" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
       <c r="B108" s="8" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>161</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E108" s="9">
         <v>7484</v>
       </c>
       <c r="F108" s="8"/>
       <c r="G108" s="8" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
@@ -7787,27 +7988,31 @@
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
     </row>
-    <row r="109" spans="1:15" ht="75" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
       <c r="B109" s="8" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8" t="s">
-        <v>626</v>
+        <v>614</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>997</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>998</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
+      <c r="J109" s="8" t="s">
+        <v>1006</v>
+      </c>
       <c r="K109" s="7"/>
       <c r="L109" s="8"/>
       <c r="M109" s="7"/>
@@ -7817,60 +8022,60 @@
     <row r="110" spans="1:15" ht="225" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
       <c r="B110" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C110" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="D110" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="E110" s="9">
         <v>8802</v>
       </c>
       <c r="F110" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G110" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="G110" s="8" t="s">
+      <c r="H110" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="H110" s="8" t="s">
+      <c r="I110" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="I110" s="8" t="s">
+      <c r="J110" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="J110" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="K110" s="7"/>
       <c r="L110" s="8"/>
       <c r="M110" s="7"/>
       <c r="N110" s="8"/>
       <c r="O110" s="15" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
       <c r="B111" s="8" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E111" s="9">
         <v>7085</v>
       </c>
       <c r="F111" s="8"/>
       <c r="G111" s="8" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
@@ -7883,7 +8088,7 @@
     <row r="112" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
       <c r="B112" s="8" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>109</v>
@@ -7894,12 +8099,14 @@
       <c r="E112" s="9">
         <v>8399</v>
       </c>
-      <c r="F112" s="8"/>
+      <c r="F112" s="15" t="s">
+        <v>1007</v>
+      </c>
       <c r="G112" s="8" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
@@ -7909,13 +8116,13 @@
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
     </row>
-    <row r="113" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
       <c r="B113" s="8" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>154</v>
@@ -7925,15 +8132,19 @@
       </c>
       <c r="F113" s="8"/>
       <c r="G113" s="8" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
+      <c r="J113" s="15" t="s">
+        <v>1009</v>
+      </c>
       <c r="K113" s="7"/>
-      <c r="L113" s="8"/>
+      <c r="L113" s="15" t="s">
+        <v>958</v>
+      </c>
       <c r="M113" s="7"/>
       <c r="N113" s="8"/>
       <c r="O113" s="8"/>
@@ -7941,27 +8152,27 @@
     <row r="114" spans="1:15" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
       <c r="B114" s="8" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>161</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E114" s="12">
         <v>324</v>
       </c>
       <c r="F114" s="8"/>
       <c r="G114" s="8" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="K114" s="7"/>
       <c r="L114" s="8"/>
@@ -7969,26 +8180,26 @@
       <c r="N114" s="8"/>
       <c r="O114" s="8"/>
     </row>
-    <row r="115" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
       <c r="B115" s="8" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E115" s="9">
         <v>7993</v>
       </c>
       <c r="F115" s="8"/>
       <c r="G115" s="8" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
@@ -8001,103 +8212,101 @@
     <row r="116" spans="1:15" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
       <c r="B116" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C116" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E116" s="9">
+      <c r="E116" s="28">
         <v>738</v>
       </c>
       <c r="F116" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G116" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G116" s="8" t="s">
+      <c r="H116" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="H116" s="8" t="s">
+      <c r="I116" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="J116" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="I116" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="J116" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="K116" s="7"/>
       <c r="L116" s="8"/>
       <c r="M116" s="7"/>
       <c r="N116" s="8"/>
       <c r="O116" s="15" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="93.75" x14ac:dyDescent="0.3">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
       <c r="B117" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C117" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="D117" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="E117" s="28">
+        <v>6038</v>
+      </c>
+      <c r="F117" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E117" s="9">
-        <v>6038</v>
-      </c>
-      <c r="F117" s="8" t="s">
+      <c r="G117" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="G117" s="8" t="s">
+      <c r="H117" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="H117" s="8" t="s">
+      <c r="I117" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="I117" s="8" t="s">
+      <c r="J117" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="J117" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="K117" s="7"/>
       <c r="L117" s="8"/>
       <c r="M117" s="7"/>
       <c r="N117" s="8"/>
       <c r="O117" s="15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
       <c r="B118" s="8" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>689</v>
+        <v>661</v>
+      </c>
+      <c r="E118" s="29" t="s">
+        <v>663</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>511</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>994</v>
+      </c>
+      <c r="H118" s="8"/>
       <c r="I118" s="8"/>
       <c r="J118" s="8" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
       <c r="K118" s="7"/>
       <c r="L118" s="8"/>
@@ -8105,33 +8314,35 @@
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
     </row>
-    <row r="119" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="75" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
       <c r="B119" s="8" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>643</v>
+        <v>601</v>
+      </c>
+      <c r="E119" s="29" t="s">
+        <v>629</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>511</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>993</v>
+      </c>
+      <c r="H119" s="8"/>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="8"/>
+      <c r="K119" s="31">
+        <v>21282</v>
+      </c>
+      <c r="L119" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="M119" s="7"/>
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
@@ -8139,7 +8350,7 @@
     <row r="120" spans="1:15" ht="281.25" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
       <c r="B120" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>161</v>
@@ -8147,58 +8358,58 @@
       <c r="D120" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E120" s="9">
+      <c r="E120" s="28">
         <v>4814</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G120" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="J120" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="H120" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="I120" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="J120" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="K120" s="7"/>
       <c r="L120" s="8"/>
       <c r="M120" s="7"/>
       <c r="N120" s="8"/>
       <c r="O120" s="15" t="s">
-        <v>845</v>
+        <v>819</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
       <c r="B121" s="8" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>723</v>
+        <v>695</v>
+      </c>
+      <c r="E121" s="29" t="s">
+        <v>697</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>772</v>
+        <v>746</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="K121" s="7"/>
       <c r="L121" s="8"/>
@@ -8206,100 +8417,102 @@
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
     </row>
-    <row r="122" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
       <c r="B122" s="8" t="s">
-        <v>708</v>
+        <v>682</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>724</v>
+        <v>698</v>
       </c>
       <c r="F122" s="8"/>
       <c r="G122" s="8" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="K122" s="7"/>
-      <c r="L122" s="8"/>
+        <v>683</v>
+      </c>
+      <c r="K122" s="26" t="s">
+        <v>996</v>
+      </c>
+      <c r="L122" s="27" t="s">
+        <v>14</v>
+      </c>
       <c r="M122" s="7"/>
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
     </row>
-    <row r="123" spans="1:15" ht="262.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="281.25" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
       <c r="B123" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E123" s="9">
         <v>9548</v>
       </c>
       <c r="F123" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="J123" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="I123" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="J123" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="K123" s="7"/>
       <c r="L123" s="8"/>
       <c r="M123" s="7"/>
       <c r="N123" s="8"/>
       <c r="O123" s="15" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
       <c r="B124" s="8" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>511</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H124" s="8"/>
       <c r="I124" s="8"/>
       <c r="J124" s="8" t="s">
-        <v>769</v>
+        <v>743</v>
       </c>
       <c r="K124" s="7"/>
       <c r="L124" s="8"/>
@@ -8307,32 +8520,30 @@
       <c r="N124" s="8"/>
       <c r="O124" s="8"/>
     </row>
-    <row r="125" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
       <c r="B125" s="8" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>154</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="H125" s="8" t="s">
-        <v>511</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>986</v>
+      </c>
+      <c r="H125" s="8"/>
       <c r="I125" s="8"/>
       <c r="J125" s="8" t="s">
-        <v>767</v>
+        <v>741</v>
       </c>
       <c r="K125" s="7"/>
       <c r="L125" s="8"/>
@@ -8340,32 +8551,30 @@
       <c r="N125" s="8"/>
       <c r="O125" s="8"/>
     </row>
-    <row r="126" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="75" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
       <c r="B126" s="8" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>511</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>985</v>
+      </c>
+      <c r="H126" s="8"/>
       <c r="I126" s="8"/>
       <c r="J126" s="8" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="K126" s="7"/>
       <c r="L126" s="8"/>
@@ -8376,66 +8585,64 @@
     <row r="127" spans="1:15" ht="281.25" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
       <c r="B127" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="D127" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="E127" s="9">
         <v>9054</v>
       </c>
       <c r="F127" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="H127" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="G127" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="H127" s="8" t="s">
+      <c r="I127" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="I127" s="8" t="s">
+      <c r="J127" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="J127" s="8" t="s">
-        <v>267</v>
       </c>
       <c r="K127" s="7"/>
       <c r="L127" s="8"/>
       <c r="M127" s="7"/>
       <c r="N127" s="8"/>
       <c r="O127" s="15" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="75" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
       <c r="B128" s="8" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>717</v>
+        <v>691</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>762</v>
+        <v>736</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>511</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>984</v>
+      </c>
+      <c r="H128" s="8"/>
       <c r="I128" s="8"/>
       <c r="J128" s="8" t="s">
-        <v>764</v>
+        <v>738</v>
       </c>
       <c r="K128" s="7"/>
       <c r="L128" s="8"/>
@@ -8443,7 +8650,7 @@
       <c r="N128" s="8"/>
       <c r="O128" s="8"/>
     </row>
-    <row r="129" spans="1:15" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
       <c r="B129" s="8" t="s">
         <v>143</v>
@@ -8477,50 +8684,54 @@
       <c r="M129" s="7"/>
       <c r="N129" s="8"/>
       <c r="O129" s="15" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
       <c r="B130" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="D130" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="E130" s="9">
         <v>6836</v>
       </c>
       <c r="F130" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="J130" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="G130" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="I130" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="J130" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="K130" s="7"/>
-      <c r="L130" s="8"/>
+      <c r="K130" s="19" t="s">
+        <v>962</v>
+      </c>
+      <c r="L130" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="M130" s="7"/>
       <c r="N130" s="8"/>
       <c r="O130" s="15" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="75" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
       <c r="B131" s="8" t="s">
-        <v>698</v>
+        <v>672</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>167</v>
@@ -8532,87 +8743,91 @@
         <v>212</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="H131" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="I131" s="8"/>
+        <v>735</v>
+      </c>
+      <c r="G131" s="15" t="s">
+        <v>983</v>
+      </c>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8" t="s">
+        <v>961</v>
+      </c>
       <c r="J131" s="8" t="s">
-        <v>697</v>
+        <v>671</v>
       </c>
       <c r="K131" s="7"/>
       <c r="L131" s="8"/>
-      <c r="M131" s="7"/>
+      <c r="M131" s="10">
+        <v>14486</v>
+      </c>
       <c r="N131" s="8"/>
       <c r="O131" s="8"/>
     </row>
     <row r="132" spans="1:15" ht="75" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
       <c r="B132" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C132" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="D132" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="E132" s="9">
         <v>1031</v>
       </c>
       <c r="F132" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I132" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="G132" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="I132" s="8" t="s">
+      <c r="J132" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="J132" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="K132" s="7"/>
       <c r="L132" s="8"/>
       <c r="M132" s="7"/>
       <c r="N132" s="8"/>
       <c r="O132" s="15" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
       <c r="B133" s="8" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="I133" s="8"/>
+        <v>639</v>
+      </c>
+      <c r="H133" s="15" t="s">
+        <v>959</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>960</v>
+      </c>
       <c r="J133" s="8" t="s">
-        <v>760</v>
+        <v>734</v>
       </c>
       <c r="K133" s="7"/>
       <c r="L133" s="8"/>
@@ -8620,10 +8835,10 @@
       <c r="N133" s="8"/>
       <c r="O133" s="8"/>
     </row>
-    <row r="134" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
       <c r="B134" s="8" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>109</v>
@@ -8632,20 +8847,20 @@
         <v>162</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>693</v>
+        <v>667</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="I134" s="8"/>
+        <v>668</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>982</v>
+      </c>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8" t="s">
+        <v>995</v>
+      </c>
       <c r="J134" s="8" t="s">
-        <v>696</v>
+        <v>670</v>
       </c>
       <c r="K134" s="7"/>
       <c r="L134" s="8"/>
@@ -8655,10 +8870,10 @@
     </row>
     <row r="135" spans="1:15" ht="150" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>101</v>
@@ -8689,7 +8904,7 @@
       <c r="M135" s="7"/>
       <c r="N135" s="8"/>
       <c r="O135" s="15" t="s">
-        <v>844</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -8727,9 +8942,10 @@
     <hyperlink ref="J97" r:id="rId27"/>
     <hyperlink ref="I37" r:id="rId28"/>
     <hyperlink ref="J83" r:id="rId29"/>
+    <hyperlink ref="J103" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -8774,191 +8990,191 @@
       </c>
     </row>
     <row r="34" spans="1:34" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
     </row>
     <row r="38" spans="1:34" ht="183" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="U38" s="20" t="s">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="U38" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="21"/>
-      <c r="AG38" s="21"/>
-      <c r="AH38" s="21"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
     </row>
     <row r="39" spans="1:34" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="21"/>
-      <c r="AG39" s="21"/>
-      <c r="AH39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
     </row>
     <row r="40" spans="1:34" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="21"/>
-      <c r="AG40" s="21"/>
-      <c r="AH40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="25"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="25"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
@@ -9121,14 +9337,14 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>

--- a/public/data/persons.xlsx
+++ b/public/data/persons.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Герои!$A$1:$P$135</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="1045">
   <si>
     <t>Источник</t>
   </si>
@@ -3193,24 +3193,12 @@
   <si>
     <t>Дважды Герой Советского Союза. Самый результативный ас из числа воевавших на истребителях «Як».</t>
   </si>
-  <si>
-    <t>не прямая ссылка</t>
-  </si>
-  <si>
-    <t>файл удален</t>
-  </si>
-  <si>
-    <t>Файл удален</t>
-  </si>
-  <si>
-    <t>что-то не понятное</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3254,7 +3242,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3270,12 +3258,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3317,7 +3299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3393,12 +3375,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3411,16 +3387,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -3428,48 +3401,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD99795"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD99795"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD99795"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD99795"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD99795"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3508,7 +3440,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3528,7 +3460,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3563,7 +3495,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3583,7 +3515,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3623,7 +3555,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3643,7 +3575,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3678,7 +3610,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3698,7 +3630,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3738,7 +3670,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3758,7 +3690,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3793,7 +3725,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3813,7 +3745,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3902,6 +3834,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3936,6 +3869,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -4111,21 +4045,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Лист1" filterMode="1"/>
-  <dimension ref="A1:Q135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P140" sqref="P140"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="6" customWidth="1"/>
@@ -4140,10 +4072,9 @@
     <col min="14" max="14" width="34.42578125" style="6" customWidth="1"/>
     <col min="15" max="15" width="144.5703125" style="6" customWidth="1"/>
     <col min="16" max="16" width="45.7109375" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>350</v>
       </c>
@@ -4193,379 +4124,327 @@
         <v>368</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="6" customFormat="1" ht="105.75">
-      <c r="A2" s="7"/>
-      <c r="B2" s="37" t="s">
-        <v>631</v>
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>700</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>583</v>
+        <v>109</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>632</v>
+        <v>111</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>769</v>
+        <v>546</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>625</v>
+        <v>105</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>504</v>
+        <v>114</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>770</v>
-      </c>
-      <c r="K2" s="10">
-        <v>16203</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>427</v>
+        <v>112</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="20">
+        <v>17914</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>1025</v>
       </c>
       <c r="M2" s="7"/>
-      <c r="N2" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>745</v>
+      <c r="N2" s="8"/>
+      <c r="O2" s="15" t="s">
+        <v>763</v>
       </c>
       <c r="P2"/>
-      <c r="Q2" s="6" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="187.5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="37" t="s">
-        <v>311</v>
+    </row>
+    <row r="3" spans="1:16" ht="150" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>312</v>
+        <v>101</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E3" s="9">
-        <v>4786</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>951</v>
+        <v>102</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>346</v>
+        <v>105</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>314</v>
+        <v>108</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>952</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>746</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="6" customFormat="1" ht="168.75">
+      <c r="N3" s="8"/>
+      <c r="O3" s="15" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="6" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="37" t="s">
-        <v>299</v>
+      <c r="B4" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E4" s="24">
-        <v>6186</v>
+        <v>162</v>
+      </c>
+      <c r="E4" s="9">
+        <v>10876</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>545</v>
+        <v>327</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>297</v>
+        <v>541</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="K4" s="20">
-        <v>15906</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>953</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="P4" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="150">
+      <c r="N4" s="8"/>
+      <c r="O4" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="1:16" ht="281.25" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="37" t="s">
-        <v>183</v>
+      <c r="B5" s="8" t="s">
+        <v>339</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="24">
-        <v>2683</v>
+        <v>340</v>
+      </c>
+      <c r="E5" s="9">
+        <v>9548</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>14</v>
+        <v>341</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>187</v>
+        <v>321</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>188</v>
+        <v>342</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="K5" s="10">
-        <v>16097</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>222</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="150">
+      <c r="N5" s="8"/>
+      <c r="O5" s="15" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="37" t="s">
-        <v>221</v>
+      <c r="B6" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="24">
-        <v>5623</v>
+        <v>201</v>
+      </c>
+      <c r="E6" s="9">
+        <v>8802</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>543</v>
+        <v>203</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="K6" s="10">
-        <v>18334</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="8" t="s">
-        <v>354</v>
-      </c>
+      <c r="N6" s="8"/>
       <c r="O6" s="15" t="s">
-        <v>805</v>
-      </c>
-      <c r="P6" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="150">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="37" t="s">
-        <v>272</v>
+      <c r="B7" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>275</v>
+        <v>319</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8657</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="K7" s="10">
-        <v>18834</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>922</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="7"/>
       <c r="N7" s="8"/>
       <c r="O7" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="6" customFormat="1" ht="206.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="6" customFormat="1" ht="225" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4786</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>952</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="P8"/>
+    </row>
+    <row r="9" spans="1:16" s="6" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="9">
         <v>3405</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J9" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K9" s="19" t="s">
         <v>1000</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="15" t="s">
-        <v>914</v>
-      </c>
-      <c r="P8"/>
-      <c r="Q8" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="6" customFormat="1" ht="206.25">
-      <c r="A9" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1467</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="K9" s="18">
-        <v>28403</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="M9" s="7"/>
       <c r="N9" s="8"/>
       <c r="O9" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="150">
+        <v>914</v>
+      </c>
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:16" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="8" t="s">
         <v>232</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -4589,7 +4468,7 @@
       <c r="I10" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="8" t="s">
         <v>239</v>
       </c>
       <c r="K10" s="20">
@@ -4601,536 +4480,510 @@
       <c r="O10" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="Q10" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="187.5">
+    </row>
+    <row r="11" spans="1:16" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="37" t="s">
-        <v>305</v>
+      <c r="B11" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E11" s="9">
-        <v>6102</v>
+        <v>162</v>
+      </c>
+      <c r="E11" s="24">
+        <v>4226</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>542</v>
+        <v>270</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>310</v>
+        <v>268</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="8"/>
       <c r="M11" s="7"/>
       <c r="N11" s="8"/>
       <c r="O11" s="15" t="s">
-        <v>765</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="150">
-      <c r="A12" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>137</v>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4377</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>138</v>
+        <v>544</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="206.25">
+        <v>405</v>
+      </c>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" ht="150" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="37" t="s">
-        <v>191</v>
+      <c r="B13" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E13" s="9">
-        <v>8348</v>
+        <v>186</v>
+      </c>
+      <c r="E13" s="24">
+        <v>2683</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
+        <v>190</v>
+      </c>
+      <c r="K13" s="10">
+        <v>16097</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>222</v>
+      </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="131.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="9">
-        <v>4377</v>
+      <c r="N13" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="24">
+        <v>6038</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>544</v>
+        <v>289</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="K14" s="8"/>
+        <v>292</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="K14" s="7"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="8"/>
       <c r="O14" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="6" customFormat="1" ht="150">
-      <c r="A15" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>127</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>125</v>
+        <v>162</v>
+      </c>
+      <c r="E15" s="9">
+        <v>4764</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>128</v>
+        <v>548</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>129</v>
+        <v>549</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>124</v>
+        <v>373</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="8"/>
       <c r="M15" s="7"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="O15" s="15" t="s">
+        <v>917</v>
+      </c>
       <c r="P15"/>
-      <c r="Q15" s="6" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="243.75">
+    </row>
+    <row r="16" spans="1:16" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="37" t="s">
-        <v>266</v>
+      <c r="B16" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="24">
-        <v>4226</v>
+        <v>243</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>990</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>269</v>
+        <v>547</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>271</v>
+        <v>550</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>267</v>
+        <v>246</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="8"/>
       <c r="M16" s="7"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="15" t="s">
-        <v>920</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="131.25">
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="37" t="s">
-        <v>241</v>
+      <c r="B17" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>990</v>
+        <v>249</v>
+      </c>
+      <c r="E17" s="9">
+        <v>6836</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>547</v>
+        <v>251</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
+        <v>250</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>950</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="Q17" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="6" customFormat="1" ht="37.5">
-      <c r="A18" s="8"/>
-      <c r="B18" s="37" t="s">
-        <v>593</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>594</v>
+      <c r="O17" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="6" customFormat="1" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E18" s="9">
+        <v>6102</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>939</v>
+        <v>307</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>595</v>
+        <v>542</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="I18" s="8"/>
+        <v>308</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="J18" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K18" s="18">
-        <v>37901</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="K18" s="7"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="M18" s="7"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="Q18" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="131.25">
-      <c r="A19" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>177</v>
+      <c r="O18" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:16" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E19" s="9">
-        <v>32552</v>
+        <v>154</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>757</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="20">
+        <v>27198</v>
+      </c>
+      <c r="L19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8"/>
       <c r="M19" s="7"/>
       <c r="N19" s="8"/>
       <c r="O19" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="131.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="37" t="s">
-        <v>184</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="150" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E20" s="9">
-        <v>5985</v>
+        <v>126</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>125</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>212</v>
+        <v>123</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="8"/>
       <c r="M20" s="7"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="6" customFormat="1" ht="150">
-      <c r="A21" s="7"/>
-      <c r="B21" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>162</v>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" s="6" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="E21" s="9">
-        <v>4764</v>
+        <v>1467</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>548</v>
+        <v>1027</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>549</v>
+        <v>174</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="K21" s="7"/>
+        <v>175</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" s="18">
+        <v>28403</v>
+      </c>
       <c r="L21" s="8"/>
-      <c r="M21" s="7"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="15" t="s">
-        <v>917</v>
-      </c>
-      <c r="P21"/>
-      <c r="Q21" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="93.75">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="37" t="s">
-        <v>213</v>
+      <c r="B22" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="24">
-        <v>738</v>
+        <v>208</v>
+      </c>
+      <c r="E22" s="9">
+        <v>5985</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="8"/>
       <c r="M22" s="7"/>
       <c r="N22" s="8"/>
       <c r="O22" s="15" t="s">
-        <v>804</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="168.75">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="37" t="s">
-        <v>1023</v>
+      <c r="B23" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>287</v>
+        <v>192</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E23" s="24">
-        <v>6038</v>
+        <v>193</v>
+      </c>
+      <c r="E23" s="9">
+        <v>8348</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>289</v>
+        <v>194</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>291</v>
+        <v>196</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>293</v>
+        <v>197</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="8"/>
       <c r="M23" s="7"/>
       <c r="N23" s="8"/>
       <c r="O23" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="243.75">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="281.25" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="8" t="s">
         <v>259</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -5154,7 +5007,7 @@
       <c r="I24" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="8" t="s">
         <v>265</v>
       </c>
       <c r="K24" s="7"/>
@@ -5164,1799 +5017,1656 @@
       <c r="O24" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="Q24" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="131.25">
+    </row>
+    <row r="25" spans="1:16" ht="150" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="37" t="s">
-        <v>143</v>
+      <c r="B25" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="9">
-        <v>215</v>
+        <v>220</v>
+      </c>
+      <c r="E25" s="24">
+        <v>5623</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>164</v>
+        <v>543</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="J25" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
+        <v>225</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K25" s="10">
+        <v>18334</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="M25" s="7"/>
-      <c r="N25" s="32"/>
+      <c r="N25" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="O25" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="6" customFormat="1" ht="112.5">
+        <v>805</v>
+      </c>
+      <c r="P25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="6" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="37" t="s">
-        <v>247</v>
+      <c r="B26" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E26" s="9">
-        <v>6836</v>
+        <v>303</v>
+      </c>
+      <c r="E26" s="24">
+        <v>6186</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>251</v>
+        <v>545</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>539</v>
+        <v>304</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="J26" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>950</v>
+        <v>302</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="K26" s="20">
+        <v>15906</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>14</v>
+        <v>953</v>
       </c>
       <c r="M26" s="7"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="P26"/>
-      <c r="Q26" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="75">
+      <c r="N26" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="P26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="150" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="37" t="s">
-        <v>226</v>
+      <c r="B27" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E27" s="9">
-        <v>1031</v>
+        <v>208</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>275</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="J27" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="8"/>
+        <v>279</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="K27" s="10">
+        <v>18834</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>922</v>
+      </c>
       <c r="M27" s="7"/>
       <c r="N27" s="8"/>
       <c r="O27" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1031</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="Q27" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="6" customFormat="1" ht="262.5" hidden="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="39" t="s">
-        <v>636</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>969</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="K28" s="10">
-        <v>16119</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="O28" s="13" t="s">
-        <v>429</v>
-      </c>
       <c r="P28"/>
     </row>
-    <row r="29" spans="1:17" ht="56.25" hidden="1">
-      <c r="A29" s="8"/>
+    <row r="29" spans="1:16" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>351</v>
+      </c>
       <c r="B29" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>437</v>
+        <v>177</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="E29" s="9">
-        <v>8428</v>
+        <v>32552</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>958</v>
-      </c>
-      <c r="G29" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="H29" s="8" t="s">
-        <v>460</v>
+        <v>180</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>748</v>
+        <v>181</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="K29" s="9">
-        <v>30210</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>959</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="O29" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="56.25" hidden="1">
+        <v>182</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>438</v>
+        <v>213</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E30" s="9">
-        <v>7395</v>
+        <v>126</v>
+      </c>
+      <c r="E30" s="24">
+        <v>738</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>522</v>
+        <v>215</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>542</v>
+        <v>216</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>460</v>
+        <v>217</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>749</v>
+        <v>219</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="K30" s="10">
-        <v>15906</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>418</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="8"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="O30" s="8"/>
-      <c r="P30" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="75" hidden="1">
+      <c r="N30" s="8"/>
+      <c r="O30" s="15" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="s">
-        <v>439</v>
+        <v>593</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9">
-        <v>7599</v>
+        <v>248</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>594</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>523</v>
+        <v>939</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>542</v>
+        <v>595</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>750</v>
-      </c>
+      <c r="I31" s="8"/>
       <c r="J31" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="K31" s="9">
-        <v>22443</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>375</v>
-      </c>
+        <v>1037</v>
+      </c>
+      <c r="K31" s="18">
+        <v>37901</v>
+      </c>
+      <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="8" t="s">
-        <v>376</v>
-      </c>
+      <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="1:17" s="6" customFormat="1" ht="56.25" hidden="1">
+    <row r="32" spans="1:16" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="8" t="s">
-        <v>441</v>
+        <v>697</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>109</v>
+        <v>443</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="9">
-        <v>7531</v>
+        <v>689</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>690</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>460</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>751</v>
+        <v>928</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>739</v>
-      </c>
-      <c r="K32" s="10">
-        <v>15153</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>381</v>
-      </c>
+        <v>929</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="8"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="O32" s="13"/>
-      <c r="P32" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="93.75" hidden="1">
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32"/>
+    </row>
+    <row r="33" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
-        <v>442</v>
+        <v>602</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>443</v>
+        <v>601</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>526</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
-        <v>203</v>
+        <v>604</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>752</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="I33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="K33" s="10">
-        <v>15955</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>394</v>
-      </c>
+        <v>1031</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="8"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="O33" s="13"/>
-    </row>
-    <row r="34" spans="1:16" ht="56.25" hidden="1">
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="8" t="s">
-        <v>445</v>
+        <v>553</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>446</v>
+        <v>554</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>234</v>
+        <v>555</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>527</v>
+        <v>556</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>528</v>
+        <v>907</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>460</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>753</v>
+        <v>908</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="K34" s="10">
-        <v>18834</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>410</v>
-      </c>
+        <v>909</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="8"/>
       <c r="M34" s="7"/>
-      <c r="N34" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="O34" s="13"/>
-    </row>
-    <row r="35" spans="1:16" ht="75" hidden="1">
-      <c r="A35" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="1:16" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
       <c r="B35" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>529</v>
+        <v>664</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="E35" s="9">
+        <v>716</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>460</v>
+        <v>647</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>966</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>754</v>
+        <v>861</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="K35" s="9">
-        <v>34087</v>
-      </c>
-      <c r="L35" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="K35" s="27">
+        <v>18799</v>
+      </c>
+      <c r="L35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="75" hidden="1">
-      <c r="A36" s="8"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="1:16" ht="75" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>451</v>
+        <v>669</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>598</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>531</v>
+        <v>709</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8" t="s">
-        <v>460</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H36" s="8"/>
       <c r="I36" s="8" t="s">
-        <v>755</v>
+        <v>910</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="K36" s="9">
-        <v>17914</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="O36" s="14"/>
-      <c r="P36" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="56.25" hidden="1">
+        <v>711</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>965</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="7"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>452</v>
+        <v>644</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>453</v>
+        <v>622</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>533</v>
+        <v>598</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>623</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>968</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>756</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>981</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="K37" s="10">
-        <v>31186</v>
-      </c>
-      <c r="L37" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="K37" s="27">
+        <v>21282</v>
+      </c>
+      <c r="L37" s="28" t="s">
         <v>14</v>
       </c>
       <c r="M37" s="7"/>
       <c r="N37" s="8"/>
-      <c r="O37" s="13"/>
-      <c r="P37" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="75" hidden="1">
-      <c r="A38" s="7"/>
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="1:16" ht="75" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
       <c r="B38" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>456</v>
+        <v>608</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>459</v>
       </c>
       <c r="E38" s="9">
-        <v>8253</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>535</v>
-      </c>
+        <v>7484</v>
+      </c>
+      <c r="F38" s="8"/>
       <c r="G38" s="8" t="s">
-        <v>346</v>
+        <v>607</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>760</v>
-      </c>
+      <c r="I38" s="8"/>
       <c r="J38" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="K38" s="10">
-        <v>15659</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="M38" s="7"/>
+        <v>1040</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="15" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M38" s="8"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="13"/>
-    </row>
-    <row r="39" spans="1:16" ht="37.5" hidden="1">
+      <c r="O38" s="8"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>457</v>
+        <v>633</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>458</v>
+        <v>185</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="E39" s="9">
-        <v>7534</v>
+        <v>634</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>635</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>537</v>
+        <v>775</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>460</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="H39" s="8"/>
       <c r="I39" s="8" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="K39" s="10">
-        <v>15231</v>
+        <v>16320</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="O39" s="13" t="s">
-        <v>745</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="O39" s="13"/>
       <c r="P39" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="75" hidden="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>461</v>
+        <v>670</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>462</v>
+        <v>584</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>766</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="K40" s="10">
-        <v>28895</v>
-      </c>
-      <c r="L40" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="L40" s="23" t="s">
         <v>14</v>
       </c>
       <c r="M40" s="7"/>
-      <c r="N40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O40" s="13"/>
-      <c r="P40" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="112.5" hidden="1">
-      <c r="A41" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+    </row>
+    <row r="41" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="E41" s="9">
-        <v>7776</v>
+        <v>592</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>590</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="G41" s="8"/>
+        <v>941</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>591</v>
+      </c>
       <c r="H41" s="8" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>771</v>
+        <v>932</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="K41" s="9">
-        <v>33397</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="O41" s="13"/>
-      <c r="P41" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="56.25" hidden="1">
+        <v>933</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+    </row>
+    <row r="42" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>633</v>
+        <v>480</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>185</v>
+        <v>481</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>635</v>
+        <v>249</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>816</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="H42" s="8"/>
+        <v>817</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="I42" s="8" t="s">
-        <v>774</v>
+        <v>815</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>776</v>
+        <v>818</v>
       </c>
       <c r="K42" s="10">
-        <v>16320</v>
+        <v>16098</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="8" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="O42" s="13"/>
-      <c r="P42" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="37.5" hidden="1">
+    </row>
+    <row r="43" spans="1:16" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
-      <c r="B43" s="39" t="s">
-        <v>465</v>
+      <c r="B43" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>466</v>
+        <v>167</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>811</v>
+        <v>168</v>
+      </c>
+      <c r="E43" s="9">
+        <v>7465</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8" t="s">
-        <v>460</v>
+        <v>169</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>975</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="J43" s="38" t="s">
-        <v>779</v>
-      </c>
-      <c r="K43" s="9">
-        <v>15309</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>938</v>
+        <v>141</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="15" t="s">
+        <v>976</v>
       </c>
       <c r="N43" s="8"/>
-      <c r="O43" s="13"/>
+      <c r="O43" s="15" t="s">
+        <v>916</v>
+      </c>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="1:16" ht="112.5" hidden="1">
-      <c r="A44" s="7"/>
+    <row r="44" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>351</v>
+      </c>
       <c r="B44" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" s="9">
+        <v>149</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>150</v>
       </c>
+      <c r="D44" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>157</v>
+      </c>
       <c r="F44" s="8" t="s">
-        <v>781</v>
+        <v>158</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>618</v>
+        <v>159</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>504</v>
+        <v>170</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>780</v>
+        <v>152</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="K44" s="10">
-        <v>14910</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="M44" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="K44" s="18">
+        <v>22443</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>957</v>
+      </c>
+      <c r="M44" s="8"/>
       <c r="N44" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="O44" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="P44" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="56.25" hidden="1">
-      <c r="A45" s="8"/>
+        <v>393</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="1:16" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>785</v>
+        <v>143</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="9">
+        <v>215</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="G45" s="8"/>
+        <v>163</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="H45" s="8" t="s">
-        <v>460</v>
+        <v>165</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>783</v>
+        <v>147</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>786</v>
-      </c>
-      <c r="K45" s="18">
-        <v>27526</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>946</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>945</v>
-      </c>
-      <c r="N45" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="O45" s="13" t="s">
-        <v>745</v>
-      </c>
-      <c r="P45" s="6"/>
-    </row>
-    <row r="46" spans="1:16" ht="168.75" hidden="1">
+        <v>166</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="8" t="s">
-        <v>469</v>
+        <v>684</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>115</v>
+        <v>682</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>788</v>
+        <v>683</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>685</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>787</v>
-      </c>
+        <v>734</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="K46" s="10">
-        <v>15386</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>400</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="K46" s="7"/>
+      <c r="L46" s="8"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="O46" s="13" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="6" customFormat="1" ht="75" hidden="1">
-      <c r="A47" s="7"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+    </row>
+    <row r="47" spans="1:16" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
       <c r="B47" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="E47" s="24">
-        <v>7974</v>
+        <v>599</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>600</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="G47" s="8"/>
+        <v>940</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>572</v>
+      </c>
       <c r="H47" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="I47" s="8" t="s">
-        <v>791</v>
-      </c>
+      <c r="I47" s="8"/>
       <c r="J47" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="K47" s="10">
-        <v>15919</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="M47" s="7"/>
-      <c r="N47" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="O47" s="13"/>
-      <c r="P47" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="56.25" hidden="1">
+        <v>1038</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+    </row>
+    <row r="48" spans="1:16" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="E48" s="24">
-        <v>8625</v>
+        <v>444</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>525</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="G48" s="8"/>
+        <v>526</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="H48" s="8" t="s">
         <v>460</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>795</v>
+        <v>752</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>796</v>
+        <v>740</v>
       </c>
       <c r="K48" s="10">
-        <v>14912</v>
+        <v>15955</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="8" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="O48" s="13"/>
-      <c r="P48" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="93.75" hidden="1">
-      <c r="A49" s="8"/>
+    </row>
+    <row r="49" spans="1:16" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>179</v>
+        <v>585</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>584</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>798</v>
+        <v>586</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>797</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>988</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="K49" s="21" t="s">
-        <v>954</v>
-      </c>
-      <c r="L49" s="15" t="s">
-        <v>955</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>956</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="O49" s="13"/>
-      <c r="P49" s="6"/>
-    </row>
-    <row r="50" spans="1:16" ht="225" hidden="1">
+        <v>733</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="8"/>
+    </row>
+    <row r="50" spans="1:16" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="8" t="s">
-        <v>639</v>
+        <v>517</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>640</v>
+        <v>333</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>889</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>504</v>
+        <v>890</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>979</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>801</v>
+        <v>888</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>802</v>
+        <v>891</v>
       </c>
       <c r="K50" s="10">
-        <v>15764</v>
+        <v>22420</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>389</v>
+        <v>944</v>
       </c>
       <c r="M50" s="7"/>
-      <c r="N50" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="O50" s="13"/>
-    </row>
-    <row r="51" spans="1:16" ht="225" hidden="1">
-      <c r="A51" s="8" t="s">
-        <v>351</v>
-      </c>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+    </row>
+    <row r="51" spans="1:16" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
       <c r="B51" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>157</v>
+        <v>499</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>854</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>170</v>
+        <v>855</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="15" t="s">
+        <v>998</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>152</v>
+        <v>853</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="K51" s="18">
-        <v>22443</v>
-      </c>
-      <c r="L51" s="15" t="s">
-        <v>957</v>
-      </c>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="O51" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="P51" s="6"/>
-    </row>
-    <row r="52" spans="1:16" s="6" customFormat="1" ht="56.25" hidden="1">
+        <v>856</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="L51" s="11"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="15" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="6" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="s">
-        <v>479</v>
+        <v>610</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>167</v>
+        <v>514</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" s="24">
-        <v>7909</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>812</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>985</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>986</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
       <c r="J52" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="K52" s="10">
-        <v>16263</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>431</v>
-      </c>
+        <v>993</v>
+      </c>
+      <c r="K52" s="20">
+        <v>31215</v>
+      </c>
+      <c r="L52" s="8"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="O52" s="13" t="s">
-        <v>745</v>
-      </c>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
       <c r="P52"/>
     </row>
-    <row r="53" spans="1:16" ht="75" hidden="1">
-      <c r="A53" s="7"/>
+    <row r="53" spans="1:16" ht="75" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>816</v>
+        <v>501</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>858</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>817</v>
+        <v>859</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8" t="s">
         <v>460</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>815</v>
+        <v>857</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="K53" s="10">
-        <v>16098</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="M53" s="7"/>
-      <c r="N53" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="O53" s="13"/>
-    </row>
-    <row r="54" spans="1:16" s="6" customFormat="1" ht="75" hidden="1">
-      <c r="A54" s="7"/>
+        <v>860</v>
+      </c>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="9" t="s">
+        <v>943</v>
+      </c>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="6"/>
+    </row>
+    <row r="54" spans="1:16" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>820</v>
+        <v>450</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>531</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>821</v>
+        <v>532</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8" t="s">
         <v>460</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>819</v>
+        <v>755</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="K54" s="10">
-        <v>36848</v>
+        <v>743</v>
+      </c>
+      <c r="K54" s="9">
+        <v>17914</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M54" s="7"/>
+        <v>355</v>
+      </c>
+      <c r="M54" s="8"/>
       <c r="N54" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="O54" s="13"/>
-      <c r="P54"/>
-    </row>
-    <row r="55" spans="1:16" s="6" customFormat="1" ht="56.25" hidden="1">
-      <c r="A55" s="8"/>
+        <v>355</v>
+      </c>
+      <c r="O54" s="14"/>
+      <c r="P54" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>824</v>
+        <v>515</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="9">
+        <v>8438</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>825</v>
+        <v>882</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8" t="s">
         <v>460</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>823</v>
+        <v>881</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>826</v>
-      </c>
-      <c r="K55" s="9">
-        <v>15276</v>
-      </c>
-      <c r="L55" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="K55" s="7"/>
+      <c r="L55" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M55" s="8" t="s">
-        <v>942</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="O55" s="13"/>
-      <c r="P55" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="56.25" hidden="1">
+      <c r="M55" s="7"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55"/>
+    </row>
+    <row r="56" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="8" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>109</v>
+        <v>453</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>828</v>
+        <v>162</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>533</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="G56" s="8"/>
+        <v>534</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>968</v>
+      </c>
       <c r="H56" s="8" t="s">
         <v>460</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>827</v>
+        <v>756</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>830</v>
+        <v>744</v>
       </c>
       <c r="K56" s="10">
-        <v>24649</v>
+        <v>31186</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>14</v>
       </c>
       <c r="M56" s="7"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="8"/>
-    </row>
-    <row r="57" spans="1:16" ht="75" hidden="1">
+      <c r="N56" s="8"/>
+      <c r="O56" s="13"/>
+      <c r="P56" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
-        <v>490</v>
+        <v>657</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="E57" s="24">
-        <v>6554</v>
+        <v>162</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>655</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>832</v>
-      </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8" t="s">
-        <v>460</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="H57" s="8"/>
       <c r="I57" s="8" t="s">
-        <v>831</v>
+        <v>983</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="K57" s="17" t="s">
-        <v>921</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="K57" s="7"/>
+      <c r="L57" s="8"/>
       <c r="M57" s="7"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
     </row>
-    <row r="58" spans="1:16" ht="112.5" hidden="1">
+    <row r="58" spans="1:16" ht="281.25" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="8" t="s">
-        <v>492</v>
+        <v>345</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>453</v>
+        <v>161</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="E58" s="9">
-        <v>6559</v>
+        <v>162</v>
+      </c>
+      <c r="E58" s="24">
+        <v>4814</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>839</v>
-      </c>
-      <c r="G58" s="8"/>
+        <v>433</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>346</v>
+      </c>
       <c r="H58" s="8" t="s">
-        <v>460</v>
+        <v>347</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>838</v>
+        <v>348</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>840</v>
-      </c>
-      <c r="K58" s="10">
-        <v>26482</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>924</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="8"/>
       <c r="M58" s="7"/>
       <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-    </row>
-    <row r="59" spans="1:16" ht="112.5" hidden="1">
+      <c r="O58" s="15" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="8" t="s">
-        <v>492</v>
+        <v>617</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>478</v>
+        <v>167</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>110</v>
+        <v>584</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>835</v>
+        <v>561</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8" t="s">
-        <v>460</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="H59" s="8"/>
       <c r="I59" s="8" t="s">
-        <v>834</v>
+        <v>960</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>837</v>
-      </c>
-      <c r="K59" s="10">
-        <v>16502</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>923</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="K59" s="20">
+        <v>26805</v>
+      </c>
+      <c r="L59" s="8"/>
       <c r="M59" s="7"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
     </row>
-    <row r="60" spans="1:16" ht="75" hidden="1">
+    <row r="60" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="8" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>248</v>
+        <v>455</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>842</v>
+        <v>456</v>
+      </c>
+      <c r="E60" s="9">
+        <v>8253</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>843</v>
-      </c>
-      <c r="G60" s="8"/>
+        <v>535</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>346</v>
+      </c>
       <c r="H60" s="8" t="s">
         <v>460</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>841</v>
+        <v>760</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>844</v>
-      </c>
-      <c r="K60" s="17" t="s">
-        <v>925</v>
+        <v>761</v>
+      </c>
+      <c r="K60" s="10">
+        <v>15659</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>14</v>
+        <v>398</v>
       </c>
       <c r="M60" s="7"/>
       <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-    </row>
-    <row r="61" spans="1:16" ht="75" hidden="1">
-      <c r="A61" s="7"/>
+      <c r="O60" s="13"/>
+    </row>
+    <row r="61" spans="1:16" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>702</v>
+        <v>477</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>798</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>628</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="G61" s="8"/>
       <c r="H61" s="8" t="s">
-        <v>504</v>
+        <v>460</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>845</v>
+        <v>797</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="K61" s="29">
-        <v>30215</v>
-      </c>
-      <c r="L61" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M61" s="7"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-    </row>
-    <row r="62" spans="1:16" s="6" customFormat="1" ht="56.25" hidden="1">
+        <v>800</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>954</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="M61" s="15" t="s">
+        <v>956</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="O61" s="13"/>
+      <c r="P61" s="6"/>
+    </row>
+    <row r="62" spans="1:16" s="6" customFormat="1" ht="225" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="8" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>645</v>
+        <v>638</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>640</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>704</v>
+        <v>641</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="I62" s="8"/>
+      <c r="I62" s="8" t="s">
+        <v>801</v>
+      </c>
       <c r="J62" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="K62" s="29">
-        <v>31156</v>
-      </c>
-      <c r="L62" s="11" t="s">
-        <v>14</v>
+        <v>802</v>
+      </c>
+      <c r="K62" s="10">
+        <v>15764</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="M62" s="7"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
+      <c r="N62" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="O62" s="13"/>
       <c r="P62"/>
     </row>
-    <row r="63" spans="1:16" ht="75" hidden="1">
+    <row r="63" spans="1:16" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
-        <v>496</v>
+        <v>687</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>497</v>
+        <v>681</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>846</v>
+        <v>688</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8" t="s">
-        <v>460</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>995</v>
+      </c>
+      <c r="H63" s="8"/>
       <c r="I63" s="8" t="s">
-        <v>848</v>
+        <v>1015</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="K63" s="29">
-        <v>41953</v>
-      </c>
-      <c r="L63" s="11" t="s">
-        <v>536</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="K63" s="7"/>
+      <c r="L63" s="8"/>
       <c r="M63" s="7"/>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
     </row>
-    <row r="64" spans="1:16" ht="56.25" hidden="1">
-      <c r="A64" s="7"/>
+    <row r="64" spans="1:16" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>162</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D64" s="8"/>
       <c r="E64" s="9">
-        <v>5814</v>
+        <v>7599</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>851</v>
-      </c>
-      <c r="G64" s="8"/>
+        <v>523</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>542</v>
+      </c>
       <c r="H64" s="8" t="s">
         <v>460</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="K64" s="29">
-        <v>28120</v>
-      </c>
-      <c r="L64" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="M64" s="7"/>
-      <c r="N64" s="8"/>
+        <v>738</v>
+      </c>
+      <c r="K64" s="9">
+        <v>22443</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8" t="s">
+        <v>376</v>
+      </c>
       <c r="O64" s="8"/>
-    </row>
-    <row r="65" spans="1:16" ht="93.75" hidden="1">
+      <c r="P64" s="6"/>
+    </row>
+    <row r="65" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="8" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>254</v>
+        <v>483</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>854</v>
+        <v>484</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>820</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>855</v>
+        <v>821</v>
       </c>
       <c r="G65" s="8"/>
-      <c r="H65" s="15" t="s">
-        <v>998</v>
+      <c r="H65" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>853</v>
+        <v>819</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="K65" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="L65" s="11"/>
+        <v>822</v>
+      </c>
+      <c r="K65" s="10">
+        <v>36848</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="M65" s="7"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="15" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="75" hidden="1">
-      <c r="A66" s="8"/>
+      <c r="N65" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="O65" s="13"/>
+    </row>
+    <row r="66" spans="1:16" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
       <c r="B66" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>162</v>
+        <v>643</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>858</v>
+        <v>728</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>857</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>974</v>
+      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
       <c r="J66" s="8" t="s">
-        <v>860</v>
-      </c>
-      <c r="K66" s="8"/>
+        <v>729</v>
+      </c>
+      <c r="K66" s="7"/>
       <c r="L66" s="8"/>
-      <c r="M66" s="9" t="s">
-        <v>943</v>
-      </c>
+      <c r="M66" s="7"/>
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
-      <c r="P66" s="6"/>
-    </row>
-    <row r="67" spans="1:16" ht="93.75" hidden="1">
-      <c r="A67" s="7"/>
+    </row>
+    <row r="67" spans="1:16" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>646</v>
+        <v>463</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>464</v>
       </c>
       <c r="E67" s="9">
-        <v>716</v>
+        <v>7776</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>967</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>966</v>
+        <v>772</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>861</v>
+        <v>771</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="K67" s="27">
-        <v>18799</v>
-      </c>
-      <c r="L67" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="K67" s="9">
+        <v>33397</v>
+      </c>
+      <c r="L67" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M67" s="7"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-    </row>
-    <row r="68" spans="1:16" ht="150" hidden="1">
+      <c r="M67" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="O67" s="13"/>
+      <c r="P67" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
-        <v>502</v>
+        <v>331</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>185</v>
+        <v>332</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="E68" s="9">
-        <v>6632</v>
+        <v>333</v>
+      </c>
+      <c r="E68" s="24">
+        <v>11000</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>1019</v>
+        <v>334</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>862</v>
+        <v>337</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>864</v>
+        <v>338</v>
       </c>
       <c r="K68" s="7"/>
       <c r="L68" s="8"/>
@@ -6964,7 +6674,7 @@
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
     </row>
-    <row r="69" spans="1:16" ht="187.5" hidden="1">
+    <row r="69" spans="1:16" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="8" t="s">
         <v>505</v>
@@ -7001,666 +6711,673 @@
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
     </row>
-    <row r="70" spans="1:16" ht="187.5" hidden="1">
-      <c r="A70" s="7" t="s">
-        <v>351</v>
-      </c>
+    <row r="70" spans="1:16" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>111</v>
+        <v>518</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>893</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>114</v>
+        <v>894</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>992</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>112</v>
+        <v>892</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="K70" s="20">
-        <v>17914</v>
-      </c>
-      <c r="L70" s="15" t="s">
-        <v>1025</v>
-      </c>
-      <c r="M70" s="7"/>
+        <v>895</v>
+      </c>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="15" t="s">
+        <v>1029</v>
+      </c>
       <c r="N70" s="8"/>
-      <c r="O70" s="15" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" s="6" customFormat="1" ht="112.5" hidden="1">
-      <c r="A71" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="6"/>
+    </row>
+    <row r="71" spans="1:16" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
       <c r="B71" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>509</v>
+        <v>177</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>870</v>
+        <v>621</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>871</v>
+        <v>620</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>460</v>
-      </c>
+        <v>1012</v>
+      </c>
+      <c r="H71" s="8"/>
       <c r="I71" s="8" t="s">
-        <v>869</v>
+        <v>963</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>872</v>
-      </c>
-      <c r="K71" s="9">
-        <v>26090</v>
-      </c>
-      <c r="L71" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>937</v>
-      </c>
+        <v>964</v>
+      </c>
+      <c r="K71" s="7"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="7"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
-    </row>
-    <row r="72" spans="1:16" ht="56.25" hidden="1">
+      <c r="P71"/>
+    </row>
+    <row r="72" spans="1:16" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
-        <v>510</v>
+        <v>615</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>511</v>
+        <v>161</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>873</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>874</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>967</v>
-      </c>
-      <c r="H72" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E72" s="12">
+        <v>324</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H72" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="I72" s="8" t="s">
-        <v>875</v>
-      </c>
+      <c r="I72" s="8"/>
       <c r="J72" s="8" t="s">
-        <v>876</v>
-      </c>
-      <c r="K72" s="20">
-        <v>33889</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="K72" s="7"/>
       <c r="L72" s="8"/>
       <c r="M72" s="7"/>
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
     </row>
-    <row r="73" spans="1:16" ht="112.5" hidden="1">
-      <c r="A73" s="8"/>
+    <row r="73" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
       <c r="B73" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>878</v>
+        <v>457</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E73" s="9">
+        <v>7534</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>879</v>
-      </c>
-      <c r="G73" s="8"/>
+        <v>537</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>346</v>
+      </c>
       <c r="H73" s="8" t="s">
         <v>460</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>877</v>
+        <v>762</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="15" t="s">
-        <v>1026</v>
-      </c>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="6"/>
-    </row>
-    <row r="74" spans="1:16" ht="56.25" hidden="1">
-      <c r="A74" s="7"/>
+        <v>764</v>
+      </c>
+      <c r="K73" s="10">
+        <v>15231</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="M73" s="7"/>
+      <c r="N73" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="O73" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="P73" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>116</v>
+        <v>596</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>588</v>
       </c>
       <c r="E74" s="9">
-        <v>8438</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="G74" s="8"/>
+        <v>6849</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>597</v>
+      </c>
       <c r="H74" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="I74" s="8" t="s">
-        <v>881</v>
-      </c>
+      <c r="I74" s="8"/>
       <c r="J74" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="K74" s="7"/>
-      <c r="L74" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M74" s="7"/>
+        <v>1036</v>
+      </c>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
-    </row>
-    <row r="75" spans="1:16" ht="112.5" hidden="1">
-      <c r="A75" s="7"/>
+      <c r="P74" s="6"/>
+    </row>
+    <row r="75" spans="1:16" ht="187.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>351</v>
+      </c>
       <c r="B75" s="8" t="s">
-        <v>516</v>
+        <v>119</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>885</v>
+        <v>116</v>
+      </c>
+      <c r="E75" s="9">
+        <v>1421</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>886</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>1028</v>
+        <v>117</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>460</v>
+        <v>121</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>884</v>
+        <v>120</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>887</v>
+        <v>122</v>
       </c>
       <c r="K75" s="7"/>
       <c r="L75" s="8"/>
       <c r="M75" s="7"/>
       <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-    </row>
-    <row r="76" spans="1:16" ht="75" hidden="1">
+      <c r="O75" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="8" t="s">
-        <v>698</v>
+        <v>616</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>706</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="E76" s="9">
+        <v>7993</v>
+      </c>
+      <c r="F76" s="8"/>
       <c r="G76" s="15" t="s">
-        <v>980</v>
-      </c>
-      <c r="H76" s="8"/>
+        <v>1020</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8" t="s">
-        <v>707</v>
-      </c>
-      <c r="K76" s="20">
-        <v>28439</v>
-      </c>
-      <c r="L76" s="15" t="s">
-        <v>14</v>
-      </c>
+        <v>1033</v>
+      </c>
+      <c r="K76" s="7"/>
+      <c r="L76" s="8"/>
       <c r="M76" s="7"/>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
     </row>
-    <row r="77" spans="1:16" s="6" customFormat="1" ht="131.25" hidden="1">
+    <row r="77" spans="1:16" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="8" t="s">
-        <v>100</v>
+        <v>694</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>757</v>
+        <v>333</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>695</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>759</v>
-      </c>
+        <v>696</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>987</v>
+      </c>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
       <c r="J77" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="K77" s="20">
-        <v>27198</v>
-      </c>
-      <c r="L77" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>1011</v>
+      </c>
+      <c r="K77" s="7"/>
+      <c r="L77" s="8"/>
       <c r="M77" s="7"/>
       <c r="N77" s="8"/>
-      <c r="O77" s="15" t="s">
-        <v>370</v>
-      </c>
+      <c r="O77" s="8"/>
       <c r="P77"/>
     </row>
-    <row r="78" spans="1:16" ht="93.75" hidden="1">
-      <c r="A78" s="7"/>
+    <row r="78" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>889</v>
+        <v>435</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E78" s="9">
+        <v>8428</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>890</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>979</v>
+        <v>958</v>
+      </c>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>888</v>
+        <v>748</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>891</v>
-      </c>
-      <c r="K78" s="10">
-        <v>22420</v>
+        <v>736</v>
+      </c>
+      <c r="K78" s="9">
+        <v>30210</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>944</v>
-      </c>
-      <c r="M78" s="7"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-    </row>
-    <row r="79" spans="1:16" ht="131.25" hidden="1">
-      <c r="A79" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="N78" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="O78" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
       <c r="B79" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>893</v>
+        <v>557</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>558</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>894</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>967</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>992</v>
+        <v>911</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>895</v>
-      </c>
-      <c r="K79" s="8"/>
+        <v>913</v>
+      </c>
+      <c r="K79" s="7"/>
       <c r="L79" s="8"/>
-      <c r="M79" s="15" t="s">
-        <v>1029</v>
-      </c>
+      <c r="M79" s="7"/>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
-      <c r="P79" s="6"/>
-    </row>
-    <row r="80" spans="1:16" ht="187.5" hidden="1">
+    </row>
+    <row r="80" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="8" t="s">
-        <v>325</v>
+        <v>438</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>326</v>
+        <v>207</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="E80" s="9">
-        <v>10876</v>
+        <v>7395</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>327</v>
+        <v>522</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>328</v>
+        <v>460</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>329</v>
+        <v>749</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="K80" s="7"/>
-      <c r="L80" s="8"/>
+        <v>737</v>
+      </c>
+      <c r="K80" s="10">
+        <v>15906</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>418</v>
+      </c>
       <c r="M80" s="7"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="15" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="75" hidden="1">
+      <c r="N80" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c r="P80" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="8" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>453</v>
+        <v>109</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>897</v>
+        <v>162</v>
+      </c>
+      <c r="E81" s="9">
+        <v>7531</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="G81" s="8"/>
+        <v>524</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>542</v>
+      </c>
       <c r="H81" s="8" t="s">
         <v>460</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>896</v>
+        <v>751</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>899</v>
-      </c>
-      <c r="K81" s="7"/>
-      <c r="L81" s="8"/>
+        <v>739</v>
+      </c>
+      <c r="K81" s="10">
+        <v>15153</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>381</v>
+      </c>
       <c r="M81" s="7"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-    </row>
-    <row r="82" spans="1:16" ht="112.5" hidden="1">
-      <c r="A82" s="7"/>
+      <c r="N81" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="O81" s="13"/>
+      <c r="P81" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>901</v>
+        <v>581</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="E82" s="24">
+        <v>7947</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>902</v>
-      </c>
-      <c r="G82" s="8"/>
+        <v>989</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>575</v>
+      </c>
       <c r="H82" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="I82" s="8" t="s">
-        <v>900</v>
-      </c>
+      <c r="I82" s="8"/>
       <c r="J82" s="8" t="s">
-        <v>903</v>
-      </c>
-      <c r="K82" s="7"/>
+        <v>1035</v>
+      </c>
+      <c r="K82" s="18">
+        <v>36657</v>
+      </c>
       <c r="L82" s="8"/>
-      <c r="M82" s="7"/>
+      <c r="M82" s="8"/>
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
-    </row>
-    <row r="83" spans="1:16" s="6" customFormat="1" ht="75" hidden="1">
+      <c r="P82" s="6"/>
+    </row>
+    <row r="83" spans="1:16" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="8" t="s">
-        <v>669</v>
+        <v>488</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>709</v>
+        <v>489</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>828</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H83" s="8"/>
+        <v>829</v>
+      </c>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="I83" s="8" t="s">
-        <v>910</v>
+        <v>827</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="K83" s="19" t="s">
-        <v>965</v>
-      </c>
-      <c r="L83" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="K83" s="10">
+        <v>24649</v>
+      </c>
+      <c r="L83" s="8" t="s">
         <v>14</v>
       </c>
       <c r="M83" s="7"/>
-      <c r="N83" s="8"/>
+      <c r="N83" s="37"/>
       <c r="O83" s="8"/>
       <c r="P83"/>
     </row>
-    <row r="84" spans="1:16" ht="75" hidden="1">
-      <c r="A84" s="7"/>
+    <row r="84" spans="1:16" ht="150" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>351</v>
+      </c>
       <c r="B84" s="8" t="s">
-        <v>551</v>
+        <v>134</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>478</v>
+        <v>135</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>476</v>
+        <v>136</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>552</v>
+        <v>137</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>905</v>
+        <v>138</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>346</v>
+        <v>131</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>460</v>
+        <v>133</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>904</v>
+        <v>139</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>906</v>
+        <v>140</v>
       </c>
       <c r="K84" s="7"/>
       <c r="L84" s="8"/>
       <c r="M84" s="7"/>
       <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-    </row>
-    <row r="85" spans="1:16" ht="75" hidden="1">
+      <c r="O84" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="8" t="s">
-        <v>553</v>
+        <v>479</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>554</v>
+        <v>167</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>556</v>
+        <v>110</v>
+      </c>
+      <c r="E85" s="24">
+        <v>7909</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>907</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>236</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="G85" s="8"/>
       <c r="H85" s="8" t="s">
         <v>460</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>908</v>
+        <v>812</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="K85" s="7"/>
-      <c r="L85" s="8"/>
+        <v>814</v>
+      </c>
+      <c r="K85" s="10">
+        <v>16263</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>431</v>
+      </c>
       <c r="M85" s="7"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-    </row>
-    <row r="86" spans="1:16" ht="131.25" hidden="1">
-      <c r="A86" s="8"/>
+      <c r="N85" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="O85" s="13" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="75" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
       <c r="B86" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E86" s="9">
-        <v>7465</v>
+        <v>698</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>699</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="H86" s="15" t="s">
-        <v>975</v>
-      </c>
-      <c r="I86" s="8" t="s">
-        <v>141</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
       <c r="J86" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="15" t="s">
-        <v>976</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="K86" s="20">
+        <v>28439</v>
+      </c>
+      <c r="L86" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M86" s="7"/>
       <c r="N86" s="8"/>
-      <c r="O86" s="15" t="s">
-        <v>916</v>
-      </c>
-      <c r="P86" s="6"/>
-    </row>
-    <row r="87" spans="1:16" ht="37.5" hidden="1">
+      <c r="O86" s="8"/>
+    </row>
+    <row r="87" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
       <c r="B87" s="8" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>466</v>
+        <v>569</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>558</v>
+        <v>145</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>716</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>911</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>912</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>991</v>
+      </c>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
       <c r="J87" s="8" t="s">
-        <v>913</v>
+        <v>718</v>
       </c>
       <c r="K87" s="7"/>
       <c r="L87" s="8"/>
@@ -7668,62 +7385,69 @@
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
     </row>
-    <row r="88" spans="1:16" ht="56.25" hidden="1">
-      <c r="A88" s="8"/>
+    <row r="88" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="7"/>
       <c r="B88" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E88" s="12">
-        <v>8664</v>
-      </c>
-      <c r="F88" s="8"/>
+        <v>663</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>704</v>
+      </c>
       <c r="G88" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="H88" s="15" t="s">
-        <v>1044</v>
+        <v>629</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>504</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8" t="s">
-        <v>1043</v>
-      </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
+        <v>705</v>
+      </c>
+      <c r="K88" s="29">
+        <v>31156</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M88" s="7"/>
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
-      <c r="P88" s="6"/>
-    </row>
-    <row r="89" spans="1:16" ht="56.25" hidden="1">
+    </row>
+    <row r="89" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="8" t="s">
-        <v>666</v>
+        <v>587</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>665</v>
+        <v>436</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>977</v>
-      </c>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
+        <v>503</v>
+      </c>
+      <c r="E89" s="24">
+        <v>7077</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>934</v>
+      </c>
       <c r="J89" s="8" t="s">
-        <v>667</v>
+        <v>935</v>
       </c>
       <c r="K89" s="7"/>
       <c r="L89" s="8"/>
@@ -7731,271 +7455,307 @@
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
     </row>
-    <row r="90" spans="1:16" ht="93.75" hidden="1">
+    <row r="90" spans="1:16" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
       <c r="B90" s="8" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C90" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E90" s="9">
+        <v>150</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="K90" s="10">
+        <v>14910</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M90" s="7"/>
+      <c r="N90" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="O90" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="P90" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>978</v>
-      </c>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8" t="s">
-        <v>960</v>
-      </c>
-      <c r="J90" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="K90" s="20">
-        <v>26805</v>
-      </c>
-      <c r="L90" s="8"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-    </row>
-    <row r="91" spans="1:16" ht="56.25" hidden="1">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>692</v>
+      <c r="D91" s="8" t="s">
+        <v>605</v>
       </c>
       <c r="E91" s="9">
-        <v>422</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H91" s="8"/>
+        <v>7551</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="K91" s="7"/>
+        <v>1039</v>
+      </c>
+      <c r="K91" s="8"/>
       <c r="L91" s="8"/>
-      <c r="M91" s="7"/>
+      <c r="M91" s="8"/>
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
-    </row>
-    <row r="92" spans="1:16" ht="56.25" hidden="1">
+      <c r="P91" s="6"/>
+    </row>
+    <row r="92" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
       <c r="B92" s="8" t="s">
-        <v>317</v>
+        <v>498</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>318</v>
+        <v>185</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>319</v>
+        <v>162</v>
       </c>
       <c r="E92" s="9">
-        <v>8657</v>
+        <v>5814</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>321</v>
-      </c>
+        <v>851</v>
+      </c>
+      <c r="G92" s="8"/>
       <c r="H92" s="8" t="s">
-        <v>322</v>
+        <v>460</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>323</v>
+        <v>850</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="K92" s="7"/>
-      <c r="L92" s="8"/>
+        <v>852</v>
+      </c>
+      <c r="K92" s="29">
+        <v>28120</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>538</v>
+      </c>
       <c r="M92" s="7"/>
       <c r="N92" s="8"/>
-      <c r="O92" s="15" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" ht="93.75" hidden="1">
+      <c r="O92" s="8"/>
+    </row>
+    <row r="93" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
       <c r="B93" s="8" t="s">
-        <v>331</v>
+        <v>490</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>332</v>
+        <v>192</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>333</v>
+        <v>491</v>
       </c>
       <c r="E93" s="24">
-        <v>11000</v>
+        <v>6554</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>335</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="G93" s="8"/>
       <c r="H93" s="8" t="s">
-        <v>336</v>
+        <v>460</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>337</v>
+        <v>831</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="K93" s="7"/>
-      <c r="L93" s="8"/>
+        <v>833</v>
+      </c>
+      <c r="K93" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="M93" s="7"/>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
     </row>
-    <row r="94" spans="1:16" ht="112.5" hidden="1">
-      <c r="A94" s="8"/>
+    <row r="94" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A94" s="7"/>
       <c r="B94" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>566</v>
-      </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8" t="s">
-        <v>565</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="E94" s="24">
+        <v>8625</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="G94" s="8"/>
       <c r="H94" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="I94" s="8"/>
+      <c r="I94" s="8" t="s">
+        <v>795</v>
+      </c>
       <c r="J94" s="8" t="s">
-        <v>1030</v>
-      </c>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
-      <c r="P94" s="6"/>
-    </row>
-    <row r="95" spans="1:16" ht="56.25" hidden="1">
-      <c r="A95" s="7"/>
+        <v>796</v>
+      </c>
+      <c r="K94" s="10">
+        <v>14912</v>
+      </c>
+      <c r="L94" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="M94" s="7"/>
+      <c r="N94" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="O94" s="13"/>
+      <c r="P94" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A95" s="8"/>
       <c r="B95" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>716</v>
+        <v>465</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>811</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="G95" s="15" t="s">
-        <v>991</v>
-      </c>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
+        <v>775</v>
+      </c>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>778</v>
+      </c>
       <c r="J95" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="K95" s="7"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="7"/>
+        <v>779</v>
+      </c>
+      <c r="K95" s="9">
+        <v>15309</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>938</v>
+      </c>
       <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-    </row>
-    <row r="96" spans="1:16" ht="112.5" hidden="1">
-      <c r="A96" s="8"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="6"/>
+    </row>
+    <row r="96" spans="1:16" ht="262.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="7"/>
       <c r="B96" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>573</v>
-      </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>460</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="H96" s="8"/>
       <c r="I96" s="8" t="s">
-        <v>927</v>
+        <v>778</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>926</v>
-      </c>
-      <c r="K96" s="15" t="s">
-        <v>1008</v>
-      </c>
-      <c r="L96" s="8"/>
-      <c r="M96" s="15" t="s">
-        <v>943</v>
-      </c>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="6"/>
-    </row>
-    <row r="97" spans="1:16" ht="56.25" hidden="1">
+        <v>779</v>
+      </c>
+      <c r="K96" s="10">
+        <v>16119</v>
+      </c>
+      <c r="L96" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="M96" s="7"/>
+      <c r="N96" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="O96" s="13" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
       <c r="B97" s="8" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>443</v>
+        <v>233</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>690</v>
+        <v>692</v>
+      </c>
+      <c r="E97" s="9">
+        <v>422</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H97" s="8"/>
-      <c r="I97" s="8" t="s">
-        <v>928</v>
-      </c>
+      <c r="I97" s="8"/>
       <c r="J97" s="8" t="s">
-        <v>929</v>
+        <v>715</v>
       </c>
       <c r="K97" s="7"/>
       <c r="L97" s="8"/>
@@ -8003,130 +7763,133 @@
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
     </row>
-    <row r="98" spans="1:16" ht="56.25" hidden="1">
+    <row r="98" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
       <c r="B98" s="8" t="s">
-        <v>574</v>
+        <v>666</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E98" s="24">
-        <v>7299</v>
-      </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>930</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>977</v>
+      </c>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
       <c r="J98" s="8" t="s">
-        <v>931</v>
-      </c>
-      <c r="K98" s="27">
-        <v>27413</v>
-      </c>
-      <c r="L98" s="15" t="s">
-        <v>14</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="K98" s="7"/>
+      <c r="L98" s="8"/>
       <c r="M98" s="7"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
     </row>
-    <row r="99" spans="1:16" ht="93.75" hidden="1">
+    <row r="99" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
       <c r="B99" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>185</v>
+        <v>443</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E99" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="G99" s="15" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
+      <c r="E99" s="24">
+        <v>7299</v>
+      </c>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>930</v>
+      </c>
       <c r="J99" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="K99" s="7"/>
-      <c r="L99" s="8"/>
+        <v>931</v>
+      </c>
+      <c r="K99" s="27">
+        <v>27413</v>
+      </c>
+      <c r="L99" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="M99" s="7"/>
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
     </row>
-    <row r="100" spans="1:16" ht="56.25" hidden="1">
-      <c r="A100" s="8"/>
+    <row r="100" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A100" s="7"/>
       <c r="B100" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>580</v>
+        <v>614</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E100" s="9">
+        <v>8429</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="8" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H100" s="8" t="s">
         <v>460</v>
       </c>
       <c r="I100" s="8"/>
-      <c r="J100" s="8" t="s">
-        <v>1034</v>
-      </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
+      <c r="J100" s="30" t="s">
+        <v>996</v>
+      </c>
+      <c r="K100" s="7"/>
+      <c r="L100" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="M100" s="7"/>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
-      <c r="P100" s="6"/>
-    </row>
-    <row r="101" spans="1:16" ht="112.5" hidden="1">
+    </row>
+    <row r="101" spans="1:16" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
       <c r="B101" s="8" t="s">
-        <v>266</v>
+        <v>680</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>109</v>
+        <v>678</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E101" s="25" t="s">
-        <v>675</v>
+        <v>679</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>724</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>676</v>
+        <v>725</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H101" s="8"/>
+        <v>972</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>1016</v>
+      </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8" t="s">
-        <v>677</v>
+        <v>726</v>
       </c>
       <c r="K101" s="7"/>
       <c r="L101" s="8"/>
@@ -8134,23 +7897,21 @@
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
     </row>
-    <row r="102" spans="1:16" ht="56.25" hidden="1">
+    <row r="102" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="8" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="E102" s="24">
-        <v>7947</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>989</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="E102" s="9">
+        <v>7085</v>
+      </c>
+      <c r="F102" s="8"/>
       <c r="G102" s="8" t="s">
         <v>575</v>
       </c>
@@ -8159,10 +7920,10 @@
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="K102" s="18">
-        <v>36657</v>
+        <v>29124</v>
       </c>
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
@@ -8170,63 +7931,73 @@
       <c r="O102" s="8"/>
       <c r="P102" s="6"/>
     </row>
-    <row r="103" spans="1:16" ht="93.75" hidden="1">
+    <row r="103" spans="1:16" ht="318.75" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
       <c r="B103" s="8" t="s">
-        <v>585</v>
+        <v>294</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>583</v>
+        <v>295</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>586</v>
+        <v>296</v>
+      </c>
+      <c r="E103" s="9">
+        <v>7901</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="G103" s="15" t="s">
-        <v>988</v>
-      </c>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>918</v>
+      </c>
       <c r="J103" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="K103" s="7"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="32"/>
-      <c r="O103" s="8"/>
-    </row>
-    <row r="104" spans="1:16" ht="56.25" hidden="1">
+        <v>919</v>
+      </c>
+      <c r="K103" s="20">
+        <v>15919</v>
+      </c>
+      <c r="L103" s="15" t="s">
+        <v>962</v>
+      </c>
+      <c r="M103" s="19" t="s">
+        <v>961</v>
+      </c>
+      <c r="N103" s="8"/>
+      <c r="O103" s="15" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
       <c r="B104" s="8" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>436</v>
+        <v>185</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="E104" s="24">
-        <v>7077</v>
-      </c>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="H104" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="I104" s="8" t="s">
-        <v>934</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
       <c r="J104" s="8" t="s">
-        <v>935</v>
+        <v>720</v>
       </c>
       <c r="K104" s="7"/>
       <c r="L104" s="8"/>
@@ -8234,552 +8005,603 @@
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
     </row>
-    <row r="105" spans="1:16" ht="56.25" hidden="1">
-      <c r="A105" s="7"/>
+    <row r="105" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A105" s="8"/>
       <c r="B105" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>588</v>
+        <v>485</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>487</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>590</v>
+        <v>824</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>941</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>591</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="G105" s="8"/>
       <c r="H105" s="8" t="s">
-        <v>504</v>
+        <v>460</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>932</v>
+        <v>823</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>933</v>
-      </c>
-      <c r="K105" s="7"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
-    </row>
-    <row r="106" spans="1:16" ht="318.75" hidden="1">
-      <c r="A106" s="7"/>
+        <v>826</v>
+      </c>
+      <c r="K105" s="9">
+        <v>15276</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M105" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="N105" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="O105" s="13"/>
+      <c r="P105" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A106" s="8"/>
       <c r="B106" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="E106" s="9">
-        <v>7901</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="F106" s="8"/>
       <c r="G106" s="8" t="s">
-        <v>297</v>
+        <v>579</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>918</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="I106" s="8"/>
       <c r="J106" s="8" t="s">
-        <v>919</v>
-      </c>
-      <c r="K106" s="20">
-        <v>15919</v>
-      </c>
-      <c r="L106" s="15" t="s">
-        <v>962</v>
-      </c>
-      <c r="M106" s="19" t="s">
-        <v>961</v>
-      </c>
+        <v>1034</v>
+      </c>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
       <c r="N106" s="8"/>
-      <c r="O106" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" ht="187.5" hidden="1">
-      <c r="A107" s="7" t="s">
-        <v>351</v>
-      </c>
+      <c r="O106" s="8"/>
+      <c r="P106" s="6"/>
+    </row>
+    <row r="107" spans="1:16" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="A107" s="7"/>
       <c r="B107" s="8" t="s">
-        <v>119</v>
+        <v>502</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>116</v>
+        <v>503</v>
       </c>
       <c r="E107" s="9">
-        <v>1421</v>
+        <v>6632</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H107" s="8" t="s">
-        <v>121</v>
+        <v>863</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>1019</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>120</v>
+        <v>862</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>122</v>
+        <v>864</v>
       </c>
       <c r="K107" s="7"/>
       <c r="L107" s="8"/>
       <c r="M107" s="7"/>
       <c r="N107" s="8"/>
-      <c r="O107" s="15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" ht="56.25" hidden="1">
+      <c r="O107" s="8"/>
+    </row>
+    <row r="108" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
       <c r="B108" s="8" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="E108" s="9">
-        <v>6849</v>
-      </c>
-      <c r="F108" s="15" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>597</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="G108" s="8"/>
       <c r="H108" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="I108" s="8"/>
+      <c r="I108" s="8" t="s">
+        <v>783</v>
+      </c>
       <c r="J108" s="8" t="s">
-        <v>1036</v>
-      </c>
-      <c r="K108" s="8"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="8"/>
-      <c r="O108" s="8"/>
+        <v>786</v>
+      </c>
+      <c r="K108" s="18">
+        <v>27526</v>
+      </c>
+      <c r="L108" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="M108" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="N108" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="O108" s="13" t="s">
+        <v>745</v>
+      </c>
       <c r="P108" s="6"/>
     </row>
-    <row r="109" spans="1:16" ht="56.25" hidden="1">
+    <row r="109" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
       <c r="B109" s="8" t="s">
-        <v>694</v>
+        <v>445</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>161</v>
+        <v>446</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>695</v>
+        <v>527</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>987</v>
-      </c>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
+        <v>528</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>753</v>
+      </c>
       <c r="J109" s="8" t="s">
-        <v>1011</v>
-      </c>
-      <c r="K109" s="7"/>
-      <c r="L109" s="8"/>
+        <v>741</v>
+      </c>
+      <c r="K109" s="10">
+        <v>18834</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>410</v>
+      </c>
       <c r="M109" s="7"/>
-      <c r="N109" s="8"/>
-      <c r="O109" s="8"/>
-    </row>
-    <row r="110" spans="1:16" ht="75" hidden="1">
-      <c r="A110" s="8"/>
+      <c r="N109" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="O109" s="13"/>
+    </row>
+    <row r="110" spans="1:16" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A110" s="7"/>
       <c r="B110" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>598</v>
+        <v>516</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>600</v>
+        <v>885</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>940</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>572</v>
+        <v>886</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>1028</v>
       </c>
       <c r="H110" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="I110" s="8"/>
+      <c r="I110" s="8" t="s">
+        <v>884</v>
+      </c>
       <c r="J110" s="8" t="s">
-        <v>1038</v>
-      </c>
-      <c r="K110" s="15" t="s">
-        <v>1024</v>
-      </c>
-      <c r="L110" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="M110" s="8"/>
+        <v>887</v>
+      </c>
+      <c r="K110" s="7"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="7"/>
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
-      <c r="P110" s="6"/>
-    </row>
-    <row r="111" spans="1:16" ht="75" hidden="1">
+    </row>
+    <row r="111" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
       <c r="B111" s="8" t="s">
-        <v>177</v>
+        <v>510</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>115</v>
+        <v>511</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>234</v>
+        <v>512</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>621</v>
+        <v>873</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>620</v>
+        <v>874</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H111" s="8"/>
+        <v>967</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="I111" s="8" t="s">
-        <v>963</v>
+        <v>875</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>964</v>
-      </c>
-      <c r="K111" s="7"/>
+        <v>876</v>
+      </c>
+      <c r="K111" s="20">
+        <v>33889</v>
+      </c>
       <c r="L111" s="8"/>
       <c r="M111" s="7"/>
       <c r="N111" s="8"/>
       <c r="O111" s="8"/>
     </row>
-    <row r="112" spans="1:16" ht="56.25" hidden="1">
+    <row r="112" spans="1:16" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
       <c r="B112" s="8" t="s">
-        <v>602</v>
+        <v>631</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>475</v>
+        <v>110</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="F112" s="8"/>
+        <v>632</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>769</v>
+      </c>
       <c r="G112" s="8" t="s">
-        <v>604</v>
+        <v>625</v>
       </c>
       <c r="H112" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="I112" s="8"/>
+      <c r="I112" s="8" t="s">
+        <v>768</v>
+      </c>
       <c r="J112" s="8" t="s">
-        <v>1031</v>
-      </c>
-      <c r="K112" s="7"/>
-      <c r="L112" s="8"/>
+        <v>770</v>
+      </c>
+      <c r="K112" s="10">
+        <v>16203</v>
+      </c>
+      <c r="L112" s="8" t="s">
+        <v>427</v>
+      </c>
       <c r="M112" s="7"/>
-      <c r="N112" s="8"/>
-      <c r="O112" s="8"/>
-    </row>
-    <row r="113" spans="1:16" ht="56.25" hidden="1">
-      <c r="A113" s="8"/>
+      <c r="N112" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="O112" s="13" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="75" x14ac:dyDescent="0.3">
+      <c r="A113" s="7"/>
       <c r="B113" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="E113" s="9">
-        <v>7551</v>
-      </c>
-      <c r="F113" s="15" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>575</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="E113" s="24">
+        <v>7974</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="G113" s="8"/>
       <c r="H113" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="I113" s="8"/>
+      <c r="I113" s="8" t="s">
+        <v>791</v>
+      </c>
       <c r="J113" s="8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8"/>
-      <c r="O113" s="8"/>
-      <c r="P113" s="6"/>
-    </row>
-    <row r="114" spans="1:16" ht="75" hidden="1">
-      <c r="A114" s="8"/>
+        <v>793</v>
+      </c>
+      <c r="K113" s="10">
+        <v>15919</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="M113" s="7"/>
+      <c r="N113" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="O113" s="13"/>
+      <c r="P113" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="75" x14ac:dyDescent="0.3">
+      <c r="A114" s="7"/>
       <c r="B114" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>459</v>
+        <v>613</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="E114" s="9">
-        <v>7484</v>
-      </c>
-      <c r="F114" s="8"/>
+        <v>8399</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>994</v>
+      </c>
       <c r="G114" s="8" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
       <c r="H114" s="8" t="s">
         <v>460</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8" t="s">
-        <v>1040</v>
-      </c>
-      <c r="K114" s="8"/>
-      <c r="L114" s="15" t="s">
-        <v>1032</v>
-      </c>
-      <c r="M114" s="8"/>
+        <v>1014</v>
+      </c>
+      <c r="K114" s="7"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="7"/>
       <c r="N114" s="8"/>
       <c r="O114" s="8"/>
-      <c r="P114" s="6"/>
-    </row>
-    <row r="115" spans="1:16" ht="93.75" hidden="1">
+    </row>
+    <row r="115" spans="1:16" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
       <c r="B115" s="8" t="s">
-        <v>610</v>
+        <v>492</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>514</v>
+        <v>453</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="F115" s="15" t="s">
-        <v>985</v>
-      </c>
-      <c r="G115" s="15" t="s">
-        <v>986</v>
-      </c>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
+        <v>475</v>
+      </c>
+      <c r="E115" s="9">
+        <v>6559</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>838</v>
+      </c>
       <c r="J115" s="8" t="s">
-        <v>993</v>
-      </c>
-      <c r="K115" s="20">
-        <v>31215</v>
-      </c>
-      <c r="L115" s="8"/>
+        <v>840</v>
+      </c>
+      <c r="K115" s="10">
+        <v>26482</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>924</v>
+      </c>
       <c r="M115" s="7"/>
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
     </row>
-    <row r="116" spans="1:16" ht="206.25" hidden="1">
-      <c r="A116" s="7"/>
+    <row r="116" spans="1:16" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A116" s="8"/>
       <c r="B116" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E116" s="9">
-        <v>8802</v>
+        <v>508</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>870</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>203</v>
+        <v>871</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>542</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>204</v>
+        <v>460</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>205</v>
+        <v>869</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="K116" s="7"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="7"/>
+        <v>872</v>
+      </c>
+      <c r="K116" s="9">
+        <v>26090</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M116" s="9" t="s">
+        <v>937</v>
+      </c>
       <c r="N116" s="8"/>
-      <c r="O116" s="15" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" ht="56.25" hidden="1">
+      <c r="O116" s="8"/>
+      <c r="P116" s="6"/>
+    </row>
+    <row r="117" spans="1:16" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="B117" s="8" t="s">
-        <v>612</v>
+        <v>513</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>570</v>
+        <v>514</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E117" s="9">
-        <v>7085</v>
-      </c>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8" t="s">
-        <v>575</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="G117" s="8"/>
       <c r="H117" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="I117" s="8"/>
+      <c r="I117" s="8" t="s">
+        <v>877</v>
+      </c>
       <c r="J117" s="8" t="s">
-        <v>1041</v>
-      </c>
-      <c r="K117" s="18">
-        <v>29124</v>
-      </c>
+        <v>880</v>
+      </c>
+      <c r="K117" s="8"/>
       <c r="L117" s="8"/>
-      <c r="M117" s="8"/>
+      <c r="M117" s="15" t="s">
+        <v>1026</v>
+      </c>
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
       <c r="P117" s="6"/>
     </row>
-    <row r="118" spans="1:16" ht="75" hidden="1">
+    <row r="118" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
       <c r="B118" s="8" t="s">
-        <v>613</v>
+        <v>494</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>109</v>
+        <v>248</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E118" s="9">
-        <v>8399</v>
-      </c>
-      <c r="F118" s="15" t="s">
-        <v>994</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>575</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="G118" s="8"/>
       <c r="H118" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="I118" s="8"/>
+      <c r="I118" s="8" t="s">
+        <v>841</v>
+      </c>
       <c r="J118" s="8" t="s">
-        <v>1014</v>
-      </c>
-      <c r="K118" s="7"/>
-      <c r="L118" s="8"/>
+        <v>844</v>
+      </c>
+      <c r="K118" s="17" t="s">
+        <v>925</v>
+      </c>
+      <c r="L118" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="M118" s="7"/>
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
     </row>
-    <row r="119" spans="1:16" ht="56.25" hidden="1">
+    <row r="119" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
       <c r="B119" s="8" t="s">
-        <v>614</v>
+        <v>653</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>474</v>
+        <v>583</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E119" s="9">
-        <v>8429</v>
-      </c>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="I119" s="8"/>
-      <c r="J119" s="30" t="s">
-        <v>996</v>
+        <v>609</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>973</v>
+      </c>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>661</v>
       </c>
       <c r="K119" s="7"/>
-      <c r="L119" s="15" t="s">
-        <v>946</v>
-      </c>
+      <c r="L119" s="8"/>
       <c r="M119" s="7"/>
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
     </row>
-    <row r="120" spans="1:16" ht="131.25" hidden="1">
+    <row r="120" spans="1:16" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
       <c r="B120" s="8" t="s">
-        <v>615</v>
+        <v>520</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>161</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E120" s="12">
-        <v>324</v>
-      </c>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8" t="s">
-        <v>1042</v>
-      </c>
-      <c r="H120" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="I120" s="8"/>
+      <c r="I120" s="8" t="s">
+        <v>900</v>
+      </c>
       <c r="J120" s="8" t="s">
-        <v>674</v>
+        <v>903</v>
       </c>
       <c r="K120" s="7"/>
       <c r="L120" s="8"/>
@@ -8787,30 +8609,30 @@
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
     </row>
-    <row r="121" spans="1:16" ht="93.75" hidden="1">
+    <row r="121" spans="1:16" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
       <c r="B121" s="8" t="s">
-        <v>616</v>
+        <v>266</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E121" s="9">
-        <v>7993</v>
-      </c>
-      <c r="F121" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="E121" s="25" t="s">
+        <v>675</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>676</v>
+      </c>
       <c r="G121" s="15" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>460</v>
-      </c>
+        <v>1009</v>
+      </c>
+      <c r="H121" s="8"/>
       <c r="I121" s="8"/>
       <c r="J121" s="8" t="s">
-        <v>1033</v>
+        <v>677</v>
       </c>
       <c r="K121" s="7"/>
       <c r="L121" s="8"/>
@@ -8818,339 +8640,374 @@
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
     </row>
-    <row r="122" spans="1:16" ht="112.5" hidden="1">
-      <c r="A122" s="7"/>
+    <row r="122" spans="1:16" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A122" s="8"/>
       <c r="B122" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>649</v>
+        <v>562</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>564</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>651</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="G122" s="15" t="s">
-        <v>982</v>
-      </c>
-      <c r="H122" s="8"/>
+        <v>566</v>
+      </c>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="K122" s="7"/>
+        <v>1030</v>
+      </c>
+      <c r="K122" s="8"/>
       <c r="L122" s="8"/>
-      <c r="M122" s="7"/>
+      <c r="M122" s="8"/>
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
-    </row>
-    <row r="123" spans="1:16" ht="75" hidden="1">
-      <c r="A123" s="7"/>
+      <c r="P122" s="6"/>
+    </row>
+    <row r="123" spans="1:16" ht="75" x14ac:dyDescent="0.3">
+      <c r="A123" s="8"/>
       <c r="B123" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="E123" s="25" t="s">
-        <v>623</v>
+        <v>447</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>529</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>981</v>
-      </c>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
+        <v>530</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>754</v>
+      </c>
       <c r="J123" s="8" t="s">
-        <v>1021</v>
-      </c>
-      <c r="K123" s="27">
-        <v>21282</v>
-      </c>
-      <c r="L123" s="28" t="s">
+        <v>742</v>
+      </c>
+      <c r="K123" s="9">
+        <v>34087</v>
+      </c>
+      <c r="L123" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M123" s="7"/>
-      <c r="N123" s="8"/>
-      <c r="O123" s="8"/>
-    </row>
-    <row r="124" spans="1:16" ht="281.25" hidden="1">
+      <c r="M123" s="8"/>
+      <c r="N123" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="O123" s="13"/>
+      <c r="P123" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="75" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
       <c r="B124" s="8" t="s">
-        <v>345</v>
+        <v>496</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E124" s="24">
-        <v>4814</v>
+        <v>497</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>846</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>346</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="G124" s="8"/>
       <c r="H124" s="8" t="s">
-        <v>347</v>
+        <v>460</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>348</v>
+        <v>848</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="K124" s="7"/>
-      <c r="L124" s="8"/>
+        <v>849</v>
+      </c>
+      <c r="K124" s="29">
+        <v>41953</v>
+      </c>
+      <c r="L124" s="11" t="s">
+        <v>536</v>
+      </c>
       <c r="M124" s="7"/>
       <c r="N124" s="8"/>
-      <c r="O124" s="15" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" s="6" customFormat="1" ht="75" hidden="1">
-      <c r="A125" s="7"/>
+      <c r="O124" s="8"/>
+    </row>
+    <row r="125" spans="1:16" s="6" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A125" s="8"/>
       <c r="B125" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>683</v>
+        <v>567</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>571</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>685</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="G125" s="15" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
+        <v>573</v>
+      </c>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>927</v>
+      </c>
       <c r="J125" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="K125" s="7"/>
+        <v>926</v>
+      </c>
+      <c r="K125" s="15" t="s">
+        <v>1008</v>
+      </c>
       <c r="L125" s="8"/>
-      <c r="M125" s="7"/>
+      <c r="M125" s="15" t="s">
+        <v>943</v>
+      </c>
       <c r="N125" s="8"/>
       <c r="O125" s="8"/>
-      <c r="P125"/>
-    </row>
-    <row r="126" spans="1:16" s="6" customFormat="1" ht="93.75" hidden="1">
+    </row>
+    <row r="126" spans="1:16" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
       <c r="B126" s="8" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="F126" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="E126" s="12">
+        <v>212</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>723</v>
+      </c>
       <c r="G126" s="15" t="s">
-        <v>1018</v>
+        <v>971</v>
       </c>
       <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
+      <c r="I126" s="8" t="s">
+        <v>949</v>
+      </c>
       <c r="J126" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="K126" s="22" t="s">
-        <v>984</v>
-      </c>
-      <c r="L126" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="M126" s="7"/>
+        <v>659</v>
+      </c>
+      <c r="K126" s="7"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="10">
+        <v>14486</v>
+      </c>
       <c r="N126" s="8"/>
       <c r="O126" s="8"/>
       <c r="P126"/>
     </row>
-    <row r="127" spans="1:16" s="6" customFormat="1" ht="262.5" hidden="1">
+    <row r="127" spans="1:16" s="6" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
       <c r="B127" s="8" t="s">
-        <v>339</v>
+        <v>493</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>260</v>
+        <v>672</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="E127" s="9">
-        <v>9548</v>
+        <v>503</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>673</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>341</v>
+        <v>721</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>342</v>
+        <v>630</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>947</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>343</v>
+        <v>948</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>344</v>
+        <v>722</v>
       </c>
       <c r="K127" s="7"/>
       <c r="L127" s="8"/>
       <c r="M127" s="7"/>
       <c r="N127" s="8"/>
-      <c r="O127" s="15" t="s">
-        <v>810</v>
-      </c>
+      <c r="O127" s="8"/>
       <c r="P127"/>
     </row>
-    <row r="128" spans="1:16" s="6" customFormat="1" ht="112.5" hidden="1">
+    <row r="128" spans="1:16" s="6" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
       <c r="B128" s="8" t="s">
-        <v>687</v>
+        <v>492</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>185</v>
+        <v>478</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>681</v>
+        <v>110</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>688</v>
+        <v>835</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>730</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>995</v>
-      </c>
-      <c r="H128" s="8"/>
+        <v>836</v>
+      </c>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="I128" s="8" t="s">
-        <v>1015</v>
+        <v>834</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="K128" s="7"/>
-      <c r="L128" s="8"/>
+        <v>837</v>
+      </c>
+      <c r="K128" s="10">
+        <v>16502</v>
+      </c>
+      <c r="L128" s="8" t="s">
+        <v>923</v>
+      </c>
       <c r="M128" s="7"/>
       <c r="N128" s="8"/>
       <c r="O128" s="8"/>
       <c r="P128"/>
     </row>
-    <row r="129" spans="1:16" s="6" customFormat="1" ht="112.5" hidden="1">
+    <row r="129" spans="1:16" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
       <c r="B129" s="8" t="s">
-        <v>643</v>
+        <v>461</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>154</v>
+        <v>462</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>728</v>
+        <v>808</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>725</v>
-      </c>
-      <c r="G129" s="15" t="s">
-        <v>974</v>
-      </c>
-      <c r="H129" s="8"/>
-      <c r="I129" s="8"/>
+        <v>809</v>
+      </c>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>766</v>
+      </c>
       <c r="J129" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="K129" s="7"/>
-      <c r="L129" s="8"/>
+        <v>767</v>
+      </c>
+      <c r="K129" s="10">
+        <v>28895</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="M129" s="7"/>
-      <c r="N129" s="8"/>
-      <c r="O129" s="8"/>
-      <c r="P129"/>
-    </row>
-    <row r="130" spans="1:16" s="6" customFormat="1" ht="75" hidden="1">
+      <c r="N129" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O129" s="13"/>
+      <c r="P129" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" s="6" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
       <c r="B130" s="8" t="s">
-        <v>653</v>
+        <v>469</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>583</v>
+        <v>115</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>609</v>
+        <v>470</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>654</v>
+        <v>788</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="G130" s="15" t="s">
-        <v>973</v>
-      </c>
-      <c r="H130" s="8"/>
+        <v>789</v>
+      </c>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="I130" s="8" t="s">
-        <v>1017</v>
+        <v>787</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="K130" s="7"/>
-      <c r="L130" s="8"/>
+        <v>790</v>
+      </c>
+      <c r="K130" s="10">
+        <v>15386</v>
+      </c>
+      <c r="L130" s="8" t="s">
+        <v>400</v>
+      </c>
       <c r="M130" s="7"/>
-      <c r="N130" s="8"/>
-      <c r="O130" s="8"/>
+      <c r="N130" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="O130" s="13" t="s">
+        <v>401</v>
+      </c>
       <c r="P130"/>
     </row>
-    <row r="131" spans="1:16" ht="93.75" hidden="1">
+    <row r="131" spans="1:16" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
       <c r="B131" s="8" t="s">
-        <v>680</v>
+        <v>650</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>678</v>
+        <v>648</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>724</v>
+        <v>649</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>651</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>725</v>
+        <v>652</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>972</v>
-      </c>
-      <c r="H131" s="15" t="s">
-        <v>1016</v>
-      </c>
+        <v>982</v>
+      </c>
+      <c r="H131" s="8"/>
       <c r="I131" s="8"/>
       <c r="J131" s="8" t="s">
-        <v>726</v>
+        <v>662</v>
       </c>
       <c r="K131" s="7"/>
       <c r="L131" s="8"/>
@@ -9158,70 +9015,68 @@
       <c r="N131" s="8"/>
       <c r="O131" s="8"/>
     </row>
-    <row r="132" spans="1:16" s="6" customFormat="1" ht="75" hidden="1">
+    <row r="132" spans="1:16" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
       <c r="B132" s="8" t="s">
-        <v>660</v>
+        <v>519</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>167</v>
+        <v>453</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E132" s="12">
-        <v>212</v>
+        <v>179</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>897</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>723</v>
-      </c>
-      <c r="G132" s="15" t="s">
-        <v>971</v>
-      </c>
-      <c r="H132" s="8"/>
+        <v>898</v>
+      </c>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="I132" s="8" t="s">
-        <v>949</v>
+        <v>896</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>659</v>
+        <v>899</v>
       </c>
       <c r="K132" s="7"/>
       <c r="L132" s="8"/>
-      <c r="M132" s="10">
-        <v>14486</v>
-      </c>
+      <c r="M132" s="7"/>
       <c r="N132" s="8"/>
       <c r="O132" s="8"/>
       <c r="P132"/>
     </row>
-    <row r="133" spans="1:16" s="6" customFormat="1" ht="112.5" hidden="1">
+    <row r="133" spans="1:16" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
       <c r="B133" s="8" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>672</v>
+        <v>478</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>673</v>
+        <v>552</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>721</v>
+        <v>905</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="H133" s="15" t="s">
-        <v>947</v>
+        <v>346</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>948</v>
+        <v>904</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>722</v>
+        <v>906</v>
       </c>
       <c r="K133" s="7"/>
       <c r="L133" s="8"/>
@@ -9230,165 +9085,138 @@
       <c r="O133" s="8"/>
       <c r="P133"/>
     </row>
-    <row r="134" spans="1:16" s="6" customFormat="1" ht="93.75" hidden="1">
+    <row r="134" spans="1:16" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
       <c r="B134" s="8" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>655</v>
+        <v>702</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="G134" s="15" t="s">
-        <v>970</v>
-      </c>
-      <c r="H134" s="8"/>
+        <v>701</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>504</v>
+      </c>
       <c r="I134" s="8" t="s">
-        <v>983</v>
+        <v>845</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="K134" s="7"/>
-      <c r="L134" s="8"/>
+        <v>703</v>
+      </c>
+      <c r="K134" s="29">
+        <v>30215</v>
+      </c>
+      <c r="L134" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="M134" s="7"/>
       <c r="N134" s="8"/>
       <c r="O134" s="8"/>
       <c r="P134"/>
     </row>
-    <row r="135" spans="1:16" s="6" customFormat="1" ht="150" hidden="1">
-      <c r="A135" s="7" t="s">
-        <v>351</v>
-      </c>
+    <row r="135" spans="1:16" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="A135" s="8"/>
       <c r="B135" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>104</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E135" s="12">
+        <v>8664</v>
+      </c>
+      <c r="F135" s="8"/>
       <c r="G135" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H135" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="I135" s="8" t="s">
-        <v>106</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="H135" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I135" s="8"/>
       <c r="J135" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K135" s="7"/>
+        <v>1043</v>
+      </c>
+      <c r="K135" s="8"/>
       <c r="L135" s="8"/>
-      <c r="M135" s="7"/>
+      <c r="M135" s="8"/>
       <c r="N135" s="8"/>
-      <c r="O135" s="15" t="s">
-        <v>806</v>
-      </c>
-      <c r="P135"/>
+      <c r="O135" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P135">
-    <filterColumn colId="1">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
     <sortState ref="A2:P135">
-      <sortCondition sortBy="cellColor" ref="B1:B135" dxfId="2"/>
+      <sortCondition ref="J1:J135"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:P38">
     <sortCondition ref="B2:B38"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I135" r:id="rId1"/>
-    <hyperlink ref="J135" r:id="rId2"/>
-    <hyperlink ref="I70" r:id="rId3"/>
-    <hyperlink ref="J70" r:id="rId4"/>
-    <hyperlink ref="J107" r:id="rId5"/>
-    <hyperlink ref="I15" r:id="rId6"/>
-    <hyperlink ref="J15" r:id="rId7" location="/media/File:Koshkin_MI.jpg"/>
-    <hyperlink ref="I12" r:id="rId8"/>
-    <hyperlink ref="J12" r:id="rId9"/>
-    <hyperlink ref="I86" r:id="rId10"/>
-    <hyperlink ref="J86" r:id="rId11"/>
-    <hyperlink ref="I25" r:id="rId12"/>
-    <hyperlink ref="I21" r:id="rId13"/>
-    <hyperlink ref="I51" r:id="rId14"/>
-    <hyperlink ref="J51" r:id="rId15"/>
-    <hyperlink ref="J77" r:id="rId16"/>
-    <hyperlink ref="J25" r:id="rId17"/>
-    <hyperlink ref="J9" r:id="rId18"/>
-    <hyperlink ref="J13" r:id="rId19"/>
-    <hyperlink ref="I26" r:id="rId20"/>
-    <hyperlink ref="J61" r:id="rId21"/>
-    <hyperlink ref="J31" r:id="rId22"/>
-    <hyperlink ref="I29" r:id="rId23" location="Память"/>
-    <hyperlink ref="I30" r:id="rId24"/>
-    <hyperlink ref="I33" r:id="rId25"/>
-    <hyperlink ref="I106" r:id="rId26"/>
-    <hyperlink ref="J106" r:id="rId27"/>
-    <hyperlink ref="I7" r:id="rId28"/>
-    <hyperlink ref="J96" r:id="rId29"/>
-    <hyperlink ref="J111" r:id="rId30"/>
-    <hyperlink ref="J18" r:id="rId31"/>
-    <hyperlink ref="J2" r:id="rId32"/>
-    <hyperlink ref="J3" r:id="rId33"/>
-    <hyperlink ref="J43" r:id="rId34"/>
-    <hyperlink ref="J4" r:id="rId35"/>
-    <hyperlink ref="J5" r:id="rId36"/>
-    <hyperlink ref="J6" r:id="rId37"/>
-    <hyperlink ref="J7" r:id="rId38"/>
-    <hyperlink ref="J8" r:id="rId39"/>
-    <hyperlink ref="J10" r:id="rId40"/>
-    <hyperlink ref="J11" r:id="rId41"/>
-    <hyperlink ref="J14" r:id="rId42"/>
-    <hyperlink ref="J16" r:id="rId43"/>
-    <hyperlink ref="J17" r:id="rId44"/>
-    <hyperlink ref="J19" r:id="rId45"/>
-    <hyperlink ref="J20" r:id="rId46"/>
-    <hyperlink ref="J21" r:id="rId47"/>
-    <hyperlink ref="J22" r:id="rId48"/>
-    <hyperlink ref="J23" r:id="rId49"/>
-    <hyperlink ref="J24" r:id="rId50"/>
-    <hyperlink ref="J26" r:id="rId51"/>
-    <hyperlink ref="J27" r:id="rId52"/>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId3"/>
+    <hyperlink ref="J2" r:id="rId4"/>
+    <hyperlink ref="J75" r:id="rId5"/>
+    <hyperlink ref="I20" r:id="rId6"/>
+    <hyperlink ref="J20" r:id="rId7" location="/media/File:Koshkin_MI.jpg"/>
+    <hyperlink ref="I84" r:id="rId8"/>
+    <hyperlink ref="J84" r:id="rId9"/>
+    <hyperlink ref="I43" r:id="rId10"/>
+    <hyperlink ref="J43" r:id="rId11"/>
+    <hyperlink ref="I45" r:id="rId12"/>
+    <hyperlink ref="I15" r:id="rId13"/>
+    <hyperlink ref="I44" r:id="rId14"/>
+    <hyperlink ref="J44" r:id="rId15"/>
+    <hyperlink ref="J19" r:id="rId16"/>
+    <hyperlink ref="J45" r:id="rId17"/>
+    <hyperlink ref="J21" r:id="rId18"/>
+    <hyperlink ref="J23" r:id="rId19"/>
+    <hyperlink ref="I17" r:id="rId20"/>
+    <hyperlink ref="J134" r:id="rId21"/>
+    <hyperlink ref="J64" r:id="rId22"/>
+    <hyperlink ref="I78" r:id="rId23" location="Память"/>
+    <hyperlink ref="I80" r:id="rId24"/>
+    <hyperlink ref="I48" r:id="rId25"/>
+    <hyperlink ref="I103" r:id="rId26"/>
+    <hyperlink ref="J103" r:id="rId27"/>
+    <hyperlink ref="I27" r:id="rId28"/>
+    <hyperlink ref="J125" r:id="rId29"/>
+    <hyperlink ref="J71" r:id="rId30"/>
+    <hyperlink ref="J31" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId53"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1:AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -9399,7 +9227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE2" t="s">
         <v>9</v>
       </c>
@@ -9407,7 +9235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE3" t="s">
         <v>11</v>
       </c>
@@ -9415,194 +9243,194 @@
         <v>15245</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="39.75" customHeight="1">
-      <c r="A34" s="33" t="s">
+    <row r="34" spans="1:34" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-    </row>
-    <row r="36" spans="1:34">
-      <c r="A36" s="33" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-    </row>
-    <row r="37" spans="1:34">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-    </row>
-    <row r="38" spans="1:34" ht="183" customHeight="1">
-      <c r="A38" s="34" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+    </row>
+    <row r="38" spans="1:34" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="U38" s="35" t="s">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="U38" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="36"/>
-      <c r="AB38" s="36"/>
-      <c r="AC38" s="36"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="36"/>
-    </row>
-    <row r="39" spans="1:34" ht="66.75" customHeight="1">
-      <c r="A39" s="34" t="s">
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="34"/>
+      <c r="AG38" s="34"/>
+      <c r="AH38" s="34"/>
+    </row>
+    <row r="39" spans="1:34" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-      <c r="AC39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="36"/>
-    </row>
-    <row r="40" spans="1:34" ht="30.75" customHeight="1">
-      <c r="A40" s="34" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="34"/>
+      <c r="AH39" s="34"/>
+    </row>
+    <row r="40" spans="1:34" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="36"/>
-      <c r="AB40" s="36"/>
-      <c r="AC40" s="36"/>
-      <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="36"/>
-      <c r="AG40" s="36"/>
-      <c r="AH40" s="36"/>
-    </row>
-    <row r="41" spans="1:34">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-    </row>
-    <row r="44" spans="1:34">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="34"/>
+      <c r="AD40" s="34"/>
+      <c r="AE40" s="34"/>
+      <c r="AF40" s="34"/>
+      <c r="AG40" s="34"/>
+      <c r="AH40" s="34"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
   </sheetData>
@@ -9622,29 +9450,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U3" t="s">
         <v>7</v>
       </c>
@@ -9652,7 +9480,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U4" t="s">
         <v>9</v>
       </c>
@@ -9660,7 +9488,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U5" t="s">
         <v>11</v>
       </c>
@@ -9668,47 +9496,47 @@
         <v>28403</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="16.5">
+    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="16.5">
+    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -9721,19 +9549,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O1" t="s">
         <v>7</v>
       </c>
@@ -9741,7 +9569,7 @@
         <v>32552</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O2" t="s">
         <v>9</v>
       </c>
@@ -9749,7 +9577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O3" t="s">
         <v>11</v>
       </c>
@@ -9757,20 +9585,20 @@
         <v>18168</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="204.75" customHeight="1">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:25" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -9787,7 +9615,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -9796,7 +9624,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -9808,7 +9636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -9820,7 +9648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -9832,7 +9660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -9844,7 +9672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -9856,7 +9684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -9868,7 +9696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -9880,7 +9708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -9892,7 +9720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -9904,7 +9732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -9916,7 +9744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -9928,7 +9756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -9940,7 +9768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -9952,7 +9780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -9964,257 +9792,257 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="12:12">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="12:12">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="12:12">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="12:12">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="12:12">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="12:12">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="12:12">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="12:12">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="12:12">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="12:12">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="12:12">
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="12:12">
+    <row r="44" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="12:12">
+    <row r="45" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="12:12">
+    <row r="46" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="12:12">
+    <row r="47" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="12:12">
+    <row r="48" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="12:12">
+    <row r="49" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="12:12">
+    <row r="50" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="12:12">
+    <row r="51" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="12:12">
+    <row r="52" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="12:12">
+    <row r="53" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="12:12">
+    <row r="54" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="12:12">
+    <row r="55" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="12:12">
+    <row r="56" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="12:12">
+    <row r="57" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="12:12">
+    <row r="58" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="12:12">
+    <row r="59" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="12:12">
+    <row r="60" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="12:12">
+    <row r="61" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="12:12">
+    <row r="62" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="12:12">
+    <row r="63" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="12:12">
+    <row r="64" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="12:12">
+    <row r="65" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="12:12">
+    <row r="66" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="12:12">
+    <row r="67" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="12:12">
+    <row r="68" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="12:12">
+    <row r="69" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="12:12">
+    <row r="70" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="12:12">
+    <row r="71" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="12:12">
+    <row r="72" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="12:12">
+    <row r="73" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="12:12">
+    <row r="74" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="12:12">
+    <row r="75" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="12:12">
+    <row r="76" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="12:12">
+    <row r="77" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="12:12">
+    <row r="78" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="12:12">
+    <row r="79" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="12:12">
+    <row r="80" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L80" t="s">
         <v>79</v>
       </c>

--- a/public/data/persons.xlsx
+++ b/public/data/persons.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="1460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="1463">
   <si>
     <t>Источник</t>
   </si>
@@ -4095,9 +4095,6 @@
     <t>Будучи командиром полка сражался в осаждённом Могилёве. Смог выйти из окружения, за что был представлен к ордену Красного Знамени</t>
   </si>
   <si>
-    <t>31.11.1976</t>
-  </si>
-  <si>
     <t>Могилёв</t>
   </si>
   <si>
@@ -4461,6 +4458,18 @@
   </si>
   <si>
     <t>Сталинград; Донецк; Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/ru/c/ca/Генерал_И.Е.Петров._ТуркВО%2C_1931.jpg</t>
+  </si>
+  <si>
+    <t>Волгоград</t>
+  </si>
+  <si>
+    <t>Уфа</t>
+  </si>
+  <si>
+    <t>За умелое управление войсками при форсировании рек Десна, Днепр, Припять и проявленные при этом мужество и отвагу 16 октября 1943 года генерал-лейтенанту Пухову присвоено звание Героя Советского Союза</t>
   </si>
 </sst>
 </file>
@@ -4586,7 +4595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4697,9 +4706,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="17" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -4725,6 +4731,12 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5393,10 +5405,10 @@
   <dimension ref="A1:R525"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K20" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J138" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
+      <selection pane="bottomRight" activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5514,7 +5526,7 @@
         <v>873</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>663</v>
@@ -5561,7 +5573,7 @@
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="8" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" t="s">
@@ -5604,7 +5616,7 @@
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="O4" s="8"/>
       <c r="P4" s="6"/>
@@ -6048,7 +6060,7 @@
       <c r="Q14"/>
       <c r="R14" s="34"/>
     </row>
-    <row r="15" spans="1:18" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
         <v>394</v>
@@ -6085,7 +6097,7 @@
         <v>850</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="O15" s="13"/>
       <c r="P15" s="6" t="s">
@@ -6129,7 +6141,7 @@
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="8" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="O16" s="13"/>
       <c r="P16" t="s">
@@ -6177,7 +6189,7 @@
       <c r="N17" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="O17" s="47" t="s">
+      <c r="O17" s="46" t="s">
         <v>662</v>
       </c>
       <c r="P17" s="6"/>
@@ -6220,7 +6232,7 @@
         <v>852</v>
       </c>
       <c r="N18" s="8"/>
-      <c r="O18" s="53"/>
+      <c r="O18" s="52"/>
       <c r="P18" s="6"/>
       <c r="R18" s="6"/>
     </row>
@@ -6261,7 +6273,7 @@
       <c r="N19" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="O19" s="53"/>
+      <c r="O19" s="52"/>
       <c r="P19" t="s">
         <v>308</v>
       </c>
@@ -6303,7 +6315,7 @@
         <v>859</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="O20" s="13" t="s">
         <v>661</v>
@@ -6386,7 +6398,7 @@
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="30" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="O22" s="13"/>
       <c r="P22" t="s">
@@ -6467,17 +6479,17 @@
       <c r="J24" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="K24" s="48">
+      <c r="K24" s="47">
         <v>15906</v>
       </c>
       <c r="L24" s="29" t="s">
         <v>867</v>
       </c>
-      <c r="M24" s="49"/>
+      <c r="M24" s="48"/>
       <c r="N24" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="O24" s="47" t="s">
+      <c r="O24" s="46" t="s">
         <v>692</v>
       </c>
       <c r="P24" t="s">
@@ -6511,7 +6523,7 @@
       <c r="J25" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="K25" s="50" t="s">
+      <c r="K25" s="49" t="s">
         <v>868</v>
       </c>
       <c r="L25" s="29" t="s">
@@ -6767,10 +6779,10 @@
         <v>741</v>
       </c>
       <c r="K31" s="9">
-        <v>15276</v>
+        <v>32037</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>14</v>
+        <v>1461</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>856</v>
@@ -6824,7 +6836,7 @@
       <c r="N32" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="O32" s="47" t="s">
+      <c r="O32" s="46" t="s">
         <v>324</v>
       </c>
       <c r="R32"/>
@@ -6911,7 +6923,7 @@
         <v>14</v>
       </c>
       <c r="M34" s="7"/>
-      <c r="N34" s="51"/>
+      <c r="N34" s="50"/>
       <c r="O34" s="8"/>
       <c r="R34"/>
     </row>
@@ -7304,7 +7316,7 @@
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="7"/>
-      <c r="N44" s="46"/>
+      <c r="N44" s="45"/>
       <c r="O44" s="15" t="s">
         <v>913</v>
       </c>
@@ -7334,10 +7346,10 @@
         <v>241</v>
       </c>
       <c r="I45" s="8" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J45" s="8" t="s">
         <v>1341</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>1342</v>
       </c>
       <c r="K45" s="19" t="s">
         <v>914</v>
@@ -7787,7 +7799,9 @@
       <c r="K56" s="7" t="s">
         <v>1089</v>
       </c>
-      <c r="L56" s="8"/>
+      <c r="L56" s="8" t="s">
+        <v>1460</v>
+      </c>
       <c r="M56" s="7"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
@@ -8021,10 +8035,10 @@
         <v>259</v>
       </c>
       <c r="I62" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="J62" s="8" t="s">
         <v>1344</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>1345</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>1091</v>
@@ -8065,10 +8079,10 @@
         <v>128</v>
       </c>
       <c r="I63" s="8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J63" s="8" t="s">
         <v>1346</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>1347</v>
       </c>
       <c r="K63" s="10">
         <v>28165</v>
@@ -8333,7 +8347,7 @@
         <v>889</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="J70" s="15" t="s">
         <v>134</v>
@@ -8415,7 +8429,7 @@
         <v>958</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="J72" s="8" t="s">
         <v>957</v>
@@ -8452,7 +8466,7 @@
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="J73" s="8" t="s">
         <v>583</v>
@@ -8489,10 +8503,10 @@
         <v>174</v>
       </c>
       <c r="I74" s="8" t="s">
+        <v>1348</v>
+      </c>
+      <c r="J74" s="8" t="s">
         <v>1349</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>1350</v>
       </c>
       <c r="K74" s="10">
         <v>16320</v>
@@ -8570,7 +8584,7 @@
         <v>220</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="K76" s="9">
         <v>16015</v>
@@ -8607,7 +8621,7 @@
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>631</v>
@@ -8725,7 +8739,7 @@
         <v>391</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>944</v>
@@ -9045,7 +9059,7 @@
         <v>1152</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="M88" s="7"/>
       <c r="O88" s="15" t="s">
@@ -9078,7 +9092,7 @@
         <v>391</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="J89" s="8" t="s">
         <v>948</v>
@@ -9114,17 +9128,17 @@
         <v>479</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K90" s="10">
         <v>15386</v>
       </c>
       <c r="M90" s="7"/>
       <c r="O90" s="8" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="P90"/>
       <c r="Q90" s="6"/>
@@ -9153,7 +9167,7 @@
         <v>391</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="J91" s="8" t="s">
         <v>949</v>
@@ -9186,7 +9200,7 @@
         <v>902</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="J92" s="8" t="s">
         <v>649</v>
@@ -9300,7 +9314,7 @@
         <v>951</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="K95" s="18">
         <v>37901</v>
@@ -9380,12 +9394,12 @@
         <v>118</v>
       </c>
       <c r="I97" s="39" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="J97" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="K97" s="54">
+      <c r="K97" s="53">
         <v>14912</v>
       </c>
       <c r="L97" s="39"/>
@@ -9421,7 +9435,7 @@
         <v>391</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="J98" s="8" t="s">
         <v>950</v>
@@ -9455,7 +9469,7 @@
         <v>901</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="J99" s="8" t="s">
         <v>925</v>
@@ -9491,7 +9505,7 @@
         <v>391</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="J100" s="8" t="s">
         <v>952</v>
@@ -9532,10 +9546,10 @@
         <v>163</v>
       </c>
       <c r="I101" s="8" t="s">
+        <v>1360</v>
+      </c>
+      <c r="J101" s="8" t="s">
         <v>1361</v>
-      </c>
-      <c r="J101" s="8" t="s">
-        <v>1362</v>
       </c>
       <c r="K101" s="10">
         <v>18168</v>
@@ -9606,7 +9620,7 @@
         <v>1263</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="J103" s="8" t="s">
         <v>945</v>
@@ -9643,7 +9657,7 @@
         <v>1155</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="J104" s="8" t="s">
         <v>1154</v>
@@ -9682,10 +9696,10 @@
         <v>478</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="K105" s="9">
         <v>23340</v>
@@ -9720,7 +9734,7 @@
         <v>391</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="J106" s="8" t="s">
         <v>953</v>
@@ -9755,7 +9769,7 @@
         <v>391</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J107" s="8" t="s">
         <v>954</v>
@@ -9791,7 +9805,7 @@
         <v>900</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="J108" s="8" t="s">
         <v>907</v>
@@ -9983,7 +9997,7 @@
         <v>391</v>
       </c>
       <c r="I113" s="32" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="J113" s="8" t="s">
         <v>590</v>
@@ -10060,7 +10074,7 @@
         <v>191</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="K115" s="7">
         <v>1981</v>
@@ -10096,10 +10110,10 @@
         <v>970</v>
       </c>
       <c r="I116" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J116" s="8" t="s">
         <v>1399</v>
-      </c>
-      <c r="J116" s="8" t="s">
-        <v>1400</v>
       </c>
       <c r="K116" s="9">
         <v>33435</v>
@@ -10364,10 +10378,10 @@
         <v>983</v>
       </c>
       <c r="I122" s="8" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J122" s="8" t="s">
         <v>1363</v>
-      </c>
-      <c r="J122" s="8" t="s">
-        <v>1364</v>
       </c>
       <c r="K122" s="9">
         <v>37726</v>
@@ -10428,14 +10442,14 @@
       <c r="R123"/>
     </row>
     <row r="124" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A124" s="38"/>
+      <c r="A124" s="39"/>
       <c r="B124" s="39" t="s">
         <v>560</v>
       </c>
-      <c r="C124" s="38" t="s">
+      <c r="C124" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="D124" s="38" t="s">
+      <c r="D124" s="39" t="s">
         <v>524</v>
       </c>
       <c r="E124" s="43" t="s">
@@ -10452,20 +10466,20 @@
         <v>1125</v>
       </c>
       <c r="J124" s="39" t="s">
-        <v>935</v>
-      </c>
-      <c r="K124" s="44">
+        <v>1459</v>
+      </c>
+      <c r="K124" s="55">
         <v>21282</v>
       </c>
       <c r="L124" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="M124" s="38"/>
+      <c r="M124" s="39"/>
       <c r="N124" s="39"/>
       <c r="O124" s="39"/>
-      <c r="P124" s="41"/>
-      <c r="Q124" s="41"/>
-      <c r="R124" s="41"/>
+      <c r="P124" s="56"/>
+      <c r="Q124" s="56"/>
+      <c r="R124" s="56"/>
     </row>
     <row r="125" spans="1:18" s="8" customFormat="1" ht="187.5" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
@@ -10536,7 +10550,7 @@
         <v>995</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="J126" s="9" t="s">
         <v>1105</v>
@@ -10638,7 +10652,7 @@
         <v>31364</v>
       </c>
       <c r="M128" s="7"/>
-      <c r="N128" s="51"/>
+      <c r="N128" s="50"/>
       <c r="O128" s="15" t="s">
         <v>722</v>
       </c>
@@ -10715,10 +10729,10 @@
         <v>1013</v>
       </c>
       <c r="I130" s="8" t="s">
+        <v>1365</v>
+      </c>
+      <c r="J130" s="8" t="s">
         <v>1366</v>
-      </c>
-      <c r="J130" s="8" t="s">
-        <v>1367</v>
       </c>
       <c r="K130" s="9">
         <v>40215</v>
@@ -10759,7 +10773,7 @@
         <v>936</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>651</v>
@@ -10793,7 +10807,7 @@
         <v>932</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="J132" s="8" t="s">
         <v>587</v>
@@ -10818,7 +10832,7 @@
         <v>223</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E133" s="9">
         <v>9548</v>
@@ -10872,10 +10886,10 @@
         <v>1016</v>
       </c>
       <c r="I134" s="8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J134" s="8" t="s">
         <v>1368</v>
-      </c>
-      <c r="J134" s="8" t="s">
-        <v>1369</v>
       </c>
       <c r="K134" s="9">
         <v>37403</v>
@@ -10915,6 +10929,9 @@
       <c r="G135" s="15" t="s">
         <v>909</v>
       </c>
+      <c r="H135" s="8" t="s">
+        <v>1462</v>
+      </c>
       <c r="I135" s="8" t="s">
         <v>929</v>
       </c>
@@ -10952,10 +10969,10 @@
         <v>1020</v>
       </c>
       <c r="I136" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J136" s="8" t="s">
         <v>1370</v>
-      </c>
-      <c r="J136" s="8" t="s">
-        <v>1371</v>
       </c>
       <c r="K136" s="9">
         <v>35427</v>
@@ -10986,7 +11003,7 @@
       <c r="D137" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="E137" s="52">
+      <c r="E137" s="51">
         <v>3327</v>
       </c>
       <c r="F137" s="33" t="s">
@@ -10999,18 +11016,18 @@
         <v>1020</v>
       </c>
       <c r="I137" s="33" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J137" s="51" t="s">
         <v>1370</v>
       </c>
-      <c r="J137" s="52" t="s">
-        <v>1371</v>
-      </c>
-      <c r="K137" s="52">
+      <c r="K137" s="51">
         <v>35427</v>
       </c>
       <c r="L137" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="M137" s="52">
+      <c r="M137" s="51">
         <v>16275</v>
       </c>
       <c r="N137" s="33" t="s">
@@ -11051,7 +11068,7 @@
         <v>1265</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="K138" s="9">
         <v>33229</v>
@@ -11145,6 +11162,9 @@
       <c r="K140" s="10">
         <v>25053</v>
       </c>
+      <c r="L140" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="M140" s="7"/>
       <c r="P140"/>
     </row>
@@ -11203,10 +11223,10 @@
         <v>1035</v>
       </c>
       <c r="I142" s="8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J142" s="8" t="s">
         <v>1372</v>
-      </c>
-      <c r="J142" s="8" t="s">
-        <v>1373</v>
       </c>
       <c r="K142" s="9">
         <v>33817</v>
@@ -11262,7 +11282,7 @@
       <c r="M143" s="42">
         <v>15894</v>
       </c>
-      <c r="N143" s="55" t="s">
+      <c r="N143" s="54" t="s">
         <v>1040</v>
       </c>
       <c r="O143" s="39" t="s">
@@ -11297,10 +11317,10 @@
         <v>1044</v>
       </c>
       <c r="I144" s="8" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J144" s="9" t="s">
         <v>1374</v>
-      </c>
-      <c r="J144" s="9" t="s">
-        <v>1375</v>
       </c>
       <c r="K144" s="9">
         <v>32969</v>
@@ -11421,7 +11441,7 @@
         <v>930</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="J147" s="8" t="s">
         <v>642</v>
@@ -11486,7 +11506,7 @@
       <c r="D149" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="E149" s="52">
+      <c r="E149" s="51">
         <v>7959</v>
       </c>
       <c r="F149" s="33" t="s">
@@ -11499,18 +11519,18 @@
         <v>1170</v>
       </c>
       <c r="I149" s="33" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="J149" s="33" t="s">
-        <v>1379</v>
-      </c>
-      <c r="K149" s="52">
+        <v>1378</v>
+      </c>
+      <c r="K149" s="51">
         <v>30838</v>
       </c>
       <c r="L149" s="33" t="s">
         <v>1171</v>
       </c>
-      <c r="M149" s="45">
+      <c r="M149" s="44">
         <v>15676</v>
       </c>
       <c r="N149" s="39" t="s">
@@ -11536,7 +11556,7 @@
       <c r="D150" s="33" t="s">
         <v>1175</v>
       </c>
-      <c r="E150" s="52">
+      <c r="E150" s="51">
         <v>7712</v>
       </c>
       <c r="F150" s="33" t="s">
@@ -11549,18 +11569,18 @@
         <v>1177</v>
       </c>
       <c r="I150" s="33" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="J150" s="33" t="s">
-        <v>1380</v>
-      </c>
-      <c r="K150" s="52">
+        <v>1379</v>
+      </c>
+      <c r="K150" s="51">
         <v>40137</v>
       </c>
       <c r="L150" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="M150" s="45">
+      <c r="M150" s="44">
         <v>15950</v>
       </c>
       <c r="N150" s="39" t="s">
@@ -11586,7 +11606,7 @@
       <c r="D151" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="E151" s="52">
+      <c r="E151" s="51">
         <v>7445</v>
       </c>
       <c r="F151" s="33" t="s">
@@ -11599,12 +11619,12 @@
         <v>1182</v>
       </c>
       <c r="I151" s="33" t="s">
+        <v>1380</v>
+      </c>
+      <c r="J151" s="33" t="s">
         <v>1381</v>
       </c>
-      <c r="J151" s="33" t="s">
-        <v>1382</v>
-      </c>
-      <c r="K151" s="52">
+      <c r="K151" s="51">
         <v>34621</v>
       </c>
       <c r="L151" s="33" t="s">
@@ -11672,7 +11692,7 @@
     <row r="153" spans="1:18" s="8" customFormat="1" ht="318.75" x14ac:dyDescent="0.3">
       <c r="A153" s="39"/>
       <c r="B153" s="39" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C153" s="39" t="s">
         <v>1071</v>
@@ -11704,7 +11724,7 @@
       <c r="L153" s="39" t="s">
         <v>860</v>
       </c>
-      <c r="M153" s="45">
+      <c r="M153" s="44">
         <v>16254</v>
       </c>
       <c r="N153" s="39" t="s">
@@ -11728,7 +11748,7 @@
       <c r="D154" s="33" t="s">
         <v>533</v>
       </c>
-      <c r="E154" s="52">
+      <c r="E154" s="51">
         <v>6235</v>
       </c>
       <c r="F154" s="33" t="s">
@@ -11741,12 +11761,12 @@
         <v>1190</v>
       </c>
       <c r="I154" s="33" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J154" s="33" t="s">
         <v>1383</v>
       </c>
-      <c r="J154" s="33" t="s">
-        <v>1384</v>
-      </c>
-      <c r="K154" s="52">
+      <c r="K154" s="51">
         <v>31996</v>
       </c>
       <c r="L154" s="33" t="s">
@@ -11778,7 +11798,7 @@
       <c r="D155" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E155" s="52">
+      <c r="E155" s="51">
         <v>822</v>
       </c>
       <c r="F155" s="33" t="s">
@@ -11791,12 +11811,12 @@
         <v>1197</v>
       </c>
       <c r="I155" s="33" t="s">
+        <v>1384</v>
+      </c>
+      <c r="J155" s="33" t="s">
         <v>1385</v>
       </c>
-      <c r="J155" s="33" t="s">
-        <v>1386</v>
-      </c>
-      <c r="K155" s="52">
+      <c r="K155" s="51">
         <v>15155</v>
       </c>
       <c r="L155" s="33" t="s">
@@ -11837,13 +11857,16 @@
         <v>152</v>
       </c>
       <c r="I156" s="8" t="s">
+        <v>1386</v>
+      </c>
+      <c r="J156" s="8" t="s">
         <v>1387</v>
-      </c>
-      <c r="J156" s="8" t="s">
-        <v>1388</v>
       </c>
       <c r="K156" s="10">
         <v>36848</v>
+      </c>
+      <c r="L156" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="M156" s="7"/>
       <c r="N156" s="30"/>
@@ -11863,7 +11886,7 @@
       <c r="D157" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="E157" s="52">
+      <c r="E157" s="51">
         <v>7409</v>
       </c>
       <c r="F157" s="33" t="s">
@@ -11876,12 +11899,12 @@
         <v>1203</v>
       </c>
       <c r="I157" s="33" t="s">
+        <v>1388</v>
+      </c>
+      <c r="J157" s="33" t="s">
         <v>1389</v>
       </c>
-      <c r="J157" s="33" t="s">
-        <v>1390</v>
-      </c>
-      <c r="K157" s="52">
+      <c r="K157" s="51">
         <v>39233</v>
       </c>
       <c r="L157" s="39" t="s">
@@ -11913,7 +11936,7 @@
       <c r="D158" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="E158" s="52">
+      <c r="E158" s="51">
         <v>6516</v>
       </c>
       <c r="F158" s="33" t="s">
@@ -11926,18 +11949,18 @@
         <v>1209</v>
       </c>
       <c r="I158" s="33" t="s">
+        <v>1390</v>
+      </c>
+      <c r="J158" s="33" t="s">
         <v>1391</v>
       </c>
-      <c r="J158" s="33" t="s">
-        <v>1392</v>
-      </c>
-      <c r="K158" s="52">
+      <c r="K158" s="51">
         <v>17053</v>
       </c>
       <c r="L158" s="39" t="s">
         <v>1210</v>
       </c>
-      <c r="M158" s="45">
+      <c r="M158" s="44">
         <v>16011</v>
       </c>
       <c r="N158" s="39" t="s">
@@ -11963,7 +11986,7 @@
       <c r="D159" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="E159" s="52">
+      <c r="E159" s="51">
         <v>4836</v>
       </c>
       <c r="F159" s="33" t="s">
@@ -11976,18 +11999,18 @@
         <v>1216</v>
       </c>
       <c r="I159" s="33" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J159" s="33" t="s">
         <v>1404</v>
       </c>
-      <c r="J159" s="33" t="s">
-        <v>1405</v>
-      </c>
-      <c r="K159" s="52">
+      <c r="K159" s="51">
         <v>16420</v>
       </c>
       <c r="L159" s="33" t="s">
         <v>1217</v>
       </c>
-      <c r="M159" s="52">
+      <c r="M159" s="51">
         <v>16178</v>
       </c>
       <c r="N159" s="33" t="s">
@@ -12013,7 +12036,7 @@
       <c r="D160" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="E160" s="52">
+      <c r="E160" s="51">
         <v>8178</v>
       </c>
       <c r="F160" s="33" t="s">
@@ -12026,18 +12049,18 @@
         <v>1222</v>
       </c>
       <c r="I160" s="33" t="s">
+        <v>1437</v>
+      </c>
+      <c r="J160" s="51" t="s">
         <v>1438</v>
       </c>
-      <c r="J160" s="52" t="s">
-        <v>1439</v>
-      </c>
-      <c r="K160" s="52">
+      <c r="K160" s="51">
         <v>34023</v>
       </c>
       <c r="L160" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="M160" s="45">
+      <c r="M160" s="44">
         <v>16285</v>
       </c>
       <c r="N160" s="39" t="s">
@@ -12063,7 +12086,7 @@
       <c r="D161" s="33" t="s">
         <v>597</v>
       </c>
-      <c r="E161" s="52">
+      <c r="E161" s="51">
         <v>2758</v>
       </c>
       <c r="F161" s="33" t="s">
@@ -12076,18 +12099,18 @@
         <v>1228</v>
       </c>
       <c r="I161" s="33" t="s">
+        <v>1401</v>
+      </c>
+      <c r="J161" s="33" t="s">
         <v>1402</v>
       </c>
-      <c r="J161" s="33" t="s">
-        <v>1403</v>
-      </c>
-      <c r="K161" s="52">
+      <c r="K161" s="51">
         <v>15161</v>
       </c>
       <c r="L161" s="33" t="s">
         <v>1229</v>
       </c>
-      <c r="M161" s="52">
+      <c r="M161" s="51">
         <v>15161</v>
       </c>
       <c r="N161" s="33" t="s">
@@ -12127,7 +12150,7 @@
         <v>215</v>
       </c>
       <c r="J162" s="8" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="K162" s="19" t="s">
         <v>864</v>
@@ -12152,7 +12175,7 @@
       <c r="D163" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="E163" s="52">
+      <c r="E163" s="51">
         <v>6123</v>
       </c>
       <c r="F163" s="33" t="s">
@@ -12165,18 +12188,18 @@
         <v>1234</v>
       </c>
       <c r="I163" s="33" t="s">
+        <v>1434</v>
+      </c>
+      <c r="J163" s="33" t="s">
         <v>1435</v>
       </c>
-      <c r="J163" s="33" t="s">
-        <v>1436</v>
-      </c>
-      <c r="K163" s="52">
+      <c r="K163" s="51">
         <v>38609</v>
       </c>
       <c r="L163" s="33" t="s">
         <v>1235</v>
       </c>
-      <c r="M163" s="45">
+      <c r="M163" s="44">
         <v>15858</v>
       </c>
       <c r="N163" s="39" t="s">
@@ -12220,13 +12243,13 @@
       <c r="J164" s="33" t="s">
         <v>1258</v>
       </c>
-      <c r="K164" s="52">
+      <c r="K164" s="51">
         <v>25658</v>
       </c>
       <c r="L164" s="33" t="s">
         <v>1243</v>
       </c>
-      <c r="M164" s="45">
+      <c r="M164" s="44">
         <v>15462</v>
       </c>
       <c r="N164" s="39" t="s">
@@ -12241,7 +12264,7 @@
     </row>
     <row r="165" spans="1:18" s="8" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>183</v>
@@ -12262,10 +12285,10 @@
         <v>1269</v>
       </c>
       <c r="I165" s="8" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J165" s="9" t="s">
         <v>1433</v>
-      </c>
-      <c r="J165" s="9" t="s">
-        <v>1434</v>
       </c>
       <c r="K165" s="9">
         <v>32760</v>
@@ -12290,7 +12313,7 @@
     </row>
     <row r="166" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
       <c r="B166" s="8" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>509</v>
@@ -12311,10 +12334,10 @@
         <v>1274</v>
       </c>
       <c r="I166" s="8" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J166" s="9" t="s">
         <v>1431</v>
-      </c>
-      <c r="J166" s="9" t="s">
-        <v>1432</v>
       </c>
       <c r="K166" s="9">
         <v>34165</v>
@@ -12369,6 +12392,9 @@
       <c r="K167" s="10">
         <v>28415</v>
       </c>
+      <c r="L167" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="M167" s="10">
         <v>14486</v>
       </c>
@@ -12397,10 +12423,10 @@
         <v>1279</v>
       </c>
       <c r="I168" s="8" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J168" s="9" t="s">
         <v>1428</v>
-      </c>
-      <c r="J168" s="9" t="s">
-        <v>1429</v>
       </c>
       <c r="K168" s="9">
         <v>33596</v>
@@ -12443,10 +12469,10 @@
         <v>1284</v>
       </c>
       <c r="I169" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="J169" s="9" t="s">
         <v>1426</v>
-      </c>
-      <c r="J169" s="9" t="s">
-        <v>1427</v>
       </c>
       <c r="K169" s="9">
         <v>32099</v>
@@ -12489,10 +12515,10 @@
         <v>1288</v>
       </c>
       <c r="I170" s="8" t="s">
+        <v>1407</v>
+      </c>
+      <c r="J170" s="9" t="s">
         <v>1408</v>
-      </c>
-      <c r="J170" s="9" t="s">
-        <v>1409</v>
       </c>
       <c r="K170" s="9">
         <v>16544</v>
@@ -12541,7 +12567,7 @@
         <v>201</v>
       </c>
       <c r="J171" s="8" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="K171" s="8" t="s">
         <v>1079</v>
@@ -12574,10 +12600,10 @@
         <v>1295</v>
       </c>
       <c r="I172" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="J172" s="9" t="s">
         <v>1410</v>
-      </c>
-      <c r="J172" s="9" t="s">
-        <v>1411</v>
       </c>
       <c r="K172" s="9">
         <v>19559</v>
@@ -12658,10 +12684,10 @@
         <v>1299</v>
       </c>
       <c r="I174" s="8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="J174" s="8" t="s">
         <v>1416</v>
-      </c>
-      <c r="J174" s="8" t="s">
-        <v>1417</v>
       </c>
       <c r="K174" s="9">
         <v>27226</v>
@@ -12707,10 +12733,10 @@
         <v>1305</v>
       </c>
       <c r="I175" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="J175" s="9" t="s">
         <v>1406</v>
-      </c>
-      <c r="J175" s="9" t="s">
-        <v>1407</v>
       </c>
       <c r="K175" s="9">
         <v>16486</v>
@@ -12759,6 +12785,9 @@
       <c r="K176" s="10">
         <v>30028</v>
       </c>
+      <c r="L176" s="8" t="s">
+        <v>1460</v>
+      </c>
       <c r="M176" s="7"/>
       <c r="P176"/>
     </row>
@@ -12788,7 +12817,7 @@
         <v>897</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="K177" s="9">
         <v>30028</v>
@@ -12831,10 +12860,10 @@
         <v>1316</v>
       </c>
       <c r="I178" s="8" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J178" s="9" t="s">
         <v>1419</v>
-      </c>
-      <c r="J178" s="9" t="s">
-        <v>1420</v>
       </c>
       <c r="K178" s="9">
         <v>29967</v>
@@ -12877,10 +12906,10 @@
         <v>1321</v>
       </c>
       <c r="I179" s="8" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J179" s="8" t="s">
         <v>1421</v>
-      </c>
-      <c r="J179" s="8" t="s">
-        <v>1422</v>
       </c>
       <c r="K179" s="9">
         <v>30093</v>
@@ -12966,10 +12995,10 @@
         <v>1327</v>
       </c>
       <c r="I181" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J181" s="8" t="s">
         <v>1412</v>
-      </c>
-      <c r="J181" s="8" t="s">
-        <v>1413</v>
       </c>
       <c r="K181" s="9">
         <v>20701</v>
@@ -13015,10 +13044,10 @@
         <v>1333</v>
       </c>
       <c r="I182" s="8" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J182" s="8" t="s">
         <v>1414</v>
-      </c>
-      <c r="J182" s="8" t="s">
-        <v>1415</v>
       </c>
       <c r="K182" s="9">
         <v>23118</v>
@@ -13061,13 +13090,13 @@
         <v>1337</v>
       </c>
       <c r="I183" s="8" t="s">
+        <v>1422</v>
+      </c>
+      <c r="J183" s="8" t="s">
         <v>1423</v>
       </c>
-      <c r="J183" s="8" t="s">
-        <v>1424</v>
-      </c>
-      <c r="K183" s="8" t="s">
-        <v>1338</v>
+      <c r="K183" s="9">
+        <v>28094</v>
       </c>
       <c r="L183" s="8" t="s">
         <v>14</v>
@@ -13076,10 +13105,10 @@
         <v>15220</v>
       </c>
       <c r="N183" s="8" t="s">
+        <v>1338</v>
+      </c>
+      <c r="O183" s="8" t="s">
         <v>1339</v>
-      </c>
-      <c r="O183" s="8" t="s">
-        <v>1340</v>
       </c>
       <c r="Q183"/>
       <c r="R183"/>
@@ -14574,9 +14603,11 @@
     <hyperlink ref="I77" r:id="rId205"/>
     <hyperlink ref="I73" r:id="rId206"/>
     <hyperlink ref="I72" r:id="rId207"/>
+    <hyperlink ref="J124" r:id="rId208"/>
+    <hyperlink ref="I135" r:id="rId209"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId208"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId210"/>
 </worksheet>
 </file>
 
@@ -14621,191 +14652,191 @@
       </c>
     </row>
     <row r="34" spans="1:34" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
     </row>
     <row r="38" spans="1:34" ht="183" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="U38" s="58" t="s">
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="U38" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="59"/>
-      <c r="AF38" s="59"/>
-      <c r="AG38" s="59"/>
-      <c r="AH38" s="59"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="60"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="60"/>
+      <c r="AE38" s="60"/>
+      <c r="AF38" s="60"/>
+      <c r="AG38" s="60"/>
+      <c r="AH38" s="60"/>
     </row>
     <row r="39" spans="1:34" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="59"/>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="59"/>
-      <c r="AH39" s="59"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="60"/>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="60"/>
+      <c r="AD39" s="60"/>
+      <c r="AE39" s="60"/>
+      <c r="AF39" s="60"/>
+      <c r="AG39" s="60"/>
+      <c r="AH39" s="60"/>
     </row>
     <row r="40" spans="1:34" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="59"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="59"/>
-      <c r="AH40" s="59"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="60"/>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="60"/>
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="60"/>
+      <c r="AB40" s="60"/>
+      <c r="AC40" s="60"/>
+      <c r="AD40" s="60"/>
+      <c r="AE40" s="60"/>
+      <c r="AF40" s="60"/>
+      <c r="AG40" s="60"/>
+      <c r="AH40" s="60"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="56"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
@@ -14968,14 +14999,14 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>

--- a/public/data/persons.xlsx
+++ b/public/data/persons.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="1463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="1476">
   <si>
     <t>Источник</t>
   </si>
@@ -999,9 +999,6 @@
     <t>деревня Декшяны, Белоруссия</t>
   </si>
   <si>
-    <t>Молодечно, Минская обл., Белоруссия</t>
-  </si>
-  <si>
     <t>Во время атаки скопления германской техники самолёт Гастелло был подбит и загорелся. Согласно рапортам Воробьёва и Рыбаса, горящий самолёт Гастелло совершил таран механизированной колонны вражеской техники. Ночью крестьяне из близлежащей деревни Декшняны извлекли трупы лётчиков из самолёта и, обернув тела в парашюты, похоронили их рядом с местом падения бомбардировщика.</t>
   </si>
   <si>
@@ -1083,9 +1080,6 @@
   </si>
   <si>
     <t>https://ru.wikipedia.org/wiki/%D0%9B%D0%B8-2</t>
-  </si>
-  <si>
-    <t>Щелково</t>
   </si>
   <si>
     <t xml:space="preserve">В течение первых месяцев войны и обороны Одессы Людмила Павличенко уничтожила 179 немецких и румынских солдат и офицеров. К июню 1942 года на счету Л. М. Павличенко было уже 309 подтверждённых уничтожений солдат и офицеров противника, в том числе 36 снайперов противника </t>
@@ -2020,10 +2014,6 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/f/f9/Pavel_Batov_2.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Евдокия Бершанская, как опытный летчик с хорошими организаторскими способностями, стала командиром 588-го ночного бомбардировочного полка. В 1943 году полк был удостоен звания гвардейского и был переименован в 46-й гвардейский Таманский ночной бомбардировочный полк. Позднее был награжден орденом Красного Знамени и орденом Суворова. 
      Строгая и внимательная, Евдокия Давыдовна пользовалась заслуженным авторитетом и уважением среди летчиц. Она лично выполнила 28 боевых вылетов. Атаки женского полка под предводительством Евдокии Давыдовны были так удачны, стремительны и точны, что немцы прозвали женщин-летчиц «ночными ведьмами». До своего расформирования в октябре 1945 года полк оставался полностью женским, на всех должностях в части служили только женщины.      </t>
   </si>
@@ -4445,9 +4435,6 @@
     <t>Сталинград; Антрацит</t>
   </si>
   <si>
-    <t>Ташкент; Красноярск; Тамбов; Симферополь</t>
-  </si>
-  <si>
     <t>Курск; Саксония; Берлин</t>
   </si>
   <si>
@@ -4470,6 +4457,57 @@
   </si>
   <si>
     <t>За умелое управление войсками при форсировании рек Десна, Днепр, Припять и проявленные при этом мужество и отвагу 16 октября 1943 года генерал-лейтенанту Пухову присвоено звание Героя Советского Союза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Командир эскадрильи 9-го гвардейского истребительного авиационного полка 6-й гвардейской Донской истребительной авиационной дивизии 8-й воздушной армии Южного фронта. </t>
+  </si>
+  <si>
+    <t>Отличился в Миусской и Донбасской наступательных операциях. Дважды Герой Советского Союза (24.08.1943, 1.11.1943).</t>
+  </si>
+  <si>
+    <t>Участвовал в штурме Берлина. Дважды Герой Советского Союза (1943, 1945)</t>
+  </si>
+  <si>
+    <t>Таганрог; Мелитополь, Ростов-на-Дону, Симферополь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С начала Великой Отечественной войны - младший лётчик 4-го истребительного авиационного полка, закончил в должности помощника командира по воздушно-стрелковой службе 9-го Одесского Краснознамённого гвардейского истребительного авиационного полка 1-й воздушной армии. </t>
+  </si>
+  <si>
+    <t>Львов, Сандомир, Берлин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Командир эскадрильи 141-го гвардейского штурмового авиационного полка 9-й гвардейской штурмовой авиационной дивизии 1-го Гвардейского Штурмового Авиационного Корпуса 2-й воздушной армии 1-го Украинского фронта. </t>
+  </si>
+  <si>
+    <t>Отличился на Сандомирском плацдарме (Польша). Дважды Герой Советского Союза</t>
+  </si>
+  <si>
+    <t>Отличился при форсировании реки Одер и в боях за Берлин. Дважды Герой Советского Союза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Командир батальона 447-го стрелкового полка 397-й стрелковой дивизии 61-й армии 1-го Белорусского фронта. Участник боевых действий под Сталинградом, на Курской дуге, Украине, в Польше, Германии. </t>
+  </si>
+  <si>
+    <t>Сталинград; Варшава; Берлин</t>
+  </si>
+  <si>
+    <t>Командир 53-й гвардейской танковой бригады 6-го гвардейского танкового корпуса 3-й гвардейской танковой армии 1-го Украинского фронта. Участвовал в Черниговско-Полтавской наступательной операции, в Киевской наступательной и в Киевской оборонительной операциях, в Днепровско-Карпатской, Львовско-Сандомирской, Висло-Одерской, Нижнесилезской, Берлинской, Пражской наступательных операциях.</t>
+  </si>
+  <si>
+    <t>Сталинград; Перемышль</t>
+  </si>
+  <si>
+    <t>Отличился при ликвидации 6-й немецкой армии в Сталинграде, при  освобождении г.Перемышль (Польша). Дважды Герой Советского Союза (1940, 1944)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За образцовое выполнение заданий командования в 1942 году присвоено звание Героя Героя Советского Союза. </t>
+  </si>
+  <si>
+    <t>Участвовал в Сталинградской битве. Газета «Красная Звезда» от 24 декабря 1942 года писала: «История войн ещё не видела бойцов, так мужественно сражавшихся как А. А. Асланов и его боевые друзья. Как бы ни были сильны вражеские танки и пехота им не сравниться с частью руководимой могучим, волевым командиром Героем Советского Союза Ази Аслановым».</t>
+  </si>
+  <si>
+    <t>Сталинград; Белгород; Полтава; Вильнюс; Вилейка; Минск; Молодечно</t>
   </si>
 </sst>
 </file>
@@ -5405,10 +5443,10 @@
   <dimension ref="A1:R525"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J138" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="N5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I135" sqref="I135"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5471,7 +5509,7 @@
         <v>300</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>296</v>
@@ -5483,38 +5521,38 @@
         <v>311</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>366</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>368</v>
       </c>
       <c r="E2" s="9">
         <v>8428</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K2" s="9">
         <v>34866</v>
@@ -5523,23 +5561,23 @@
         <v>14</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="R2" s="32"/>
     </row>
     <row r="3" spans="1:18" s="6" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>183</v>
@@ -5551,62 +5589,64 @@
         <v>7395</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>391</v>
+        <v>1460</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K3" s="10">
         <v>15906</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="8" t="s">
-        <v>1453</v>
-      </c>
-      <c r="O3" s="8"/>
+        <v>1450</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>1459</v>
+      </c>
       <c r="P3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R3" s="34"/>
     </row>
     <row r="4" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9">
         <v>7599</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>391</v>
+        <v>1461</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K4" s="9">
         <v>22443</v>
@@ -5616,9 +5656,11 @@
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8" t="s">
-        <v>1454</v>
-      </c>
-      <c r="O4" s="8"/>
+        <v>1462</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>1463</v>
+      </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="32"/>
@@ -5626,7 +5668,7 @@
     <row r="5" spans="1:18" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>108</v>
@@ -5638,19 +5680,19 @@
         <v>7531</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>391</v>
+        <v>1466</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="K5" s="10">
         <v>15153</v>
@@ -5660,11 +5702,13 @@
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="O5" s="13"/>
+        <v>1464</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>1465</v>
+      </c>
       <c r="P5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q5"/>
       <c r="R5" s="34"/>
@@ -5672,115 +5716,119 @@
     <row r="6" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>375</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>179</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>391</v>
+        <v>1467</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K6" s="10">
         <v>15955</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="O6" s="13"/>
+        <v>1469</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>1468</v>
+      </c>
       <c r="R6" s="34"/>
     </row>
     <row r="7" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>204</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>173</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>391</v>
+        <v>1472</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K7" s="10">
         <v>18834</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="O7" s="13"/>
+        <v>1471</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>1470</v>
+      </c>
       <c r="R7" s="34"/>
     </row>
-    <row r="8" spans="1:18" ht="75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>380</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>173</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>391</v>
+        <v>1473</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K8" s="9">
         <v>34087</v>
@@ -5790,40 +5838,42 @@
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="O8" s="13"/>
+        <v>1475</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>1474</v>
+      </c>
       <c r="P8" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R8" s="32"/>
     </row>
     <row r="9" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>153</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K9" s="9">
         <v>17914</v>
@@ -5844,31 +5894,31 @@
     <row r="10" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="K10" s="10">
         <v>31186</v>
@@ -5887,37 +5937,37 @@
     <row r="11" spans="1:18" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="E11" s="9">
         <v>8253</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="K11" s="10">
         <v>15659</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="8"/>
@@ -5929,76 +5979,74 @@
     <row r="12" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="E12" s="9">
         <v>7534</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K12" s="10">
         <v>15231</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>661</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="O12" s="13"/>
       <c r="P12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="R12" s="34"/>
     </row>
     <row r="13" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="K13" s="10">
         <v>28895</v>
@@ -6019,43 +6067,41 @@
     <row r="14" spans="1:18" s="6" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="31" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="K14" s="10">
         <v>22983</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>661</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="O14" s="13"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" s="34"/>
@@ -6063,29 +6109,29 @@
     <row r="15" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E15" s="9">
         <v>7776</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="K15" s="9">
         <v>33397</v>
@@ -6094,10 +6140,10 @@
         <v>14</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="O15" s="13"/>
       <c r="P15" s="6" t="s">
@@ -6109,39 +6155,39 @@
     <row r="16" spans="1:18" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>166</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="K16" s="10">
         <v>16320</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="8" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="O16" s="13"/>
       <c r="P16" t="s">
@@ -6165,7 +6211,7 @@
         <v>4786</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>290</v>
@@ -6174,23 +6220,23 @@
         <v>263</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O17" s="46" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="P17" s="6"/>
       <c r="R17" s="34"/>
@@ -6198,38 +6244,38 @@
     <row r="18" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="33" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>121</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F18" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>693</v>
-      </c>
       <c r="J18" s="8" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="K18" s="9">
         <v>15309</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="52"/>
@@ -6239,7 +6285,7 @@
     <row r="19" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>148</v>
@@ -6251,17 +6297,17 @@
         <v>150</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="K19" s="10">
         <v>14910</v>
@@ -6281,84 +6327,82 @@
     <row r="20" spans="1:18" s="6" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>153</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I20" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>698</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>701</v>
       </c>
       <c r="K20" s="18">
         <v>27526</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>1457</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>661</v>
-      </c>
+        <v>1453</v>
+      </c>
+      <c r="O20" s="13"/>
       <c r="Q20"/>
       <c r="R20" s="32"/>
     </row>
     <row r="21" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>113</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I21" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>702</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>705</v>
       </c>
       <c r="K21" s="10">
         <v>15386</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O21" s="13"/>
       <c r="R21" s="34"/>
@@ -6366,43 +6410,43 @@
     <row r="22" spans="1:18" s="6" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>218</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E22" s="23">
         <v>7974</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="K22" s="10">
         <v>15919</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="30" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="O22" s="13"/>
       <c r="P22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q22"/>
       <c r="R22" s="34"/>
@@ -6410,29 +6454,29 @@
     <row r="23" spans="1:18" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="E23" s="23">
         <v>8625</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="K23" s="10">
         <v>14912</v>
@@ -6465,7 +6509,7 @@
         <v>6186</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>250</v>
@@ -6474,23 +6518,23 @@
         <v>255</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="K24" s="47">
         <v>15906</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="M24" s="48"/>
       <c r="N24" s="8" t="s">
         <v>194</v>
       </c>
       <c r="O24" s="46" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="P24" t="s">
         <v>321</v>
@@ -6499,38 +6543,38 @@
     <row r="25" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>162</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I25" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>715</v>
-      </c>
       <c r="K25" s="49" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>316</v>
@@ -6542,39 +6586,39 @@
     <row r="26" spans="1:18" s="6" customFormat="1" ht="225" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>203</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>556</v>
-      </c>
       <c r="F26" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="K26" s="10">
         <v>15764</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O26" s="13"/>
       <c r="P26"/>
@@ -6592,7 +6636,7 @@
         <v>140</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>144</v>
@@ -6607,23 +6651,23 @@
         <v>156</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="K27" s="18">
         <v>22443</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
@@ -6632,7 +6676,7 @@
     <row r="28" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>153</v>
@@ -6644,69 +6688,67 @@
         <v>7909</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="K28" s="10">
         <v>16263</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="O28" s="13" t="s">
-        <v>661</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="O28" s="13"/>
       <c r="R28"/>
     </row>
     <row r="29" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>214</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I29" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="J29" s="8" t="s">
         <v>730</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>733</v>
       </c>
       <c r="K29" s="10">
         <v>16098</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O29" s="13"/>
       <c r="R29"/>
@@ -6714,29 +6756,29 @@
     <row r="30" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>415</v>
-      </c>
       <c r="E30" s="24" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I30" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>734</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>737</v>
       </c>
       <c r="K30" s="10">
         <v>36848</v>
@@ -6754,45 +6796,45 @@
     <row r="31" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>418</v>
-      </c>
       <c r="E31" s="24" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I31" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="J31" s="8" t="s">
         <v>738</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>741</v>
       </c>
       <c r="K31" s="9">
         <v>32037</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="N31" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O31" s="13"/>
       <c r="P31" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
@@ -6818,13 +6860,13 @@
         <v>168</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="K32" s="10">
         <v>16097</v>
@@ -6833,11 +6875,11 @@
         <v>194</v>
       </c>
       <c r="M32" s="7"/>
-      <c r="N32" s="8" t="s">
-        <v>336</v>
+      <c r="N32" s="30" t="s">
+        <v>335</v>
       </c>
       <c r="O32" s="46" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R32"/>
     </row>
@@ -6859,7 +6901,7 @@
         <v>194</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>195</v>
@@ -6868,7 +6910,7 @@
         <v>196</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="K33" s="9">
         <v>18334</v>
@@ -6881,7 +6923,7 @@
         <v>298</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>306</v>
@@ -6892,29 +6934,29 @@
     <row r="34" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I34" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>742</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>745</v>
       </c>
       <c r="K34" s="10">
         <v>24649</v>
@@ -6930,29 +6972,29 @@
     <row r="35" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>170</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E35" s="23">
         <v>6554</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="K35" s="28">
         <v>28915</v>
@@ -6977,7 +7019,7 @@
         <v>184</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>235</v>
@@ -6989,21 +7031,21 @@
         <v>236</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="K36" s="9">
         <v>18834</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q36"/>
       <c r="R36"/>
@@ -7011,35 +7053,35 @@
     <row r="37" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I37" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="J37" s="8" t="s">
         <v>749</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>752</v>
       </c>
       <c r="K37" s="10">
         <v>16502</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="M37" s="7"/>
       <c r="N37" s="8"/>
@@ -7049,35 +7091,35 @@
     <row r="38" spans="1:18" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E38" s="9">
         <v>6559</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="K38" s="10">
         <v>26482</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="8"/>
@@ -7087,32 +7129,32 @@
     <row r="39" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>213</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I39" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="J39" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>759</v>
-      </c>
       <c r="K39" s="17" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>14</v>
@@ -7125,7 +7167,7 @@
     <row r="40" spans="1:18" s="6" customFormat="1" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>148</v>
@@ -7134,22 +7176,22 @@
         <v>214</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F40" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="J40" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>1142</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>619</v>
       </c>
       <c r="K40" s="28">
         <v>30215</v>
@@ -7159,7 +7201,7 @@
       </c>
       <c r="M40" s="7"/>
       <c r="N40" s="8" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40"/>
@@ -7169,7 +7211,7 @@
     <row r="41" spans="1:18" s="6" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>108</v>
@@ -7178,22 +7220,22 @@
         <v>114</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G41" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H41" s="8" t="s">
         <v>1141</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>1144</v>
-      </c>
       <c r="I41" s="8" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K41" s="28">
         <v>31156</v>
@@ -7211,35 +7253,35 @@
     <row r="42" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>130</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="K42" s="28">
         <v>41953</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M42" s="7"/>
       <c r="N42" s="8"/>
@@ -7249,7 +7291,7 @@
     <row r="43" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>166</v>
@@ -7261,23 +7303,23 @@
         <v>5814</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="K43" s="28">
         <v>28120</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="30"/>
@@ -7287,38 +7329,38 @@
     <row r="44" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>218</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="15" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="I44" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="J44" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>771</v>
-      </c>
       <c r="K44" s="21" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="7"/>
       <c r="N44" s="45"/>
       <c r="O44" s="15" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="R44"/>
     </row>
@@ -7346,13 +7388,13 @@
         <v>241</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="L45" s="15" t="s">
         <v>14</v>
@@ -7360,14 +7402,14 @@
       <c r="M45" s="7"/>
       <c r="N45" s="8"/>
       <c r="O45" s="15" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="R45"/>
     </row>
     <row r="46" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>130</v>
@@ -7376,27 +7418,27 @@
         <v>149</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I46" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="J46" s="8" t="s">
         <v>772</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>775</v>
       </c>
       <c r="K46" s="9">
         <v>14504</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="9" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
@@ -7407,31 +7449,31 @@
     <row r="47" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>153</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E47" s="9">
         <v>716</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="K47" s="26">
         <v>18799</v>
@@ -7447,34 +7489,34 @@
     <row r="48" spans="1:18" ht="150" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>166</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E48" s="9">
         <v>6632</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="7"/>
@@ -7485,34 +7527,34 @@
     <row r="49" spans="1:18" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>437</v>
-      </c>
       <c r="E49" s="11" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="I49" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="J49" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>783</v>
-      </c>
       <c r="K49" s="21" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="7"/>
@@ -7525,7 +7567,7 @@
         <v>295</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>108</v>
@@ -7537,7 +7579,7 @@
         <v>110</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>105</v>
@@ -7546,7 +7588,7 @@
         <v>112</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>111</v>
@@ -7555,43 +7597,43 @@
         <v>17914</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="M50" s="7"/>
       <c r="N50" s="8"/>
       <c r="O50" s="15" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="R50"/>
     </row>
     <row r="51" spans="1:18" s="6" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>130</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I51" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="J51" s="8" t="s">
         <v>784</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>787</v>
       </c>
       <c r="K51" s="9">
         <v>26090</v>
@@ -7600,39 +7642,39 @@
         <v>14</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>851</v>
-      </c>
-      <c r="N51" s="8"/>
+        <v>848</v>
+      </c>
+      <c r="N51" s="30"/>
       <c r="O51" s="8"/>
     </row>
     <row r="52" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>442</v>
-      </c>
       <c r="E52" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>878</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="J52" s="8" t="s">
         <v>788</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>881</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>791</v>
       </c>
       <c r="K52" s="20">
         <v>33889</v>
@@ -7646,38 +7688,38 @@
     <row r="53" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>109</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I53" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="J53" s="8" t="s">
         <v>792</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>795</v>
-      </c>
       <c r="K53" s="8" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="L53" s="8" t="s">
         <v>14</v>
       </c>
       <c r="M53" s="15" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
@@ -7702,19 +7744,19 @@
         <v>1467</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>125</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="K54" s="18">
         <v>28403</v>
@@ -7732,10 +7774,10 @@
     <row r="55" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>114</v>
@@ -7744,20 +7786,20 @@
         <v>8438</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="L55" s="15" t="s">
         <v>14</v>
@@ -7770,7 +7812,7 @@
     <row r="56" spans="1:18" ht="150" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>108</v>
@@ -7779,28 +7821,28 @@
         <v>204</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I56" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="J56" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>802</v>
-      </c>
       <c r="K56" s="7" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="M56" s="7"/>
       <c r="N56" s="8"/>
@@ -7810,31 +7852,31 @@
     <row r="57" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>183</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="K57" s="20">
         <v>28439</v>
@@ -7859,19 +7901,19 @@
         <v>141</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>142</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="J58" s="8" t="s">
         <v>143</v>
@@ -7892,7 +7934,7 @@
     <row r="59" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>108</v>
@@ -7901,28 +7943,28 @@
         <v>280</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="I59" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="J59" s="8" t="s">
         <v>803</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>806</v>
       </c>
       <c r="K59" s="10">
         <v>22420</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="M59" s="7"/>
       <c r="N59" s="8"/>
@@ -7944,7 +7986,7 @@
         <v>3660</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>205</v>
@@ -7953,10 +7995,10 @@
         <v>207</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="K60" s="20">
         <v>15659</v>
@@ -7965,14 +8007,14 @@
       <c r="M60" s="7"/>
       <c r="N60" s="8"/>
       <c r="O60" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R60"/>
     </row>
     <row r="61" spans="1:18" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>209</v>
@@ -7981,29 +8023,29 @@
         <v>214</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="I61" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="J61" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="J61" s="8" t="s">
-        <v>810</v>
-      </c>
       <c r="K61" s="8" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="L61" s="8"/>
       <c r="M61" s="15" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
@@ -8029,25 +8071,25 @@
         <v>258</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>259</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="15" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
@@ -8079,10 +8121,10 @@
         <v>128</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="K63" s="10">
         <v>28165</v>
@@ -8115,7 +8157,7 @@
         <v>274</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>275</v>
@@ -8127,45 +8169,45 @@
         <v>277</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="L64" s="8"/>
       <c r="M64" s="7"/>
       <c r="N64" s="8"/>
       <c r="O64" s="15" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="R64"/>
     </row>
     <row r="65" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>162</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I65" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="J65" s="8" t="s">
         <v>811</v>
       </c>
-      <c r="J65" s="8" t="s">
-        <v>814</v>
-      </c>
       <c r="K65" s="7" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="L65" s="8"/>
       <c r="M65" s="7"/>
@@ -8176,32 +8218,32 @@
     <row r="66" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>148</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I66" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="J66" s="8" t="s">
         <v>815</v>
       </c>
-      <c r="J66" s="8" t="s">
-        <v>818</v>
-      </c>
       <c r="K66" s="7" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="L66" s="8"/>
       <c r="M66" s="7"/>
@@ -8212,32 +8254,32 @@
     <row r="67" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>113</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="8" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="L67" s="15" t="s">
         <v>14</v>
@@ -8250,31 +8292,31 @@
     <row r="68" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>290</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="K68" s="10">
         <v>16377</v>
@@ -8288,34 +8330,34 @@
     <row r="69" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="E69" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>485</v>
-      </c>
       <c r="F69" s="8" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>205</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="L69" s="8"/>
       <c r="M69" s="7"/>
@@ -8344,10 +8386,10 @@
         <v>127</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="J70" s="15" t="s">
         <v>134</v>
@@ -8357,11 +8399,11 @@
       </c>
       <c r="L70" s="8"/>
       <c r="M70" s="15" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="N70" s="8"/>
       <c r="O70" s="15" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
@@ -8370,34 +8412,34 @@
     <row r="71" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="G71" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>826</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>488</v>
-      </c>
       <c r="H71" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="L71" s="8"/>
       <c r="M71" s="7"/>
@@ -8408,7 +8450,7 @@
     <row r="72" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>148</v>
@@ -8420,19 +8462,19 @@
         <v>8664</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="K72" s="9">
         <v>33762</v>
@@ -8447,32 +8489,32 @@
     <row r="73" spans="1:18" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="F73" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
@@ -8503,10 +8545,10 @@
         <v>174</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="K74" s="10">
         <v>16320</v>
@@ -8515,7 +8557,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="8"/>
       <c r="O74" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P74"/>
       <c r="Q74"/>
@@ -8524,29 +8566,29 @@
     <row r="75" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>153</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="K75" s="20">
         <v>26805</v>
@@ -8572,7 +8614,7 @@
         <v>4377</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>219</v>
@@ -8584,7 +8626,7 @@
         <v>220</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="K76" s="9">
         <v>16015</v>
@@ -8593,7 +8635,7 @@
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
       <c r="O76" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
@@ -8602,29 +8644,29 @@
     <row r="77" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>203</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E77" s="9">
         <v>422</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K77" s="10">
         <v>19363</v>
@@ -8665,13 +8707,13 @@
         <v>271</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="L78" s="8"/>
       <c r="M78" s="7"/>
       <c r="N78" s="8"/>
       <c r="O78" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R78"/>
     </row>
@@ -8690,10 +8732,10 @@
         <v>11000</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>281</v>
@@ -8705,47 +8747,47 @@
         <v>283</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="L79" s="8"/>
       <c r="M79" s="7"/>
       <c r="N79" s="8"/>
       <c r="O79" s="8" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="R79"/>
     </row>
     <row r="80" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="E80" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G80" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>495</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>494</v>
-      </c>
       <c r="H80" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
@@ -8774,19 +8816,19 @@
         <v>123</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>124</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="L81" s="8"/>
       <c r="M81" s="7"/>
@@ -8801,38 +8843,38 @@
     <row r="82" spans="1:18" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="D82" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G82" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="E82" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>500</v>
-      </c>
       <c r="H82" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="L82" s="8"/>
       <c r="M82" s="15" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
@@ -8840,30 +8882,30 @@
     <row r="83" spans="1:18" s="6" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>137</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="L83" s="8"/>
       <c r="M83" s="7"/>
@@ -8876,29 +8918,29 @@
     <row r="84" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D84" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="E84" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>607</v>
-      </c>
       <c r="G84" s="15" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="K84" s="10">
         <v>30427</v>
@@ -8913,10 +8955,10 @@
     <row r="85" spans="1:18" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>149</v>
@@ -8925,19 +8967,19 @@
         <v>7299</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="K85" s="26">
         <v>27413</v>
@@ -8955,7 +8997,7 @@
     <row r="86" spans="1:18" s="6" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
       <c r="B86" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>166</v>
@@ -8964,22 +9006,22 @@
         <v>149</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="K86" s="10">
         <v>26338</v>
@@ -8992,79 +9034,79 @@
       <c r="Q86"/>
       <c r="R86"/>
     </row>
-    <row r="87" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" s="8" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="31" t="s">
         <v>228</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E87" s="24" t="s">
-        <v>591</v>
+      <c r="E87" s="23">
+        <v>4226</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>923</v>
+        <v>229</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>1148</v>
+        <v>231</v>
       </c>
       <c r="I87" s="8" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J87" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="J87" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="K87" s="10">
-        <v>23548</v>
+      <c r="K87" s="7" t="s">
+        <v>1390</v>
       </c>
       <c r="M87" s="7"/>
+      <c r="O87" s="15" t="s">
+        <v>832</v>
+      </c>
       <c r="P87"/>
       <c r="Q87"/>
       <c r="R87"/>
     </row>
-    <row r="88" spans="1:18" s="8" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="8" t="s">
         <v>228</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E88" s="23">
-        <v>4226</v>
+      <c r="E88" s="24" t="s">
+        <v>589</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>230</v>
+        <v>590</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>920</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>231</v>
+        <v>1145</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>1253</v>
+        <v>1146</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>1152</v>
-      </c>
-      <c r="K88" s="7" t="s">
-        <v>1393</v>
+        <v>591</v>
+      </c>
+      <c r="K88" s="10">
+        <v>23548</v>
       </c>
       <c r="M88" s="7"/>
-      <c r="O88" s="15" t="s">
-        <v>835</v>
-      </c>
       <c r="P88"/>
       <c r="Q88"/>
       <c r="R88"/>
@@ -9074,28 +9116,28 @@
         <v>228</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>214</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="K89" s="9">
         <v>32857</v>
@@ -9116,29 +9158,29 @@
         <v>210</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>211</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I90" s="8" t="s">
+        <v>1348</v>
+      </c>
+      <c r="J90" s="8" t="s">
         <v>1351</v>
-      </c>
-      <c r="J90" s="8" t="s">
-        <v>1354</v>
       </c>
       <c r="K90" s="10">
         <v>15386</v>
       </c>
       <c r="M90" s="7"/>
       <c r="O90" s="8" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="P90"/>
       <c r="Q90" s="6"/>
@@ -9146,31 +9188,31 @@
     </row>
     <row r="91" spans="1:18" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E91" s="23">
         <v>7947</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="K91" s="18">
         <v>36657</v>
@@ -9182,28 +9224,28 @@
     <row r="92" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
       <c r="B92" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D92" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E92" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="E92" s="24" t="s">
-        <v>513</v>
-      </c>
       <c r="F92" s="8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="K92" s="10">
         <v>31019</v>
@@ -9217,37 +9259,37 @@
     <row r="93" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
       <c r="B93" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E93" s="23">
         <v>7077</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="K93" s="10">
         <v>32156</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="M93" s="7"/>
       <c r="P93"/>
@@ -9257,28 +9299,28 @@
     <row r="94" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
       <c r="B94" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D94" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="E94" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="E94" s="24" t="s">
-        <v>517</v>
-      </c>
       <c r="F94" s="8" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="K94" s="10">
         <v>31978</v>
@@ -9290,7 +9332,7 @@
     </row>
     <row r="95" spans="1:18" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B95" s="31" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>213</v>
@@ -9299,22 +9341,22 @@
         <v>114</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="K95" s="18">
         <v>37901</v>
@@ -9347,22 +9389,22 @@
         <v>251</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="K96" s="20">
         <v>15919</v>
       </c>
       <c r="L96" s="15" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="M96" s="19" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="O96" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P96"/>
       <c r="Q96"/>
@@ -9394,7 +9436,7 @@
         <v>118</v>
       </c>
       <c r="I97" s="39" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="J97" s="39" t="s">
         <v>119</v>
@@ -9414,31 +9456,31 @@
     </row>
     <row r="98" spans="1:18" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>130</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E98" s="9">
         <v>6849</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="K98" s="9">
         <v>28141</v>
@@ -9451,7 +9493,7 @@
     <row r="99" spans="1:18" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
       <c r="B99" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>148</v>
@@ -9460,19 +9502,19 @@
         <v>280</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="K99" s="10">
         <v>33232</v>
@@ -9484,34 +9526,34 @@
     </row>
     <row r="100" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>183</v>
       </c>
       <c r="D100" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="E100" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="E100" s="11" t="s">
-        <v>526</v>
-      </c>
       <c r="F100" s="8" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K100" s="15" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="L100" s="15" t="s">
         <v>285</v>
@@ -9546,10 +9588,10 @@
         <v>163</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="K101" s="10">
         <v>18168</v>
@@ -9574,22 +9616,22 @@
         <v>204</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="K102" s="10">
         <v>21939</v>
@@ -9602,28 +9644,28 @@
     <row r="103" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
       <c r="B103" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C103" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E103" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>529</v>
-      </c>
       <c r="F103" s="8" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="K103" s="10">
         <v>24562</v>
@@ -9654,20 +9696,20 @@
         <v>168</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="K104" s="10">
         <v>37029</v>
       </c>
       <c r="M104" s="7"/>
       <c r="O104" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P104"/>
       <c r="Q104"/>
@@ -9687,25 +9729,25 @@
         <v>4764</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>147</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I105" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J105" s="9" t="s">
         <v>1397</v>
-      </c>
-      <c r="J105" s="9" t="s">
-        <v>1400</v>
       </c>
       <c r="K105" s="9">
         <v>23340</v>
       </c>
       <c r="O105" s="15" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
@@ -9713,31 +9755,31 @@
     </row>
     <row r="106" spans="1:18" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>153</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E106" s="9">
         <v>7551</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="K106" s="9">
         <v>30104</v>
@@ -9748,37 +9790,37 @@
     </row>
     <row r="107" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>148</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E107" s="9">
         <v>7484</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="K107" s="9">
         <v>37416</v>
       </c>
       <c r="L107" s="15" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="P107" s="6"/>
       <c r="Q107"/>
@@ -9787,28 +9829,28 @@
     <row r="108" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
       <c r="B108" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D108" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="E108" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="E108" s="11" t="s">
-        <v>535</v>
-      </c>
       <c r="F108" s="15" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="K108" s="20">
         <v>31215</v>
@@ -9854,7 +9896,7 @@
       <c r="M109" s="7"/>
       <c r="N109" s="30"/>
       <c r="O109" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P109"/>
       <c r="Q109"/>
@@ -9862,10 +9904,10 @@
     </row>
     <row r="110" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>162</v>
@@ -9874,19 +9916,19 @@
         <v>7085</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="K110" s="18">
         <v>29124</v>
@@ -9898,7 +9940,7 @@
     <row r="111" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
       <c r="B111" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>108</v>
@@ -9910,22 +9952,22 @@
         <v>8399</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="L111" s="8" t="s">
         <v>14</v>
@@ -9937,10 +9979,10 @@
     </row>
     <row r="112" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>141</v>
@@ -9949,25 +9991,25 @@
         <v>8429</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="J112" s="29" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="K112" s="9">
         <v>39581</v>
       </c>
       <c r="L112" s="15" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
@@ -9976,7 +10018,7 @@
     <row r="113" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
       <c r="B113" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>148</v>
@@ -9988,19 +10030,19 @@
         <v>324</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I113" s="32" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K113" s="10">
         <v>28097</v>
@@ -10013,7 +10055,7 @@
     <row r="114" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
       <c r="B114" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>113</v>
@@ -10025,19 +10067,19 @@
         <v>7993</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="K114" s="10">
         <v>40889</v>
@@ -10074,14 +10116,14 @@
         <v>191</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="K115" s="7">
         <v>1981</v>
       </c>
       <c r="M115" s="7"/>
       <c r="O115" s="15" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="P115"/>
       <c r="Q115"/>
@@ -10089,7 +10131,7 @@
     </row>
     <row r="116" spans="1:18" s="8" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
       <c r="B116" s="36" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>108</v>
@@ -10101,19 +10143,19 @@
         <v>6574</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>168</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="K116" s="9">
         <v>33435</v>
@@ -10128,10 +10170,10 @@
         <v>240</v>
       </c>
       <c r="O116" s="8" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="P116" s="8" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="Q116"/>
       <c r="R116"/>
@@ -10139,7 +10181,7 @@
     <row r="117" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
       <c r="B117" s="31" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>242</v>
@@ -10160,17 +10202,17 @@
         <v>246</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="K117" s="10">
         <v>27329</v>
       </c>
       <c r="M117" s="7"/>
       <c r="O117" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P117"/>
       <c r="Q117"/>
@@ -10178,56 +10220,56 @@
     </row>
     <row r="118" spans="1:18" s="8" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>153</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E118" s="9">
         <v>8242</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>168</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="K118" s="9">
         <v>18548</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="M118" s="37">
         <v>15646</v>
       </c>
       <c r="N118" s="8" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="P118" s="8" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="Q118"/>
       <c r="R118"/>
     </row>
     <row r="119" spans="1:18" s="8" customFormat="1" ht="393.75" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>101</v>
@@ -10239,37 +10281,37 @@
         <v>5988</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>168</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="K119" s="9">
         <v>20527</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="M119" s="9">
         <v>16002</v>
       </c>
       <c r="N119" s="8" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="O119" s="32" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="P119" s="8" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="Q119"/>
       <c r="R119"/>
@@ -10277,7 +10319,7 @@
     <row r="120" spans="1:18" s="8" customFormat="1" ht="393.75" x14ac:dyDescent="0.3">
       <c r="A120" s="39"/>
       <c r="B120" s="39" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C120" s="39" t="s">
         <v>101</v>
@@ -10289,37 +10331,37 @@
         <v>5988</v>
       </c>
       <c r="F120" s="39" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="G120" s="39" t="s">
         <v>168</v>
       </c>
       <c r="H120" s="39" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="I120" s="39" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="J120" s="39" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="K120" s="42">
         <v>20527</v>
       </c>
       <c r="L120" s="39" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="M120" s="42">
         <v>16002</v>
       </c>
       <c r="N120" s="39" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="O120" s="40" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="P120" s="39" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="Q120" s="39"/>
       <c r="R120" s="40"/>
@@ -10327,25 +10369,25 @@
     <row r="121" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
       <c r="B121" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="F121" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="E121" s="24" t="s">
-        <v>567</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>568</v>
-      </c>
       <c r="G121" s="15" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K121" s="10">
         <v>22565</v>
@@ -10357,49 +10399,49 @@
     </row>
     <row r="122" spans="1:18" s="8" customFormat="1" ht="393.75" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>108</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E122" s="9">
         <v>8100</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>219</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="K122" s="9">
         <v>37726</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="M122" s="9">
         <v>15963</v>
       </c>
       <c r="N122" s="8" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="O122" s="8" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="P122" s="8" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="Q122"/>
       <c r="R122"/>
@@ -10407,28 +10449,28 @@
     <row r="123" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
       <c r="B123" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C123" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="F123" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D123" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>547</v>
-      </c>
       <c r="G123" s="15" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="K123" s="26">
         <v>21282</v>
@@ -10444,29 +10486,29 @@
     <row r="124" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A124" s="39"/>
       <c r="B124" s="39" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C124" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="D124" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="E124" s="43" t="s">
+        <v>544</v>
+      </c>
+      <c r="F124" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="D124" s="39" t="s">
-        <v>524</v>
-      </c>
-      <c r="E124" s="43" t="s">
-        <v>546</v>
-      </c>
-      <c r="F124" s="39" t="s">
-        <v>547</v>
-      </c>
       <c r="G124" s="39" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="H124" s="39"/>
       <c r="I124" s="39" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="J124" s="39" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="K124" s="55">
         <v>21282</v>
@@ -10483,10 +10525,10 @@
     </row>
     <row r="125" spans="1:18" s="8" customFormat="1" ht="187.5" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>280</v>
@@ -10495,19 +10537,19 @@
         <v>1412</v>
       </c>
       <c r="F125" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="G125" s="8" t="s">
         <v>989</v>
       </c>
-      <c r="G125" s="8" t="s">
-        <v>992</v>
-      </c>
       <c r="H125" s="8" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="K125" s="9">
         <v>28892</v>
@@ -10519,41 +10561,41 @@
         <v>16163</v>
       </c>
       <c r="N125" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="O125" s="8" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="Q125"/>
       <c r="R125"/>
     </row>
     <row r="126" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E126" s="9">
         <v>7369</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="G126" s="8" t="s">
         <v>168</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="K126" s="9">
         <v>36874</v>
@@ -10565,56 +10607,56 @@
         <v>16132</v>
       </c>
       <c r="N126" s="8" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="O126" s="8" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
     </row>
     <row r="127" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E127" s="9">
         <v>5350</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="G127" s="8" t="s">
         <v>168</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="K127" s="9">
         <v>24706</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="M127" s="37">
         <v>15281</v>
       </c>
       <c r="N127" s="30" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="O127" s="8" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="Q127" s="6"/>
       <c r="R127" s="6"/>
@@ -10634,7 +10676,7 @@
         <v>4814</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G128" s="8" t="s">
         <v>290</v>
@@ -10654,7 +10696,7 @@
       <c r="M128" s="7"/>
       <c r="N128" s="50"/>
       <c r="O128" s="15" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="P128"/>
       <c r="Q128" s="6"/>
@@ -10662,7 +10704,7 @@
     </row>
     <row r="129" spans="1:18" s="8" customFormat="1" ht="300" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>153</v>
@@ -10674,44 +10716,44 @@
         <v>1841</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>168</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="K129" s="9">
         <v>16479</v>
       </c>
       <c r="L129" s="8" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="M129" s="9">
         <v>16479</v>
       </c>
       <c r="N129" s="8" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="O129" s="8" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="Q129" s="6"/>
       <c r="R129" s="6"/>
     </row>
     <row r="130" spans="1:18" s="8" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>149</v>
@@ -10726,13 +10768,13 @@
         <v>168</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="K130" s="9">
         <v>40215</v>
@@ -10744,10 +10786,10 @@
         <v>16528</v>
       </c>
       <c r="N130" s="8" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="O130" s="8" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="Q130" s="6"/>
       <c r="R130" s="6"/>
@@ -10755,28 +10797,28 @@
     <row r="131" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
       <c r="B131" s="8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D131" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="E131" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="E131" s="24" t="s">
-        <v>601</v>
-      </c>
       <c r="F131" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K131" s="10">
         <v>26885</v>
@@ -10789,31 +10831,31 @@
     <row r="132" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
       <c r="B132" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="K132" s="21" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="L132" s="22" t="s">
         <v>14</v>
@@ -10832,7 +10874,7 @@
         <v>223</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="E133" s="9">
         <v>9548</v>
@@ -10857,7 +10899,7 @@
       </c>
       <c r="M133" s="7"/>
       <c r="O133" s="15" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="P133"/>
       <c r="Q133" s="6"/>
@@ -10865,7 +10907,7 @@
     </row>
     <row r="134" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>183</v>
@@ -10877,19 +10919,19 @@
         <v>8420</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="G134" s="8" t="s">
         <v>168</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="K134" s="9">
         <v>37403</v>
@@ -10901,10 +10943,10 @@
         <v>16498</v>
       </c>
       <c r="N134" s="8" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="O134" s="8" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="Q134" s="6"/>
       <c r="R134" s="6"/>
@@ -10912,31 +10954,31 @@
     <row r="135" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
       <c r="B135" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>166</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="K135" s="10">
         <v>21272</v>
@@ -10948,7 +10990,7 @@
     </row>
     <row r="136" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>108</v>
@@ -10966,13 +11008,13 @@
         <v>168</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="K136" s="9">
         <v>35427</v>
@@ -10984,10 +11026,10 @@
         <v>16275</v>
       </c>
       <c r="N136" s="8" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="O136" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="Q136" s="6"/>
       <c r="R136" s="6"/>
@@ -10995,7 +11037,7 @@
     <row r="137" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A137" s="39"/>
       <c r="B137" s="33" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C137" s="33" t="s">
         <v>108</v>
@@ -11013,13 +11055,13 @@
         <v>168</v>
       </c>
       <c r="H137" s="33" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="I137" s="33" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="J137" s="51" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="K137" s="51">
         <v>35427</v>
@@ -11031,64 +11073,64 @@
         <v>16275</v>
       </c>
       <c r="N137" s="33" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="O137" s="33" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="P137" s="40" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="Q137" s="39"/>
       <c r="R137" s="40"/>
     </row>
     <row r="138" spans="1:18" s="8" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E138" s="9">
         <v>7345</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>168</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="K138" s="9">
         <v>33229</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="M138" s="9">
         <v>15829</v>
       </c>
       <c r="N138" s="8" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="O138" s="8" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="139" spans="1:18" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>148</v>
@@ -11100,19 +11142,19 @@
         <v>1881</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="I139" s="8" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="K139" s="9">
         <v>28228</v>
@@ -11124,16 +11166,16 @@
         <v>15220</v>
       </c>
       <c r="N139" s="8" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="O139" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="140" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
       <c r="B140" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>203</v>
@@ -11142,22 +11184,22 @@
         <v>141</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K140" s="10">
         <v>25053</v>
@@ -11171,28 +11213,28 @@
     <row r="141" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
       <c r="B141" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K141" s="10">
         <v>17773</v>
@@ -11202,7 +11244,7 @@
     </row>
     <row r="142" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>183</v>
@@ -11214,19 +11256,19 @@
         <v>7363</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>168</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="K142" s="9">
         <v>33817</v>
@@ -11237,90 +11279,90 @@
       <c r="M142" s="9">
         <v>15149</v>
       </c>
-      <c r="N142" s="8" t="s">
-        <v>1036</v>
+      <c r="N142" s="30" t="s">
+        <v>1033</v>
       </c>
       <c r="O142" s="8" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="143" spans="1:18" s="8" customFormat="1" ht="337.5" x14ac:dyDescent="0.3">
       <c r="A143" s="39"/>
       <c r="B143" s="39" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C143" s="39" t="s">
         <v>108</v>
       </c>
       <c r="D143" s="39" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E143" s="42">
         <v>378</v>
       </c>
       <c r="F143" s="39" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="G143" s="39" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="H143" s="39" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="I143" s="39" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="J143" s="39" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="K143" s="42">
         <v>18817</v>
       </c>
       <c r="L143" s="39" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="M143" s="42">
         <v>15894</v>
       </c>
       <c r="N143" s="54" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="O143" s="39" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="P143" s="40" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="Q143" s="39"/>
       <c r="R143" s="40"/>
     </row>
     <row r="144" spans="1:18" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E144" s="9">
         <v>3998</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="G144" s="8" t="s">
         <v>168</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="K144" s="9">
         <v>32969</v>
@@ -11332,10 +11374,10 @@
         <v>15599</v>
       </c>
       <c r="N144" s="8" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="O144" s="8" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="145" spans="1:18" s="8" customFormat="1" ht="281.25" x14ac:dyDescent="0.3">
@@ -11355,7 +11397,7 @@
         <v>225</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="H145" s="8" t="s">
         <v>226</v>
@@ -11364,87 +11406,87 @@
         <v>227</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="K145" s="8" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="O145" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P145" s="6"/>
     </row>
     <row r="146" spans="1:18" s="8" customFormat="1" ht="318.75" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E146" s="9">
         <v>5704</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="G146" s="8" t="s">
         <v>168</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="K146" s="9">
         <v>15491</v>
       </c>
       <c r="L146" s="8" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="M146" s="9">
         <v>15491</v>
       </c>
       <c r="N146" s="8" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="O146" s="8" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="147" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E147" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="G147" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="H147" s="15" t="s">
+        <v>927</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J147" s="8" t="s">
         <v>640</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="G147" s="15" t="s">
-        <v>886</v>
-      </c>
-      <c r="H147" s="15" t="s">
-        <v>930</v>
-      </c>
-      <c r="I147" s="8" t="s">
-        <v>1375</v>
-      </c>
-      <c r="J147" s="8" t="s">
-        <v>642</v>
       </c>
       <c r="K147" s="9">
         <v>17254</v>
@@ -11453,52 +11495,52 @@
     </row>
     <row r="148" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>166</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E148" s="9">
         <v>8485</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="G148" s="8" t="s">
         <v>168</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="I148" s="8" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="J148" s="8" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="K148" s="9">
         <v>16547</v>
       </c>
       <c r="L148" s="8" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="M148" s="9">
         <v>16547</v>
       </c>
       <c r="N148" s="30" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="O148" s="8" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="149" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
       <c r="A149" s="39"/>
       <c r="B149" s="33" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C149" s="33" t="s">
         <v>108</v>
@@ -11510,37 +11552,37 @@
         <v>7959</v>
       </c>
       <c r="F149" s="33" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="G149" s="33" t="s">
         <v>168</v>
       </c>
       <c r="H149" s="33" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="I149" s="33" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="J149" s="33" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="K149" s="51">
         <v>30838</v>
       </c>
       <c r="L149" s="33" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="M149" s="44">
         <v>15676</v>
       </c>
       <c r="N149" s="39" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="O149" s="39" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="P149" s="40" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="Q149" s="39"/>
       <c r="R149" s="40"/>
@@ -11548,31 +11590,31 @@
     <row r="150" spans="1:18" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="A150" s="39"/>
       <c r="B150" s="33" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="E150" s="51">
         <v>7712</v>
       </c>
       <c r="F150" s="33" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="G150" s="33" t="s">
         <v>168</v>
       </c>
       <c r="H150" s="33" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="I150" s="33" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="J150" s="33" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="K150" s="51">
         <v>40137</v>
@@ -11584,13 +11626,13 @@
         <v>15950</v>
       </c>
       <c r="N150" s="39" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="O150" s="39" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="P150" s="40" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="Q150" s="39"/>
       <c r="R150" s="40"/>
@@ -11598,7 +11640,7 @@
     <row r="151" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A151" s="39"/>
       <c r="B151" s="33" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C151" s="33" t="s">
         <v>166</v>
@@ -11610,19 +11652,19 @@
         <v>7445</v>
       </c>
       <c r="F151" s="33" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="G151" s="33" t="s">
         <v>168</v>
       </c>
       <c r="H151" s="33" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="I151" s="33" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="J151" s="33" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="K151" s="51">
         <v>34621</v>
@@ -11634,104 +11676,104 @@
         <v>16427</v>
       </c>
       <c r="N151" s="39" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="O151" s="39" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="P151" s="40" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="Q151" s="39"/>
       <c r="R151" s="39"/>
     </row>
     <row r="152" spans="1:18" s="8" customFormat="1" ht="318.75" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E152" s="9">
         <v>2803</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>173</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="J152" s="8" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="K152" s="9">
         <v>31873</v>
       </c>
       <c r="L152" s="8" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="M152" s="37">
         <v>16254</v>
       </c>
       <c r="N152" s="8" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="O152" s="8" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="153" spans="1:18" s="8" customFormat="1" ht="318.75" x14ac:dyDescent="0.3">
       <c r="A153" s="39"/>
       <c r="B153" s="39" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="C153" s="39" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D153" s="39" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E153" s="42">
         <v>2803</v>
       </c>
       <c r="F153" s="39" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="G153" s="39" t="s">
         <v>173</v>
       </c>
       <c r="H153" s="39" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="I153" s="42" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="J153" s="39" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="K153" s="42">
         <v>31873</v>
       </c>
       <c r="L153" s="39" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="M153" s="44">
         <v>16254</v>
       </c>
       <c r="N153" s="39" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="O153" s="39" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="P153" s="39"/>
       <c r="Q153" s="39"/>
@@ -11740,31 +11782,31 @@
     <row r="154" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A154" s="33"/>
       <c r="B154" s="33" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C154" s="33" t="s">
         <v>183</v>
       </c>
       <c r="D154" s="33" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E154" s="51">
         <v>6235</v>
       </c>
       <c r="F154" s="33" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="G154" s="33" t="s">
         <v>168</v>
       </c>
       <c r="H154" s="33" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="I154" s="33" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="J154" s="33" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="K154" s="51">
         <v>31996</v>
@@ -11776,13 +11818,13 @@
         <v>15988</v>
       </c>
       <c r="N154" s="39" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="O154" s="39" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="P154" s="40" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="Q154" s="39"/>
       <c r="R154" s="39"/>
@@ -11790,10 +11832,10 @@
     <row r="155" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A155" s="33"/>
       <c r="B155" s="33" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D155" s="33" t="s">
         <v>131</v>
@@ -11802,32 +11844,32 @@
         <v>822</v>
       </c>
       <c r="F155" s="33" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="G155" s="33" t="s">
         <v>168</v>
       </c>
       <c r="H155" s="33" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="I155" s="33" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="J155" s="33" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="K155" s="51">
         <v>15155</v>
       </c>
       <c r="L155" s="33" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="M155" s="39"/>
       <c r="N155" s="39" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="O155" s="39" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="P155" s="39"/>
       <c r="Q155" s="39"/>
@@ -11857,10 +11899,10 @@
         <v>152</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="J156" s="8" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="K156" s="10">
         <v>36848</v>
@@ -11878,49 +11920,49 @@
     <row r="157" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A157" s="39"/>
       <c r="B157" s="33" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C157" s="33" t="s">
         <v>153</v>
       </c>
       <c r="D157" s="33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E157" s="51">
         <v>7409</v>
       </c>
       <c r="F157" s="33" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="G157" s="33" t="s">
         <v>168</v>
       </c>
       <c r="H157" s="33" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="I157" s="33" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="J157" s="33" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="K157" s="51">
         <v>39233</v>
       </c>
       <c r="L157" s="39" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="M157" s="42">
         <v>15598</v>
       </c>
-      <c r="N157" s="39" t="s">
-        <v>1172</v>
+      <c r="N157" s="54" t="s">
+        <v>1169</v>
       </c>
       <c r="O157" s="39" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="P157" s="40" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="Q157" s="39"/>
       <c r="R157" s="39"/>
@@ -11928,49 +11970,49 @@
     <row r="158" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
       <c r="A158" s="39"/>
       <c r="B158" s="33" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C158" s="33" t="s">
         <v>113</v>
       </c>
       <c r="D158" s="33" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E158" s="51">
         <v>6516</v>
       </c>
       <c r="F158" s="33" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="G158" s="33" t="s">
         <v>168</v>
       </c>
       <c r="H158" s="33" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="I158" s="33" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="J158" s="33" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="K158" s="51">
         <v>17053</v>
       </c>
       <c r="L158" s="39" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="M158" s="44">
         <v>16011</v>
       </c>
       <c r="N158" s="39" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="O158" s="39" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="P158" s="40" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="Q158" s="39"/>
       <c r="R158" s="39"/>
@@ -11978,49 +12020,49 @@
     <row r="159" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A159" s="39"/>
       <c r="B159" s="33" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="D159" s="33" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E159" s="51">
         <v>4836</v>
       </c>
       <c r="F159" s="33" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="G159" s="33" t="s">
         <v>168</v>
       </c>
       <c r="H159" s="33" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="I159" s="33" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="J159" s="33" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="K159" s="51">
         <v>16420</v>
       </c>
       <c r="L159" s="33" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="M159" s="51">
         <v>16178</v>
       </c>
       <c r="N159" s="33" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="O159" s="33" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="P159" s="40" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="Q159" s="39"/>
       <c r="R159" s="39"/>
@@ -12028,31 +12070,31 @@
     <row r="160" spans="1:18" s="8" customFormat="1" ht="356.25" x14ac:dyDescent="0.3">
       <c r="A160" s="39"/>
       <c r="B160" s="33" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C160" s="33" t="s">
         <v>166</v>
       </c>
       <c r="D160" s="33" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E160" s="51">
         <v>8178</v>
       </c>
       <c r="F160" s="33" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="G160" s="33" t="s">
         <v>168</v>
       </c>
       <c r="H160" s="33" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="I160" s="33" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="J160" s="51" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="K160" s="51">
         <v>34023</v>
@@ -12064,13 +12106,13 @@
         <v>16285</v>
       </c>
       <c r="N160" s="39" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="O160" s="39" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="P160" s="40" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="Q160" s="39"/>
       <c r="R160" s="39"/>
@@ -12078,46 +12120,46 @@
     <row r="161" spans="1:18" s="8" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A161" s="39"/>
       <c r="B161" s="33" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D161" s="33" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E161" s="51">
         <v>2758</v>
       </c>
       <c r="F161" s="33" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="G161" s="33" t="s">
         <v>168</v>
       </c>
       <c r="H161" s="33" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="I161" s="33" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="J161" s="33" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="K161" s="51">
         <v>15161</v>
       </c>
       <c r="L161" s="33" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="M161" s="51">
         <v>15161</v>
       </c>
       <c r="N161" s="33" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="O161" s="33" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="P161" s="39"/>
       <c r="Q161" s="39"/>
@@ -12144,72 +12186,72 @@
         <v>168</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I162" s="8" t="s">
         <v>215</v>
       </c>
       <c r="J162" s="8" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="K162" s="19" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="L162" s="15" t="s">
         <v>14</v>
       </c>
       <c r="M162" s="7"/>
       <c r="O162" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P162"/>
     </row>
     <row r="163" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A163" s="33"/>
       <c r="B163" s="33" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C163" s="33" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D163" s="33" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E163" s="51">
         <v>6123</v>
       </c>
       <c r="F163" s="33" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="G163" s="33" t="s">
         <v>168</v>
       </c>
       <c r="H163" s="33" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="I163" s="33" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J163" s="33" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="K163" s="51">
         <v>38609</v>
       </c>
       <c r="L163" s="33" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="M163" s="44">
         <v>15858</v>
       </c>
       <c r="N163" s="39" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="O163" s="39" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="P163" s="39" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="Q163" s="39"/>
       <c r="R163" s="39"/>
@@ -12217,37 +12259,37 @@
     <row r="164" spans="1:18" s="8" customFormat="1" ht="262.5" x14ac:dyDescent="0.3">
       <c r="A164" s="33"/>
       <c r="B164" s="33" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D164" s="33" t="s">
         <v>141</v>
       </c>
       <c r="E164" s="33" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="F164" s="33" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="G164" s="33" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="H164" s="33" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="I164" s="33" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="J164" s="33" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="K164" s="51">
         <v>25658</v>
       </c>
       <c r="L164" s="33" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="M164" s="44">
         <v>15462</v>
@@ -12256,54 +12298,54 @@
         <v>240</v>
       </c>
       <c r="O164" s="39" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="P164" s="39"/>
       <c r="Q164" s="39"/>
       <c r="R164" s="39"/>
     </row>
-    <row r="165" spans="1:18" s="8" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>183</v>
+        <v>507</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>1267</v>
+        <v>184</v>
       </c>
       <c r="E165" s="9">
-        <v>442</v>
+        <v>4367</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>1161</v>
+        <v>168</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="K165" s="9">
-        <v>32760</v>
+        <v>34165</v>
       </c>
       <c r="L165" s="8" t="s">
-        <v>860</v>
+        <v>285</v>
       </c>
       <c r="M165" s="9">
-        <v>15423</v>
+        <v>15228</v>
       </c>
       <c r="N165" s="8" t="s">
-        <v>1270</v>
+        <v>1009</v>
       </c>
       <c r="O165" s="8" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="P165" s="32" t="s">
         <v>1272</v>
@@ -12311,51 +12353,51 @@
       <c r="Q165"/>
       <c r="R165"/>
     </row>
-    <row r="166" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" s="8" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
       <c r="B166" s="8" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E166" s="9">
+        <v>442</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H166" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I166" s="8" t="s">
         <v>1429</v>
       </c>
-      <c r="C166" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E166" s="9">
-        <v>4367</v>
-      </c>
-      <c r="F166" s="8" t="s">
-        <v>1273</v>
-      </c>
-      <c r="G166" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H166" s="8" t="s">
-        <v>1274</v>
-      </c>
-      <c r="I166" s="8" t="s">
+      <c r="J166" s="9" t="s">
         <v>1430</v>
       </c>
-      <c r="J166" s="9" t="s">
-        <v>1431</v>
-      </c>
       <c r="K166" s="9">
-        <v>34165</v>
+        <v>32760</v>
       </c>
       <c r="L166" s="8" t="s">
-        <v>285</v>
+        <v>857</v>
       </c>
       <c r="M166" s="9">
-        <v>15228</v>
+        <v>15423</v>
       </c>
       <c r="N166" s="8" t="s">
-        <v>1012</v>
+        <v>1267</v>
       </c>
       <c r="O166" s="8" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="P166" s="32" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="Q166"/>
       <c r="R166"/>
@@ -12363,7 +12405,7 @@
     <row r="167" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
       <c r="B167" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>153</v>
@@ -12375,19 +12417,19 @@
         <v>212</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G167" s="15" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="J167" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K167" s="10">
         <v>28415</v>
@@ -12402,7 +12444,7 @@
     </row>
     <row r="168" spans="1:18" s="8" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>153</v>
@@ -12414,19 +12456,19 @@
         <v>1625</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="J168" s="9" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="K168" s="9">
         <v>33596</v>
@@ -12438,41 +12480,41 @@
         <v>15208</v>
       </c>
       <c r="N168" s="8" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="O168" s="8" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="Q168"/>
       <c r="R168"/>
     </row>
     <row r="169" spans="1:18" s="8" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E169" s="9">
         <v>4286</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="G169" s="8" t="s">
         <v>173</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="K169" s="9">
         <v>32099</v>
@@ -12484,20 +12526,20 @@
         <v>16274</v>
       </c>
       <c r="N169" s="8" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="O169" s="8" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="Q169"/>
       <c r="R169"/>
     </row>
     <row r="170" spans="1:18" s="8" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>214</v>
@@ -12506,37 +12548,37 @@
         <v>5844</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="G170" s="8" t="s">
         <v>173</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="J170" s="9" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="K170" s="9">
         <v>16544</v>
       </c>
       <c r="L170" s="8" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="M170" s="9">
         <v>16544</v>
       </c>
       <c r="N170" s="8" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="O170" s="8" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="P170" s="32" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="Q170"/>
       <c r="R170"/>
@@ -12567,43 +12609,43 @@
         <v>201</v>
       </c>
       <c r="J171" s="8" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="K171" s="8" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="O171" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P171" s="6"/>
     </row>
     <row r="172" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E172" s="9">
         <v>3825</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="K172" s="9">
         <v>19559</v>
@@ -12615,10 +12657,10 @@
         <v>16254</v>
       </c>
       <c r="N172" s="8" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="O172" s="8" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="Q172"/>
       <c r="R172"/>
@@ -12626,31 +12668,31 @@
     <row r="173" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
       <c r="B173" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="H173" s="15" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K173" s="10">
         <v>18486</v>
@@ -12663,7 +12705,7 @@
     </row>
     <row r="174" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="B174" s="8" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>166</v>
@@ -12675,19 +12717,19 @@
         <v>2308</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="K174" s="9">
         <v>27226</v>
@@ -12699,171 +12741,171 @@
         <v>16142</v>
       </c>
       <c r="N174" s="8" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="O174" s="8" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="P174" s="32" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="Q174"/>
       <c r="R174"/>
     </row>
     <row r="175" spans="1:18" s="8" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>153</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E175" s="9">
         <v>2724</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="J175" s="9" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="K175" s="9">
         <v>16486</v>
       </c>
       <c r="L175" s="8" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="M175" s="37">
         <v>16266</v>
       </c>
       <c r="N175" s="8" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="O175" s="8" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="Q175"/>
       <c r="R175"/>
     </row>
-    <row r="176" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A176" s="7"/>
+    <row r="176" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B176" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="C176" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C176" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D176" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E176" s="11" t="s">
+      <c r="E176" s="9">
+        <v>43</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="H176" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I176" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="J176" s="9" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K176" s="9">
+        <v>30028</v>
+      </c>
+      <c r="L176" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M176" s="37">
+        <v>15596</v>
+      </c>
+      <c r="N176" s="8" t="s">
+        <v>1169</v>
+      </c>
+      <c r="O176" s="8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="Q176"/>
+      <c r="R176"/>
+    </row>
+    <row r="177" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A177" s="7"/>
+      <c r="B177" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="F176" s="8" t="s">
+      <c r="C177" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="G177" s="15" t="s">
+        <v>881</v>
+      </c>
+      <c r="I177" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="J177" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="G176" s="15" t="s">
-        <v>884</v>
-      </c>
-      <c r="I176" s="8" t="s">
-        <v>897</v>
-      </c>
-      <c r="J176" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="K176" s="10">
+      <c r="K177" s="10">
         <v>30028</v>
       </c>
-      <c r="L176" s="8" t="s">
-        <v>1460</v>
-      </c>
-      <c r="M176" s="7"/>
-      <c r="P176"/>
-    </row>
-    <row r="177" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B177" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E177" s="9">
-        <v>43</v>
-      </c>
-      <c r="F177" s="8" t="s">
-        <v>1309</v>
-      </c>
-      <c r="G177" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="H177" s="8" t="s">
-        <v>1310</v>
-      </c>
-      <c r="I177" s="8" t="s">
-        <v>897</v>
-      </c>
-      <c r="J177" s="9" t="s">
-        <v>1417</v>
-      </c>
-      <c r="K177" s="9">
-        <v>30028</v>
-      </c>
       <c r="L177" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M177" s="37">
-        <v>15596</v>
-      </c>
-      <c r="N177" s="8" t="s">
-        <v>1172</v>
-      </c>
-      <c r="O177" s="8" t="s">
-        <v>1311</v>
-      </c>
-      <c r="Q177"/>
-      <c r="R177"/>
+        <v>1456</v>
+      </c>
+      <c r="M177" s="7"/>
+      <c r="P177"/>
     </row>
     <row r="178" spans="1:18" s="8" customFormat="1" ht="356.25" x14ac:dyDescent="0.3">
       <c r="B178" s="8" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>148</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="E178" s="9">
         <v>5422</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="K178" s="9">
         <v>29967</v>
@@ -12875,17 +12917,17 @@
         <v>16358</v>
       </c>
       <c r="N178" s="8" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="O178" s="8" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="Q178"/>
       <c r="R178"/>
     </row>
     <row r="179" spans="1:18" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>159</v>
@@ -12897,19 +12939,19 @@
         <v>8949</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="G179" s="8" t="s">
         <v>219</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="J179" s="8" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="K179" s="9">
         <v>30093</v>
@@ -12921,13 +12963,13 @@
         <v>16036</v>
       </c>
       <c r="N179" s="8" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="O179" s="8" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="P179" s="32" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="Q179"/>
       <c r="R179"/>
@@ -12958,7 +13000,7 @@
         <v>107</v>
       </c>
       <c r="I180" s="8" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="J180" s="8" t="s">
         <v>106</v>
@@ -12968,16 +13010,16 @@
       </c>
       <c r="M180" s="7"/>
       <c r="O180" s="15" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="P180"/>
     </row>
     <row r="181" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D181" s="8" t="s">
         <v>149</v>
@@ -12986,19 +13028,19 @@
         <v>4632</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="G181" s="8" t="s">
         <v>179</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="I181" s="8" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="J181" s="8" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="K181" s="9">
         <v>20701</v>
@@ -13010,90 +13052,90 @@
         <v>16011</v>
       </c>
       <c r="N181" s="8" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="O181" s="8" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="P181" s="32" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="Q181"/>
       <c r="R181"/>
     </row>
     <row r="182" spans="1:18" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B182" s="8" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E182" s="9">
         <v>748</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="G182" s="8" t="s">
         <v>173</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="J182" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="K182" s="9">
         <v>23118</v>
       </c>
       <c r="L182" s="8" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="M182" s="37">
         <v>16011</v>
       </c>
       <c r="N182" s="8" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="O182" s="8" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="Q182"/>
       <c r="R182"/>
     </row>
     <row r="183" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>153</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E183" s="9">
         <v>4390</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="G183" s="8" t="s">
         <v>173</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="I183" s="8" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="J183" s="8" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="K183" s="9">
         <v>28094</v>
@@ -13105,10 +13147,10 @@
         <v>15220</v>
       </c>
       <c r="N183" s="8" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="O183" s="8" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="Q183"/>
       <c r="R183"/>
@@ -14455,8 +14497,8 @@
     <hyperlink ref="J125" r:id="rId57"/>
     <hyperlink ref="I41" r:id="rId58"/>
     <hyperlink ref="I140" r:id="rId59"/>
-    <hyperlink ref="I87" r:id="rId60"/>
-    <hyperlink ref="J88" r:id="rId61"/>
+    <hyperlink ref="I88" r:id="rId60"/>
+    <hyperlink ref="J87" r:id="rId61"/>
     <hyperlink ref="J117" r:id="rId62"/>
     <hyperlink ref="J104" r:id="rId63"/>
     <hyperlink ref="I86" r:id="rId64"/>
@@ -14471,7 +14513,7 @@
     <hyperlink ref="I17" r:id="rId73"/>
     <hyperlink ref="I81" r:id="rId74"/>
     <hyperlink ref="J81" r:id="rId75"/>
-    <hyperlink ref="I88" r:id="rId76"/>
+    <hyperlink ref="I87" r:id="rId76"/>
     <hyperlink ref="I164" r:id="rId77"/>
     <hyperlink ref="J164" r:id="rId78"/>
     <hyperlink ref="I143" r:id="rId79"/>
@@ -14479,8 +14521,8 @@
     <hyperlink ref="I117" r:id="rId81"/>
     <hyperlink ref="I138" r:id="rId82"/>
     <hyperlink ref="I180" r:id="rId83"/>
-    <hyperlink ref="P165" r:id="rId84"/>
-    <hyperlink ref="P166" r:id="rId85"/>
+    <hyperlink ref="P166" r:id="rId84"/>
+    <hyperlink ref="P165" r:id="rId85"/>
     <hyperlink ref="P170" r:id="rId86"/>
     <hyperlink ref="P174" r:id="rId87"/>
     <hyperlink ref="P179" r:id="rId88"/>
@@ -14568,8 +14610,8 @@
     <hyperlink ref="I124" r:id="rId170"/>
     <hyperlink ref="I174" r:id="rId171"/>
     <hyperlink ref="J174" r:id="rId172"/>
-    <hyperlink ref="I177" r:id="rId173"/>
-    <hyperlink ref="J177" r:id="rId174"/>
+    <hyperlink ref="I176" r:id="rId173"/>
+    <hyperlink ref="J176" r:id="rId174"/>
     <hyperlink ref="I178" r:id="rId175"/>
     <hyperlink ref="J178" r:id="rId176"/>
     <hyperlink ref="I179" r:id="rId177"/>
@@ -14581,10 +14623,10 @@
     <hyperlink ref="J169" r:id="rId183"/>
     <hyperlink ref="I168" r:id="rId184"/>
     <hyperlink ref="J168" r:id="rId185"/>
-    <hyperlink ref="I166" r:id="rId186"/>
-    <hyperlink ref="J166" r:id="rId187"/>
-    <hyperlink ref="I165" r:id="rId188"/>
-    <hyperlink ref="J165" r:id="rId189"/>
+    <hyperlink ref="I165" r:id="rId186"/>
+    <hyperlink ref="J165" r:id="rId187"/>
+    <hyperlink ref="I166" r:id="rId188"/>
+    <hyperlink ref="J166" r:id="rId189"/>
     <hyperlink ref="I163" r:id="rId190"/>
     <hyperlink ref="J163" r:id="rId191"/>
     <hyperlink ref="J162" r:id="rId192"/>

--- a/public/data/persons.xlsx
+++ b/public/data/persons.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Герои" sheetId="12" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="1725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="1746">
   <si>
     <t>Источник</t>
   </si>
@@ -4419,9 +4419,6 @@
     <t>pamyat-naroda.ru</t>
   </si>
   <si>
-    <t>Максимов!A1</t>
-  </si>
-  <si>
     <t>Гомель</t>
   </si>
   <si>
@@ -4444,9 +4441,6 @@
   </si>
   <si>
     <t>В ходе наступления на Берлин огнем малокалиберного пулемета подавил пулеметную точку противника, уничтожив до 3х гитлеровцев</t>
-  </si>
-  <si>
-    <t>Середа!A1</t>
   </si>
   <si>
     <t>Прошел войну с 1942 года до взятия Берлина. После войны работал в школе учителем математики</t>
@@ -5319,12 +5313,82 @@
   <si>
     <t>Вильгельм Густлофф</t>
   </si>
+  <si>
+    <t>Мокрев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Степан </t>
+  </si>
+  <si>
+    <t>Трофимович</t>
+  </si>
+  <si>
+    <t>д. Осиповка, Алексеевский район, Куйбышевская область</t>
+  </si>
+  <si>
+    <t>При востановлении путепровода подорвался на мине и был сильно ранен.</t>
+  </si>
+  <si>
+    <t>https://pamyat-naroda.ru/heroes/podvig-chelovek_nagrazhdenie80121762</t>
+  </si>
+  <si>
+    <t>4-5 февраля 1945</t>
+  </si>
+  <si>
+    <t>Лодзь</t>
+  </si>
+  <si>
+    <t>Прошел всю войну. Был сильно ранен. Поле войны переехал с семьей в г. Куйбышев. Работал на производствах. Награжден рядом медалейи и Орденом Великой Отечественной Войны 1-й степени.</t>
+  </si>
+  <si>
+    <t>Платонов</t>
+  </si>
+  <si>
+    <t>г.Куйбышев</t>
+  </si>
+  <si>
+    <t>https://pamyat-naroda.ru/heroes/podvig-chelovek_nagrazhdenie46518345</t>
+  </si>
+  <si>
+    <t>Прошел всю войну. Был контужен в Сталинградской битве. После востановления продожил участие в сражениях в рядах 5 гвардейской армии 1 УкрФ. Закончил войну в Вене. Награждем медалями "За боевые заслуги". После войны демобилизовался в звании капитана. Работал на железной дороге и водоканале.</t>
+  </si>
+  <si>
+    <t>Борисов</t>
+  </si>
+  <si>
+    <t>Порфирий</t>
+  </si>
+  <si>
+    <t>Саратовская обл., Турковский р-н, д. Ляховка;</t>
+  </si>
+  <si>
+    <t>Прошел всю войну, кадровый военный. Участовал в организации работы ПриВО. После войны продожил службу. Вышел в отсавку в звании майор. Продолжил работу в гражданской должности в районном военкомате. Награжден рядом медалей и 
+Орденом Красной Звезды.</t>
+  </si>
+  <si>
+    <t>Участвовал в Сталиградской битве. Во время боевой операции был контужен.</t>
+  </si>
+  <si>
+    <t>\img\person\Sereda.jpg</t>
+  </si>
+  <si>
+    <t>\img\person\Maksimov.jpg</t>
+  </si>
+  <si>
+    <t>\img\person\Mokrev_ST.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\img\person\Borisov_PN.jpg </t>
+  </si>
+  <si>
+    <t>https://pamyat-naroda.ru/heroes/kld-card_uchet_officer4019646</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5482,7 +5546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5843,6 +5907,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5855,8 +5922,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5988,7 +6055,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6008,7 +6075,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6043,7 +6110,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6063,7 +6130,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6103,7 +6170,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6123,7 +6190,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6158,7 +6225,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6178,7 +6245,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6218,7 +6285,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6238,7 +6305,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6273,7 +6340,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6293,7 +6360,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6350,7 +6417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6382,10 +6449,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6417,7 +6483,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6593,18 +6658,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:R521"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E105" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E146" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N105" sqref="N105"/>
+      <selection pane="bottomRight" activeCell="H184" sqref="H184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="6" customWidth="1"/>
@@ -6626,7 +6691,7 @@
     <col min="18" max="18" width="29.7109375" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="37.5">
       <c r="A1" s="7" t="s">
         <v>271</v>
       </c>
@@ -6682,7 +6747,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="128" customFormat="1" ht="150" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="128" customFormat="1" ht="150">
       <c r="A2" s="147"/>
       <c r="B2" s="67" t="s">
         <v>309</v>
@@ -6700,13 +6765,13 @@
         <v>785</v>
       </c>
       <c r="G2" s="142" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="H2" s="142" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="J2" s="142" t="s">
         <v>583</v>
@@ -6718,20 +6783,20 @@
         <v>418</v>
       </c>
       <c r="M2" s="59" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="N2" s="53" t="s">
         <v>186</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="P2" s="58" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="R2" s="93"/>
     </row>
-    <row r="3" spans="1:18" s="128" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="128" customFormat="1" ht="75">
       <c r="A3" s="150"/>
       <c r="B3" s="67" t="s">
         <v>312</v>
@@ -6752,7 +6817,7 @@
         <v>413</v>
       </c>
       <c r="H3" s="142" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="I3" s="93" t="s">
         <v>593</v>
@@ -6764,23 +6829,23 @@
         <v>33114</v>
       </c>
       <c r="L3" s="53" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="M3" s="54">
         <v>15904</v>
       </c>
       <c r="N3" s="53" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="O3" s="53" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="P3" s="55" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="R3" s="94"/>
     </row>
-    <row r="4" spans="1:18" s="140" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="140" customFormat="1" ht="131.25">
       <c r="A4" s="147"/>
       <c r="B4" s="67" t="s">
         <v>313</v>
@@ -6799,7 +6864,7 @@
         <v>413</v>
       </c>
       <c r="H4" s="142" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="I4" s="93" t="s">
         <v>594</v>
@@ -6820,13 +6885,13 @@
         <v>1048</v>
       </c>
       <c r="O4" s="139" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="P4" s="128"/>
       <c r="Q4" s="128"/>
       <c r="R4" s="93"/>
     </row>
-    <row r="5" spans="1:18" s="128" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="128" customFormat="1" ht="75">
       <c r="A5" s="150"/>
       <c r="B5" s="67" t="s">
         <v>315</v>
@@ -6847,7 +6912,7 @@
         <v>413</v>
       </c>
       <c r="H5" s="142" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="I5" s="93" t="s">
         <v>595</v>
@@ -6859,16 +6924,16 @@
         <v>36287</v>
       </c>
       <c r="L5" s="53" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="M5" s="59" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="N5" s="53" t="s">
         <v>931</v>
       </c>
       <c r="O5" s="57" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="P5" s="140" t="s">
         <v>289</v>
@@ -6876,7 +6941,7 @@
       <c r="Q5" s="140"/>
       <c r="R5" s="94"/>
     </row>
-    <row r="6" spans="1:18" s="140" customFormat="1" ht="150" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="140" customFormat="1" ht="150">
       <c r="A6" s="150"/>
       <c r="B6" s="67" t="s">
         <v>316</v>
@@ -6897,7 +6962,7 @@
         <v>172</v>
       </c>
       <c r="H6" s="142" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="I6" s="142" t="s">
         <v>596</v>
@@ -6915,14 +6980,14 @@
         <v>16469</v>
       </c>
       <c r="N6" s="139" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O6" s="111" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="R6" s="94"/>
     </row>
-    <row r="7" spans="1:18" s="140" customFormat="1" ht="281.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="140" customFormat="1" ht="281.25">
       <c r="A7" s="150"/>
       <c r="B7" s="67" t="s">
         <v>319</v>
@@ -6943,7 +7008,7 @@
         <v>167</v>
       </c>
       <c r="H7" s="142" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="I7" s="93" t="s">
         <v>597</v>
@@ -6955,23 +7020,23 @@
         <v>31211</v>
       </c>
       <c r="L7" s="53" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="M7" s="59" t="s">
+        <v>1582</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>1579</v>
+      </c>
+      <c r="O7" s="60" t="s">
+        <v>1675</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="N7" s="53" t="s">
-        <v>1581</v>
-      </c>
-      <c r="O7" s="60" t="s">
-        <v>1677</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>1586</v>
-      </c>
       <c r="R7" s="94"/>
     </row>
-    <row r="8" spans="1:18" s="140" customFormat="1" ht="356.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="140" customFormat="1" ht="356.25">
       <c r="A8" s="147"/>
       <c r="B8" s="67" t="s">
         <v>321</v>
@@ -6992,7 +7057,7 @@
         <v>167</v>
       </c>
       <c r="H8" s="142" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="I8" s="93" t="s">
         <v>598</v>
@@ -7004,23 +7069,23 @@
         <v>16461</v>
       </c>
       <c r="L8" s="139" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="M8" s="69">
         <v>15690</v>
       </c>
       <c r="N8" s="139" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="O8" s="111" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="P8" s="93" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="R8" s="93"/>
     </row>
-    <row r="9" spans="1:18" s="140" customFormat="1" ht="318.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="140" customFormat="1" ht="318.75">
       <c r="A9" s="147"/>
       <c r="B9" s="67" t="s">
         <v>324</v>
@@ -7041,7 +7106,7 @@
         <v>792</v>
       </c>
       <c r="H9" s="142" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="I9" s="93" t="s">
         <v>599</v>
@@ -7053,7 +7118,7 @@
         <v>30215</v>
       </c>
       <c r="L9" s="53" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="M9" s="54">
         <v>16252</v>
@@ -7062,14 +7127,14 @@
         <v>306</v>
       </c>
       <c r="O9" s="62" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="P9" s="93" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="R9" s="93"/>
     </row>
-    <row r="10" spans="1:18" s="140" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="140" customFormat="1" ht="168.75">
       <c r="A10" s="150"/>
       <c r="B10" s="67" t="s">
         <v>326</v>
@@ -7090,7 +7155,7 @@
         <v>793</v>
       </c>
       <c r="H10" s="142" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="I10" s="93" t="s">
         <v>600</v>
@@ -7102,23 +7167,23 @@
         <v>31156</v>
       </c>
       <c r="L10" s="142" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="M10" s="65">
         <v>15994</v>
       </c>
       <c r="N10" s="139" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="O10" s="111" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="R10" s="94"/>
     </row>
-    <row r="11" spans="1:18" s="128" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="128" customFormat="1" ht="112.5">
       <c r="A11" s="150"/>
       <c r="B11" s="67" t="s">
         <v>328</v>
@@ -7139,7 +7204,7 @@
         <v>413</v>
       </c>
       <c r="H11" s="142" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="I11" s="93" t="s">
         <v>604</v>
@@ -7157,16 +7222,16 @@
         <v>16079</v>
       </c>
       <c r="N11" s="53" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="O11" s="57" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="P11" s="140"/>
       <c r="Q11" s="140"/>
       <c r="R11" s="34"/>
     </row>
-    <row r="12" spans="1:18" s="140" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="140" customFormat="1" ht="131.25">
       <c r="A12" s="150"/>
       <c r="B12" s="67" t="s">
         <v>331</v>
@@ -7187,7 +7252,7 @@
         <v>413</v>
       </c>
       <c r="H12" s="142" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="I12" s="93" t="s">
         <v>606</v>
@@ -7202,22 +7267,22 @@
         <v>411</v>
       </c>
       <c r="M12" s="149" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="N12" s="142" t="s">
         <v>1048</v>
       </c>
       <c r="O12" s="111" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="P12" s="140" t="s">
         <v>303</v>
       </c>
       <c r="R12" s="105" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="140" customFormat="1" ht="150" x14ac:dyDescent="0.3">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="140" customFormat="1" ht="150">
       <c r="A13" s="150"/>
       <c r="B13" s="67" t="s">
         <v>335</v>
@@ -7238,7 +7303,7 @@
         <v>792</v>
       </c>
       <c r="H13" s="142" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="I13" s="93" t="s">
         <v>609</v>
@@ -7250,23 +7315,23 @@
         <v>33117</v>
       </c>
       <c r="L13" s="53" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="M13" s="54">
         <v>16246</v>
       </c>
       <c r="N13" s="53" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="O13" s="57" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="P13" s="140" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="R13" s="94"/>
     </row>
-    <row r="14" spans="1:18" s="128" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="128" customFormat="1" ht="93.75">
       <c r="A14" s="150"/>
       <c r="B14" s="133" t="s">
         <v>484</v>
@@ -7287,7 +7352,7 @@
         <v>1134</v>
       </c>
       <c r="H14" s="139" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="I14" s="93" t="s">
         <v>611</v>
@@ -7305,18 +7370,18 @@
         <v>15975</v>
       </c>
       <c r="N14" s="92" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="O14" s="111" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="P14" s="140"/>
       <c r="Q14" s="140"/>
       <c r="R14" s="105" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="140" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="140" customFormat="1" ht="112.5">
       <c r="A15" s="147"/>
       <c r="B15" s="131" t="s">
         <v>337</v>
@@ -7334,10 +7399,10 @@
         <v>614</v>
       </c>
       <c r="G15" s="142" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="H15" s="142" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="I15" s="93" t="s">
         <v>613</v>
@@ -7349,24 +7414,24 @@
         <v>34880</v>
       </c>
       <c r="L15" s="142" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="M15" s="45">
         <v>15707</v>
       </c>
       <c r="N15" s="67" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="O15" s="57" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="P15" s="93" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="Q15" s="128"/>
       <c r="R15" s="93"/>
     </row>
-    <row r="16" spans="1:18" s="128" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" s="128" customFormat="1" ht="112.5">
       <c r="A16" s="150"/>
       <c r="B16" s="67" t="s">
         <v>486</v>
@@ -7387,7 +7452,7 @@
         <v>792</v>
       </c>
       <c r="H16" s="139" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="I16" s="93" t="s">
         <v>616</v>
@@ -7405,20 +7470,20 @@
         <v>16438</v>
       </c>
       <c r="N16" s="139" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="O16" s="111" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="P16" s="140" t="s">
         <v>281</v>
       </c>
       <c r="Q16" s="140"/>
       <c r="R16" s="105" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="140" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="140" customFormat="1" ht="206.25">
       <c r="A17" s="147"/>
       <c r="B17" s="133" t="s">
         <v>243</v>
@@ -7439,7 +7504,7 @@
         <v>413</v>
       </c>
       <c r="H17" s="142" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="I17" s="93" t="s">
         <v>1121</v>
@@ -7451,23 +7516,23 @@
         <v>782</v>
       </c>
       <c r="L17" s="53" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="M17" s="137">
         <v>15488</v>
       </c>
       <c r="N17" s="142" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="O17" s="117" t="s">
         <v>592</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="R17" s="94"/>
     </row>
-    <row r="18" spans="1:18" s="140" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" s="140" customFormat="1" ht="206.25">
       <c r="A18" s="147"/>
       <c r="B18" s="67" t="s">
         <v>339</v>
@@ -7488,7 +7553,7 @@
         <v>1358</v>
       </c>
       <c r="H18" s="142" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="I18" s="93" t="s">
         <v>619</v>
@@ -7506,17 +7571,17 @@
         <v>16451</v>
       </c>
       <c r="N18" s="142" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="O18" s="68" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="P18" s="128"/>
       <c r="R18" s="105" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="140" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="140" customFormat="1" ht="93.75">
       <c r="A19" s="150"/>
       <c r="B19" s="131" t="s">
         <v>478</v>
@@ -7537,7 +7602,7 @@
         <v>1359</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="I19" s="93" t="s">
         <v>621</v>
@@ -7549,23 +7614,23 @@
         <v>20513</v>
       </c>
       <c r="L19" s="53" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="M19" s="137" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="N19" s="67" t="s">
         <v>14</v>
       </c>
       <c r="O19" s="57" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="R19" s="34"/>
     </row>
-    <row r="20" spans="1:18" s="128" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" s="128" customFormat="1" ht="112.5">
       <c r="A20" s="147"/>
       <c r="B20" s="67" t="s">
         <v>341</v>
@@ -7586,7 +7651,7 @@
         <v>792</v>
       </c>
       <c r="H20" s="142" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="I20" s="93" t="s">
         <v>624</v>
@@ -7604,17 +7669,17 @@
         <v>16152</v>
       </c>
       <c r="N20" s="79" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="O20" s="111" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="Q20" s="140"/>
       <c r="R20" s="105" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="112.5">
       <c r="A21" s="150"/>
       <c r="B21" s="14" t="s">
         <v>343</v>
@@ -7635,7 +7700,7 @@
         <v>413</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>628</v>
@@ -7647,7 +7712,7 @@
         <v>17375</v>
       </c>
       <c r="L21" s="53" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="M21" s="54">
         <v>15614</v>
@@ -7656,11 +7721,11 @@
         <v>14</v>
       </c>
       <c r="O21" s="57" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="R21" s="33"/>
     </row>
-    <row r="22" spans="1:18" s="6" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" s="6" customFormat="1" ht="112.5">
       <c r="A22" s="150"/>
       <c r="B22" s="73" t="s">
         <v>345</v>
@@ -7681,7 +7746,7 @@
         <v>413</v>
       </c>
       <c r="H22" s="73" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="I22" s="93" t="s">
         <v>632</v>
@@ -7693,26 +7758,26 @@
         <v>32819</v>
       </c>
       <c r="L22" s="75" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="M22" s="65">
         <v>15408</v>
       </c>
       <c r="N22" s="79" t="s">
+        <v>1705</v>
+      </c>
+      <c r="O22" s="77" t="s">
         <v>1707</v>
-      </c>
-      <c r="O22" s="77" t="s">
-        <v>1709</v>
       </c>
       <c r="P22" s="71" t="s">
         <v>292</v>
       </c>
       <c r="Q22" s="71"/>
       <c r="R22" s="78" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="168.75" x14ac:dyDescent="0.3">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="168.75">
       <c r="A23" s="150"/>
       <c r="B23" s="14" t="s">
         <v>347</v>
@@ -7733,7 +7798,7 @@
         <v>413</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>636</v>
@@ -7745,7 +7810,7 @@
         <v>32225</v>
       </c>
       <c r="L23" s="53" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="M23" s="54">
         <v>16533</v>
@@ -7754,14 +7819,14 @@
         <v>1400</v>
       </c>
       <c r="O23" s="57" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="R23" s="33"/>
     </row>
-    <row r="24" spans="1:18" ht="281.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="281.25">
       <c r="A24" s="150"/>
       <c r="B24" s="84" t="s">
         <v>237</v>
@@ -7782,7 +7847,7 @@
         <v>413</v>
       </c>
       <c r="H24" s="82" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="I24" s="82" t="s">
         <v>998</v>
@@ -7794,24 +7859,24 @@
         <v>15906</v>
       </c>
       <c r="L24" s="87" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="M24" s="151">
         <v>15906</v>
       </c>
       <c r="N24" s="82" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="O24" s="85" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="P24" s="80" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="Q24" s="80"/>
       <c r="R24" s="80"/>
     </row>
-    <row r="25" spans="1:18" ht="150" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="150">
       <c r="A25" s="147"/>
       <c r="B25" s="14" t="s">
         <v>351</v>
@@ -7832,7 +7897,7 @@
         <v>792</v>
       </c>
       <c r="H25" s="53" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>638</v>
@@ -7844,7 +7909,7 @@
         <v>783</v>
       </c>
       <c r="L25" s="53" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="M25" s="54">
         <v>15664</v>
@@ -7853,12 +7918,12 @@
         <v>1048</v>
       </c>
       <c r="O25" s="57" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="P25" s="6"/>
       <c r="R25" s="31"/>
     </row>
-    <row r="26" spans="1:18" s="6" customFormat="1" ht="225" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="6" customFormat="1" ht="225">
       <c r="A26" s="150"/>
       <c r="B26" s="90" t="s">
         <v>490</v>
@@ -7879,7 +7944,7 @@
         <v>1039</v>
       </c>
       <c r="H26" s="90" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="I26" s="93" t="s">
         <v>642</v>
@@ -7900,13 +7965,13 @@
         <v>411</v>
       </c>
       <c r="O26" s="97" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="P26" s="88"/>
       <c r="Q26" s="88"/>
       <c r="R26" s="94"/>
     </row>
-    <row r="27" spans="1:18" ht="225" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="225">
       <c r="A27" s="147" t="s">
         <v>272</v>
       </c>
@@ -7954,7 +8019,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="1:18" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="187.5">
       <c r="A28" s="150"/>
       <c r="B28" s="100" t="s">
         <v>353</v>
@@ -7975,7 +8040,7 @@
         <v>413</v>
       </c>
       <c r="H28" s="100" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="I28" s="93" t="s">
         <v>653</v>
@@ -7993,18 +8058,18 @@
         <v>15954</v>
       </c>
       <c r="N28" s="102" t="s">
+        <v>1717</v>
+      </c>
+      <c r="O28" s="104" t="s">
         <v>1719</v>
-      </c>
-      <c r="O28" s="104" t="s">
-        <v>1721</v>
       </c>
       <c r="P28" s="98"/>
       <c r="Q28" s="98"/>
       <c r="R28" s="105" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="131.25" x14ac:dyDescent="0.3">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="131.25">
       <c r="A29" s="150"/>
       <c r="B29" s="14" t="s">
         <v>354</v>
@@ -8025,7 +8090,7 @@
         <v>413</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="I29" s="31" t="s">
         <v>656</v>
@@ -8037,23 +8102,23 @@
         <v>37034</v>
       </c>
       <c r="L29" s="53" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="M29" s="9">
         <v>15707</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="O29" s="57" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" ht="150" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="150">
       <c r="A30" s="18"/>
       <c r="B30" s="108" t="s">
         <v>356</v>
@@ -8074,7 +8139,7 @@
         <v>792</v>
       </c>
       <c r="H30" s="108" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="I30" s="108" t="s">
         <v>660</v>
@@ -8095,13 +8160,13 @@
         <v>186</v>
       </c>
       <c r="O30" s="111" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="P30" s="106"/>
       <c r="Q30" s="106"/>
       <c r="R30" s="106"/>
     </row>
-    <row r="31" spans="1:18" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="168.75">
       <c r="A31" s="131"/>
       <c r="B31" s="14" t="s">
         <v>359</v>
@@ -8122,7 +8187,7 @@
         <v>413</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="I31" s="31" t="s">
         <v>664</v>
@@ -8140,18 +8205,18 @@
         <v>16473</v>
       </c>
       <c r="N31" s="29" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="P31" s="93" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="1:18" ht="150" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="150">
       <c r="A32" s="18"/>
       <c r="B32" s="116" t="s">
         <v>159</v>
@@ -8184,13 +8249,13 @@
         <v>15153</v>
       </c>
       <c r="L32" s="114" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="M32" s="119">
         <v>15153</v>
       </c>
       <c r="N32" s="118" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="O32" s="117" t="s">
         <v>288</v>
@@ -8199,7 +8264,7 @@
       <c r="Q32" s="112"/>
       <c r="R32" s="112"/>
     </row>
-    <row r="33" spans="1:18" ht="150" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="150">
       <c r="A33" s="131"/>
       <c r="B33" s="30" t="s">
         <v>185</v>
@@ -8220,7 +8285,7 @@
         <v>1038</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>187</v>
@@ -8232,13 +8297,13 @@
         <v>15955</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="M33" s="137">
         <v>15955</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="O33" s="14" t="s">
         <v>646</v>
@@ -8249,7 +8314,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
-    <row r="34" spans="1:18" ht="150" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="150">
       <c r="A34" s="18"/>
       <c r="B34" s="122" t="s">
         <v>362</v>
@@ -8267,10 +8332,10 @@
         <v>670</v>
       </c>
       <c r="G34" s="131" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="H34" s="131" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="I34" s="122" t="s">
         <v>668</v>
@@ -8291,13 +8356,13 @@
         <v>1087</v>
       </c>
       <c r="O34" s="122" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="P34" s="120"/>
       <c r="Q34" s="120"/>
       <c r="R34" s="120"/>
     </row>
-    <row r="35" spans="1:18" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="131.25">
       <c r="A35" s="18"/>
       <c r="B35" s="8" t="s">
         <v>364</v>
@@ -8315,10 +8380,10 @@
         <v>673</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>672</v>
@@ -8336,17 +8401,17 @@
         <v>15342</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="P35" s="93" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" s="6" customFormat="1" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" s="6" customFormat="1" ht="187.5">
       <c r="A36" s="131"/>
       <c r="B36" s="133" t="s">
         <v>219</v>
@@ -8385,16 +8450,16 @@
         <v>15676</v>
       </c>
       <c r="N36" s="129" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="O36" s="131" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="P36" s="128"/>
       <c r="Q36" s="127"/>
       <c r="R36" s="127"/>
     </row>
-    <row r="37" spans="1:18" ht="318.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="318.75">
       <c r="A37" s="18"/>
       <c r="B37" s="8" t="s">
         <v>366</v>
@@ -8412,10 +8477,10 @@
         <v>677</v>
       </c>
       <c r="G37" s="8" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H37" s="8" t="s">
         <v>1643</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>1645</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>675</v>
@@ -8433,17 +8498,17 @@
         <v>16469</v>
       </c>
       <c r="N37" s="8" t="s">
+        <v>1642</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>1645</v>
+      </c>
+      <c r="P37" s="1" t="s">
         <v>1644</v>
       </c>
-      <c r="O37" s="8" t="s">
-        <v>1647</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>1646</v>
-      </c>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="409.5">
       <c r="A38" s="18"/>
       <c r="B38" s="136" t="s">
         <v>366</v>
@@ -8464,7 +8529,7 @@
         <v>413</v>
       </c>
       <c r="H38" s="136" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="I38" s="136" t="s">
         <v>679</v>
@@ -8482,17 +8547,17 @@
         <v>16436</v>
       </c>
       <c r="N38" s="135" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="O38" s="139" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="P38" s="146" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="Q38" s="134"/>
     </row>
-    <row r="39" spans="1:18" ht="318.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="318.75">
       <c r="A39" s="18"/>
       <c r="B39" s="8" t="s">
         <v>368</v>
@@ -8513,7 +8578,7 @@
         <v>413</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>682</v>
@@ -8531,14 +8596,14 @@
         <v>15888</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="R39"/>
     </row>
-    <row r="40" spans="1:18" s="6" customFormat="1" ht="225" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" s="6" customFormat="1" ht="225">
       <c r="A40" s="18"/>
       <c r="B40" s="142" t="s">
         <v>493</v>
@@ -8559,7 +8624,7 @@
         <v>1027</v>
       </c>
       <c r="H40" s="142" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="I40" s="142" t="s">
         <v>686</v>
@@ -8577,16 +8642,16 @@
         <v>15179</v>
       </c>
       <c r="N40" s="142" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="O40" s="142" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="P40" s="140"/>
       <c r="Q40" s="140"/>
       <c r="R40" s="140"/>
     </row>
-    <row r="41" spans="1:18" s="6" customFormat="1" ht="262.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" s="6" customFormat="1" ht="262.5">
       <c r="A41" s="18"/>
       <c r="B41" s="8" t="s">
         <v>511</v>
@@ -8607,7 +8672,7 @@
         <v>1028</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>1029</v>
@@ -8625,16 +8690,16 @@
         <v>16568</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41"/>
     </row>
-    <row r="42" spans="1:18" ht="393.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="393.75">
       <c r="A42" s="18"/>
       <c r="B42" s="8" t="s">
         <v>370</v>
@@ -8655,7 +8720,7 @@
         <v>1353</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>689</v>
@@ -8676,14 +8741,14 @@
         <v>418</v>
       </c>
       <c r="O42" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="P42" s="93" t="s">
         <v>1628</v>
       </c>
-      <c r="P42" s="93" t="s">
-        <v>1630</v>
-      </c>
       <c r="R42"/>
     </row>
-    <row r="43" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="409.5">
       <c r="A43" s="18"/>
       <c r="B43" s="8" t="s">
         <v>372</v>
@@ -8704,7 +8769,7 @@
         <v>172</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>691</v>
@@ -8716,23 +8781,23 @@
         <v>16753</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="M43" s="9">
         <v>16454</v>
       </c>
       <c r="N43" s="29" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="P43" s="93" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="R43"/>
     </row>
-    <row r="44" spans="1:18" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="243.75">
       <c r="A44" s="18"/>
       <c r="B44" s="8" t="s">
         <v>373</v>
@@ -8753,7 +8818,7 @@
         <v>792</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>694</v>
@@ -8771,17 +8836,17 @@
         <v>15646</v>
       </c>
       <c r="N44" s="43" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="O44" s="14" t="s">
         <v>813</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="R44"/>
     </row>
-    <row r="45" spans="1:18" ht="375" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="375">
       <c r="A45" s="18"/>
       <c r="B45" s="30" t="s">
         <v>224</v>
@@ -8802,7 +8867,7 @@
         <v>413</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>1213</v>
@@ -8826,11 +8891,11 @@
         <v>228</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="R45"/>
     </row>
-    <row r="46" spans="1:18" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="168.75">
       <c r="A46" s="14"/>
       <c r="B46" s="8" t="s">
         <v>375</v>
@@ -8848,10 +8913,10 @@
         <v>700</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>698</v>
@@ -8863,7 +8928,7 @@
         <v>14504</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="M46" s="9">
         <v>14427</v>
@@ -8872,13 +8937,13 @@
         <v>1075</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
     </row>
-    <row r="47" spans="1:18" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="168.75">
       <c r="A47" s="18"/>
       <c r="B47" s="8" t="s">
         <v>512</v>
@@ -8899,7 +8964,7 @@
         <v>792</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>702</v>
@@ -8917,14 +8982,14 @@
         <v>16526</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="R47"/>
     </row>
-    <row r="48" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="93.75">
       <c r="A48" s="18"/>
       <c r="B48" s="8" t="s">
         <v>376</v>
@@ -8945,7 +9010,7 @@
         <v>413</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>703</v>
@@ -8963,17 +9028,17 @@
         <v>15892</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="P48" s="31" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="R48"/>
     </row>
-    <row r="49" spans="1:18" ht="356.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="356.25">
       <c r="A49" s="18"/>
       <c r="B49" s="8" t="s">
         <v>378</v>
@@ -8994,7 +9059,7 @@
         <v>816</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>706</v>
@@ -9012,14 +9077,14 @@
         <v>15919</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="R49"/>
     </row>
-    <row r="50" spans="1:18" ht="262.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="262.5">
       <c r="A50" s="18" t="s">
         <v>272</v>
       </c>
@@ -9042,7 +9107,7 @@
         <v>105</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>1009</v>
@@ -9066,11 +9131,11 @@
         <v>607</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="R50"/>
     </row>
-    <row r="51" spans="1:18" s="6" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="6" customFormat="1" ht="243.75">
       <c r="A51" s="14"/>
       <c r="B51" s="8" t="s">
         <v>381</v>
@@ -9091,7 +9156,7 @@
         <v>413</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>710</v>
@@ -9109,16 +9174,16 @@
         <v>15827</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="O51" s="8" t="s">
+        <v>1552</v>
+      </c>
+      <c r="P51" s="31" t="s">
         <v>1554</v>
       </c>
-      <c r="P51" s="31" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="281.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:18" ht="281.25">
       <c r="A52" s="18"/>
       <c r="B52" s="8" t="s">
         <v>383</v>
@@ -9139,7 +9204,7 @@
         <v>792</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>716</v>
@@ -9157,14 +9222,14 @@
         <v>15898</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="R52"/>
     </row>
-    <row r="53" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="112.5">
       <c r="A53" s="14"/>
       <c r="B53" s="8" t="s">
         <v>386</v>
@@ -9182,10 +9247,10 @@
         <v>720</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>718</v>
@@ -9203,16 +9268,16 @@
         <v>15981</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="54" spans="1:18" ht="75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="75">
       <c r="A54" s="14" t="s">
         <v>272</v>
       </c>
@@ -9253,7 +9318,7 @@
         <v>15401</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="O54" s="14" t="s">
         <v>285</v>
@@ -9262,7 +9327,7 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
     </row>
-    <row r="55" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="409.5">
       <c r="A55" s="18"/>
       <c r="B55" s="8" t="s">
         <v>388</v>
@@ -9280,10 +9345,10 @@
         <v>723</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="I55" s="8" t="s">
         <v>722</v>
@@ -9301,17 +9366,17 @@
         <v>16562</v>
       </c>
       <c r="N55" s="8" t="s">
+        <v>1543</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>1542</v>
+      </c>
+      <c r="P55" s="31" t="s">
         <v>1545</v>
       </c>
-      <c r="O55" s="8" t="s">
-        <v>1544</v>
-      </c>
-      <c r="P55" s="31" t="s">
-        <v>1547</v>
-      </c>
       <c r="R55"/>
     </row>
-    <row r="56" spans="1:18" ht="337.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="337.5">
       <c r="A56" s="18"/>
       <c r="B56" s="8" t="s">
         <v>389</v>
@@ -9332,7 +9397,7 @@
         <v>839</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>725</v>
@@ -9350,17 +9415,17 @@
         <v>15167</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="P56" s="31" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="R56"/>
     </row>
-    <row r="57" spans="1:18" ht="225" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="225">
       <c r="A57" s="18"/>
       <c r="B57" s="8" t="s">
         <v>545</v>
@@ -9381,7 +9446,7 @@
         <v>799</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>1024</v>
@@ -9402,14 +9467,14 @@
         <v>1048</v>
       </c>
       <c r="O57" s="8" t="s">
+        <v>1535</v>
+      </c>
+      <c r="P57" s="31" t="s">
         <v>1537</v>
       </c>
-      <c r="P57" s="31" t="s">
-        <v>1539</v>
-      </c>
       <c r="R57"/>
     </row>
-    <row r="58" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="409.5">
       <c r="A58" s="18"/>
       <c r="B58" s="8" t="s">
         <v>100</v>
@@ -9430,7 +9495,7 @@
         <v>1036</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>603</v>
@@ -9448,17 +9513,17 @@
         <v>15220</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="O58" s="14" t="s">
         <v>283</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="112.5">
       <c r="A59" s="18"/>
       <c r="B59" s="8" t="s">
         <v>390</v>
@@ -9479,7 +9544,7 @@
         <v>413</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>729</v>
@@ -9500,14 +9565,14 @@
         <v>866</v>
       </c>
       <c r="O59" s="8" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P59" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="P59" s="1" t="s">
-        <v>1532</v>
-      </c>
       <c r="R59"/>
     </row>
-    <row r="60" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="409.5">
       <c r="A60" s="18"/>
       <c r="B60" s="30" t="s">
         <v>193</v>
@@ -9522,13 +9587,13 @@
         <v>3660</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>1038</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="I60" s="8" t="s">
         <v>997</v>
@@ -9553,7 +9618,7 @@
       </c>
       <c r="R60"/>
     </row>
-    <row r="61" spans="1:18" ht="262.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="262.5">
       <c r="A61" s="14"/>
       <c r="B61" s="8" t="s">
         <v>391</v>
@@ -9574,7 +9639,7 @@
         <v>792</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="I61" s="8" t="s">
         <v>733</v>
@@ -9595,13 +9660,13 @@
         <v>418</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
     </row>
-    <row r="62" spans="1:18" ht="375" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="375">
       <c r="A62" s="14"/>
       <c r="B62" s="30" t="s">
         <v>240</v>
@@ -9622,7 +9687,7 @@
         <v>413</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="I62" s="8" t="s">
         <v>1216</v>
@@ -9634,22 +9699,22 @@
         <v>979</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>979</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
     </row>
-    <row r="63" spans="1:18" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" s="6" customFormat="1" ht="150">
       <c r="A63" s="18" t="s">
         <v>272</v>
       </c>
@@ -9690,7 +9755,7 @@
         <v>15858</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="O63" s="14" t="s">
         <v>279</v>
@@ -9699,7 +9764,7 @@
       <c r="Q63"/>
       <c r="R63"/>
     </row>
-    <row r="64" spans="1:18" ht="225" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="225">
       <c r="A64" s="18"/>
       <c r="B64" s="8" t="s">
         <v>253</v>
@@ -9714,13 +9779,13 @@
         <v>10876</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="G64" s="8" t="s">
+        <v>1516</v>
+      </c>
+      <c r="H64" s="8" t="s">
         <v>1518</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>1520</v>
       </c>
       <c r="I64" s="8" t="s">
         <v>255</v>
@@ -9738,14 +9803,14 @@
         <v>15766</v>
       </c>
       <c r="N64" s="8" t="s">
+        <v>1517</v>
+      </c>
+      <c r="O64" s="14" t="s">
         <v>1519</v>
       </c>
-      <c r="O64" s="14" t="s">
-        <v>1521</v>
-      </c>
       <c r="R64"/>
     </row>
-    <row r="65" spans="1:18" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="206.25">
       <c r="A65" s="18"/>
       <c r="B65" s="8" t="s">
         <v>392</v>
@@ -9763,10 +9828,10 @@
         <v>739</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="I65" s="8" t="s">
         <v>737</v>
@@ -9778,20 +9843,20 @@
         <v>981</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="M65" s="9">
         <v>15615</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="R65"/>
     </row>
-    <row r="66" spans="1:18" ht="281.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="281.25">
       <c r="A66" s="18"/>
       <c r="B66" s="8" t="s">
         <v>393</v>
@@ -9809,10 +9874,10 @@
         <v>743</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>741</v>
@@ -9824,23 +9889,23 @@
         <v>982</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="M66" s="9">
         <v>15895</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="P66" s="31" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="R66"/>
     </row>
-    <row r="67" spans="1:18" ht="356.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="356.25">
       <c r="A67" s="18"/>
       <c r="B67" s="8" t="s">
         <v>517</v>
@@ -9861,7 +9926,7 @@
         <v>817</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>751</v>
@@ -9879,14 +9944,14 @@
         <v>15250</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="R67"/>
     </row>
-    <row r="68" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="93.75">
       <c r="A68" s="18"/>
       <c r="B68" s="8" t="s">
         <v>420</v>
@@ -9924,7 +9989,7 @@
       <c r="O68" s="8"/>
       <c r="R68"/>
     </row>
-    <row r="69" spans="1:18" ht="337.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="337.5">
       <c r="A69" s="18"/>
       <c r="B69" s="8" t="s">
         <v>422</v>
@@ -9945,7 +10010,7 @@
         <v>1038</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>749</v>
@@ -9966,14 +10031,14 @@
         <v>1331</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="P69" s="31" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="R69"/>
     </row>
-    <row r="70" spans="1:18" ht="337.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="337.5">
       <c r="A70" s="14"/>
       <c r="B70" s="8" t="s">
         <v>99</v>
@@ -9994,7 +10059,7 @@
         <v>413</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="I70" s="14" t="s">
         <v>1220</v>
@@ -10012,16 +10077,16 @@
         <v>15893</v>
       </c>
       <c r="N70" s="14" t="s">
+        <v>1497</v>
+      </c>
+      <c r="O70" s="14" t="s">
         <v>1499</v>
-      </c>
-      <c r="O70" s="14" t="s">
-        <v>1501</v>
       </c>
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
     </row>
-    <row r="71" spans="1:18" ht="356.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="356.25">
       <c r="A71" s="18"/>
       <c r="B71" s="8" t="s">
         <v>426</v>
@@ -10042,7 +10107,7 @@
         <v>792</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>753</v>
@@ -10063,11 +10128,11 @@
         <v>1059</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="R71"/>
     </row>
-    <row r="72" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="409.5">
       <c r="A72" s="14"/>
       <c r="B72" s="8" t="s">
         <v>428</v>
@@ -10088,7 +10153,7 @@
         <v>413</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>1324</v>
@@ -10106,15 +10171,15 @@
         <v>16383</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="P72" s="6"/>
       <c r="R72"/>
     </row>
-    <row r="73" spans="1:18" s="6" customFormat="1" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" s="6" customFormat="1" ht="187.5">
       <c r="A73" s="14"/>
       <c r="B73" s="8" t="s">
         <v>514</v>
@@ -10135,7 +10200,7 @@
         <v>797</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="I73" s="8" t="s">
         <v>1323</v>
@@ -10153,13 +10218,13 @@
         <v>15250</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="6" customFormat="1" ht="409.5">
       <c r="A74" s="18"/>
       <c r="B74" s="30" t="s">
         <v>163</v>
@@ -10192,22 +10257,22 @@
         <v>16320</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="M74" s="10">
         <v>16248</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="P74"/>
       <c r="Q74"/>
       <c r="R74"/>
     </row>
-    <row r="75" spans="1:18" ht="150" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="150">
       <c r="A75" s="18"/>
       <c r="B75" s="8" t="s">
         <v>477</v>
@@ -10228,7 +10293,7 @@
         <v>798</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>786</v>
@@ -10246,14 +10311,14 @@
         <v>16103</v>
       </c>
       <c r="N75" s="29" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="R75"/>
     </row>
-    <row r="76" spans="1:18" ht="262.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="262.5">
       <c r="A76" s="14"/>
       <c r="B76" s="30" t="s">
         <v>206</v>
@@ -10274,7 +10339,7 @@
         <v>208</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>209</v>
@@ -10301,7 +10366,7 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
     </row>
-    <row r="77" spans="1:18" ht="393.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="393.75">
       <c r="A77" s="18"/>
       <c r="B77" s="8" t="s">
         <v>540</v>
@@ -10322,7 +10387,7 @@
         <v>818</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>1322</v>
@@ -10340,14 +10405,14 @@
         <v>15585</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="R77"/>
     </row>
-    <row r="78" spans="1:18" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="168.75">
       <c r="A78" s="18"/>
       <c r="B78" s="8" t="s">
         <v>246</v>
@@ -10368,7 +10433,7 @@
         <v>1038</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>251</v>
@@ -10380,20 +10445,20 @@
         <v>986</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="M78" s="10">
         <v>15308</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="O78" s="14" t="s">
         <v>304</v>
       </c>
       <c r="R78"/>
     </row>
-    <row r="79" spans="1:18" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="243.75">
       <c r="A79" s="18"/>
       <c r="B79" s="8" t="s">
         <v>257</v>
@@ -10408,13 +10473,13 @@
         <v>11000</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>1038</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="I79" s="31" t="s">
         <v>260</v>
@@ -10426,23 +10491,23 @@
         <v>987</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="O79" s="8" t="s">
         <v>1135</v>
       </c>
       <c r="P79" s="31" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="R79"/>
     </row>
-    <row r="80" spans="1:18" ht="356.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="356.25">
       <c r="A80" s="14"/>
       <c r="B80" s="8" t="s">
         <v>430</v>
@@ -10463,7 +10528,7 @@
         <v>792</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>1321</v>
@@ -10481,15 +10546,15 @@
         <v>16172</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="P80" s="6"/>
       <c r="R80"/>
     </row>
-    <row r="81" spans="1:18" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" s="6" customFormat="1" ht="409.5">
       <c r="A81" s="18" t="s">
         <v>272</v>
       </c>
@@ -10512,7 +10577,7 @@
         <v>1037</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>1125</v>
@@ -10541,7 +10606,7 @@
       <c r="Q81"/>
       <c r="R81"/>
     </row>
-    <row r="82" spans="1:18" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" s="6" customFormat="1" ht="409.5">
       <c r="A82" s="14"/>
       <c r="B82" s="8" t="s">
         <v>434</v>
@@ -10562,7 +10627,7 @@
         <v>438</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>764</v>
@@ -10580,13 +10645,13 @@
         <v>15760</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" s="6" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" s="6" customFormat="1" ht="112.5">
       <c r="A83" s="18"/>
       <c r="B83" s="8" t="s">
         <v>434</v>
@@ -10607,10 +10672,10 @@
         <v>808</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="I83" s="31" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>565</v>
@@ -10628,15 +10693,15 @@
         <v>1048</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="P83" s="31" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="Q83"/>
       <c r="R83"/>
     </row>
-    <row r="84" spans="1:18" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="187.5">
       <c r="A84" s="18"/>
       <c r="B84" s="8" t="s">
         <v>544</v>
@@ -10657,7 +10722,7 @@
         <v>819</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="I84" s="8" t="s">
         <v>765</v>
@@ -10678,15 +10743,15 @@
         <v>1048</v>
       </c>
       <c r="O84" s="8" t="s">
+        <v>1456</v>
+      </c>
+      <c r="P84" s="31" t="s">
         <v>1458</v>
-      </c>
-      <c r="P84" s="31" t="s">
-        <v>1460</v>
       </c>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
     </row>
-    <row r="85" spans="1:18" s="6" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" s="6" customFormat="1" ht="112.5">
       <c r="A85" s="18"/>
       <c r="B85" s="8" t="s">
         <v>440</v>
@@ -10707,7 +10772,7 @@
         <v>441</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="I85" s="8" t="s">
         <v>767</v>
@@ -10725,18 +10790,18 @@
         <v>15312</v>
       </c>
       <c r="N85" s="8" t="s">
+        <v>1453</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>1452</v>
+      </c>
+      <c r="P85" s="1" t="s">
         <v>1455</v>
-      </c>
-      <c r="O85" s="8" t="s">
-        <v>1454</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>1457</v>
       </c>
       <c r="Q85"/>
       <c r="R85"/>
     </row>
-    <row r="86" spans="1:18" s="6" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" s="6" customFormat="1" ht="112.5">
       <c r="A86" s="18"/>
       <c r="B86" s="8" t="s">
         <v>442</v>
@@ -10757,7 +10822,7 @@
         <v>820</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="I86" s="8" t="s">
         <v>1035</v>
@@ -10778,13 +10843,13 @@
         <v>418</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="P86"/>
       <c r="Q86"/>
       <c r="R86"/>
     </row>
-    <row r="87" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" s="8" customFormat="1" ht="225">
       <c r="A87" s="18"/>
       <c r="B87" s="8" t="s">
         <v>216</v>
@@ -10832,7 +10897,7 @@
       <c r="Q87"/>
       <c r="R87"/>
     </row>
-    <row r="88" spans="1:18" s="8" customFormat="1" ht="337.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" s="8" customFormat="1" ht="337.5">
       <c r="A88" s="18"/>
       <c r="B88" s="30" t="s">
         <v>216</v>
@@ -10880,7 +10945,7 @@
       <c r="Q88"/>
       <c r="R88"/>
     </row>
-    <row r="89" spans="1:18" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" s="8" customFormat="1" ht="56.25">
       <c r="A89" s="14"/>
       <c r="B89" s="8" t="s">
         <v>216</v>
@@ -10928,7 +10993,7 @@
       <c r="Q89"/>
       <c r="R89"/>
     </row>
-    <row r="90" spans="1:18" s="8" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" s="8" customFormat="1" ht="168.75">
       <c r="A90" s="18"/>
       <c r="B90" s="30" t="s">
         <v>197</v>
@@ -10976,7 +11041,7 @@
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
     </row>
-    <row r="91" spans="1:18" s="8" customFormat="1" ht="356.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" s="8" customFormat="1" ht="356.25">
       <c r="A91" s="14"/>
       <c r="B91" s="8" t="s">
         <v>446</v>
@@ -11026,7 +11091,7 @@
       <c r="Q91"/>
       <c r="R91"/>
     </row>
-    <row r="92" spans="1:18" s="8" customFormat="1" ht="300" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" s="8" customFormat="1" ht="300">
       <c r="A92" s="18"/>
       <c r="B92" s="8" t="s">
         <v>450</v>
@@ -11076,7 +11141,7 @@
       <c r="Q92"/>
       <c r="R92"/>
     </row>
-    <row r="93" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" s="8" customFormat="1" ht="131.25">
       <c r="A93" s="18"/>
       <c r="B93" s="8" t="s">
         <v>452</v>
@@ -11126,7 +11191,7 @@
       <c r="Q93"/>
       <c r="R93"/>
     </row>
-    <row r="94" spans="1:18" s="8" customFormat="1" ht="281.25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" s="8" customFormat="1" ht="281.25">
       <c r="A94" s="18"/>
       <c r="B94" s="8" t="s">
         <v>456</v>
@@ -11174,7 +11239,7 @@
       <c r="Q94"/>
       <c r="R94"/>
     </row>
-    <row r="95" spans="1:18" s="8" customFormat="1" ht="318.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" s="8" customFormat="1" ht="318.75">
       <c r="A95" s="14"/>
       <c r="B95" s="30" t="s">
         <v>457</v>
@@ -11222,7 +11287,7 @@
       <c r="Q95"/>
       <c r="R95"/>
     </row>
-    <row r="96" spans="1:18" s="8" customFormat="1" ht="318.75" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" s="8" customFormat="1" ht="318.75">
       <c r="A96" s="18"/>
       <c r="B96" s="8" t="s">
         <v>233</v>
@@ -11267,7 +11332,7 @@
       <c r="Q96"/>
       <c r="R96"/>
     </row>
-    <row r="97" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" s="8" customFormat="1" ht="112.5">
       <c r="A97" s="37"/>
       <c r="B97" s="38" t="s">
         <v>116</v>
@@ -11313,7 +11378,7 @@
       <c r="Q97" s="40"/>
       <c r="R97" s="40"/>
     </row>
-    <row r="98" spans="1:18" s="8" customFormat="1" ht="393.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" s="8" customFormat="1" ht="393.75">
       <c r="A98" s="14"/>
       <c r="B98" s="8" t="s">
         <v>459</v>
@@ -11361,7 +11426,7 @@
       <c r="Q98"/>
       <c r="R98"/>
     </row>
-    <row r="99" spans="1:18" s="8" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" s="8" customFormat="1" ht="243.75">
       <c r="A99" s="18"/>
       <c r="B99" s="8" t="s">
         <v>541</v>
@@ -11409,7 +11474,7 @@
       <c r="Q99"/>
       <c r="R99"/>
     </row>
-    <row r="100" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" s="8" customFormat="1" ht="131.25">
       <c r="A100" s="14"/>
       <c r="B100" s="8" t="s">
         <v>461</v>
@@ -11457,7 +11522,7 @@
       <c r="Q100"/>
       <c r="R100"/>
     </row>
-    <row r="101" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" s="8" customFormat="1" ht="131.25">
       <c r="A101" s="18"/>
       <c r="B101" s="30" t="s">
         <v>155</v>
@@ -11502,7 +11567,7 @@
       <c r="Q101"/>
       <c r="R101"/>
     </row>
-    <row r="102" spans="1:18" s="8" customFormat="1" ht="262.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" s="8" customFormat="1" ht="262.5">
       <c r="A102" s="18"/>
       <c r="B102" s="8" t="s">
         <v>155</v>
@@ -11550,7 +11615,7 @@
       <c r="Q102"/>
       <c r="R102"/>
     </row>
-    <row r="103" spans="1:18" s="8" customFormat="1" ht="318.75" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" s="8" customFormat="1" ht="318.75">
       <c r="A103" s="18"/>
       <c r="B103" s="8" t="s">
         <v>464</v>
@@ -11598,7 +11663,7 @@
       <c r="Q103"/>
       <c r="R103"/>
     </row>
-    <row r="104" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" s="8" customFormat="1" ht="409.5">
       <c r="A104" s="18"/>
       <c r="B104" s="30" t="s">
         <v>160</v>
@@ -11646,7 +11711,7 @@
       <c r="Q104"/>
       <c r="R104"/>
     </row>
-    <row r="105" spans="1:18" s="8" customFormat="1" ht="337.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" s="8" customFormat="1" ht="337.5">
       <c r="A105" s="14"/>
       <c r="B105" s="30" t="s">
         <v>135</v>
@@ -11684,8 +11749,8 @@
       <c r="M105" s="9">
         <v>16467</v>
       </c>
-      <c r="N105" s="156" t="s">
-        <v>1724</v>
+      <c r="N105" s="152" t="s">
+        <v>1722</v>
       </c>
       <c r="O105" s="14" t="s">
         <v>1379</v>
@@ -11694,7 +11759,7 @@
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
     </row>
-    <row r="106" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" s="8" customFormat="1" ht="409.5">
       <c r="A106" s="14"/>
       <c r="B106" s="8" t="s">
         <v>467</v>
@@ -11744,7 +11809,7 @@
       <c r="Q106"/>
       <c r="R106"/>
     </row>
-    <row r="107" spans="1:18" s="8" customFormat="1" ht="281.25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" s="8" customFormat="1" ht="281.25">
       <c r="A107" s="14"/>
       <c r="B107" s="8" t="s">
         <v>468</v>
@@ -11792,7 +11857,7 @@
       <c r="Q107"/>
       <c r="R107"/>
     </row>
-    <row r="108" spans="1:18" s="8" customFormat="1" ht="337.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" s="8" customFormat="1" ht="337.5">
       <c r="A108" s="18"/>
       <c r="B108" s="8" t="s">
         <v>470</v>
@@ -11840,7 +11905,7 @@
       <c r="Q108"/>
       <c r="R108"/>
     </row>
-    <row r="109" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" s="8" customFormat="1" ht="206.25">
       <c r="A109" s="18"/>
       <c r="B109" s="8" t="s">
         <v>168</v>
@@ -11888,7 +11953,7 @@
       <c r="Q109"/>
       <c r="R109"/>
     </row>
-    <row r="110" spans="1:18" s="8" customFormat="1" ht="262.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" s="8" customFormat="1" ht="262.5">
       <c r="A110" s="14"/>
       <c r="B110" s="8" t="s">
         <v>472</v>
@@ -11936,7 +12001,7 @@
       <c r="Q110"/>
       <c r="R110"/>
     </row>
-    <row r="111" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" s="8" customFormat="1" ht="409.5">
       <c r="A111" s="18"/>
       <c r="B111" s="8" t="s">
         <v>473</v>
@@ -11986,7 +12051,7 @@
       <c r="Q111"/>
       <c r="R111"/>
     </row>
-    <row r="112" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" s="8" customFormat="1" ht="409.5">
       <c r="A112" s="14"/>
       <c r="B112" s="8" t="s">
         <v>474</v>
@@ -12036,7 +12101,7 @@
       <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
     </row>
-    <row r="113" spans="1:18" s="8" customFormat="1" ht="375" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" s="8" customFormat="1" ht="375">
       <c r="A113" s="18"/>
       <c r="B113" s="8" t="s">
         <v>475</v>
@@ -12084,7 +12149,7 @@
       <c r="Q113"/>
       <c r="R113"/>
     </row>
-    <row r="114" spans="1:18" s="8" customFormat="1" ht="281.25" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" s="8" customFormat="1" ht="281.25">
       <c r="A114" s="18"/>
       <c r="B114" s="8" t="s">
         <v>476</v>
@@ -12132,7 +12197,7 @@
       <c r="Q114"/>
       <c r="R114"/>
     </row>
-    <row r="115" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="A115" s="18"/>
       <c r="B115" s="30" t="s">
         <v>179</v>
@@ -12180,7 +12245,7 @@
       <c r="Q115"/>
       <c r="R115"/>
     </row>
-    <row r="116" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" s="8" customFormat="1" ht="409.5">
       <c r="A116" s="14"/>
       <c r="B116" s="35" t="s">
         <v>859</v>
@@ -12227,7 +12292,7 @@
       <c r="Q116"/>
       <c r="R116"/>
     </row>
-    <row r="117" spans="1:18" s="8" customFormat="1" ht="300" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" s="8" customFormat="1" ht="300">
       <c r="A117" s="18"/>
       <c r="B117" s="30" t="s">
         <v>835</v>
@@ -12277,7 +12342,7 @@
       <c r="Q117"/>
       <c r="R117"/>
     </row>
-    <row r="118" spans="1:18" s="8" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" s="8" customFormat="1" ht="206.25">
       <c r="B118" s="8" t="s">
         <v>860</v>
       </c>
@@ -12326,7 +12391,7 @@
       <c r="Q118"/>
       <c r="R118"/>
     </row>
-    <row r="119" spans="1:18" s="8" customFormat="1" ht="300" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" s="8" customFormat="1" ht="300">
       <c r="A119" s="14"/>
       <c r="B119" s="38" t="s">
         <v>867</v>
@@ -12376,7 +12441,7 @@
       <c r="Q119" s="38"/>
       <c r="R119" s="39"/>
     </row>
-    <row r="120" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" s="8" customFormat="1" ht="225">
       <c r="A120" s="18"/>
       <c r="B120" s="8" t="s">
         <v>501</v>
@@ -12424,7 +12489,7 @@
       <c r="Q120"/>
       <c r="R120"/>
     </row>
-    <row r="121" spans="1:18" s="8" customFormat="1" ht="393.75" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" s="8" customFormat="1" ht="393.75">
       <c r="B121" s="8" t="s">
         <v>495</v>
       </c>
@@ -12473,7 +12538,7 @@
       <c r="Q121"/>
       <c r="R121"/>
     </row>
-    <row r="122" spans="1:18" s="8" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" s="8" customFormat="1" ht="206.25">
       <c r="A122" s="7"/>
       <c r="B122" s="8" t="s">
         <v>495</v>
@@ -12521,7 +12586,7 @@
       <c r="Q122"/>
       <c r="R122"/>
     </row>
-    <row r="123" spans="1:18" s="8" customFormat="1" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" s="8" customFormat="1" ht="187.5">
       <c r="B123" s="8" t="s">
         <v>878</v>
       </c>
@@ -12567,7 +12632,7 @@
       <c r="Q123"/>
       <c r="R123"/>
     </row>
-    <row r="124" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="A124" s="7"/>
       <c r="B124" s="8" t="s">
         <v>882</v>
@@ -12614,7 +12679,7 @@
       <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
     </row>
-    <row r="125" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="B125" s="8" t="s">
         <v>889</v>
       </c>
@@ -12660,7 +12725,7 @@
       <c r="Q125" s="6"/>
       <c r="R125" s="6"/>
     </row>
-    <row r="126" spans="1:18" s="8" customFormat="1" ht="281.25" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" s="8" customFormat="1" ht="281.25">
       <c r="A126" s="7"/>
       <c r="B126" s="8" t="s">
         <v>267</v>
@@ -12701,7 +12766,7 @@
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
     </row>
-    <row r="127" spans="1:18" s="8" customFormat="1" ht="300" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" s="8" customFormat="1" ht="300">
       <c r="B127" s="8" t="s">
         <v>896</v>
       </c>
@@ -12747,7 +12812,7 @@
       <c r="Q127" s="6"/>
       <c r="R127" s="6"/>
     </row>
-    <row r="128" spans="1:18" s="8" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" s="8" customFormat="1" ht="206.25">
       <c r="A128" s="7"/>
       <c r="B128" s="8" t="s">
         <v>901</v>
@@ -12794,7 +12859,7 @@
       <c r="Q128" s="6"/>
       <c r="R128" s="6"/>
     </row>
-    <row r="129" spans="1:18" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" s="8" customFormat="1" ht="150">
       <c r="B129" s="8" t="s">
         <v>531</v>
       </c>
@@ -12841,7 +12906,7 @@
       <c r="Q129" s="6"/>
       <c r="R129" s="6"/>
     </row>
-    <row r="130" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" s="8" customFormat="1" ht="225">
       <c r="A130" s="7"/>
       <c r="B130" s="8" t="s">
         <v>518</v>
@@ -12889,7 +12954,7 @@
       <c r="Q130"/>
       <c r="R130"/>
     </row>
-    <row r="131" spans="1:18" s="8" customFormat="1" ht="262.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" s="8" customFormat="1" ht="262.5">
       <c r="B131" s="8" t="s">
         <v>262</v>
       </c>
@@ -12928,7 +12993,7 @@
       <c r="Q131" s="6"/>
       <c r="R131" s="6"/>
     </row>
-    <row r="132" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" s="8" customFormat="1" ht="409.5">
       <c r="A132" s="7"/>
       <c r="B132" s="8" t="s">
         <v>906</v>
@@ -12975,7 +13040,7 @@
       <c r="Q132" s="6"/>
       <c r="R132" s="6"/>
     </row>
-    <row r="133" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" s="8" customFormat="1" ht="225">
       <c r="B133" s="8" t="s">
         <v>534</v>
       </c>
@@ -13022,7 +13087,7 @@
       <c r="Q133" s="6"/>
       <c r="R133" s="6"/>
     </row>
-    <row r="134" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" s="8" customFormat="1" ht="409.5">
       <c r="A134" s="7"/>
       <c r="B134" s="8" t="s">
         <v>910</v>
@@ -13069,7 +13134,7 @@
       <c r="Q134" s="6"/>
       <c r="R134" s="6"/>
     </row>
-    <row r="135" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" s="8" customFormat="1" ht="409.5">
       <c r="B135" s="32" t="s">
         <v>910</v>
       </c>
@@ -13118,7 +13183,7 @@
       <c r="Q135" s="38"/>
       <c r="R135" s="39"/>
     </row>
-    <row r="136" spans="1:18" s="8" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" s="8" customFormat="1" ht="243.75">
       <c r="A136" s="7"/>
       <c r="B136" s="8" t="s">
         <v>915</v>
@@ -13163,7 +13228,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="137" spans="1:18" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" s="8" customFormat="1" ht="150">
       <c r="B137" s="8" t="s">
         <v>920</v>
       </c>
@@ -13207,7 +13272,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="138" spans="1:18" s="8" customFormat="1" ht="237.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" s="8" customFormat="1" ht="237.75" customHeight="1">
       <c r="A138" s="7"/>
       <c r="B138" s="8" t="s">
         <v>494</v>
@@ -13253,7 +13318,7 @@
       </c>
       <c r="P138"/>
     </row>
-    <row r="139" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" s="8" customFormat="1" ht="112.5">
       <c r="B139" s="8" t="s">
         <v>504</v>
       </c>
@@ -13298,7 +13363,7 @@
       </c>
       <c r="P139"/>
     </row>
-    <row r="140" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="A140" s="7"/>
       <c r="B140" s="8" t="s">
         <v>924</v>
@@ -13343,7 +13408,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="141" spans="1:18" s="8" customFormat="1" ht="337.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" s="8" customFormat="1" ht="337.5">
       <c r="B141" s="38" t="s">
         <v>924</v>
       </c>
@@ -13392,7 +13457,7 @@
       <c r="Q141" s="38"/>
       <c r="R141" s="39"/>
     </row>
-    <row r="142" spans="1:18" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" s="8" customFormat="1" ht="56.25">
       <c r="A142" s="7"/>
       <c r="B142" s="8" t="s">
         <v>932</v>
@@ -13437,7 +13502,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="143" spans="1:18" s="8" customFormat="1" ht="281.25" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" s="8" customFormat="1" ht="243.75">
       <c r="B143" s="30" t="s">
         <v>210</v>
       </c>
@@ -13473,7 +13538,7 @@
       </c>
       <c r="P143" s="6"/>
     </row>
-    <row r="144" spans="1:18" s="8" customFormat="1" ht="318.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" s="8" customFormat="1" ht="318.75">
       <c r="A144" s="7"/>
       <c r="B144" s="8" t="s">
         <v>960</v>
@@ -13518,7 +13583,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="145" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="B145" s="8" t="s">
         <v>527</v>
       </c>
@@ -13551,7 +13616,7 @@
       </c>
       <c r="P145" s="6"/>
     </row>
-    <row r="146" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="A146" s="7"/>
       <c r="B146" s="8" t="s">
         <v>941</v>
@@ -13596,7 +13661,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="147" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" s="8" customFormat="1" ht="225">
       <c r="B147" s="32" t="s">
         <v>1044</v>
       </c>
@@ -13645,7 +13710,7 @@
       <c r="Q147" s="38"/>
       <c r="R147" s="39"/>
     </row>
-    <row r="148" spans="1:18" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" s="8" customFormat="1" ht="150">
       <c r="A148" s="7"/>
       <c r="B148" s="32" t="s">
         <v>1050</v>
@@ -13695,7 +13760,7 @@
       <c r="Q148" s="38"/>
       <c r="R148" s="39"/>
     </row>
-    <row r="149" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" s="8" customFormat="1" ht="131.25">
       <c r="B149" s="32" t="s">
         <v>1056</v>
       </c>
@@ -13744,7 +13809,7 @@
       <c r="Q149" s="38"/>
       <c r="R149" s="38"/>
     </row>
-    <row r="150" spans="1:18" s="8" customFormat="1" ht="318.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" s="8" customFormat="1" ht="318.75">
       <c r="B150" s="38" t="s">
         <v>1215</v>
       </c>
@@ -13791,7 +13856,7 @@
       <c r="Q150" s="38"/>
       <c r="R150" s="38"/>
     </row>
-    <row r="151" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" s="8" customFormat="1" ht="75">
       <c r="A151" s="7"/>
       <c r="B151" s="32" t="s">
         <v>1064</v>
@@ -13841,7 +13906,7 @@
       <c r="Q151" s="38"/>
       <c r="R151" s="38"/>
     </row>
-    <row r="152" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="B152" s="32" t="s">
         <v>1070</v>
       </c>
@@ -13886,7 +13951,7 @@
       <c r="Q152" s="38"/>
       <c r="R152" s="38"/>
     </row>
-    <row r="153" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="A153" s="7"/>
       <c r="B153" s="30" t="s">
         <v>132</v>
@@ -13928,7 +13993,7 @@
       </c>
       <c r="P153"/>
     </row>
-    <row r="154" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" s="8" customFormat="1" ht="75">
       <c r="B154" s="32" t="s">
         <v>1077</v>
       </c>
@@ -13977,7 +14042,7 @@
       <c r="Q154" s="38"/>
       <c r="R154" s="38"/>
     </row>
-    <row r="155" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" s="8" customFormat="1" ht="225">
       <c r="A155" s="7"/>
       <c r="B155" s="32" t="s">
         <v>1083</v>
@@ -14027,7 +14092,7 @@
       <c r="Q155" s="38"/>
       <c r="R155" s="38"/>
     </row>
-    <row r="156" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" s="8" customFormat="1" ht="131.25">
       <c r="B156" s="32" t="s">
         <v>1089</v>
       </c>
@@ -14076,7 +14141,7 @@
       <c r="Q156" s="38"/>
       <c r="R156" s="38"/>
     </row>
-    <row r="157" spans="1:18" s="8" customFormat="1" ht="356.25" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" s="8" customFormat="1" ht="356.25">
       <c r="A157" s="7"/>
       <c r="B157" s="32" t="s">
         <v>1096</v>
@@ -14126,7 +14191,7 @@
       <c r="Q157" s="38"/>
       <c r="R157" s="38"/>
     </row>
-    <row r="158" spans="1:18" s="8" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" s="8" customFormat="1" ht="243.75">
       <c r="B158" s="32" t="s">
         <v>1102</v>
       </c>
@@ -14173,7 +14238,7 @@
       <c r="Q158" s="38"/>
       <c r="R158" s="38"/>
     </row>
-    <row r="159" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" s="8" customFormat="1" ht="112.5">
       <c r="A159" s="7"/>
       <c r="B159" s="30" t="s">
         <v>201</v>
@@ -14214,7 +14279,7 @@
       </c>
       <c r="P159"/>
     </row>
-    <row r="160" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="B160" s="32" t="s">
         <v>1108</v>
       </c>
@@ -14263,7 +14328,7 @@
       <c r="Q160" s="38"/>
       <c r="R160" s="38"/>
     </row>
-    <row r="161" spans="1:18" s="8" customFormat="1" ht="262.5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" s="8" customFormat="1" ht="262.5">
       <c r="A161" s="7"/>
       <c r="B161" s="32" t="s">
         <v>1115</v>
@@ -14311,7 +14376,7 @@
       <c r="Q161" s="38"/>
       <c r="R161" s="38"/>
     </row>
-    <row r="162" spans="1:18" s="8" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" s="8" customFormat="1" ht="168.75">
       <c r="B162" s="8" t="s">
         <v>1302</v>
       </c>
@@ -14360,7 +14425,7 @@
       <c r="Q162"/>
       <c r="R162"/>
     </row>
-    <row r="163" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" s="8" customFormat="1" ht="225">
       <c r="A163" s="7"/>
       <c r="B163" s="8" t="s">
         <v>1302</v>
@@ -14410,7 +14475,7 @@
       <c r="Q163"/>
       <c r="R163"/>
     </row>
-    <row r="164" spans="1:18" s="8" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" s="8" customFormat="1" ht="206.25">
       <c r="B164" s="8" t="s">
         <v>508</v>
       </c>
@@ -14455,7 +14520,7 @@
       </c>
       <c r="P164"/>
     </row>
-    <row r="165" spans="1:18" s="8" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" s="8" customFormat="1" ht="168.75">
       <c r="A165" s="7"/>
       <c r="B165" s="8" t="s">
         <v>1150</v>
@@ -14502,7 +14567,7 @@
       <c r="Q165"/>
       <c r="R165"/>
     </row>
-    <row r="166" spans="1:18" s="8" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" s="8" customFormat="1" ht="206.25">
       <c r="B166" s="8" t="s">
         <v>1155</v>
       </c>
@@ -14548,7 +14613,7 @@
       <c r="Q166"/>
       <c r="R166"/>
     </row>
-    <row r="167" spans="1:18" s="8" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" s="8" customFormat="1" ht="168.75">
       <c r="A167" s="7"/>
       <c r="B167" s="8" t="s">
         <v>1159</v>
@@ -14598,7 +14663,7 @@
       <c r="Q167"/>
       <c r="R167"/>
     </row>
-    <row r="168" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" s="8" customFormat="1" ht="75">
       <c r="B168" s="30" t="s">
         <v>188</v>
       </c>
@@ -14634,7 +14699,7 @@
       </c>
       <c r="P168" s="6"/>
     </row>
-    <row r="169" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" s="8" customFormat="1" ht="112.5">
       <c r="A169" s="7"/>
       <c r="B169" s="8" t="s">
         <v>1165</v>
@@ -14681,7 +14746,7 @@
       <c r="Q169"/>
       <c r="R169"/>
     </row>
-    <row r="170" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" s="8" customFormat="1" ht="112.5">
       <c r="B170" s="8" t="s">
         <v>367</v>
       </c>
@@ -14726,7 +14791,7 @@
       </c>
       <c r="P170"/>
     </row>
-    <row r="171" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" s="8" customFormat="1" ht="75">
       <c r="A171" s="7"/>
       <c r="B171" s="8" t="s">
         <v>1170</v>
@@ -14776,7 +14841,7 @@
       <c r="Q171"/>
       <c r="R171"/>
     </row>
-    <row r="172" spans="1:18" s="8" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" s="8" customFormat="1" ht="206.25">
       <c r="B172" s="8" t="s">
         <v>1176</v>
       </c>
@@ -14822,7 +14887,7 @@
       <c r="Q172"/>
       <c r="R172"/>
     </row>
-    <row r="173" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" s="8" customFormat="1" ht="409.5">
       <c r="B173" s="8" t="s">
         <v>506</v>
       </c>
@@ -14868,7 +14933,7 @@
       <c r="Q173"/>
       <c r="R173"/>
     </row>
-    <row r="174" spans="1:18" s="8" customFormat="1" ht="356.25" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" s="8" customFormat="1" ht="356.25">
       <c r="A174" s="7"/>
       <c r="B174" s="8" t="s">
         <v>1185</v>
@@ -14915,7 +14980,7 @@
       <c r="Q174"/>
       <c r="R174"/>
     </row>
-    <row r="175" spans="1:18" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" s="8" customFormat="1" ht="150">
       <c r="B175" s="8" t="s">
         <v>1192</v>
       </c>
@@ -14964,7 +15029,7 @@
       <c r="Q175"/>
       <c r="R175"/>
     </row>
-    <row r="176" spans="1:18" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" s="8" customFormat="1" ht="150">
       <c r="A176" s="7"/>
       <c r="B176" s="8" t="s">
         <v>152</v>
@@ -15002,7 +15067,7 @@
       </c>
       <c r="P176"/>
     </row>
-    <row r="177" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" s="8" customFormat="1" ht="112.5">
       <c r="B177" s="8" t="s">
         <v>1198</v>
       </c>
@@ -15051,7 +15116,7 @@
       <c r="Q177"/>
       <c r="R177"/>
     </row>
-    <row r="178" spans="1:18" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" s="8" customFormat="1" ht="56.25">
       <c r="B178" s="8" t="s">
         <v>1204</v>
       </c>
@@ -15097,7 +15162,7 @@
       <c r="Q178"/>
       <c r="R178"/>
     </row>
-    <row r="179" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" s="8" customFormat="1" ht="131.25">
       <c r="B179" s="8" t="s">
         <v>1208</v>
       </c>
@@ -15143,7 +15208,7 @@
       <c r="Q179"/>
       <c r="R179"/>
     </row>
-    <row r="180" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="B180" s="8" t="s">
         <v>1438</v>
       </c>
@@ -15163,13 +15228,13 @@
         <v>172</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I180" s="8" t="s">
         <v>1440</v>
       </c>
-      <c r="J180" s="31" t="s">
-        <v>1441</v>
+      <c r="J180" s="93" t="s">
+        <v>1742</v>
       </c>
       <c r="K180" s="9">
         <v>36894</v>
@@ -15184,45 +15249,45 @@
         <v>1048</v>
       </c>
       <c r="O180" s="8" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="P180"/>
       <c r="Q180"/>
       <c r="R180"/>
     </row>
-    <row r="181" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="B181" s="8" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E181" s="9">
         <v>3130</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G181" s="8" t="s">
         <v>172</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I181" s="31" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="J181" s="50" t="s">
-        <v>1450</v>
+        <v>1741</v>
       </c>
       <c r="K181" s="9">
         <v>31445</v>
       </c>
       <c r="L181" s="8" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="M181" s="36">
         <v>16547</v>
@@ -15231,73 +15296,149 @@
         <v>903</v>
       </c>
       <c r="O181" s="8" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="P181"/>
       <c r="Q181"/>
       <c r="R181"/>
     </row>
-    <row r="182" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A182"/>
-      <c r="B182"/>
-      <c r="C182"/>
-      <c r="D182"/>
-      <c r="E182" s="9"/>
-      <c r="F182"/>
-      <c r="G182"/>
-      <c r="H182"/>
-      <c r="I182"/>
-      <c r="J182"/>
-      <c r="K182"/>
-      <c r="L182"/>
-      <c r="M182"/>
-      <c r="N182"/>
-      <c r="O182"/>
-      <c r="P182"/>
-      <c r="Q182"/>
-      <c r="R182"/>
-    </row>
-    <row r="183" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A183"/>
-      <c r="B183"/>
-      <c r="C183"/>
-      <c r="D183"/>
-      <c r="E183" s="9"/>
-      <c r="F183"/>
-      <c r="G183"/>
-      <c r="H183"/>
-      <c r="I183"/>
-      <c r="J183"/>
-      <c r="K183"/>
-      <c r="L183"/>
-      <c r="M183"/>
-      <c r="N183"/>
-      <c r="O183"/>
-      <c r="P183"/>
-      <c r="Q183"/>
-      <c r="R183"/>
-    </row>
-    <row r="184" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A184"/>
-      <c r="B184"/>
-      <c r="C184"/>
-      <c r="D184"/>
-      <c r="E184" s="9"/>
-      <c r="F184"/>
-      <c r="G184"/>
-      <c r="H184"/>
-      <c r="I184"/>
-      <c r="J184"/>
-      <c r="K184"/>
-      <c r="L184"/>
-      <c r="M184"/>
-      <c r="N184"/>
-      <c r="O184"/>
-      <c r="P184"/>
-      <c r="Q184"/>
-      <c r="R184"/>
-    </row>
-    <row r="185" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" s="8" customFormat="1" ht="75">
+      <c r="A182" s="140"/>
+      <c r="B182" s="142" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C182" s="142" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D182" s="142" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E182" s="137">
+        <v>6797</v>
+      </c>
+      <c r="F182" s="142" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G182" s="142" t="s">
+        <v>172</v>
+      </c>
+      <c r="H182" s="142" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I182" s="93" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J182" s="142" t="s">
+        <v>1743</v>
+      </c>
+      <c r="K182" s="2">
+        <v>36918</v>
+      </c>
+      <c r="L182" s="142" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M182" s="140" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N182" s="142" t="s">
+        <v>1730</v>
+      </c>
+      <c r="O182" s="142" t="s">
+        <v>1731</v>
+      </c>
+      <c r="P182" s="140"/>
+      <c r="Q182" s="140"/>
+      <c r="R182" s="140"/>
+    </row>
+    <row r="183" spans="1:18" s="8" customFormat="1" ht="56.25">
+      <c r="A183" s="140"/>
+      <c r="B183" s="142" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C183" s="142" t="s">
+        <v>144</v>
+      </c>
+      <c r="D183" s="142" t="s">
+        <v>145</v>
+      </c>
+      <c r="E183" s="137">
+        <v>1338</v>
+      </c>
+      <c r="F183" s="142" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G183" s="142" t="s">
+        <v>172</v>
+      </c>
+      <c r="H183" s="142" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I183" s="93" t="s">
+        <v>1734</v>
+      </c>
+      <c r="J183" s="140"/>
+      <c r="K183" s="137">
+        <v>30994</v>
+      </c>
+      <c r="L183" s="142" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M183" s="157">
+        <v>1943</v>
+      </c>
+      <c r="N183" s="142" t="s">
+        <v>1048</v>
+      </c>
+      <c r="O183" s="142" t="s">
+        <v>1735</v>
+      </c>
+      <c r="P183" s="140"/>
+      <c r="Q183" s="140"/>
+      <c r="R183" s="140"/>
+    </row>
+    <row r="184" spans="1:18" s="8" customFormat="1" ht="75">
+      <c r="A184" s="140"/>
+      <c r="B184" s="142" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C184" s="142" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D184" s="142" t="s">
+        <v>113</v>
+      </c>
+      <c r="E184" s="137">
+        <v>5529</v>
+      </c>
+      <c r="F184" s="142" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G184" s="142" t="s">
+        <v>172</v>
+      </c>
+      <c r="H184" s="140"/>
+      <c r="I184" s="93" t="s">
+        <v>1745</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="K184" s="137">
+        <v>34195</v>
+      </c>
+      <c r="L184" s="142" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M184" s="140"/>
+      <c r="N184" s="140"/>
+      <c r="O184" s="142" t="s">
+        <v>1739</v>
+      </c>
+      <c r="P184" s="140"/>
+      <c r="Q184" s="140"/>
+      <c r="R184" s="140"/>
+    </row>
+    <row r="185" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
@@ -15317,7 +15458,7 @@
       <c r="Q185"/>
       <c r="R185"/>
     </row>
-    <row r="186" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
@@ -15337,7 +15478,7 @@
       <c r="Q186"/>
       <c r="R186"/>
     </row>
-    <row r="187" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
@@ -15357,7 +15498,7 @@
       <c r="Q187"/>
       <c r="R187"/>
     </row>
-    <row r="188" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
@@ -15377,7 +15518,7 @@
       <c r="Q188"/>
       <c r="R188"/>
     </row>
-    <row r="189" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
@@ -15397,7 +15538,7 @@
       <c r="Q189"/>
       <c r="R189"/>
     </row>
-    <row r="190" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
@@ -15417,7 +15558,7 @@
       <c r="Q190"/>
       <c r="R190"/>
     </row>
-    <row r="191" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -15437,7 +15578,7 @@
       <c r="Q191"/>
       <c r="R191"/>
     </row>
-    <row r="192" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
@@ -15457,7 +15598,7 @@
       <c r="Q192"/>
       <c r="R192"/>
     </row>
-    <row r="193" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
@@ -15477,7 +15618,7 @@
       <c r="Q193"/>
       <c r="R193"/>
     </row>
-    <row r="194" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
@@ -15497,7 +15638,7 @@
       <c r="Q194"/>
       <c r="R194"/>
     </row>
-    <row r="195" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
@@ -15517,7 +15658,7 @@
       <c r="Q195"/>
       <c r="R195"/>
     </row>
-    <row r="196" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
@@ -15537,7 +15678,7 @@
       <c r="Q196"/>
       <c r="R196"/>
     </row>
-    <row r="197" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
@@ -15557,7 +15698,7 @@
       <c r="Q197"/>
       <c r="R197"/>
     </row>
-    <row r="198" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
@@ -15577,7 +15718,7 @@
       <c r="Q198"/>
       <c r="R198"/>
     </row>
-    <row r="199" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
@@ -15597,7 +15738,7 @@
       <c r="Q199"/>
       <c r="R199"/>
     </row>
-    <row r="200" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
@@ -15617,7 +15758,7 @@
       <c r="Q200"/>
       <c r="R200"/>
     </row>
-    <row r="201" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
@@ -15637,7 +15778,7 @@
       <c r="Q201"/>
       <c r="R201"/>
     </row>
-    <row r="202" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
@@ -15657,7 +15798,7 @@
       <c r="Q202"/>
       <c r="R202"/>
     </row>
-    <row r="203" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
@@ -15677,7 +15818,7 @@
       <c r="Q203"/>
       <c r="R203"/>
     </row>
-    <row r="204" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
@@ -15697,7 +15838,7 @@
       <c r="Q204"/>
       <c r="R204"/>
     </row>
-    <row r="205" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
@@ -15717,7 +15858,7 @@
       <c r="Q205"/>
       <c r="R205"/>
     </row>
-    <row r="206" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
@@ -15737,7 +15878,7 @@
       <c r="Q206"/>
       <c r="R206"/>
     </row>
-    <row r="207" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
@@ -15757,7 +15898,7 @@
       <c r="Q207"/>
       <c r="R207"/>
     </row>
-    <row r="208" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
@@ -15777,7 +15918,7 @@
       <c r="Q208"/>
       <c r="R208"/>
     </row>
-    <row r="209" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
@@ -15797,7 +15938,7 @@
       <c r="Q209"/>
       <c r="R209"/>
     </row>
-    <row r="210" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -15817,7 +15958,7 @@
       <c r="Q210"/>
       <c r="R210"/>
     </row>
-    <row r="211" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
@@ -15837,7 +15978,7 @@
       <c r="Q211"/>
       <c r="R211"/>
     </row>
-    <row r="212" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
@@ -15857,7 +15998,7 @@
       <c r="Q212"/>
       <c r="R212"/>
     </row>
-    <row r="213" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -15877,7 +16018,7 @@
       <c r="Q213"/>
       <c r="R213"/>
     </row>
-    <row r="214" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
@@ -15897,7 +16038,7 @@
       <c r="Q214"/>
       <c r="R214"/>
     </row>
-    <row r="215" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
@@ -15917,7 +16058,7 @@
       <c r="Q215"/>
       <c r="R215"/>
     </row>
-    <row r="216" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
@@ -15937,7 +16078,7 @@
       <c r="Q216"/>
       <c r="R216"/>
     </row>
-    <row r="217" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
@@ -15957,7 +16098,7 @@
       <c r="Q217"/>
       <c r="R217"/>
     </row>
-    <row r="218" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
@@ -15977,7 +16118,7 @@
       <c r="Q218"/>
       <c r="R218"/>
     </row>
-    <row r="219" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
@@ -15997,7 +16138,7 @@
       <c r="Q219"/>
       <c r="R219"/>
     </row>
-    <row r="220" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
@@ -16017,7 +16158,7 @@
       <c r="Q220"/>
       <c r="R220"/>
     </row>
-    <row r="221" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -16037,7 +16178,7 @@
       <c r="Q221"/>
       <c r="R221"/>
     </row>
-    <row r="222" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -16057,7 +16198,7 @@
       <c r="Q222"/>
       <c r="R222"/>
     </row>
-    <row r="223" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -16077,7 +16218,7 @@
       <c r="Q223"/>
       <c r="R223"/>
     </row>
-    <row r="224" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
@@ -16097,7 +16238,7 @@
       <c r="Q224"/>
       <c r="R224"/>
     </row>
-    <row r="225" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
@@ -16117,7 +16258,7 @@
       <c r="Q225"/>
       <c r="R225"/>
     </row>
-    <row r="226" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
@@ -16137,7 +16278,7 @@
       <c r="Q226"/>
       <c r="R226"/>
     </row>
-    <row r="227" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
@@ -16157,7 +16298,7 @@
       <c r="Q227"/>
       <c r="R227"/>
     </row>
-    <row r="228" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" s="8" customFormat="1" ht="18.75">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
@@ -16177,299 +16318,299 @@
       <c r="Q228"/>
       <c r="R228"/>
     </row>
-    <row r="229" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="230" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="231" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="232" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="233" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="234" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="235" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="236" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="237" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="238" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="239" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="240" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="241" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="242" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="243" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="244" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="245" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="246" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="247" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="248" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="249" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="250" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="251" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="252" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="253" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="254" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="255" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="256" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="257" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="258" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="259" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="260" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="261" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="262" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="263" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="264" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="265" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="266" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="267" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="268" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="269" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="270" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="271" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="272" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="273" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="274" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="275" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="276" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="277" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="278" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="279" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="280" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="281" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="282" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="283" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="284" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="285" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="286" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="287" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="288" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="289" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="290" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="291" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="292" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="293" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="294" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="295" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="296" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="297" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="298" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="299" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="300" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="301" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="302" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="303" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="304" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="305" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="306" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="307" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="308" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="309" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="310" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="311" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="312" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="313" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="314" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="315" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="316" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="317" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="318" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="319" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="320" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="321" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="322" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="323" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="324" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="325" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="326" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="327" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="328" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="329" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="330" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="331" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="332" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="333" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="334" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="335" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="336" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="337" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="338" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="339" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="340" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="341" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="342" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="343" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="344" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="345" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="346" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="347" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="348" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="349" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="350" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="351" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="352" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="353" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="354" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="355" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="356" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="357" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="358" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="359" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="360" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="361" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="362" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="363" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="364" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="365" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="366" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="367" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="368" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="369" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="370" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="371" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="372" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="373" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="374" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="375" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="376" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="377" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="378" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="379" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="380" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="381" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="382" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="383" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="384" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="385" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="386" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="387" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="388" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="389" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="390" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="391" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="392" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="393" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="394" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="395" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="396" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="397" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="398" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="399" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="400" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="401" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="402" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="403" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="404" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="405" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="406" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="407" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="408" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="409" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="410" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="411" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="412" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="413" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="414" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="415" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="416" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="417" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="418" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="419" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="420" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="421" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="422" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="423" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="424" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="425" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="426" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="427" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="428" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="429" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="430" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="431" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="432" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="433" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="434" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="435" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="436" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="437" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="438" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="439" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="440" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="441" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="442" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="443" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="444" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="445" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="446" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="447" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="448" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="449" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="450" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="451" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="452" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="453" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="454" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="455" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="456" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="457" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="458" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="459" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="460" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="461" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="462" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="463" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="464" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="465" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="466" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="467" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="468" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="469" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="470" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="471" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="472" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="473" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="474" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="475" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="476" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="477" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="478" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="479" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="480" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="481" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="482" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="483" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="484" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="485" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="486" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="487" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="488" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="489" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="490" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="491" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="492" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="493" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="494" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="495" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="496" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="497" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="498" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="499" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="500" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="501" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="502" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="503" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="504" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="505" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="506" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="507" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="508" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="509" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="510" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="511" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="512" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="513" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="514" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="515" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="516" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="517" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="518" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="519" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="520" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="521" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="229" spans="1:18" s="8" customFormat="1" ht="18.75"/>
+    <row r="230" spans="1:18" s="8" customFormat="1" ht="18.75"/>
+    <row r="231" spans="1:18" s="8" customFormat="1" ht="18.75"/>
+    <row r="232" spans="1:18" s="8" customFormat="1" ht="18.75"/>
+    <row r="233" spans="1:18" s="8" customFormat="1" ht="18.75"/>
+    <row r="234" spans="1:18" s="8" customFormat="1" ht="18.75"/>
+    <row r="235" spans="1:18" s="8" customFormat="1" ht="18.75"/>
+    <row r="236" spans="1:18" s="8" customFormat="1" ht="18.75"/>
+    <row r="237" spans="1:18" s="8" customFormat="1" ht="18.75"/>
+    <row r="238" spans="1:18" s="8" customFormat="1" ht="18.75"/>
+    <row r="239" spans="1:18" s="8" customFormat="1" ht="18.75"/>
+    <row r="240" spans="1:18" s="8" customFormat="1" ht="18.75"/>
+    <row r="241" s="8" customFormat="1" ht="18.75"/>
+    <row r="242" s="8" customFormat="1" ht="18.75"/>
+    <row r="243" s="8" customFormat="1" ht="18.75"/>
+    <row r="244" s="8" customFormat="1" ht="18.75"/>
+    <row r="245" s="8" customFormat="1" ht="18.75"/>
+    <row r="246" s="8" customFormat="1" ht="18.75"/>
+    <row r="247" s="8" customFormat="1" ht="18.75"/>
+    <row r="248" s="8" customFormat="1" ht="18.75"/>
+    <row r="249" s="8" customFormat="1" ht="18.75"/>
+    <row r="250" s="8" customFormat="1" ht="18.75"/>
+    <row r="251" s="8" customFormat="1" ht="18.75"/>
+    <row r="252" s="8" customFormat="1" ht="18.75"/>
+    <row r="253" s="8" customFormat="1" ht="18.75"/>
+    <row r="254" s="8" customFormat="1" ht="18.75"/>
+    <row r="255" s="8" customFormat="1" ht="18.75"/>
+    <row r="256" s="8" customFormat="1" ht="18.75"/>
+    <row r="257" s="8" customFormat="1" ht="18.75"/>
+    <row r="258" s="8" customFormat="1" ht="18.75"/>
+    <row r="259" s="8" customFormat="1" ht="18.75"/>
+    <row r="260" s="8" customFormat="1" ht="18.75"/>
+    <row r="261" s="8" customFormat="1" ht="18.75"/>
+    <row r="262" s="8" customFormat="1" ht="18.75"/>
+    <row r="263" s="8" customFormat="1" ht="18.75"/>
+    <row r="264" s="8" customFormat="1" ht="18.75"/>
+    <row r="265" s="8" customFormat="1" ht="18.75"/>
+    <row r="266" s="8" customFormat="1" ht="18.75"/>
+    <row r="267" s="8" customFormat="1" ht="18.75"/>
+    <row r="268" s="8" customFormat="1" ht="18.75"/>
+    <row r="269" s="8" customFormat="1" ht="18.75"/>
+    <row r="270" s="8" customFormat="1" ht="18.75"/>
+    <row r="271" s="8" customFormat="1" ht="18.75"/>
+    <row r="272" s="8" customFormat="1" ht="18.75"/>
+    <row r="273" s="8" customFormat="1" ht="18.75"/>
+    <row r="274" s="8" customFormat="1" ht="18.75"/>
+    <row r="275" s="8" customFormat="1" ht="18.75"/>
+    <row r="276" s="8" customFormat="1" ht="18.75"/>
+    <row r="277" s="8" customFormat="1" ht="18.75"/>
+    <row r="278" s="8" customFormat="1" ht="18.75"/>
+    <row r="279" s="8" customFormat="1" ht="18.75"/>
+    <row r="280" s="8" customFormat="1" ht="18.75"/>
+    <row r="281" s="8" customFormat="1" ht="18.75"/>
+    <row r="282" s="8" customFormat="1" ht="18.75"/>
+    <row r="283" s="8" customFormat="1" ht="18.75"/>
+    <row r="284" s="8" customFormat="1" ht="18.75"/>
+    <row r="285" s="8" customFormat="1" ht="18.75"/>
+    <row r="286" s="8" customFormat="1" ht="18.75"/>
+    <row r="287" s="8" customFormat="1" ht="18.75"/>
+    <row r="288" s="8" customFormat="1" ht="18.75"/>
+    <row r="289" s="8" customFormat="1" ht="18.75"/>
+    <row r="290" s="8" customFormat="1" ht="18.75"/>
+    <row r="291" s="8" customFormat="1" ht="18.75"/>
+    <row r="292" s="8" customFormat="1" ht="18.75"/>
+    <row r="293" s="8" customFormat="1" ht="18.75"/>
+    <row r="294" s="8" customFormat="1" ht="18.75"/>
+    <row r="295" s="8" customFormat="1" ht="18.75"/>
+    <row r="296" s="8" customFormat="1" ht="18.75"/>
+    <row r="297" s="8" customFormat="1" ht="18.75"/>
+    <row r="298" s="8" customFormat="1" ht="18.75"/>
+    <row r="299" s="8" customFormat="1" ht="18.75"/>
+    <row r="300" s="8" customFormat="1" ht="18.75"/>
+    <row r="301" s="8" customFormat="1" ht="18.75"/>
+    <row r="302" s="8" customFormat="1" ht="18.75"/>
+    <row r="303" s="8" customFormat="1" ht="18.75"/>
+    <row r="304" s="8" customFormat="1" ht="18.75"/>
+    <row r="305" s="8" customFormat="1" ht="18.75"/>
+    <row r="306" s="8" customFormat="1" ht="18.75"/>
+    <row r="307" s="8" customFormat="1" ht="18.75"/>
+    <row r="308" s="8" customFormat="1" ht="18.75"/>
+    <row r="309" s="8" customFormat="1" ht="18.75"/>
+    <row r="310" s="8" customFormat="1" ht="18.75"/>
+    <row r="311" s="8" customFormat="1" ht="18.75"/>
+    <row r="312" s="8" customFormat="1" ht="18.75"/>
+    <row r="313" s="8" customFormat="1" ht="18.75"/>
+    <row r="314" s="8" customFormat="1" ht="18.75"/>
+    <row r="315" s="8" customFormat="1" ht="18.75"/>
+    <row r="316" s="8" customFormat="1" ht="18.75"/>
+    <row r="317" s="8" customFormat="1" ht="18.75"/>
+    <row r="318" s="8" customFormat="1" ht="18.75"/>
+    <row r="319" s="8" customFormat="1" ht="18.75"/>
+    <row r="320" s="8" customFormat="1" ht="18.75"/>
+    <row r="321" s="8" customFormat="1" ht="18.75"/>
+    <row r="322" s="8" customFormat="1" ht="18.75"/>
+    <row r="323" s="8" customFormat="1" ht="18.75"/>
+    <row r="324" s="8" customFormat="1" ht="18.75"/>
+    <row r="325" s="8" customFormat="1" ht="18.75"/>
+    <row r="326" s="8" customFormat="1" ht="18.75"/>
+    <row r="327" s="8" customFormat="1" ht="18.75"/>
+    <row r="328" s="8" customFormat="1" ht="18.75"/>
+    <row r="329" s="8" customFormat="1" ht="18.75"/>
+    <row r="330" s="8" customFormat="1" ht="18.75"/>
+    <row r="331" s="8" customFormat="1" ht="18.75"/>
+    <row r="332" s="8" customFormat="1" ht="18.75"/>
+    <row r="333" s="8" customFormat="1" ht="18.75"/>
+    <row r="334" s="8" customFormat="1" ht="18.75"/>
+    <row r="335" s="8" customFormat="1" ht="18.75"/>
+    <row r="336" s="8" customFormat="1" ht="18.75"/>
+    <row r="337" s="8" customFormat="1" ht="18.75"/>
+    <row r="338" s="8" customFormat="1" ht="18.75"/>
+    <row r="339" s="8" customFormat="1" ht="18.75"/>
+    <row r="340" s="8" customFormat="1" ht="18.75"/>
+    <row r="341" s="8" customFormat="1" ht="18.75"/>
+    <row r="342" s="8" customFormat="1" ht="18.75"/>
+    <row r="343" s="8" customFormat="1" ht="18.75"/>
+    <row r="344" s="8" customFormat="1" ht="18.75"/>
+    <row r="345" s="8" customFormat="1" ht="18.75"/>
+    <row r="346" s="8" customFormat="1" ht="18.75"/>
+    <row r="347" s="8" customFormat="1" ht="18.75"/>
+    <row r="348" s="8" customFormat="1" ht="18.75"/>
+    <row r="349" s="8" customFormat="1" ht="18.75"/>
+    <row r="350" s="8" customFormat="1" ht="18.75"/>
+    <row r="351" s="8" customFormat="1" ht="18.75"/>
+    <row r="352" s="8" customFormat="1" ht="18.75"/>
+    <row r="353" s="8" customFormat="1" ht="18.75"/>
+    <row r="354" s="8" customFormat="1" ht="18.75"/>
+    <row r="355" s="8" customFormat="1" ht="18.75"/>
+    <row r="356" s="8" customFormat="1" ht="18.75"/>
+    <row r="357" s="8" customFormat="1" ht="18.75"/>
+    <row r="358" s="8" customFormat="1" ht="18.75"/>
+    <row r="359" s="8" customFormat="1" ht="18.75"/>
+    <row r="360" s="8" customFormat="1" ht="18.75"/>
+    <row r="361" s="8" customFormat="1" ht="18.75"/>
+    <row r="362" s="8" customFormat="1" ht="18.75"/>
+    <row r="363" s="8" customFormat="1" ht="18.75"/>
+    <row r="364" s="8" customFormat="1" ht="18.75"/>
+    <row r="365" s="8" customFormat="1" ht="18.75"/>
+    <row r="366" s="8" customFormat="1" ht="18.75"/>
+    <row r="367" s="8" customFormat="1" ht="18.75"/>
+    <row r="368" s="8" customFormat="1" ht="18.75"/>
+    <row r="369" s="8" customFormat="1" ht="18.75"/>
+    <row r="370" s="8" customFormat="1" ht="18.75"/>
+    <row r="371" s="8" customFormat="1" ht="18.75"/>
+    <row r="372" s="8" customFormat="1" ht="18.75"/>
+    <row r="373" s="8" customFormat="1" ht="18.75"/>
+    <row r="374" s="8" customFormat="1" ht="18.75"/>
+    <row r="375" s="8" customFormat="1" ht="18.75"/>
+    <row r="376" s="8" customFormat="1" ht="18.75"/>
+    <row r="377" s="8" customFormat="1" ht="18.75"/>
+    <row r="378" s="8" customFormat="1" ht="18.75"/>
+    <row r="379" s="8" customFormat="1" ht="18.75"/>
+    <row r="380" s="8" customFormat="1" ht="18.75"/>
+    <row r="381" s="8" customFormat="1" ht="18.75"/>
+    <row r="382" s="8" customFormat="1" ht="18.75"/>
+    <row r="383" s="8" customFormat="1" ht="18.75"/>
+    <row r="384" s="8" customFormat="1" ht="18.75"/>
+    <row r="385" s="8" customFormat="1" ht="18.75"/>
+    <row r="386" s="8" customFormat="1" ht="18.75"/>
+    <row r="387" s="8" customFormat="1" ht="18.75"/>
+    <row r="388" s="8" customFormat="1" ht="18.75"/>
+    <row r="389" s="8" customFormat="1" ht="18.75"/>
+    <row r="390" s="8" customFormat="1" ht="18.75"/>
+    <row r="391" s="8" customFormat="1" ht="18.75"/>
+    <row r="392" s="8" customFormat="1" ht="18.75"/>
+    <row r="393" s="8" customFormat="1" ht="18.75"/>
+    <row r="394" s="8" customFormat="1" ht="18.75"/>
+    <row r="395" s="8" customFormat="1" ht="18.75"/>
+    <row r="396" s="8" customFormat="1" ht="18.75"/>
+    <row r="397" s="8" customFormat="1" ht="18.75"/>
+    <row r="398" s="8" customFormat="1" ht="18.75"/>
+    <row r="399" s="8" customFormat="1" ht="18.75"/>
+    <row r="400" s="8" customFormat="1" ht="18.75"/>
+    <row r="401" s="8" customFormat="1" ht="18.75"/>
+    <row r="402" s="8" customFormat="1" ht="18.75"/>
+    <row r="403" s="8" customFormat="1" ht="18.75"/>
+    <row r="404" s="8" customFormat="1" ht="18.75"/>
+    <row r="405" s="8" customFormat="1" ht="18.75"/>
+    <row r="406" s="8" customFormat="1" ht="18.75"/>
+    <row r="407" s="8" customFormat="1" ht="18.75"/>
+    <row r="408" s="8" customFormat="1" ht="18.75"/>
+    <row r="409" s="8" customFormat="1" ht="18.75"/>
+    <row r="410" s="8" customFormat="1" ht="18.75"/>
+    <row r="411" s="8" customFormat="1" ht="18.75"/>
+    <row r="412" s="8" customFormat="1" ht="18.75"/>
+    <row r="413" s="8" customFormat="1" ht="18.75"/>
+    <row r="414" s="8" customFormat="1" ht="18.75"/>
+    <row r="415" s="8" customFormat="1" ht="18.75"/>
+    <row r="416" s="8" customFormat="1" ht="18.75"/>
+    <row r="417" s="8" customFormat="1" ht="18.75"/>
+    <row r="418" s="8" customFormat="1" ht="18.75"/>
+    <row r="419" s="8" customFormat="1" ht="18.75"/>
+    <row r="420" s="8" customFormat="1" ht="18.75"/>
+    <row r="421" s="8" customFormat="1" ht="18.75"/>
+    <row r="422" s="8" customFormat="1" ht="18.75"/>
+    <row r="423" s="8" customFormat="1" ht="18.75"/>
+    <row r="424" s="8" customFormat="1" ht="18.75"/>
+    <row r="425" s="8" customFormat="1" ht="18.75"/>
+    <row r="426" s="8" customFormat="1" ht="18.75"/>
+    <row r="427" s="8" customFormat="1" ht="18.75"/>
+    <row r="428" s="8" customFormat="1" ht="18.75"/>
+    <row r="429" s="8" customFormat="1" ht="18.75"/>
+    <row r="430" s="8" customFormat="1" ht="18.75"/>
+    <row r="431" s="8" customFormat="1" ht="18.75"/>
+    <row r="432" s="8" customFormat="1" ht="18.75"/>
+    <row r="433" s="8" customFormat="1" ht="18.75"/>
+    <row r="434" s="8" customFormat="1" ht="18.75"/>
+    <row r="435" s="8" customFormat="1" ht="18.75"/>
+    <row r="436" s="8" customFormat="1" ht="18.75"/>
+    <row r="437" s="8" customFormat="1" ht="18.75"/>
+    <row r="438" s="8" customFormat="1" ht="18.75"/>
+    <row r="439" s="8" customFormat="1" ht="18.75"/>
+    <row r="440" s="8" customFormat="1" ht="18.75"/>
+    <row r="441" s="8" customFormat="1" ht="18.75"/>
+    <row r="442" s="8" customFormat="1" ht="18.75"/>
+    <row r="443" s="8" customFormat="1" ht="18.75"/>
+    <row r="444" s="8" customFormat="1" ht="18.75"/>
+    <row r="445" s="8" customFormat="1" ht="18.75"/>
+    <row r="446" s="8" customFormat="1" ht="18.75"/>
+    <row r="447" s="8" customFormat="1" ht="18.75"/>
+    <row r="448" s="8" customFormat="1" ht="18.75"/>
+    <row r="449" s="8" customFormat="1" ht="18.75"/>
+    <row r="450" s="8" customFormat="1" ht="18.75"/>
+    <row r="451" s="8" customFormat="1" ht="18.75"/>
+    <row r="452" s="8" customFormat="1" ht="18.75"/>
+    <row r="453" s="8" customFormat="1" ht="18.75"/>
+    <row r="454" s="8" customFormat="1" ht="18.75"/>
+    <row r="455" s="8" customFormat="1" ht="18.75"/>
+    <row r="456" s="8" customFormat="1" ht="18.75"/>
+    <row r="457" s="8" customFormat="1" ht="18.75"/>
+    <row r="458" s="8" customFormat="1" ht="18.75"/>
+    <row r="459" s="8" customFormat="1" ht="18.75"/>
+    <row r="460" s="8" customFormat="1" ht="18.75"/>
+    <row r="461" s="8" customFormat="1" ht="18.75"/>
+    <row r="462" s="8" customFormat="1" ht="18.75"/>
+    <row r="463" s="8" customFormat="1" ht="18.75"/>
+    <row r="464" s="8" customFormat="1" ht="18.75"/>
+    <row r="465" s="8" customFormat="1" ht="18.75"/>
+    <row r="466" s="8" customFormat="1" ht="18.75"/>
+    <row r="467" s="8" customFormat="1" ht="18.75"/>
+    <row r="468" s="8" customFormat="1" ht="18.75"/>
+    <row r="469" s="8" customFormat="1" ht="18.75"/>
+    <row r="470" s="8" customFormat="1" ht="18.75"/>
+    <row r="471" s="8" customFormat="1" ht="18.75"/>
+    <row r="472" s="8" customFormat="1" ht="18.75"/>
+    <row r="473" s="8" customFormat="1" ht="18.75"/>
+    <row r="474" s="8" customFormat="1" ht="18.75"/>
+    <row r="475" s="8" customFormat="1" ht="18.75"/>
+    <row r="476" s="8" customFormat="1" ht="18.75"/>
+    <row r="477" s="8" customFormat="1" ht="18.75"/>
+    <row r="478" s="8" customFormat="1" ht="18.75"/>
+    <row r="479" s="8" customFormat="1" ht="18.75"/>
+    <row r="480" s="8" customFormat="1" ht="18.75"/>
+    <row r="481" s="8" customFormat="1" ht="18.75"/>
+    <row r="482" s="8" customFormat="1" ht="18.75"/>
+    <row r="483" s="8" customFormat="1" ht="18.75"/>
+    <row r="484" s="8" customFormat="1" ht="18.75"/>
+    <row r="485" s="8" customFormat="1" ht="18.75"/>
+    <row r="486" s="8" customFormat="1" ht="18.75"/>
+    <row r="487" s="8" customFormat="1" ht="18.75"/>
+    <row r="488" s="8" customFormat="1" ht="18.75"/>
+    <row r="489" s="8" customFormat="1" ht="18.75"/>
+    <row r="490" s="8" customFormat="1" ht="18.75"/>
+    <row r="491" s="8" customFormat="1" ht="18.75"/>
+    <row r="492" s="8" customFormat="1" ht="18.75"/>
+    <row r="493" s="8" customFormat="1" ht="18.75"/>
+    <row r="494" s="8" customFormat="1" ht="18.75"/>
+    <row r="495" s="8" customFormat="1" ht="18.75"/>
+    <row r="496" s="8" customFormat="1" ht="18.75"/>
+    <row r="497" s="8" customFormat="1" ht="18.75"/>
+    <row r="498" s="8" customFormat="1" ht="18.75"/>
+    <row r="499" s="8" customFormat="1" ht="18.75"/>
+    <row r="500" s="8" customFormat="1" ht="18.75"/>
+    <row r="501" s="8" customFormat="1" ht="18.75"/>
+    <row r="502" s="8" customFormat="1" ht="18.75"/>
+    <row r="503" s="8" customFormat="1" ht="18.75"/>
+    <row r="504" s="8" customFormat="1" ht="18.75"/>
+    <row r="505" s="8" customFormat="1" ht="18.75"/>
+    <row r="506" s="8" customFormat="1" ht="18.75"/>
+    <row r="507" s="8" customFormat="1" ht="18.75"/>
+    <row r="508" s="8" customFormat="1" ht="18.75"/>
+    <row r="509" s="8" customFormat="1" ht="18.75"/>
+    <row r="510" s="8" customFormat="1" ht="18.75"/>
+    <row r="511" s="8" customFormat="1" ht="18.75"/>
+    <row r="512" s="8" customFormat="1" ht="18.75"/>
+    <row r="513" s="8" customFormat="1" ht="18.75"/>
+    <row r="514" s="8" customFormat="1" ht="18.75"/>
+    <row r="515" s="8" customFormat="1" ht="18.75"/>
+    <row r="516" s="8" customFormat="1" ht="18.75"/>
+    <row r="517" s="8" customFormat="1" ht="18.75"/>
+    <row r="518" s="8" customFormat="1" ht="18.75"/>
+    <row r="519" s="8" customFormat="1" ht="18.75"/>
+    <row r="520" s="8" customFormat="1" ht="18.75"/>
+    <row r="521" s="8" customFormat="1" ht="18.75"/>
   </sheetData>
   <autoFilter ref="A1:R181">
     <sortState ref="A2:R183">
@@ -16674,9 +16815,7 @@
     <hyperlink ref="I115" r:id="rId192"/>
     <hyperlink ref="P117" r:id="rId193"/>
     <hyperlink ref="I120" r:id="rId194"/>
-    <hyperlink ref="J180" location="Максимов!A1" display="Максимов!A1"/>
     <hyperlink ref="I181" r:id="rId195"/>
-    <hyperlink ref="J181" location="Середа!A1" display="Середа!A1"/>
     <hyperlink ref="P85" r:id="rId196"/>
     <hyperlink ref="P84" r:id="rId197"/>
     <hyperlink ref="I83" r:id="rId198"/>
@@ -16757,19 +16896,22 @@
     <hyperlink ref="I22" r:id="rId273"/>
     <hyperlink ref="I26" r:id="rId274"/>
     <hyperlink ref="I28" r:id="rId275"/>
+    <hyperlink ref="I183" r:id="rId276"/>
+    <hyperlink ref="I182" r:id="rId277"/>
+    <hyperlink ref="I184" r:id="rId278"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId276"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId279"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16777,12 +16919,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16790,19 +16932,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1:AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -16813,7 +16955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33">
       <c r="AE2" t="s">
         <v>9</v>
       </c>
@@ -16821,7 +16963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33">
       <c r="AE3" t="s">
         <v>11</v>
       </c>
@@ -16829,194 +16971,194 @@
         <v>15245</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="152" t="s">
+    <row r="34" spans="1:34" ht="39.75" customHeight="1">
+      <c r="A34" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="152"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="152"/>
-      <c r="L34" s="152"/>
-      <c r="M34" s="152"/>
-      <c r="N34" s="152"/>
-      <c r="O34" s="152"/>
-      <c r="P34" s="152"/>
-      <c r="Q34" s="152"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="152" t="s">
+      <c r="B34" s="153"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
+      <c r="N34" s="153"/>
+      <c r="O34" s="153"/>
+      <c r="P34" s="153"/>
+      <c r="Q34" s="153"/>
+    </row>
+    <row r="36" spans="1:34">
+      <c r="A36" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="152"/>
-      <c r="C36" s="152"/>
-      <c r="D36" s="152"/>
-      <c r="E36" s="152"/>
-      <c r="F36" s="152"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="152"/>
-      <c r="K36" s="152"/>
-      <c r="L36" s="152"/>
-      <c r="M36" s="152"/>
-      <c r="N36" s="152"/>
-      <c r="O36" s="152"/>
-      <c r="P36" s="152"/>
-      <c r="Q36" s="152"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="152"/>
-      <c r="B37" s="152"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="152"/>
-      <c r="L37" s="152"/>
-      <c r="M37" s="152"/>
-      <c r="N37" s="152"/>
-      <c r="O37" s="152"/>
-      <c r="P37" s="152"/>
-      <c r="Q37" s="152"/>
-    </row>
-    <row r="38" spans="1:34" ht="183" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="153" t="s">
+      <c r="B36" s="153"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="A37" s="153"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="153"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
+      <c r="N37" s="153"/>
+      <c r="O37" s="153"/>
+      <c r="P37" s="153"/>
+      <c r="Q37" s="153"/>
+    </row>
+    <row r="38" spans="1:34" ht="183" customHeight="1">
+      <c r="A38" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="153"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
-      <c r="K38" s="153"/>
-      <c r="L38" s="153"/>
-      <c r="M38" s="153"/>
-      <c r="N38" s="153"/>
-      <c r="O38" s="153"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="153"/>
-      <c r="U38" s="154" t="s">
+      <c r="B38" s="154"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="154"/>
+      <c r="K38" s="154"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
+      <c r="N38" s="154"/>
+      <c r="O38" s="154"/>
+      <c r="P38" s="154"/>
+      <c r="Q38" s="154"/>
+      <c r="U38" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="V38" s="155"/>
-      <c r="W38" s="155"/>
-      <c r="X38" s="155"/>
-      <c r="Y38" s="155"/>
-      <c r="Z38" s="155"/>
-      <c r="AA38" s="155"/>
-      <c r="AB38" s="155"/>
-      <c r="AC38" s="155"/>
-      <c r="AD38" s="155"/>
-      <c r="AE38" s="155"/>
-      <c r="AF38" s="155"/>
-      <c r="AG38" s="155"/>
-      <c r="AH38" s="155"/>
-    </row>
-    <row r="39" spans="1:34" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="153" t="s">
+      <c r="V38" s="156"/>
+      <c r="W38" s="156"/>
+      <c r="X38" s="156"/>
+      <c r="Y38" s="156"/>
+      <c r="Z38" s="156"/>
+      <c r="AA38" s="156"/>
+      <c r="AB38" s="156"/>
+      <c r="AC38" s="156"/>
+      <c r="AD38" s="156"/>
+      <c r="AE38" s="156"/>
+      <c r="AF38" s="156"/>
+      <c r="AG38" s="156"/>
+      <c r="AH38" s="156"/>
+    </row>
+    <row r="39" spans="1:34" ht="66.75" customHeight="1">
+      <c r="A39" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="153"/>
-      <c r="C39" s="153"/>
-      <c r="D39" s="153"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="153"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="153"/>
-      <c r="K39" s="153"/>
-      <c r="L39" s="153"/>
-      <c r="M39" s="153"/>
-      <c r="N39" s="153"/>
-      <c r="O39" s="153"/>
-      <c r="P39" s="153"/>
-      <c r="Q39" s="153"/>
-      <c r="U39" s="155"/>
-      <c r="V39" s="155"/>
-      <c r="W39" s="155"/>
-      <c r="X39" s="155"/>
-      <c r="Y39" s="155"/>
-      <c r="Z39" s="155"/>
-      <c r="AA39" s="155"/>
-      <c r="AB39" s="155"/>
-      <c r="AC39" s="155"/>
-      <c r="AD39" s="155"/>
-      <c r="AE39" s="155"/>
-      <c r="AF39" s="155"/>
-      <c r="AG39" s="155"/>
-      <c r="AH39" s="155"/>
-    </row>
-    <row r="40" spans="1:34" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="153" t="s">
+      <c r="B39" s="154"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="154"/>
+      <c r="K39" s="154"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="154"/>
+      <c r="N39" s="154"/>
+      <c r="O39" s="154"/>
+      <c r="P39" s="154"/>
+      <c r="Q39" s="154"/>
+      <c r="U39" s="156"/>
+      <c r="V39" s="156"/>
+      <c r="W39" s="156"/>
+      <c r="X39" s="156"/>
+      <c r="Y39" s="156"/>
+      <c r="Z39" s="156"/>
+      <c r="AA39" s="156"/>
+      <c r="AB39" s="156"/>
+      <c r="AC39" s="156"/>
+      <c r="AD39" s="156"/>
+      <c r="AE39" s="156"/>
+      <c r="AF39" s="156"/>
+      <c r="AG39" s="156"/>
+      <c r="AH39" s="156"/>
+    </row>
+    <row r="40" spans="1:34" ht="30.75" customHeight="1">
+      <c r="A40" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="153"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="153"/>
-      <c r="K40" s="153"/>
-      <c r="L40" s="153"/>
-      <c r="M40" s="153"/>
-      <c r="N40" s="153"/>
-      <c r="O40" s="153"/>
-      <c r="P40" s="153"/>
-      <c r="Q40" s="153"/>
-      <c r="U40" s="155"/>
-      <c r="V40" s="155"/>
-      <c r="W40" s="155"/>
-      <c r="X40" s="155"/>
-      <c r="Y40" s="155"/>
-      <c r="Z40" s="155"/>
-      <c r="AA40" s="155"/>
-      <c r="AB40" s="155"/>
-      <c r="AC40" s="155"/>
-      <c r="AD40" s="155"/>
-      <c r="AE40" s="155"/>
-      <c r="AF40" s="155"/>
-      <c r="AG40" s="155"/>
-      <c r="AH40" s="155"/>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="152"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="152"/>
-      <c r="F41" s="152"/>
-      <c r="G41" s="152"/>
-      <c r="H41" s="152"/>
-      <c r="I41" s="152"/>
-      <c r="J41" s="152"/>
-      <c r="K41" s="152"/>
-      <c r="L41" s="152"/>
-      <c r="M41" s="152"/>
-      <c r="N41" s="152"/>
-      <c r="O41" s="152"/>
-      <c r="P41" s="152"/>
-      <c r="Q41" s="152"/>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B40" s="154"/>
+      <c r="C40" s="154"/>
+      <c r="D40" s="154"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
+      <c r="K40" s="154"/>
+      <c r="L40" s="154"/>
+      <c r="M40" s="154"/>
+      <c r="N40" s="154"/>
+      <c r="O40" s="154"/>
+      <c r="P40" s="154"/>
+      <c r="Q40" s="154"/>
+      <c r="U40" s="156"/>
+      <c r="V40" s="156"/>
+      <c r="W40" s="156"/>
+      <c r="X40" s="156"/>
+      <c r="Y40" s="156"/>
+      <c r="Z40" s="156"/>
+      <c r="AA40" s="156"/>
+      <c r="AB40" s="156"/>
+      <c r="AC40" s="156"/>
+      <c r="AD40" s="156"/>
+      <c r="AE40" s="156"/>
+      <c r="AF40" s="156"/>
+      <c r="AG40" s="156"/>
+      <c r="AH40" s="156"/>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" s="153"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="153"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="153"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="153"/>
+      <c r="J41" s="153"/>
+      <c r="K41" s="153"/>
+      <c r="L41" s="153"/>
+      <c r="M41" s="153"/>
+      <c r="N41" s="153"/>
+      <c r="O41" s="153"/>
+      <c r="P41" s="153"/>
+      <c r="Q41" s="153"/>
+    </row>
+    <row r="44" spans="1:34">
       <c r="A44" s="1"/>
     </row>
   </sheetData>
@@ -17036,29 +17178,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23">
       <c r="Q2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23">
       <c r="U3" t="s">
         <v>7</v>
       </c>
@@ -17066,7 +17208,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="U4" t="s">
         <v>9</v>
       </c>
@@ -17074,7 +17216,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23">
       <c r="U5" t="s">
         <v>11</v>
       </c>
@@ -17082,47 +17224,47 @@
         <v>28403</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="Q17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="Q19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="Q21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="Q23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="Q25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="Q27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="16.5">
       <c r="A31" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="16.5">
       <c r="A33" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -17135,19 +17277,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="O1" t="s">
         <v>7</v>
       </c>
@@ -17155,7 +17297,7 @@
         <v>32552</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="O2" t="s">
         <v>9</v>
       </c>
@@ -17163,7 +17305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="O3" t="s">
         <v>11</v>
       </c>
@@ -17171,20 +17313,20 @@
         <v>18168</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="L13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="154" t="s">
+    <row r="14" spans="1:25" ht="204.75" customHeight="1">
+      <c r="A14" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="154"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -17201,7 +17343,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -17210,7 +17352,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -17222,7 +17364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -17234,7 +17376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -17246,7 +17388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -17258,7 +17400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -17270,7 +17412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -17282,7 +17424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -17294,7 +17436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -17306,7 +17448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -17318,7 +17460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -17330,7 +17472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -17342,7 +17484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -17354,7 +17496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -17366,7 +17508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -17378,257 +17520,257 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="L31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="L32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:12">
       <c r="L33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:12">
       <c r="L34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:12">
       <c r="L35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:12">
       <c r="L36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:12">
       <c r="L37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:12">
       <c r="L38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:12">
       <c r="L39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:12">
       <c r="L40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:12">
       <c r="L41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:12">
       <c r="L42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="12:12">
       <c r="L43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="12:12">
       <c r="L44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:12">
       <c r="L45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:12">
       <c r="L46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="12:12">
       <c r="L47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="12:12">
       <c r="L48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:12">
       <c r="L49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="12:12">
       <c r="L50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="12:12">
       <c r="L51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="12:12">
       <c r="L52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="12:12">
       <c r="L53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="12:12">
       <c r="L54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="12:12">
       <c r="L55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="12:12">
       <c r="L56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="12:12">
       <c r="L57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="12:12">
       <c r="L58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="12:12">
       <c r="L59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="12:12">
       <c r="L60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="12:12">
       <c r="L61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="12:12">
       <c r="L62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="12:12">
       <c r="L63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="12:12">
       <c r="L64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:12">
       <c r="L65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:12">
       <c r="L66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:12">
       <c r="L67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:12">
       <c r="L68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:12">
       <c r="L69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="12:12">
       <c r="L70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:12">
       <c r="L71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:12">
       <c r="L72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="12:12">
       <c r="L73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="12:12">
       <c r="L74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:12">
       <c r="L75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="12:12">
       <c r="L76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="12:12">
       <c r="L77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="12:12">
       <c r="L78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="12:12">
       <c r="L79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="12:12">
       <c r="L80" t="s">
         <v>79</v>
       </c>

--- a/public/data/persons.xlsx
+++ b/public/data/persons.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="1743">
   <si>
     <t>Источник</t>
   </si>
@@ -2570,9 +2570,6 @@
     <t>г. Клины, Калужская губерния</t>
   </si>
   <si>
-    <t>Лётчик (командир эскадрильи 270-й бомбардировочной авиадивизии 8-й воздушной армии Южного фронта)</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/ru/thumb/6/62/Кошевой_Петр_Кириллович.jpg/270px-Кошевой_Петр_Кириллович.jpg</t>
   </si>
   <si>
@@ -3472,9 +3469,6 @@
   </si>
   <si>
     <t>7 июля 1943 года в районе Белгорода одна группа наших штурмовиков атаковала большое скопление фашистской техники и подбила около 20 немецких танков. Одновременно другая группа наших штурмовиков атаковала немецкий мотострелковый батальон. Было сожжено 90 автомашин и убито 120 немцев. В тот же день наши механизированные войска, поддержанные ударами штурмовиков корпуса Рязанова В.Г., отразили атаку четырёх танковых дивизий противника. Дважды Герой Советского Союза (1944, 1945)</t>
-  </si>
-  <si>
-    <t>Военачальник (командующий 61-й армией)</t>
   </si>
   <si>
     <t xml:space="preserve">Осенью 1941 года вместе с товарищами, устроив засаду, убил главу полевой жандармерии близ города Шепетовки, подорвав гранатой машину, в которой тот ехал. С 1942 года принимал активное участие в партизанском движении на территории Украины. Сначала был связным шепетовской подпольной организации, затем участвовал в боях. С августа 1943 года — в партизанском отряде имени Кармелюка под командованием И. А. Музалёва, был дважды ранен. В октябре 1943 года он обнаружил подземный телефонный кабель, который вскоре был подорван, и связь захватчиков со ставкой Гитлера в Варшаве прекратилась. Также внёс свой вклад в подрыв шести железнодорожных эшелонов и склада. 
@@ -4731,11 +4725,6 @@
     <t>http://encyclopedia.mil.ru/encyclopedia/heroes/USSR/more.htm?id=11842725@morfHeroes</t>
   </si>
   <si>
-    <t xml:space="preserve">Во время Великой Отечественной войны, с июня 1941 года по сентябрь 1944 года, Ефремов был командиром авиазвена, заместителем командира и командиром авиаэскадрильи 10-го гвардейского бомбардировочного авиаполка. Участвовал в боях на Юго-Западном, Сталинградском, 4-м Украинском и 3-м Белорусском фронтах. В боях за родной Сталинград Ефремов совершил 198 боевых вылетов, уничтожил 5 железнодорожных эшелонов, 15 автомашин с военными грузами, 11 самолётов и много другой боевой техники. В период Сталинградского сражения ему приходилось подниматься в воздух и вести бой по несколько раз в день. 
-К февралю 1943 года командир эскадрильи 10-го гвардейского бомбардировочного авиаполка (270-я бомбардировочная авиадивизия, 8-я воздушная армия, Южный фронт) гвардии капитан Ефремов совершил 293 боевых вылета на бомбардировку скоплений живой силы и боевой техники противника
-</t>
-  </si>
-  <si>
     <t>Отважно сражался во время боёв 1941 года на Украине, многократно водил своё звено в бой, уничтожая боевую технику и живую силу противника. При выполнении задач неоднократно попадал под огонь зенитной артиллерии и истребительной авиации. 10 июля 1941 года бомбардировщик Ефремова был сбит в районе города Коростышева Житомирской области, вместе с членами экипажа лётчик выпрыгнул на парашютах и спустя несколько дней сумел добраться к своим частям. Уже в августе 1941 года в первый раз был представлен к первой награде</t>
   </si>
   <si>
@@ -4856,9 +4845,6 @@
     <t>Москва, Троекуровское кладбище</t>
   </si>
   <si>
-    <t>Лётчик (Военачальник; командир эскадрильи 15-го гвардейского штурмового авиационного полка)</t>
-  </si>
-  <si>
     <t>Москва, Кунцевское кладбище</t>
   </si>
   <si>
@@ -5203,10 +5189,6 @@
     <t>Командовал частями 61 армии, форсировавшей Днепр в районе Любич и захватившей плацдарм на правом берегу в районе Глушец-Власенко.</t>
   </si>
   <si>
-    <t xml:space="preserve">Советский военачальник, генерал-полковник (1944). За умелое командование армией и проявленные в боях с немецко-фашистскими захватчиками мужество и героизм Указом Президиума Верховного Совета СССР от 15 января 1944 года генерал-лейтенанту Белову Павлу Алексеевичу присвоено звание Героя Советского Союза с вручением ордена Ленина и медали «Золотая Звезда».
-</t>
-  </si>
-  <si>
     <t>Участвовал в военных действиях на Воронежском фронте</t>
   </si>
   <si>
@@ -5382,6 +5364,15 @@
   </si>
   <si>
     <t>https://pamyat-naroda.ru/heroes/kld-card_uchet_officer4019646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Советский военачальник, генерал-полковник (1944), командующий 61-й армией. За умелое командование армией и проявленные в боях с немецко-фашистскими захватчиками мужество и героизм Указом Президиума Верховного Совета СССР от 15 января 1944 года генерал-лейтенанту Белову Павлу Алексеевичу присвоено звание Героя Советского Союза с вручением ордена Ленина и медали «Золотая Звезда».
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Командир эскадрильи 270-й бомбардировочной авиадивизии 8-й воздушной армии Южного фронта. Во время Великой Отечественной войны, с июня 1941 года по сентябрь 1944 года, Ефремов был командиром авиазвена, заместителем командира и командиром авиаэскадрильи 10-го гвардейского бомбардировочного авиаполка. Участвовал в боях на Юго-Западном, Сталинградском, 4-м Украинском и 3-м Белорусском фронтах. В боях за родной Сталинград Ефремов совершил 198 боевых вылетов, уничтожил 5 железнодорожных эшелонов, 15 автомашин с военными грузами, 11 самолётов и много другой боевой техники. В период Сталинградского сражения ему приходилось подниматься в воздух и вести бой по несколько раз в день. 
+К февралю 1943 года командир эскадрильи 10-го гвардейского бомбардировочного авиаполка (270-я бомбардировочная авиадивизия, 8-я воздушная армия, Южный фронт) гвардии капитан Ефремов совершил 293 боевых вылета на бомбардировку скоплений живой силы и боевой техники противника
+</t>
   </si>
 </sst>
 </file>
@@ -5910,6 +5901,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5921,9 +5915,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6055,7 +6046,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6075,7 +6066,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6110,7 +6101,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6130,7 +6121,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6170,7 +6161,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6190,7 +6181,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6225,7 +6216,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6245,7 +6236,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6285,7 +6276,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6305,7 +6296,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6340,7 +6331,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6360,7 +6351,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6663,10 +6654,10 @@
   <dimension ref="A1:R521"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E146" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H184" sqref="H184"/>
+      <selection pane="bottomRight" activeCell="F66" sqref="C66:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6741,10 +6732,10 @@
         <v>282</v>
       </c>
       <c r="Q1" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>854</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="128" customFormat="1" ht="150">
@@ -6765,13 +6756,13 @@
         <v>785</v>
       </c>
       <c r="G2" s="142" t="s">
-        <v>1577</v>
+        <v>413</v>
       </c>
       <c r="H2" s="142" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="J2" s="142" t="s">
         <v>583</v>
@@ -6783,16 +6774,16 @@
         <v>418</v>
       </c>
       <c r="M2" s="59" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="N2" s="53" t="s">
         <v>186</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="P2" s="58" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="R2" s="93"/>
     </row>
@@ -6817,7 +6808,7 @@
         <v>413</v>
       </c>
       <c r="H3" s="142" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="I3" s="93" t="s">
         <v>593</v>
@@ -6829,19 +6820,19 @@
         <v>33114</v>
       </c>
       <c r="L3" s="53" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="M3" s="54">
         <v>15904</v>
       </c>
       <c r="N3" s="53" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="O3" s="53" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="P3" s="55" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="R3" s="94"/>
     </row>
@@ -6864,7 +6855,7 @@
         <v>413</v>
       </c>
       <c r="H4" s="142" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="I4" s="93" t="s">
         <v>594</v>
@@ -6882,10 +6873,10 @@
         <v>15598</v>
       </c>
       <c r="N4" s="139" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O4" s="139" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="P4" s="128"/>
       <c r="Q4" s="128"/>
@@ -6912,7 +6903,7 @@
         <v>413</v>
       </c>
       <c r="H5" s="142" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="I5" s="93" t="s">
         <v>595</v>
@@ -6924,16 +6915,16 @@
         <v>36287</v>
       </c>
       <c r="L5" s="53" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="M5" s="59" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="N5" s="53" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="O5" s="57" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="P5" s="140" t="s">
         <v>289</v>
@@ -6962,7 +6953,7 @@
         <v>172</v>
       </c>
       <c r="H6" s="142" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="I6" s="142" t="s">
         <v>596</v>
@@ -6980,10 +6971,10 @@
         <v>16469</v>
       </c>
       <c r="N6" s="139" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="O6" s="111" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="R6" s="94"/>
     </row>
@@ -7008,7 +6999,7 @@
         <v>167</v>
       </c>
       <c r="H7" s="142" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="I7" s="93" t="s">
         <v>597</v>
@@ -7020,19 +7011,19 @@
         <v>31211</v>
       </c>
       <c r="L7" s="53" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M7" s="59" t="s">
         <v>1578</v>
       </c>
-      <c r="M7" s="59" t="s">
-        <v>1582</v>
-      </c>
       <c r="N7" s="53" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="O7" s="60" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="R7" s="94"/>
     </row>
@@ -7057,7 +7048,7 @@
         <v>167</v>
       </c>
       <c r="H8" s="142" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="I8" s="93" t="s">
         <v>598</v>
@@ -7069,19 +7060,19 @@
         <v>16461</v>
       </c>
       <c r="L8" s="139" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="M8" s="69">
         <v>15690</v>
       </c>
       <c r="N8" s="139" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="O8" s="111" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="P8" s="93" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="R8" s="93"/>
     </row>
@@ -7106,7 +7097,7 @@
         <v>792</v>
       </c>
       <c r="H9" s="142" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="I9" s="93" t="s">
         <v>599</v>
@@ -7118,7 +7109,7 @@
         <v>30215</v>
       </c>
       <c r="L9" s="53" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="M9" s="54">
         <v>16252</v>
@@ -7127,10 +7118,10 @@
         <v>306</v>
       </c>
       <c r="O9" s="62" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="P9" s="93" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="R9" s="93"/>
     </row>
@@ -7155,7 +7146,7 @@
         <v>793</v>
       </c>
       <c r="H10" s="142" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="I10" s="93" t="s">
         <v>600</v>
@@ -7167,19 +7158,19 @@
         <v>31156</v>
       </c>
       <c r="L10" s="142" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="M10" s="65">
         <v>15994</v>
       </c>
       <c r="N10" s="139" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="O10" s="111" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="R10" s="94"/>
     </row>
@@ -7204,7 +7195,7 @@
         <v>413</v>
       </c>
       <c r="H11" s="142" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="I11" s="93" t="s">
         <v>604</v>
@@ -7222,10 +7213,10 @@
         <v>16079</v>
       </c>
       <c r="N11" s="53" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="O11" s="57" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="P11" s="140"/>
       <c r="Q11" s="140"/>
@@ -7252,7 +7243,7 @@
         <v>413</v>
       </c>
       <c r="H12" s="142" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="I12" s="93" t="s">
         <v>606</v>
@@ -7267,19 +7258,19 @@
         <v>411</v>
       </c>
       <c r="M12" s="149" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="N12" s="142" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O12" s="111" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="P12" s="140" t="s">
         <v>303</v>
       </c>
       <c r="R12" s="105" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="140" customFormat="1" ht="150">
@@ -7303,7 +7294,7 @@
         <v>792</v>
       </c>
       <c r="H13" s="142" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="I13" s="93" t="s">
         <v>609</v>
@@ -7315,19 +7306,19 @@
         <v>33117</v>
       </c>
       <c r="L13" s="53" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="M13" s="54">
         <v>16246</v>
       </c>
       <c r="N13" s="53" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="O13" s="57" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="P13" s="140" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="R13" s="94"/>
     </row>
@@ -7349,16 +7340,16 @@
         <v>612</v>
       </c>
       <c r="G14" s="142" t="s">
-        <v>1134</v>
+        <v>792</v>
       </c>
       <c r="H14" s="139" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="I14" s="93" t="s">
         <v>611</v>
       </c>
       <c r="J14" s="142" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="K14" s="138">
         <v>22983</v>
@@ -7370,15 +7361,15 @@
         <v>15975</v>
       </c>
       <c r="N14" s="92" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="O14" s="111" t="s">
-        <v>1688</v>
+        <v>1741</v>
       </c>
       <c r="P14" s="140"/>
       <c r="Q14" s="140"/>
       <c r="R14" s="105" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="140" customFormat="1" ht="112.5">
@@ -7399,10 +7390,10 @@
         <v>614</v>
       </c>
       <c r="G15" s="142" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="H15" s="142" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="I15" s="93" t="s">
         <v>613</v>
@@ -7414,19 +7405,19 @@
         <v>34880</v>
       </c>
       <c r="L15" s="142" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="M15" s="45">
         <v>15707</v>
       </c>
       <c r="N15" s="67" t="s">
-        <v>1690</v>
+        <v>1685</v>
       </c>
       <c r="O15" s="57" t="s">
-        <v>1691</v>
+        <v>1686</v>
       </c>
       <c r="P15" s="93" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="Q15" s="128"/>
       <c r="R15" s="93"/>
@@ -7452,7 +7443,7 @@
         <v>792</v>
       </c>
       <c r="H16" s="139" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="I16" s="93" t="s">
         <v>616</v>
@@ -7470,17 +7461,17 @@
         <v>16438</v>
       </c>
       <c r="N16" s="139" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="O16" s="111" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="P16" s="140" t="s">
         <v>281</v>
       </c>
       <c r="Q16" s="140"/>
       <c r="R16" s="105" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="140" customFormat="1" ht="206.25">
@@ -7504,31 +7495,31 @@
         <v>413</v>
       </c>
       <c r="H17" s="142" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="I17" s="93" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="K17" s="63" t="s">
         <v>782</v>
       </c>
       <c r="L17" s="53" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="M17" s="137">
         <v>15488</v>
       </c>
       <c r="N17" s="142" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="O17" s="117" t="s">
         <v>592</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="R17" s="94"/>
     </row>
@@ -7550,10 +7541,10 @@
         <v>617</v>
       </c>
       <c r="G18" s="142" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="H18" s="142" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="I18" s="93" t="s">
         <v>619</v>
@@ -7571,14 +7562,14 @@
         <v>16451</v>
       </c>
       <c r="N18" s="142" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="O18" s="68" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="P18" s="128"/>
       <c r="R18" s="105" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="140" customFormat="1" ht="93.75">
@@ -7599,10 +7590,10 @@
         <v>622</v>
       </c>
       <c r="G19" s="142" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="I19" s="93" t="s">
         <v>621</v>
@@ -7614,19 +7605,19 @@
         <v>20513</v>
       </c>
       <c r="L19" s="53" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="M19" s="137" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="N19" s="67" t="s">
         <v>14</v>
       </c>
       <c r="O19" s="57" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="R19" s="34"/>
     </row>
@@ -7651,7 +7642,7 @@
         <v>792</v>
       </c>
       <c r="H20" s="142" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="I20" s="93" t="s">
         <v>624</v>
@@ -7669,14 +7660,14 @@
         <v>16152</v>
       </c>
       <c r="N20" s="79" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="O20" s="111" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
       <c r="Q20" s="140"/>
       <c r="R20" s="105" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="112.5">
@@ -7700,7 +7691,7 @@
         <v>413</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>628</v>
@@ -7712,7 +7703,7 @@
         <v>17375</v>
       </c>
       <c r="L21" s="53" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="M21" s="54">
         <v>15614</v>
@@ -7721,7 +7712,7 @@
         <v>14</v>
       </c>
       <c r="O21" s="57" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="R21" s="33"/>
     </row>
@@ -7746,7 +7737,7 @@
         <v>413</v>
       </c>
       <c r="H22" s="73" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="I22" s="93" t="s">
         <v>632</v>
@@ -7758,23 +7749,23 @@
         <v>32819</v>
       </c>
       <c r="L22" s="75" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="M22" s="65">
         <v>15408</v>
       </c>
       <c r="N22" s="79" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="O22" s="77" t="s">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="P22" s="71" t="s">
         <v>292</v>
       </c>
       <c r="Q22" s="71"/>
       <c r="R22" s="78" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="168.75">
@@ -7798,7 +7789,7 @@
         <v>413</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>636</v>
@@ -7810,19 +7801,19 @@
         <v>32225</v>
       </c>
       <c r="L23" s="53" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="M23" s="54">
         <v>16533</v>
       </c>
       <c r="N23" s="53" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="O23" s="57" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="R23" s="33"/>
     </row>
@@ -7847,31 +7838,31 @@
         <v>413</v>
       </c>
       <c r="H24" s="82" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="I24" s="82" t="s">
+        <v>997</v>
+      </c>
+      <c r="J24" s="82" t="s">
         <v>998</v>
-      </c>
-      <c r="J24" s="82" t="s">
-        <v>999</v>
       </c>
       <c r="K24" s="86">
         <v>15906</v>
       </c>
       <c r="L24" s="87" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="M24" s="151">
         <v>15906</v>
       </c>
       <c r="N24" s="82" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="O24" s="85" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="P24" s="80" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="Q24" s="80"/>
       <c r="R24" s="80"/>
@@ -7897,7 +7888,7 @@
         <v>792</v>
       </c>
       <c r="H25" s="53" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>638</v>
@@ -7909,16 +7900,16 @@
         <v>783</v>
       </c>
       <c r="L25" s="53" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="M25" s="54">
         <v>15664</v>
       </c>
       <c r="N25" s="53" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O25" s="57" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="P25" s="6"/>
       <c r="R25" s="31"/>
@@ -7941,10 +7932,10 @@
         <v>492</v>
       </c>
       <c r="G26" s="90" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H26" s="90" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="I26" s="93" t="s">
         <v>642</v>
@@ -7965,7 +7956,7 @@
         <v>411</v>
       </c>
       <c r="O26" s="97" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
       <c r="P26" s="88"/>
       <c r="Q26" s="88"/>
@@ -7982,7 +7973,7 @@
         <v>137</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>140</v>
@@ -7997,10 +7988,10 @@
         <v>151</v>
       </c>
       <c r="I27" s="93" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>1014</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>1015</v>
       </c>
       <c r="K27" s="17">
         <v>22443</v>
@@ -8040,7 +8031,7 @@
         <v>413</v>
       </c>
       <c r="H28" s="100" t="s">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="I28" s="93" t="s">
         <v>653</v>
@@ -8058,15 +8049,15 @@
         <v>15954</v>
       </c>
       <c r="N28" s="102" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
       <c r="O28" s="104" t="s">
-        <v>1719</v>
+        <v>1714</v>
       </c>
       <c r="P28" s="98"/>
       <c r="Q28" s="98"/>
       <c r="R28" s="105" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="131.25">
@@ -8090,7 +8081,7 @@
         <v>413</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="I29" s="31" t="s">
         <v>656</v>
@@ -8102,19 +8093,19 @@
         <v>37034</v>
       </c>
       <c r="L29" s="53" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="M29" s="9">
         <v>15707</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>1690</v>
+        <v>1685</v>
       </c>
       <c r="O29" s="57" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="R29"/>
     </row>
@@ -8139,7 +8130,7 @@
         <v>792</v>
       </c>
       <c r="H30" s="108" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="I30" s="108" t="s">
         <v>660</v>
@@ -8151,7 +8142,7 @@
         <v>25539</v>
       </c>
       <c r="L30" s="108" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="M30" s="48">
         <v>15707</v>
@@ -8160,7 +8151,7 @@
         <v>186</v>
       </c>
       <c r="O30" s="111" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="P30" s="106"/>
       <c r="Q30" s="106"/>
@@ -8187,7 +8178,7 @@
         <v>413</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="I31" s="31" t="s">
         <v>664</v>
@@ -8199,19 +8190,19 @@
         <v>32037</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="M31" s="9">
         <v>16473</v>
       </c>
       <c r="N31" s="29" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="P31" s="93" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
@@ -8237,25 +8228,25 @@
         <v>413</v>
       </c>
       <c r="H32" s="114" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I32" s="114" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="J32" s="114" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K32" s="119">
         <v>15153</v>
       </c>
       <c r="L32" s="114" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="M32" s="119">
         <v>15153</v>
       </c>
       <c r="N32" s="118" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="O32" s="117" t="s">
         <v>288</v>
@@ -8282,28 +8273,28 @@
         <v>186</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>187</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K33" s="9">
         <v>15955</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="M33" s="137">
         <v>15955</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="O33" s="14" t="s">
         <v>646</v>
@@ -8332,10 +8323,10 @@
         <v>670</v>
       </c>
       <c r="G34" s="131" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="H34" s="131" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="I34" s="122" t="s">
         <v>668</v>
@@ -8353,10 +8344,10 @@
         <v>16103</v>
       </c>
       <c r="N34" s="125" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="O34" s="122" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="P34" s="120"/>
       <c r="Q34" s="120"/>
@@ -8380,10 +8371,10 @@
         <v>673</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>672</v>
@@ -8401,13 +8392,13 @@
         <v>15342</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="P35" s="93" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="R35"/>
     </row>
@@ -8423,7 +8414,7 @@
         <v>177</v>
       </c>
       <c r="E36" s="132" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F36" s="129" t="s">
         <v>222</v>
@@ -8435,10 +8426,10 @@
         <v>223</v>
       </c>
       <c r="I36" s="129" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J36" s="130" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K36" s="130">
         <v>18834</v>
@@ -8450,10 +8441,10 @@
         <v>15676</v>
       </c>
       <c r="N36" s="129" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="O36" s="131" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="P36" s="128"/>
       <c r="Q36" s="127"/>
@@ -8477,10 +8468,10 @@
         <v>677</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>675</v>
@@ -8498,13 +8489,13 @@
         <v>16469</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="R37"/>
     </row>
@@ -8529,7 +8520,7 @@
         <v>413</v>
       </c>
       <c r="H38" s="136" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="I38" s="136" t="s">
         <v>679</v>
@@ -8547,13 +8538,13 @@
         <v>16436</v>
       </c>
       <c r="N38" s="135" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="O38" s="139" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="P38" s="146" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="Q38" s="134"/>
     </row>
@@ -8578,7 +8569,7 @@
         <v>413</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>682</v>
@@ -8596,10 +8587,10 @@
         <v>15888</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="R39"/>
     </row>
@@ -8621,10 +8612,10 @@
         <v>548</v>
       </c>
       <c r="G40" s="142" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H40" s="142" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="I40" s="142" t="s">
         <v>686</v>
@@ -8642,10 +8633,10 @@
         <v>15179</v>
       </c>
       <c r="N40" s="142" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="O40" s="142" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="P40" s="140"/>
       <c r="Q40" s="140"/>
@@ -8669,13 +8660,13 @@
         <v>551</v>
       </c>
       <c r="G41" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>1028</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>1630</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>1029</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>552</v>
@@ -8690,10 +8681,10 @@
         <v>16568</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="P41"/>
       <c r="Q41"/>
@@ -8717,10 +8708,10 @@
         <v>688</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>689</v>
@@ -8741,10 +8732,10 @@
         <v>418</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="P42" s="93" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="R42"/>
     </row>
@@ -8769,7 +8760,7 @@
         <v>172</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>691</v>
@@ -8781,19 +8772,19 @@
         <v>16753</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="M43" s="9">
         <v>16454</v>
       </c>
       <c r="N43" s="29" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="P43" s="93" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="R43"/>
     </row>
@@ -8818,7 +8809,7 @@
         <v>792</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>694</v>
@@ -8830,19 +8821,19 @@
         <v>812</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="M44" s="9">
         <v>15646</v>
       </c>
       <c r="N44" s="43" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="O44" s="14" t="s">
         <v>813</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="R44"/>
     </row>
@@ -8867,13 +8858,13 @@
         <v>413</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="K45" s="18" t="s">
         <v>814</v>
@@ -8885,13 +8876,13 @@
         <v>15707</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="O45" s="14" t="s">
         <v>228</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="R45"/>
     </row>
@@ -8913,10 +8904,10 @@
         <v>700</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>698</v>
@@ -8928,16 +8919,16 @@
         <v>14504</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="M46" s="9">
         <v>14427</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
@@ -8964,7 +8955,7 @@
         <v>792</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>702</v>
@@ -8982,10 +8973,10 @@
         <v>16526</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="R47"/>
     </row>
@@ -9010,7 +9001,7 @@
         <v>413</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>703</v>
@@ -9019,7 +9010,7 @@
         <v>705</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>14</v>
@@ -9028,13 +9019,13 @@
         <v>15892</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="P48" s="31" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="R48"/>
     </row>
@@ -9059,7 +9050,7 @@
         <v>816</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>706</v>
@@ -9077,10 +9068,10 @@
         <v>15919</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="R49"/>
     </row>
@@ -9107,10 +9098,10 @@
         <v>105</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>111</v>
@@ -9131,7 +9122,7 @@
         <v>607</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="R50"/>
     </row>
@@ -9156,7 +9147,7 @@
         <v>413</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>710</v>
@@ -9174,13 +9165,13 @@
         <v>15827</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="P51" s="31" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="281.25">
@@ -9204,7 +9195,7 @@
         <v>792</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>716</v>
@@ -9222,10 +9213,10 @@
         <v>15898</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="R52"/>
     </row>
@@ -9247,10 +9238,10 @@
         <v>720</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>718</v>
@@ -9259,7 +9250,7 @@
         <v>721</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="L53" s="8" t="s">
         <v>14</v>
@@ -9268,10 +9259,10 @@
         <v>15981</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
@@ -9300,13 +9291,13 @@
         <v>123</v>
       </c>
       <c r="H54" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J54" s="8" t="s">
         <v>1022</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>1023</v>
       </c>
       <c r="K54" s="17">
         <v>28403</v>
@@ -9318,7 +9309,7 @@
         <v>15401</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="O54" s="14" t="s">
         <v>285</v>
@@ -9345,10 +9336,10 @@
         <v>723</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="I55" s="8" t="s">
         <v>722</v>
@@ -9357,7 +9348,7 @@
         <v>724</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>14</v>
@@ -9366,13 +9357,13 @@
         <v>16562</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="O55" s="8" t="s">
+        <v>1539</v>
+      </c>
+      <c r="P55" s="31" t="s">
         <v>1542</v>
-      </c>
-      <c r="P55" s="31" t="s">
-        <v>1545</v>
       </c>
       <c r="R55"/>
     </row>
@@ -9393,11 +9384,11 @@
       <c r="F56" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="G56" s="14" t="s">
-        <v>839</v>
+      <c r="G56" s="131" t="s">
+        <v>413</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>725</v>
@@ -9406,7 +9397,7 @@
         <v>728</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>777</v>
@@ -9415,13 +9406,13 @@
         <v>15167</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>1540</v>
-      </c>
-      <c r="O56" s="8" t="s">
+        <v>1537</v>
+      </c>
+      <c r="O56" s="142" t="s">
+        <v>1742</v>
+      </c>
+      <c r="P56" s="31" t="s">
         <v>1538</v>
-      </c>
-      <c r="P56" s="31" t="s">
-        <v>1541</v>
       </c>
       <c r="R56"/>
     </row>
@@ -9446,10 +9437,10 @@
         <v>799</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="J57" s="8" t="s">
         <v>554</v>
@@ -9464,13 +9455,13 @@
         <v>15615</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O57" s="8" t="s">
+        <v>1533</v>
+      </c>
+      <c r="P57" s="31" t="s">
         <v>1535</v>
-      </c>
-      <c r="P57" s="31" t="s">
-        <v>1537</v>
       </c>
       <c r="R57"/>
     </row>
@@ -9492,10 +9483,10 @@
         <v>602</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>603</v>
@@ -9507,19 +9498,19 @@
         <v>27198</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="M58" s="9">
         <v>15220</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="O58" s="14" t="s">
         <v>283</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="R58"/>
     </row>
@@ -9544,7 +9535,7 @@
         <v>413</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>729</v>
@@ -9562,13 +9553,13 @@
         <v>15621</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O59" s="8" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P59" s="1" t="s">
         <v>1528</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>1530</v>
       </c>
       <c r="R59"/>
     </row>
@@ -9587,19 +9578,19 @@
         <v>3660</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K60" s="19">
         <v>15659</v>
@@ -9639,7 +9630,7 @@
         <v>792</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="I61" s="8" t="s">
         <v>733</v>
@@ -9648,7 +9639,7 @@
         <v>736</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="L61" s="8" t="s">
         <v>14</v>
@@ -9660,7 +9651,7 @@
         <v>418</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
@@ -9687,28 +9678,28 @@
         <v>413</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
@@ -9740,10 +9731,10 @@
         <v>125</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="K63" s="10">
         <v>28165</v>
@@ -9755,7 +9746,7 @@
         <v>15858</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="O63" s="14" t="s">
         <v>279</v>
@@ -9779,13 +9770,13 @@
         <v>10876</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="G64" s="8" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H64" s="8" t="s">
         <v>1516</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>1518</v>
       </c>
       <c r="I64" s="8" t="s">
         <v>255</v>
@@ -9794,7 +9785,7 @@
         <v>256</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>305</v>
@@ -9803,10 +9794,10 @@
         <v>15766</v>
       </c>
       <c r="N64" s="8" t="s">
+        <v>1515</v>
+      </c>
+      <c r="O64" s="14" t="s">
         <v>1517</v>
-      </c>
-      <c r="O64" s="14" t="s">
-        <v>1519</v>
       </c>
       <c r="R64"/>
     </row>
@@ -9828,10 +9819,10 @@
         <v>739</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="I65" s="8" t="s">
         <v>737</v>
@@ -9840,19 +9831,19 @@
         <v>740</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="M65" s="9">
         <v>15615</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="R65"/>
     </row>
@@ -9874,10 +9865,10 @@
         <v>743</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>741</v>
@@ -9886,22 +9877,22 @@
         <v>744</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="M66" s="9">
         <v>15895</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="P66" s="31" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="R66"/>
     </row>
@@ -9926,7 +9917,7 @@
         <v>817</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>751</v>
@@ -9944,10 +9935,10 @@
         <v>15250</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="R67"/>
     </row>
@@ -10007,10 +9998,10 @@
         <v>748</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>749</v>
@@ -10019,7 +10010,7 @@
         <v>750</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="L69" s="8" t="s">
         <v>777</v>
@@ -10028,13 +10019,13 @@
         <v>15888</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="P69" s="31" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="R69"/>
     </row>
@@ -10059,10 +10050,10 @@
         <v>413</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="J70" s="14" t="s">
         <v>131</v>
@@ -10077,10 +10068,10 @@
         <v>15893</v>
       </c>
       <c r="N70" s="14" t="s">
+        <v>1495</v>
+      </c>
+      <c r="O70" s="14" t="s">
         <v>1497</v>
-      </c>
-      <c r="O70" s="14" t="s">
-        <v>1499</v>
       </c>
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
@@ -10107,7 +10098,7 @@
         <v>792</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>753</v>
@@ -10116,7 +10107,7 @@
         <v>754</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L71" s="8" t="s">
         <v>14</v>
@@ -10125,10 +10116,10 @@
         <v>16377</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="R71"/>
     </row>
@@ -10147,19 +10138,19 @@
         <v>8664</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K72" s="9">
         <v>33762</v>
@@ -10171,10 +10162,10 @@
         <v>16383</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="P72" s="6"/>
       <c r="R72"/>
@@ -10200,16 +10191,16 @@
         <v>797</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="J73" s="8" t="s">
         <v>515</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="L73" s="8" t="s">
         <v>14</v>
@@ -10218,10 +10209,10 @@
         <v>15250</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="O73" s="8" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="6" customFormat="1" ht="409.5">
@@ -10248,25 +10239,25 @@
         <v>290</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="K74" s="10">
         <v>16320</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="M74" s="10">
         <v>16248</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="P74"/>
       <c r="Q74"/>
@@ -10293,7 +10284,7 @@
         <v>798</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="I75" s="8" t="s">
         <v>786</v>
@@ -10311,10 +10302,10 @@
         <v>16103</v>
       </c>
       <c r="N75" s="29" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="R75"/>
     </row>
@@ -10339,13 +10330,13 @@
         <v>208</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>209</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="K76" s="9">
         <v>16015</v>
@@ -10387,10 +10378,10 @@
         <v>818</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>562</v>
@@ -10405,10 +10396,10 @@
         <v>15585</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="R77"/>
     </row>
@@ -10430,10 +10421,10 @@
         <v>249</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="I78" s="8" t="s">
         <v>251</v>
@@ -10442,16 +10433,16 @@
         <v>252</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="M78" s="10">
         <v>15308</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="O78" s="14" t="s">
         <v>304</v>
@@ -10473,13 +10464,13 @@
         <v>11000</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="I79" s="31" t="s">
         <v>260</v>
@@ -10488,22 +10479,22 @@
         <v>261</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="L79" s="8" t="s">
+        <v>1470</v>
+      </c>
+      <c r="M79" s="7" t="s">
+        <v>1471</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>1469</v>
+      </c>
+      <c r="O79" s="8" t="s">
+        <v>1133</v>
+      </c>
+      <c r="P79" s="31" t="s">
         <v>1472</v>
-      </c>
-      <c r="M79" s="7" t="s">
-        <v>1473</v>
-      </c>
-      <c r="N79" s="8" t="s">
-        <v>1471</v>
-      </c>
-      <c r="O79" s="8" t="s">
-        <v>1135</v>
-      </c>
-      <c r="P79" s="31" t="s">
-        <v>1474</v>
       </c>
       <c r="R79"/>
     </row>
@@ -10522,22 +10513,22 @@
         <v>433</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>792</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="L80" s="8" t="s">
         <v>14</v>
@@ -10546,10 +10537,10 @@
         <v>16172</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="P80" s="6"/>
       <c r="R80"/>
@@ -10574,19 +10565,19 @@
         <v>122</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="I81" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J81" s="8" t="s">
         <v>1125</v>
       </c>
-      <c r="J81" s="8" t="s">
-        <v>1126</v>
-      </c>
       <c r="K81" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L81" s="8" t="s">
         <v>227</v>
@@ -10621,13 +10612,13 @@
         <v>439</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>438</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>764</v>
@@ -10639,16 +10630,16 @@
         <v>821</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="M82" s="17">
         <v>15760</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="83" spans="1:18" s="6" customFormat="1" ht="112.5">
@@ -10672,16 +10663,16 @@
         <v>808</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="I83" s="31" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>565</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="L83" s="8" t="s">
         <v>14</v>
@@ -10690,13 +10681,13 @@
         <v>15646</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="P83" s="31" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="Q83"/>
       <c r="R83"/>
@@ -10722,7 +10713,7 @@
         <v>819</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="I84" s="8" t="s">
         <v>765</v>
@@ -10740,13 +10731,13 @@
         <v>15676</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O84" s="8" t="s">
+        <v>1454</v>
+      </c>
+      <c r="P84" s="31" t="s">
         <v>1456</v>
-      </c>
-      <c r="P84" s="31" t="s">
-        <v>1458</v>
       </c>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
@@ -10766,13 +10757,13 @@
         <v>7299</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>441</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="I85" s="8" t="s">
         <v>767</v>
@@ -10790,13 +10781,13 @@
         <v>15312</v>
       </c>
       <c r="N85" s="8" t="s">
+        <v>1451</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>1450</v>
+      </c>
+      <c r="P85" s="1" t="s">
         <v>1453</v>
-      </c>
-      <c r="O85" s="8" t="s">
-        <v>1452</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>1455</v>
       </c>
       <c r="Q85"/>
       <c r="R85"/>
@@ -10822,10 +10813,10 @@
         <v>820</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J86" s="8" t="s">
         <v>567</v>
@@ -10843,7 +10834,7 @@
         <v>418</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="P86"/>
       <c r="Q86"/>
@@ -10870,13 +10861,13 @@
         <v>822</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J87" s="31" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="K87" s="10">
         <v>23548</v>
@@ -10888,10 +10879,10 @@
         <v>15184</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="P87"/>
       <c r="Q87"/>
@@ -10918,25 +10909,25 @@
         <v>218</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="M88" s="10">
         <v>15744</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="O88" s="14" t="s">
         <v>758</v>
@@ -10960,19 +10951,19 @@
         <v>445</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>438</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J89" s="31" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K89" s="9">
         <v>32857</v>
@@ -10984,10 +10975,10 @@
         <v>15555</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="P89" s="6"/>
       <c r="Q89"/>
@@ -11017,25 +11008,25 @@
         <v>419</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="K90" s="10">
         <v>15386</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="M90" s="10">
         <v>15385</v>
       </c>
       <c r="N90" s="8" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="P90"/>
       <c r="Q90" s="6"/>
@@ -11056,37 +11047,37 @@
         <v>7947</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>441</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K91" s="17">
         <v>36657</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="M91" s="36">
         <v>16497</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Q91"/>
       <c r="R91"/>
@@ -11112,10 +11103,10 @@
         <v>413</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="J92" s="8" t="s">
         <v>580</v>
@@ -11130,13 +11121,13 @@
         <v>15792</v>
       </c>
       <c r="N92" s="29" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="P92" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="Q92"/>
       <c r="R92"/>
@@ -11156,13 +11147,13 @@
         <v>7077</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>441</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="I93" s="8" t="s">
         <v>771</v>
@@ -11180,13 +11171,13 @@
         <v>15941</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="P93" s="31" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="Q93"/>
       <c r="R93"/>
@@ -11212,7 +11203,7 @@
         <v>167</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I94" s="8" t="s">
         <v>769</v>
@@ -11230,10 +11221,10 @@
         <v>15155</v>
       </c>
       <c r="N94" s="8" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="P94"/>
       <c r="Q94"/>
@@ -11257,16 +11248,16 @@
         <v>773</v>
       </c>
       <c r="G95" s="8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H95" s="8" t="s">
         <v>1353</v>
       </c>
-      <c r="H95" s="8" t="s">
-        <v>1355</v>
-      </c>
       <c r="I95" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="K95" s="17">
         <v>37901</v>
@@ -11278,10 +11269,10 @@
         <v>16357</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="P95" s="6"/>
       <c r="Q95"/>
@@ -11356,7 +11347,7 @@
         <v>117</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="J97" s="38" t="s">
         <v>118</v>
@@ -11365,7 +11356,7 @@
         <v>14912</v>
       </c>
       <c r="L97" s="38" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="M97" s="37"/>
       <c r="N97" s="38"/>
@@ -11373,7 +11364,7 @@
         <v>277</v>
       </c>
       <c r="P97" s="49" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="Q97" s="40"/>
       <c r="R97" s="40"/>
@@ -11399,13 +11390,13 @@
         <v>413</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K98" s="9">
         <v>28141</v>
@@ -11417,10 +11408,10 @@
         <v>15976</v>
       </c>
       <c r="N98" s="29" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="P98" s="6"/>
       <c r="Q98"/>
@@ -11447,10 +11438,10 @@
         <v>806</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="J99" s="8" t="s">
         <v>824</v>
@@ -11465,10 +11456,10 @@
         <v>16163</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="P99"/>
       <c r="Q99"/>
@@ -11495,13 +11486,13 @@
         <v>438</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K100" s="14" t="s">
         <v>836</v>
@@ -11513,10 +11504,10 @@
         <v>16562</v>
       </c>
       <c r="N100" s="8" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="P100" s="6"/>
       <c r="Q100"/>
@@ -11546,10 +11537,10 @@
         <v>158</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="K101" s="10">
         <v>18168</v>
@@ -11588,7 +11579,7 @@
         <v>825</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="I102" s="8" t="s">
         <v>789</v>
@@ -11606,10 +11597,10 @@
         <v>15158</v>
       </c>
       <c r="N102" s="8" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="P102"/>
       <c r="Q102"/>
@@ -11630,34 +11621,34 @@
         <v>465</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K103" s="10">
         <v>24562</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="M103" s="10">
         <v>16512</v>
       </c>
       <c r="N103" s="8" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="P103"/>
       <c r="Q103"/>
@@ -11684,13 +11675,13 @@
         <v>413</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K104" s="10">
         <v>37029</v>
@@ -11702,7 +11693,7 @@
         <v>15436</v>
       </c>
       <c r="N104" s="8" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="O104" s="14" t="s">
         <v>293</v>
@@ -11735,10 +11726,10 @@
         <v>755</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="K105" s="9">
         <v>23340</v>
@@ -11750,10 +11741,10 @@
         <v>16467</v>
       </c>
       <c r="N105" s="152" t="s">
-        <v>1722</v>
+        <v>1717</v>
       </c>
       <c r="O105" s="14" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
@@ -11780,13 +11771,13 @@
         <v>441</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K106" s="9">
         <v>30104</v>
@@ -11801,10 +11792,10 @@
         <v>227</v>
       </c>
       <c r="O106" s="8" t="s">
+        <v>1378</v>
+      </c>
+      <c r="P106" s="31" t="s">
         <v>1380</v>
-      </c>
-      <c r="P106" s="31" t="s">
-        <v>1382</v>
       </c>
       <c r="Q106"/>
       <c r="R106"/>
@@ -11824,34 +11815,34 @@
         <v>7484</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K107" s="9">
         <v>37416</v>
       </c>
       <c r="L107" s="14" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="M107" s="9">
         <v>15579</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="P107" s="6"/>
       <c r="Q107"/>
@@ -11878,10 +11869,10 @@
         <v>805</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="J108" s="8" t="s">
         <v>809</v>
@@ -11896,10 +11887,10 @@
         <v>15554</v>
       </c>
       <c r="N108" s="29" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O108" s="8" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="P108"/>
       <c r="Q108"/>
@@ -11938,13 +11929,13 @@
         <v>15764</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="M109" s="10">
         <v>15764</v>
       </c>
       <c r="N109" s="8" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="O109" s="14" t="s">
         <v>291</v>
@@ -11968,19 +11959,19 @@
         <v>7085</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G110" s="8" t="s">
         <v>441</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K110" s="17">
         <v>29124</v>
@@ -11992,10 +11983,10 @@
         <v>16489</v>
       </c>
       <c r="N110" s="8" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="P110" s="6"/>
       <c r="Q110"/>
@@ -12016,22 +12007,22 @@
         <v>8399</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>441</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J111" s="8" t="s">
         <v>827</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="L111" s="8" t="s">
         <v>14</v>
@@ -12043,10 +12034,10 @@
         <v>186</v>
       </c>
       <c r="O111" s="8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="P111" s="31" t="s">
         <v>1393</v>
-      </c>
-      <c r="P111" s="31" t="s">
-        <v>1395</v>
       </c>
       <c r="Q111"/>
       <c r="R111"/>
@@ -12066,16 +12057,16 @@
         <v>8429</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>441</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J112" s="28" t="s">
         <v>811</v>
@@ -12090,13 +12081,13 @@
         <v>16187</v>
       </c>
       <c r="N112" s="8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="O112" s="8" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="P112" s="31" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
@@ -12116,16 +12107,16 @@
         <v>324</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I113" s="31" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="J113" s="8" t="s">
         <v>522</v>
@@ -12140,10 +12131,10 @@
         <v>16528</v>
       </c>
       <c r="N113" s="8" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="O113" s="8" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="P113"/>
       <c r="Q113"/>
@@ -12164,19 +12155,19 @@
         <v>7993</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G114" s="14" t="s">
         <v>832</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K114" s="10">
         <v>40889</v>
@@ -12188,10 +12179,10 @@
         <v>16553</v>
       </c>
       <c r="N114" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O114" s="8" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="P114"/>
       <c r="Q114"/>
@@ -12215,7 +12206,7 @@
         <v>181</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H115" s="8" t="s">
         <v>182</v>
@@ -12224,19 +12215,19 @@
         <v>183</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="K115" s="7">
         <v>1981</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="M115" s="10">
         <v>15332</v>
       </c>
       <c r="N115" s="8" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="O115" s="14" t="s">
         <v>645</v>
@@ -12248,7 +12239,7 @@
     <row r="116" spans="1:18" s="8" customFormat="1" ht="409.5">
       <c r="A116" s="14"/>
       <c r="B116" s="35" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>108</v>
@@ -12266,13 +12257,13 @@
         <v>413</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="K116" s="9">
         <v>33435</v>
@@ -12284,10 +12275,10 @@
         <v>15180</v>
       </c>
       <c r="N116" s="8" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="O116" s="8" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="Q116"/>
       <c r="R116"/>
@@ -12313,13 +12304,13 @@
         <v>232</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K117" s="10">
         <v>27329</v>
@@ -12337,56 +12328,56 @@
         <v>301</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="Q117"/>
       <c r="R117"/>
     </row>
     <row r="118" spans="1:18" s="8" customFormat="1" ht="206.25">
       <c r="B118" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>148</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E118" s="9">
         <v>8242</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K118" s="9">
         <v>18548</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="M118" s="36">
         <v>15646</v>
       </c>
       <c r="N118" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O118" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="P118" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="Q118"/>
       <c r="R118"/>
@@ -12394,7 +12385,7 @@
     <row r="119" spans="1:18" s="8" customFormat="1" ht="300">
       <c r="A119" s="14"/>
       <c r="B119" s="38" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C119" s="38" t="s">
         <v>101</v>
@@ -12406,37 +12397,37 @@
         <v>5988</v>
       </c>
       <c r="F119" s="38" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H119" s="38" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="I119" s="38" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J119" s="38" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="K119" s="41">
         <v>20527</v>
       </c>
       <c r="L119" s="38" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M119" s="41">
         <v>16002</v>
       </c>
       <c r="N119" s="38" t="s">
+        <v>869</v>
+      </c>
+      <c r="O119" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="P119" s="39" t="s">
         <v>870</v>
-      </c>
-      <c r="O119" s="8" t="s">
-        <v>1411</v>
-      </c>
-      <c r="P119" s="39" t="s">
-        <v>871</v>
       </c>
       <c r="Q119" s="38"/>
       <c r="R119" s="39"/>
@@ -12462,10 +12453,10 @@
         <v>801</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="I120" s="31" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="J120" s="8" t="s">
         <v>510</v>
@@ -12483,7 +12474,7 @@
         <v>416</v>
       </c>
       <c r="O120" s="8" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="P120"/>
       <c r="Q120"/>
@@ -12503,19 +12494,19 @@
         <v>8100</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G121" s="8" t="s">
         <v>208</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="K121" s="9">
         <v>37726</v>
@@ -12527,13 +12518,13 @@
         <v>15963</v>
       </c>
       <c r="N121" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="O121" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="P121" s="8" t="s">
         <v>876</v>
-      </c>
-      <c r="O121" s="8" t="s">
-        <v>875</v>
-      </c>
-      <c r="P121" s="8" t="s">
-        <v>877</v>
       </c>
       <c r="Q121"/>
       <c r="R121"/>
@@ -12559,10 +12550,10 @@
         <v>800</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J122" s="8" t="s">
         <v>833</v>
@@ -12580,7 +12571,7 @@
         <v>418</v>
       </c>
       <c r="O122" s="8" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="P122"/>
       <c r="Q122"/>
@@ -12588,10 +12579,10 @@
     </row>
     <row r="123" spans="1:18" s="8" customFormat="1" ht="187.5">
       <c r="B123" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>878</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>879</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>259</v>
@@ -12600,19 +12591,19 @@
         <v>1412</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I123" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J123" s="9" t="s">
         <v>1025</v>
-      </c>
-      <c r="J123" s="9" t="s">
-        <v>1026</v>
       </c>
       <c r="K123" s="9">
         <v>28892</v>
@@ -12627,7 +12618,7 @@
         <v>418</v>
       </c>
       <c r="O123" s="8" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="Q123"/>
       <c r="R123"/>
@@ -12635,7 +12626,7 @@
     <row r="124" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="A124" s="7"/>
       <c r="B124" s="8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>448</v>
@@ -12647,19 +12638,19 @@
         <v>7369</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K124" s="9">
         <v>36874</v>
@@ -12671,20 +12662,20 @@
         <v>16132</v>
       </c>
       <c r="N124" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="O124" s="8" t="s">
         <v>887</v>
-      </c>
-      <c r="O124" s="8" t="s">
-        <v>888</v>
       </c>
       <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
     </row>
     <row r="125" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="B125" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>889</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>890</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>363</v>
@@ -12693,34 +12684,34 @@
         <v>5350</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I125" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J125" s="8" t="s">
         <v>1017</v>
-      </c>
-      <c r="J125" s="8" t="s">
-        <v>1018</v>
       </c>
       <c r="K125" s="9">
         <v>24706</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M125" s="36">
         <v>15281</v>
       </c>
       <c r="N125" s="29" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="O125" s="8" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="Q125" s="6"/>
       <c r="R125" s="6"/>
@@ -12768,7 +12759,7 @@
     </row>
     <row r="127" spans="1:18" s="8" customFormat="1" ht="300">
       <c r="B127" s="8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>148</v>
@@ -12780,34 +12771,34 @@
         <v>1841</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G127" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I127" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J127" s="8" t="s">
         <v>1001</v>
-      </c>
-      <c r="J127" s="8" t="s">
-        <v>1002</v>
       </c>
       <c r="K127" s="9">
         <v>16479</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M127" s="9">
         <v>16479</v>
       </c>
       <c r="N127" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O127" s="8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="Q127" s="6"/>
       <c r="R127" s="6"/>
@@ -12815,10 +12806,10 @@
     <row r="128" spans="1:18" s="8" customFormat="1" ht="206.25">
       <c r="A128" s="7"/>
       <c r="B128" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="C128" s="8" t="s">
         <v>901</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>902</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>145</v>
@@ -12833,13 +12824,13 @@
         <v>413</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="K128" s="9">
         <v>40215</v>
@@ -12851,10 +12842,10 @@
         <v>16528</v>
       </c>
       <c r="N128" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O128" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="Q128" s="6"/>
       <c r="R128" s="6"/>
@@ -12879,10 +12870,10 @@
         <v>834</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="J129" s="8" t="s">
         <v>582</v>
@@ -12897,10 +12888,10 @@
         <v>15255</v>
       </c>
       <c r="N129" s="8" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="O129" s="8" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="P129"/>
       <c r="Q129" s="6"/>
@@ -12921,16 +12912,16 @@
         <v>533</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G130" s="14" t="s">
         <v>831</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>519</v>
@@ -12945,10 +12936,10 @@
         <v>15311</v>
       </c>
       <c r="N130" s="8" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="O130" s="8" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="P130"/>
       <c r="Q130"/>
@@ -12962,7 +12953,7 @@
         <v>211</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E131" s="9">
         <v>9548</v>
@@ -12996,7 +12987,7 @@
     <row r="132" spans="1:18" s="8" customFormat="1" ht="409.5">
       <c r="A132" s="7"/>
       <c r="B132" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>176</v>
@@ -13008,19 +12999,19 @@
         <v>8420</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G132" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="K132" s="9">
         <v>37403</v>
@@ -13032,10 +13023,10 @@
         <v>16498</v>
       </c>
       <c r="N132" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="O132" s="8" t="s">
         <v>908</v>
-      </c>
-      <c r="O132" s="8" t="s">
-        <v>909</v>
       </c>
       <c r="Q132" s="6"/>
       <c r="R132" s="6"/>
@@ -13060,7 +13051,7 @@
         <v>810</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="I133" s="8" t="s">
         <v>828</v>
@@ -13078,10 +13069,10 @@
         <v>15971</v>
       </c>
       <c r="N133" s="8" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="O133" s="8" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="P133"/>
       <c r="Q133" s="6"/>
@@ -13090,7 +13081,7 @@
     <row r="134" spans="1:18" s="8" customFormat="1" ht="409.5">
       <c r="A134" s="7"/>
       <c r="B134" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>108</v>
@@ -13108,13 +13099,13 @@
         <v>413</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="K134" s="9">
         <v>35427</v>
@@ -13126,17 +13117,17 @@
         <v>16275</v>
       </c>
       <c r="N134" s="8" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="O134" s="8" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q134" s="6"/>
       <c r="R134" s="6"/>
     </row>
     <row r="135" spans="1:18" s="8" customFormat="1" ht="409.5">
       <c r="B135" s="32" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C135" s="32" t="s">
         <v>108</v>
@@ -13154,13 +13145,13 @@
         <v>413</v>
       </c>
       <c r="H135" s="32" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I135" s="32" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="J135" s="45" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="K135" s="45">
         <v>35427</v>
@@ -13172,13 +13163,13 @@
         <v>16275</v>
       </c>
       <c r="N135" s="32" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="O135" s="32" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="P135" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Q135" s="38"/>
       <c r="R135" s="39"/>
@@ -13186,7 +13177,7 @@
     <row r="136" spans="1:18" s="8" customFormat="1" ht="243.75">
       <c r="A136" s="7"/>
       <c r="B136" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>436</v>
@@ -13198,39 +13189,39 @@
         <v>7345</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="K136" s="9">
         <v>33229</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M136" s="9">
         <v>15829</v>
       </c>
       <c r="N136" s="8" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O136" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="137" spans="1:18" s="8" customFormat="1" ht="150">
       <c r="B137" s="8" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>144</v>
@@ -13242,19 +13233,19 @@
         <v>1881</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G137" s="14" t="s">
         <v>792</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I137" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J137" s="8" t="s">
         <v>1019</v>
-      </c>
-      <c r="J137" s="8" t="s">
-        <v>1020</v>
       </c>
       <c r="K137" s="9">
         <v>28228</v>
@@ -13266,10 +13257,10 @@
         <v>15220</v>
       </c>
       <c r="N137" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="O137" s="8" t="s">
         <v>922</v>
-      </c>
-      <c r="O137" s="8" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="138" spans="1:18" s="8" customFormat="1" ht="237.75" customHeight="1">
@@ -13293,10 +13284,10 @@
         <v>796</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J138" s="8" t="s">
         <v>576</v>
@@ -13311,10 +13302,10 @@
         <v>16224</v>
       </c>
       <c r="N138" s="8" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="O138" s="8" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="P138"/>
     </row>
@@ -13338,7 +13329,7 @@
         <v>795</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="I139" s="8" t="s">
         <v>830</v>
@@ -13356,17 +13347,17 @@
         <v>16285</v>
       </c>
       <c r="N139" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="O139" s="8" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="P139"/>
     </row>
     <row r="140" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="A140" s="7"/>
       <c r="B140" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>176</v>
@@ -13378,19 +13369,19 @@
         <v>7363</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="K140" s="9">
         <v>33817</v>
@@ -13402,15 +13393,15 @@
         <v>15149</v>
       </c>
       <c r="N140" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="O140" s="8" t="s">
         <v>927</v>
-      </c>
-      <c r="O140" s="8" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="141" spans="1:18" s="8" customFormat="1" ht="337.5">
       <c r="B141" s="38" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C141" s="38" t="s">
         <v>108</v>
@@ -13422,19 +13413,19 @@
         <v>378</v>
       </c>
       <c r="F141" s="38" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G141" s="14" t="s">
         <v>792</v>
       </c>
       <c r="H141" s="38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I141" s="38" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J141" s="38" t="s">
         <v>1007</v>
-      </c>
-      <c r="J141" s="38" t="s">
-        <v>1008</v>
       </c>
       <c r="K141" s="41">
         <v>18817</v>
@@ -13446,13 +13437,13 @@
         <v>15894</v>
       </c>
       <c r="N141" s="47" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="O141" s="38" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="P141" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Q141" s="38"/>
       <c r="R141" s="39"/>
@@ -13460,7 +13451,7 @@
     <row r="142" spans="1:18" s="8" customFormat="1" ht="56.25">
       <c r="A142" s="7"/>
       <c r="B142" s="8" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>447</v>
@@ -13472,19 +13463,19 @@
         <v>3998</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="K142" s="9">
         <v>32969</v>
@@ -13496,10 +13487,10 @@
         <v>15599</v>
       </c>
       <c r="N142" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="O142" s="8" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="143" spans="1:18" s="8" customFormat="1" ht="243.75">
@@ -13519,7 +13510,7 @@
         <v>213</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H143" s="8" t="s">
         <v>214</v>
@@ -13528,10 +13519,10 @@
         <v>215</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="O143" s="14" t="s">
         <v>300</v>
@@ -13541,46 +13532,46 @@
     <row r="144" spans="1:18" s="8" customFormat="1" ht="318.75">
       <c r="A144" s="7"/>
       <c r="B144" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>156</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E144" s="9">
         <v>5704</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G144" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K144" s="9">
         <v>15491</v>
       </c>
       <c r="L144" s="8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M144" s="9">
         <v>15491</v>
       </c>
       <c r="N144" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="O144" s="8" t="s">
         <v>938</v>
-      </c>
-      <c r="O144" s="8" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="145" spans="1:18" s="8" customFormat="1" ht="93.75">
@@ -13600,13 +13591,13 @@
         <v>572</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="H145" s="14" t="s">
         <v>829</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="J145" s="8" t="s">
         <v>573</v>
@@ -13619,51 +13610,51 @@
     <row r="146" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="A146" s="7"/>
       <c r="B146" s="8" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E146" s="9">
         <v>8485</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G146" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I146" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J146" s="8" t="s">
         <v>1003</v>
-      </c>
-      <c r="J146" s="8" t="s">
-        <v>1004</v>
       </c>
       <c r="K146" s="9">
         <v>16547</v>
       </c>
       <c r="L146" s="8" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M146" s="9">
         <v>16547</v>
       </c>
       <c r="N146" s="29" t="s">
+        <v>944</v>
+      </c>
+      <c r="O146" s="8" t="s">
         <v>945</v>
-      </c>
-      <c r="O146" s="8" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="147" spans="1:18" s="8" customFormat="1" ht="225">
       <c r="B147" s="32" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C147" s="32" t="s">
         <v>108</v>
@@ -13675,37 +13666,37 @@
         <v>7959</v>
       </c>
       <c r="F147" s="32" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G147" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H147" s="32" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I147" s="32" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J147" s="32" t="s">
         <v>1249</v>
-      </c>
-      <c r="J147" s="32" t="s">
-        <v>1251</v>
       </c>
       <c r="K147" s="45">
         <v>30838</v>
       </c>
       <c r="L147" s="32" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="M147" s="42">
         <v>15676</v>
       </c>
       <c r="N147" s="38" t="s">
+        <v>1047</v>
+      </c>
+      <c r="O147" s="38" t="s">
         <v>1048</v>
       </c>
-      <c r="O147" s="38" t="s">
-        <v>1049</v>
-      </c>
       <c r="P147" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Q147" s="38"/>
       <c r="R147" s="39"/>
@@ -13713,31 +13704,31 @@
     <row r="148" spans="1:18" s="8" customFormat="1" ht="150">
       <c r="A148" s="7"/>
       <c r="B148" s="32" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C148" s="32" t="s">
         <v>436</v>
       </c>
       <c r="D148" s="32" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E148" s="45">
         <v>7712</v>
       </c>
       <c r="F148" s="32" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G148" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H148" s="32" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I148" s="32" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J148" s="32" t="s">
         <v>1250</v>
-      </c>
-      <c r="J148" s="32" t="s">
-        <v>1252</v>
       </c>
       <c r="K148" s="45">
         <v>40137</v>
@@ -13749,20 +13740,20 @@
         <v>15950</v>
       </c>
       <c r="N148" s="38" t="s">
+        <v>1053</v>
+      </c>
+      <c r="O148" s="38" t="s">
         <v>1054</v>
       </c>
-      <c r="O148" s="38" t="s">
-        <v>1055</v>
-      </c>
       <c r="P148" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Q148" s="38"/>
       <c r="R148" s="39"/>
     </row>
     <row r="149" spans="1:18" s="8" customFormat="1" ht="131.25">
       <c r="B149" s="32" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C149" s="32" t="s">
         <v>161</v>
@@ -13774,19 +13765,19 @@
         <v>7445</v>
       </c>
       <c r="F149" s="32" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G149" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H149" s="32" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I149" s="32" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="J149" s="32" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="K149" s="45">
         <v>34621</v>
@@ -13798,44 +13789,44 @@
         <v>16427</v>
       </c>
       <c r="N149" s="38" t="s">
+        <v>1058</v>
+      </c>
+      <c r="O149" s="38" t="s">
         <v>1059</v>
       </c>
-      <c r="O149" s="38" t="s">
+      <c r="P149" s="39" t="s">
         <v>1060</v>
-      </c>
-      <c r="P149" s="39" t="s">
-        <v>1061</v>
       </c>
       <c r="Q149" s="38"/>
       <c r="R149" s="38"/>
     </row>
     <row r="150" spans="1:18" s="8" customFormat="1" ht="318.75">
       <c r="B150" s="38" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C150" s="38" t="s">
+        <v>960</v>
+      </c>
+      <c r="D150" s="38" t="s">
         <v>961</v>
-      </c>
-      <c r="D150" s="38" t="s">
-        <v>962</v>
       </c>
       <c r="E150" s="41">
         <v>2803</v>
       </c>
       <c r="F150" s="38" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G150" s="38" t="s">
         <v>167</v>
       </c>
       <c r="H150" s="38" t="s">
+        <v>962</v>
+      </c>
+      <c r="I150" s="41" t="s">
         <v>963</v>
       </c>
-      <c r="I150" s="41" t="s">
+      <c r="J150" s="38" t="s">
         <v>964</v>
-      </c>
-      <c r="J150" s="38" t="s">
-        <v>965</v>
       </c>
       <c r="K150" s="41">
         <v>31873</v>
@@ -13847,10 +13838,10 @@
         <v>16254</v>
       </c>
       <c r="N150" s="38" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="O150" s="38" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="P150" s="38"/>
       <c r="Q150" s="38"/>
@@ -13859,7 +13850,7 @@
     <row r="151" spans="1:18" s="8" customFormat="1" ht="75">
       <c r="A151" s="7"/>
       <c r="B151" s="32" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C151" s="32" t="s">
         <v>176</v>
@@ -13871,19 +13862,19 @@
         <v>6235</v>
       </c>
       <c r="F151" s="32" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G151" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H151" s="32" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I151" s="32" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="J151" s="32" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="K151" s="45">
         <v>31996</v>
@@ -13895,23 +13886,23 @@
         <v>15988</v>
       </c>
       <c r="N151" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="O151" s="38" t="s">
         <v>1067</v>
       </c>
-      <c r="O151" s="38" t="s">
+      <c r="P151" s="39" t="s">
         <v>1068</v>
-      </c>
-      <c r="P151" s="39" t="s">
-        <v>1069</v>
       </c>
       <c r="Q151" s="38"/>
       <c r="R151" s="38"/>
     </row>
     <row r="152" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="B152" s="32" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C152" s="32" t="s">
         <v>1070</v>
-      </c>
-      <c r="C152" s="32" t="s">
-        <v>1071</v>
       </c>
       <c r="D152" s="32" t="s">
         <v>128</v>
@@ -13920,32 +13911,32 @@
         <v>822</v>
       </c>
       <c r="F152" s="32" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H152" s="32" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I152" s="32" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="J152" s="32" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="K152" s="45">
         <v>15155</v>
       </c>
       <c r="L152" s="32" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="M152" s="38"/>
       <c r="N152" s="38" t="s">
+        <v>1074</v>
+      </c>
+      <c r="O152" s="38" t="s">
         <v>1075</v>
-      </c>
-      <c r="O152" s="38" t="s">
-        <v>1076</v>
       </c>
       <c r="P152" s="38"/>
       <c r="Q152" s="38"/>
@@ -13969,16 +13960,16 @@
         <v>146</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H153" s="8" t="s">
         <v>147</v>
       </c>
       <c r="I153" s="8" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="J153" s="8" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="K153" s="10">
         <v>36848</v>
@@ -13995,7 +13986,7 @@
     </row>
     <row r="154" spans="1:18" s="8" customFormat="1" ht="75">
       <c r="B154" s="32" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C154" s="32" t="s">
         <v>148</v>
@@ -14007,37 +13998,37 @@
         <v>7409</v>
       </c>
       <c r="F154" s="32" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H154" s="32" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I154" s="32" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="J154" s="32" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="K154" s="45">
         <v>39233</v>
       </c>
       <c r="L154" s="38" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M154" s="41">
         <v>15598</v>
       </c>
       <c r="N154" s="38" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O154" s="38" t="s">
+        <v>1080</v>
+      </c>
+      <c r="P154" s="39" t="s">
         <v>1081</v>
-      </c>
-      <c r="P154" s="39" t="s">
-        <v>1082</v>
       </c>
       <c r="Q154" s="38"/>
       <c r="R154" s="38"/>
@@ -14045,7 +14036,7 @@
     <row r="155" spans="1:18" s="8" customFormat="1" ht="225">
       <c r="A155" s="7"/>
       <c r="B155" s="32" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C155" s="32" t="s">
         <v>112</v>
@@ -14057,47 +14048,47 @@
         <v>6516</v>
       </c>
       <c r="F155" s="32" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H155" s="32" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I155" s="32" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="J155" s="32" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="K155" s="45">
         <v>17053</v>
       </c>
       <c r="L155" s="38" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="M155" s="42">
         <v>16011</v>
       </c>
       <c r="N155" s="38" t="s">
+        <v>1086</v>
+      </c>
+      <c r="O155" s="38" t="s">
         <v>1087</v>
       </c>
-      <c r="O155" s="38" t="s">
-        <v>1088</v>
-      </c>
       <c r="P155" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Q155" s="38"/>
       <c r="R155" s="38"/>
     </row>
     <row r="156" spans="1:18" s="8" customFormat="1" ht="131.25">
       <c r="B156" s="32" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C156" s="32" t="s">
         <v>1089</v>
-      </c>
-      <c r="C156" s="32" t="s">
-        <v>1090</v>
       </c>
       <c r="D156" s="32" t="s">
         <v>371</v>
@@ -14106,37 +14097,37 @@
         <v>4836</v>
       </c>
       <c r="F156" s="32" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G156" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H156" s="32" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I156" s="32" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="J156" s="32" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="K156" s="45">
         <v>16420</v>
       </c>
       <c r="L156" s="32" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="M156" s="45">
         <v>16178</v>
       </c>
       <c r="N156" s="32" t="s">
+        <v>1093</v>
+      </c>
+      <c r="O156" s="32" t="s">
         <v>1094</v>
       </c>
-      <c r="O156" s="32" t="s">
-        <v>1095</v>
-      </c>
       <c r="P156" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Q156" s="38"/>
       <c r="R156" s="38"/>
@@ -14144,7 +14135,7 @@
     <row r="157" spans="1:18" s="8" customFormat="1" ht="356.25">
       <c r="A157" s="7"/>
       <c r="B157" s="32" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C157" s="32" t="s">
         <v>161</v>
@@ -14156,19 +14147,19 @@
         <v>8178</v>
       </c>
       <c r="F157" s="32" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G157" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H157" s="32" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I157" s="32" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="J157" s="45" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="K157" s="45">
         <v>34023</v>
@@ -14180,20 +14171,20 @@
         <v>16285</v>
       </c>
       <c r="N157" s="38" t="s">
+        <v>1098</v>
+      </c>
+      <c r="O157" s="38" t="s">
         <v>1099</v>
       </c>
-      <c r="O157" s="38" t="s">
+      <c r="P157" s="39" t="s">
         <v>1100</v>
-      </c>
-      <c r="P157" s="39" t="s">
-        <v>1101</v>
       </c>
       <c r="Q157" s="38"/>
       <c r="R157" s="38"/>
     </row>
     <row r="158" spans="1:18" s="8" customFormat="1" ht="243.75">
       <c r="B158" s="32" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C158" s="32" t="s">
         <v>317</v>
@@ -14205,34 +14196,34 @@
         <v>2758</v>
       </c>
       <c r="F158" s="32" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G158" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H158" s="32" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I158" s="32" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="J158" s="32" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="K158" s="45">
         <v>15161</v>
       </c>
       <c r="L158" s="32" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="M158" s="45">
         <v>15161</v>
       </c>
       <c r="N158" s="32" t="s">
+        <v>1105</v>
+      </c>
+      <c r="O158" s="32" t="s">
         <v>1106</v>
-      </c>
-      <c r="O158" s="32" t="s">
-        <v>1107</v>
       </c>
       <c r="P158" s="38"/>
       <c r="Q158" s="38"/>
@@ -14265,7 +14256,7 @@
         <v>204</v>
       </c>
       <c r="J159" s="8" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="K159" s="18" t="s">
         <v>780</v>
@@ -14281,7 +14272,7 @@
     </row>
     <row r="160" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="B160" s="32" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C160" s="32" t="s">
         <v>448</v>
@@ -14293,37 +14284,37 @@
         <v>6123</v>
       </c>
       <c r="F160" s="32" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G160" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H160" s="32" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I160" s="32" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="J160" s="32" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="K160" s="45">
         <v>38609</v>
       </c>
       <c r="L160" s="32" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="M160" s="42">
         <v>15858</v>
       </c>
       <c r="N160" s="38" t="s">
+        <v>1111</v>
+      </c>
+      <c r="O160" s="38" t="s">
         <v>1112</v>
       </c>
-      <c r="O160" s="38" t="s">
+      <c r="P160" s="38" t="s">
         <v>1113</v>
-      </c>
-      <c r="P160" s="38" t="s">
-        <v>1114</v>
       </c>
       <c r="Q160" s="38"/>
       <c r="R160" s="38"/>
@@ -14331,37 +14322,37 @@
     <row r="161" spans="1:18" s="8" customFormat="1" ht="262.5">
       <c r="A161" s="7"/>
       <c r="B161" s="32" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C161" s="32" t="s">
         <v>1115</v>
-      </c>
-      <c r="C161" s="32" t="s">
-        <v>1116</v>
       </c>
       <c r="D161" s="32" t="s">
         <v>138</v>
       </c>
       <c r="E161" s="32" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F161" s="32" t="s">
         <v>1117</v>
-      </c>
-      <c r="F161" s="32" t="s">
-        <v>1118</v>
       </c>
       <c r="G161" s="14" t="s">
         <v>792</v>
       </c>
       <c r="H161" s="32" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I161" s="32" t="s">
         <v>1130</v>
       </c>
-      <c r="I161" s="32" t="s">
+      <c r="J161" s="32" t="s">
         <v>1131</v>
-      </c>
-      <c r="J161" s="32" t="s">
-        <v>1132</v>
       </c>
       <c r="K161" s="45">
         <v>25658</v>
       </c>
       <c r="L161" s="32" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="M161" s="42">
         <v>15462</v>
@@ -14370,7 +14361,7 @@
         <v>227</v>
       </c>
       <c r="O161" s="38" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="P161" s="38"/>
       <c r="Q161" s="38"/>
@@ -14378,31 +14369,31 @@
     </row>
     <row r="162" spans="1:18" s="8" customFormat="1" ht="168.75">
       <c r="B162" s="8" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>176</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E162" s="9">
         <v>442</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="J162" s="9" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="K162" s="9">
         <v>32760</v>
@@ -14414,13 +14405,13 @@
         <v>15423</v>
       </c>
       <c r="N162" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O162" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="P162" s="31" t="s">
         <v>1143</v>
-      </c>
-      <c r="O162" s="8" t="s">
-        <v>1144</v>
-      </c>
-      <c r="P162" s="31" t="s">
-        <v>1145</v>
       </c>
       <c r="Q162"/>
       <c r="R162"/>
@@ -14428,7 +14419,7 @@
     <row r="163" spans="1:18" s="8" customFormat="1" ht="225">
       <c r="A163" s="7"/>
       <c r="B163" s="8" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>447</v>
@@ -14440,19 +14431,19 @@
         <v>4367</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="G163" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="K163" s="9">
         <v>34165</v>
@@ -14464,13 +14455,13 @@
         <v>15228</v>
       </c>
       <c r="N163" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O163" s="8" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="P163" s="31" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="Q163"/>
       <c r="R163"/>
@@ -14495,7 +14486,7 @@
         <v>794</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="I164" s="8" t="s">
         <v>779</v>
@@ -14513,17 +14504,17 @@
         <v>16103</v>
       </c>
       <c r="N164" s="8" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="O164" s="8" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="P164"/>
     </row>
     <row r="165" spans="1:18" s="8" customFormat="1" ht="168.75">
       <c r="A165" s="7"/>
       <c r="B165" s="8" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>148</v>
@@ -14535,19 +14526,19 @@
         <v>1625</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G165" s="14" t="s">
         <v>792</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="K165" s="9">
         <v>33596</v>
@@ -14559,17 +14550,17 @@
         <v>15208</v>
       </c>
       <c r="N165" s="8" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="O165" s="8" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="Q165"/>
       <c r="R165"/>
     </row>
     <row r="166" spans="1:18" s="8" customFormat="1" ht="206.25">
       <c r="B166" s="8" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>112</v>
@@ -14581,19 +14572,19 @@
         <v>4286</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G166" s="8" t="s">
         <v>167</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="J166" s="9" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="K166" s="9">
         <v>32099</v>
@@ -14605,10 +14596,10 @@
         <v>16274</v>
       </c>
       <c r="N166" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="O166" s="8" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="Q166"/>
       <c r="R166"/>
@@ -14616,7 +14607,7 @@
     <row r="167" spans="1:18" s="8" customFormat="1" ht="168.75">
       <c r="A167" s="7"/>
       <c r="B167" s="8" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>340</v>
@@ -14628,19 +14619,19 @@
         <v>5844</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="G167" s="8" t="s">
         <v>167</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="J167" s="9" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="K167" s="9">
         <v>16544</v>
@@ -14652,13 +14643,13 @@
         <v>16544</v>
       </c>
       <c r="N167" s="8" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O167" s="8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="P167" s="31" t="s">
         <v>1162</v>
-      </c>
-      <c r="O167" s="8" t="s">
-        <v>1163</v>
-      </c>
-      <c r="P167" s="31" t="s">
-        <v>1164</v>
       </c>
       <c r="Q167"/>
       <c r="R167"/>
@@ -14689,10 +14680,10 @@
         <v>192</v>
       </c>
       <c r="J168" s="8" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="O168" s="14" t="s">
         <v>295</v>
@@ -14702,10 +14693,10 @@
     <row r="169" spans="1:18" s="8" customFormat="1" ht="112.5">
       <c r="A169" s="7"/>
       <c r="B169" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>338</v>
@@ -14714,19 +14705,19 @@
         <v>3825</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="G169" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="K169" s="9">
         <v>19559</v>
@@ -14738,10 +14729,10 @@
         <v>16254</v>
       </c>
       <c r="N169" s="8" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O169" s="8" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="Q169"/>
       <c r="R169"/>
@@ -14763,10 +14754,10 @@
         <v>568</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H170" s="14" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="I170" s="8" t="s">
         <v>778</v>
@@ -14784,17 +14775,17 @@
         <v>16438</v>
       </c>
       <c r="N170" s="8" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="O170" s="8" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="P170"/>
     </row>
     <row r="171" spans="1:18" s="8" customFormat="1" ht="75">
       <c r="A171" s="7"/>
       <c r="B171" s="8" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>161</v>
@@ -14806,19 +14797,19 @@
         <v>2308</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="G171" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="J171" s="8" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="K171" s="9">
         <v>27226</v>
@@ -14830,20 +14821,20 @@
         <v>16142</v>
       </c>
       <c r="N171" s="8" t="s">
+        <v>1171</v>
+      </c>
+      <c r="O171" s="8" t="s">
+        <v>1172</v>
+      </c>
+      <c r="P171" s="31" t="s">
         <v>1173</v>
-      </c>
-      <c r="O171" s="8" t="s">
-        <v>1174</v>
-      </c>
-      <c r="P171" s="31" t="s">
-        <v>1175</v>
       </c>
       <c r="Q171"/>
       <c r="R171"/>
     </row>
     <row r="172" spans="1:18" s="8" customFormat="1" ht="206.25">
       <c r="B172" s="8" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>148</v>
@@ -14855,34 +14846,34 @@
         <v>2724</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="G172" s="8" t="s">
         <v>792</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="K172" s="9">
         <v>16486</v>
       </c>
       <c r="L172" s="8" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="M172" s="36">
         <v>16266</v>
       </c>
       <c r="N172" s="8" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="O172" s="8" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="Q172"/>
       <c r="R172"/>
@@ -14901,19 +14892,19 @@
         <v>43</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="G173" s="8" t="s">
         <v>792</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="I173" s="8" t="s">
         <v>802</v>
       </c>
       <c r="J173" s="9" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="K173" s="9">
         <v>30028</v>
@@ -14925,10 +14916,10 @@
         <v>15596</v>
       </c>
       <c r="N173" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O173" s="8" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="Q173"/>
       <c r="R173"/>
@@ -14936,31 +14927,31 @@
     <row r="174" spans="1:18" s="8" customFormat="1" ht="356.25">
       <c r="A174" s="7"/>
       <c r="B174" s="8" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>144</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E174" s="9">
         <v>5422</v>
       </c>
       <c r="F174" s="8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H174" s="8" t="s">
         <v>1187</v>
       </c>
-      <c r="G174" s="8" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H174" s="8" t="s">
-        <v>1189</v>
-      </c>
       <c r="I174" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="J174" s="9" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="K174" s="9">
         <v>29967</v>
@@ -14972,17 +14963,17 @@
         <v>16358</v>
       </c>
       <c r="N174" s="8" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="O174" s="8" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="Q174"/>
       <c r="R174"/>
     </row>
     <row r="175" spans="1:18" s="8" customFormat="1" ht="150">
       <c r="B175" s="8" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>154</v>
@@ -14994,19 +14985,19 @@
         <v>8949</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="G175" s="8" t="s">
         <v>208</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="K175" s="9">
         <v>30093</v>
@@ -15018,13 +15009,13 @@
         <v>16036</v>
       </c>
       <c r="N175" s="8" t="s">
+        <v>1193</v>
+      </c>
+      <c r="O175" s="8" t="s">
+        <v>1194</v>
+      </c>
+      <c r="P175" s="31" t="s">
         <v>1195</v>
-      </c>
-      <c r="O175" s="8" t="s">
-        <v>1196</v>
-      </c>
-      <c r="P175" s="31" t="s">
-        <v>1197</v>
       </c>
       <c r="Q175"/>
       <c r="R175"/>
@@ -15053,7 +15044,7 @@
         <v>107</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="J176" s="8" t="s">
         <v>106</v>
@@ -15069,7 +15060,7 @@
     </row>
     <row r="177" spans="1:18" s="8" customFormat="1" ht="112.5">
       <c r="B177" s="8" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>448</v>
@@ -15081,19 +15072,19 @@
         <v>4632</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="G177" s="8" t="s">
         <v>172</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="J177" s="8" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="K177" s="9">
         <v>20701</v>
@@ -15105,20 +15096,20 @@
         <v>16011</v>
       </c>
       <c r="N177" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="O177" s="8" t="s">
+        <v>1200</v>
+      </c>
+      <c r="P177" s="31" t="s">
         <v>1201</v>
-      </c>
-      <c r="O177" s="8" t="s">
-        <v>1202</v>
-      </c>
-      <c r="P177" s="31" t="s">
-        <v>1203</v>
       </c>
       <c r="Q177"/>
       <c r="R177"/>
     </row>
     <row r="178" spans="1:18" s="8" customFormat="1" ht="56.25">
       <c r="B178" s="8" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>317</v>
@@ -15130,19 +15121,19 @@
         <v>748</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="G178" s="8" t="s">
         <v>167</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="J178" s="8" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K178" s="9">
         <v>23118</v>
@@ -15157,14 +15148,14 @@
         <v>777</v>
       </c>
       <c r="O178" s="8" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="Q178"/>
       <c r="R178"/>
     </row>
     <row r="179" spans="1:18" s="8" customFormat="1" ht="131.25">
       <c r="B179" s="8" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>148</v>
@@ -15176,19 +15167,19 @@
         <v>4390</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="G179" s="8" t="s">
         <v>167</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="J179" s="8" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="K179" s="9">
         <v>28094</v>
@@ -15200,17 +15191,17 @@
         <v>15220</v>
       </c>
       <c r="N179" s="8" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="O179" s="8" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="Q179"/>
       <c r="R179"/>
     </row>
-    <row r="180" spans="1:18" s="8" customFormat="1" ht="93.75">
+    <row r="180" spans="1:18" s="8" customFormat="1" ht="75">
       <c r="B180" s="8" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>176</v>
@@ -15222,34 +15213,34 @@
         <v>7719</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="G180" s="8" t="s">
         <v>172</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I180" s="8" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="J180" s="93" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="K180" s="9">
         <v>36894</v>
       </c>
       <c r="L180" s="8" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="M180" s="36">
         <v>15919</v>
       </c>
       <c r="N180" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O180" s="8" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="P180"/>
       <c r="Q180"/>
@@ -15257,46 +15248,46 @@
     </row>
     <row r="181" spans="1:18" s="8" customFormat="1" ht="93.75">
       <c r="B181" s="8" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="E181" s="9">
         <v>3130</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="G181" s="8" t="s">
         <v>172</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="I181" s="31" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="J181" s="50" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="K181" s="9">
         <v>31445</v>
       </c>
       <c r="L181" s="8" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="M181" s="36">
         <v>16547</v>
       </c>
       <c r="N181" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O181" s="8" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="P181"/>
       <c r="Q181"/>
@@ -15305,46 +15296,46 @@
     <row r="182" spans="1:18" s="8" customFormat="1" ht="75">
       <c r="A182" s="140"/>
       <c r="B182" s="142" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="C182" s="142" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="D182" s="142" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="E182" s="137">
         <v>6797</v>
       </c>
       <c r="F182" s="142" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="G182" s="142" t="s">
         <v>172</v>
       </c>
       <c r="H182" s="142" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="I182" s="93" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="J182" s="142" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="K182" s="2">
         <v>36918</v>
       </c>
       <c r="L182" s="142" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="M182" s="140" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="N182" s="142" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
       <c r="O182" s="142" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="P182" s="140"/>
       <c r="Q182" s="140"/>
@@ -15353,7 +15344,7 @@
     <row r="183" spans="1:18" s="8" customFormat="1" ht="56.25">
       <c r="A183" s="140"/>
       <c r="B183" s="142" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="C183" s="142" t="s">
         <v>144</v>
@@ -15365,32 +15356,32 @@
         <v>1338</v>
       </c>
       <c r="F183" s="142" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="G183" s="142" t="s">
         <v>172</v>
       </c>
       <c r="H183" s="142" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="I183" s="93" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="J183" s="140"/>
       <c r="K183" s="137">
         <v>30994</v>
       </c>
       <c r="L183" s="142" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M183" s="157">
+        <v>1518</v>
+      </c>
+      <c r="M183" s="153">
         <v>1943</v>
       </c>
       <c r="N183" s="142" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O183" s="142" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="P183" s="140"/>
       <c r="Q183" s="140"/>
@@ -15399,10 +15390,10 @@
     <row r="184" spans="1:18" s="8" customFormat="1" ht="75">
       <c r="A184" s="140"/>
       <c r="B184" s="142" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="C184" s="142" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="D184" s="142" t="s">
         <v>113</v>
@@ -15411,28 +15402,28 @@
         <v>5529</v>
       </c>
       <c r="F184" s="142" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="G184" s="142" t="s">
         <v>172</v>
       </c>
       <c r="H184" s="140"/>
       <c r="I184" s="93" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>1744</v>
+        <v>1739</v>
       </c>
       <c r="K184" s="137">
         <v>34195</v>
       </c>
       <c r="L184" s="142" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="M184" s="140"/>
       <c r="N184" s="140"/>
       <c r="O184" s="142" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
       <c r="P184" s="140"/>
       <c r="Q184" s="140"/>
@@ -16972,191 +16963,191 @@
       </c>
     </row>
     <row r="34" spans="1:34" ht="39.75" customHeight="1">
-      <c r="A34" s="153" t="s">
+      <c r="A34" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="153"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="153"/>
-      <c r="N34" s="153"/>
-      <c r="O34" s="153"/>
-      <c r="P34" s="153"/>
-      <c r="Q34" s="153"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="154"/>
+      <c r="N34" s="154"/>
+      <c r="O34" s="154"/>
+      <c r="P34" s="154"/>
+      <c r="Q34" s="154"/>
     </row>
     <row r="36" spans="1:34">
-      <c r="A36" s="153" t="s">
+      <c r="A36" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="153"/>
-      <c r="C36" s="153"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="154"/>
+      <c r="P36" s="154"/>
+      <c r="Q36" s="154"/>
     </row>
     <row r="37" spans="1:34">
-      <c r="A37" s="153"/>
-      <c r="B37" s="153"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="153"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="153"/>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="153"/>
+      <c r="A37" s="154"/>
+      <c r="B37" s="154"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
+      <c r="N37" s="154"/>
+      <c r="O37" s="154"/>
+      <c r="P37" s="154"/>
+      <c r="Q37" s="154"/>
     </row>
     <row r="38" spans="1:34" ht="183" customHeight="1">
-      <c r="A38" s="154" t="s">
+      <c r="A38" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="154"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="154"/>
-      <c r="K38" s="154"/>
-      <c r="L38" s="154"/>
-      <c r="M38" s="154"/>
-      <c r="N38" s="154"/>
-      <c r="O38" s="154"/>
-      <c r="P38" s="154"/>
-      <c r="Q38" s="154"/>
-      <c r="U38" s="155" t="s">
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="155"/>
+      <c r="P38" s="155"/>
+      <c r="Q38" s="155"/>
+      <c r="U38" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="V38" s="156"/>
-      <c r="W38" s="156"/>
-      <c r="X38" s="156"/>
-      <c r="Y38" s="156"/>
-      <c r="Z38" s="156"/>
-      <c r="AA38" s="156"/>
-      <c r="AB38" s="156"/>
-      <c r="AC38" s="156"/>
-      <c r="AD38" s="156"/>
-      <c r="AE38" s="156"/>
-      <c r="AF38" s="156"/>
-      <c r="AG38" s="156"/>
-      <c r="AH38" s="156"/>
+      <c r="V38" s="157"/>
+      <c r="W38" s="157"/>
+      <c r="X38" s="157"/>
+      <c r="Y38" s="157"/>
+      <c r="Z38" s="157"/>
+      <c r="AA38" s="157"/>
+      <c r="AB38" s="157"/>
+      <c r="AC38" s="157"/>
+      <c r="AD38" s="157"/>
+      <c r="AE38" s="157"/>
+      <c r="AF38" s="157"/>
+      <c r="AG38" s="157"/>
+      <c r="AH38" s="157"/>
     </row>
     <row r="39" spans="1:34" ht="66.75" customHeight="1">
-      <c r="A39" s="154" t="s">
+      <c r="A39" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="154"/>
-      <c r="C39" s="154"/>
-      <c r="D39" s="154"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="154"/>
-      <c r="J39" s="154"/>
-      <c r="K39" s="154"/>
-      <c r="L39" s="154"/>
-      <c r="M39" s="154"/>
-      <c r="N39" s="154"/>
-      <c r="O39" s="154"/>
-      <c r="P39" s="154"/>
-      <c r="Q39" s="154"/>
-      <c r="U39" s="156"/>
-      <c r="V39" s="156"/>
-      <c r="W39" s="156"/>
-      <c r="X39" s="156"/>
-      <c r="Y39" s="156"/>
-      <c r="Z39" s="156"/>
-      <c r="AA39" s="156"/>
-      <c r="AB39" s="156"/>
-      <c r="AC39" s="156"/>
-      <c r="AD39" s="156"/>
-      <c r="AE39" s="156"/>
-      <c r="AF39" s="156"/>
-      <c r="AG39" s="156"/>
-      <c r="AH39" s="156"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="155"/>
+      <c r="N39" s="155"/>
+      <c r="O39" s="155"/>
+      <c r="P39" s="155"/>
+      <c r="Q39" s="155"/>
+      <c r="U39" s="157"/>
+      <c r="V39" s="157"/>
+      <c r="W39" s="157"/>
+      <c r="X39" s="157"/>
+      <c r="Y39" s="157"/>
+      <c r="Z39" s="157"/>
+      <c r="AA39" s="157"/>
+      <c r="AB39" s="157"/>
+      <c r="AC39" s="157"/>
+      <c r="AD39" s="157"/>
+      <c r="AE39" s="157"/>
+      <c r="AF39" s="157"/>
+      <c r="AG39" s="157"/>
+      <c r="AH39" s="157"/>
     </row>
     <row r="40" spans="1:34" ht="30.75" customHeight="1">
-      <c r="A40" s="154" t="s">
+      <c r="A40" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="154"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="154"/>
-      <c r="K40" s="154"/>
-      <c r="L40" s="154"/>
-      <c r="M40" s="154"/>
-      <c r="N40" s="154"/>
-      <c r="O40" s="154"/>
-      <c r="P40" s="154"/>
-      <c r="Q40" s="154"/>
-      <c r="U40" s="156"/>
-      <c r="V40" s="156"/>
-      <c r="W40" s="156"/>
-      <c r="X40" s="156"/>
-      <c r="Y40" s="156"/>
-      <c r="Z40" s="156"/>
-      <c r="AA40" s="156"/>
-      <c r="AB40" s="156"/>
-      <c r="AC40" s="156"/>
-      <c r="AD40" s="156"/>
-      <c r="AE40" s="156"/>
-      <c r="AF40" s="156"/>
-      <c r="AG40" s="156"/>
-      <c r="AH40" s="156"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="155"/>
+      <c r="M40" s="155"/>
+      <c r="N40" s="155"/>
+      <c r="O40" s="155"/>
+      <c r="P40" s="155"/>
+      <c r="Q40" s="155"/>
+      <c r="U40" s="157"/>
+      <c r="V40" s="157"/>
+      <c r="W40" s="157"/>
+      <c r="X40" s="157"/>
+      <c r="Y40" s="157"/>
+      <c r="Z40" s="157"/>
+      <c r="AA40" s="157"/>
+      <c r="AB40" s="157"/>
+      <c r="AC40" s="157"/>
+      <c r="AD40" s="157"/>
+      <c r="AE40" s="157"/>
+      <c r="AF40" s="157"/>
+      <c r="AG40" s="157"/>
+      <c r="AH40" s="157"/>
     </row>
     <row r="41" spans="1:34">
-      <c r="A41" s="153"/>
-      <c r="B41" s="153"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="153"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="153"/>
-      <c r="N41" s="153"/>
-      <c r="O41" s="153"/>
-      <c r="P41" s="153"/>
-      <c r="Q41" s="153"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="154"/>
+      <c r="C41" s="154"/>
+      <c r="D41" s="154"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
+      <c r="K41" s="154"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="154"/>
+      <c r="N41" s="154"/>
+      <c r="O41" s="154"/>
+      <c r="P41" s="154"/>
+      <c r="Q41" s="154"/>
     </row>
     <row r="44" spans="1:34">
       <c r="A44" s="1"/>
@@ -17319,14 +17310,14 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="204.75" customHeight="1">
-      <c r="A14" s="155" t="s">
+      <c r="A14" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="155"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
       <c r="G14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>

--- a/public/data/persons.xlsx
+++ b/public/data/persons.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -15,14 +15,14 @@
     <sheet name="10" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Герои!$A$1:$R$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Герои!$A$1:$R$180</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="1743">
   <si>
     <t>Источник</t>
   </si>
@@ -5378,8 +5378,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6046,7 +6046,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6066,7 +6066,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6101,7 +6101,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6121,7 +6121,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6161,7 +6161,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6181,7 +6181,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6216,7 +6216,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6236,7 +6236,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6276,7 +6276,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6296,7 +6296,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6331,7 +6331,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6351,7 +6351,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6408,7 +6408,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6440,9 +6440,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6474,6 +6475,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6649,18 +6651,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:R521"/>
+  <dimension ref="A1:R520"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E135" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F66" sqref="C66:F66"/>
+      <selection pane="bottomRight" activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="6" customWidth="1"/>
@@ -6682,7 +6684,7 @@
     <col min="18" max="18" width="29.7109375" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="37.5">
+    <row r="1" spans="1:18" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>271</v>
       </c>
@@ -6738,7 +6740,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="128" customFormat="1" ht="150">
+    <row r="2" spans="1:18" s="128" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A2" s="147"/>
       <c r="B2" s="67" t="s">
         <v>309</v>
@@ -6787,7 +6789,7 @@
       </c>
       <c r="R2" s="93"/>
     </row>
-    <row r="3" spans="1:18" s="128" customFormat="1" ht="75">
+    <row r="3" spans="1:18" s="128" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A3" s="150"/>
       <c r="B3" s="67" t="s">
         <v>312</v>
@@ -6836,7 +6838,7 @@
       </c>
       <c r="R3" s="94"/>
     </row>
-    <row r="4" spans="1:18" s="140" customFormat="1" ht="131.25">
+    <row r="4" spans="1:18" s="140" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A4" s="147"/>
       <c r="B4" s="67" t="s">
         <v>313</v>
@@ -6882,7 +6884,7 @@
       <c r="Q4" s="128"/>
       <c r="R4" s="93"/>
     </row>
-    <row r="5" spans="1:18" s="128" customFormat="1" ht="75">
+    <row r="5" spans="1:18" s="128" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A5" s="150"/>
       <c r="B5" s="67" t="s">
         <v>315</v>
@@ -6932,7 +6934,7 @@
       <c r="Q5" s="140"/>
       <c r="R5" s="94"/>
     </row>
-    <row r="6" spans="1:18" s="140" customFormat="1" ht="150">
+    <row r="6" spans="1:18" s="140" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="A6" s="150"/>
       <c r="B6" s="67" t="s">
         <v>316</v>
@@ -6978,7 +6980,7 @@
       </c>
       <c r="R6" s="94"/>
     </row>
-    <row r="7" spans="1:18" s="140" customFormat="1" ht="281.25">
+    <row r="7" spans="1:18" s="140" customFormat="1" ht="281.25" x14ac:dyDescent="0.3">
       <c r="A7" s="150"/>
       <c r="B7" s="67" t="s">
         <v>319</v>
@@ -7027,7 +7029,7 @@
       </c>
       <c r="R7" s="94"/>
     </row>
-    <row r="8" spans="1:18" s="140" customFormat="1" ht="356.25">
+    <row r="8" spans="1:18" s="140" customFormat="1" ht="356.25" x14ac:dyDescent="0.3">
       <c r="A8" s="147"/>
       <c r="B8" s="67" t="s">
         <v>321</v>
@@ -7076,7 +7078,7 @@
       </c>
       <c r="R8" s="93"/>
     </row>
-    <row r="9" spans="1:18" s="140" customFormat="1" ht="318.75">
+    <row r="9" spans="1:18" s="140" customFormat="1" ht="318.75" x14ac:dyDescent="0.3">
       <c r="A9" s="147"/>
       <c r="B9" s="67" t="s">
         <v>324</v>
@@ -7125,7 +7127,7 @@
       </c>
       <c r="R9" s="93"/>
     </row>
-    <row r="10" spans="1:18" s="140" customFormat="1" ht="168.75">
+    <row r="10" spans="1:18" s="140" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A10" s="150"/>
       <c r="B10" s="67" t="s">
         <v>326</v>
@@ -7174,7 +7176,7 @@
       </c>
       <c r="R10" s="94"/>
     </row>
-    <row r="11" spans="1:18" s="128" customFormat="1" ht="112.5">
+    <row r="11" spans="1:18" s="128" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A11" s="150"/>
       <c r="B11" s="67" t="s">
         <v>328</v>
@@ -7222,7 +7224,7 @@
       <c r="Q11" s="140"/>
       <c r="R11" s="34"/>
     </row>
-    <row r="12" spans="1:18" s="140" customFormat="1" ht="131.25">
+    <row r="12" spans="1:18" s="140" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A12" s="150"/>
       <c r="B12" s="67" t="s">
         <v>331</v>
@@ -7273,7 +7275,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="140" customFormat="1" ht="150">
+    <row r="13" spans="1:18" s="140" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="A13" s="150"/>
       <c r="B13" s="67" t="s">
         <v>335</v>
@@ -7322,7 +7324,7 @@
       </c>
       <c r="R13" s="94"/>
     </row>
-    <row r="14" spans="1:18" s="128" customFormat="1" ht="93.75">
+    <row r="14" spans="1:18" s="128" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A14" s="150"/>
       <c r="B14" s="133" t="s">
         <v>484</v>
@@ -7372,7 +7374,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="140" customFormat="1" ht="112.5">
+    <row r="15" spans="1:18" s="140" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A15" s="147"/>
       <c r="B15" s="131" t="s">
         <v>337</v>
@@ -7422,7 +7424,7 @@
       <c r="Q15" s="128"/>
       <c r="R15" s="93"/>
     </row>
-    <row r="16" spans="1:18" s="128" customFormat="1" ht="112.5">
+    <row r="16" spans="1:18" s="128" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A16" s="150"/>
       <c r="B16" s="67" t="s">
         <v>486</v>
@@ -7474,7 +7476,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="140" customFormat="1" ht="206.25">
+    <row r="17" spans="1:18" s="140" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A17" s="147"/>
       <c r="B17" s="133" t="s">
         <v>243</v>
@@ -7523,7 +7525,7 @@
       </c>
       <c r="R17" s="94"/>
     </row>
-    <row r="18" spans="1:18" s="140" customFormat="1" ht="206.25">
+    <row r="18" spans="1:18" s="140" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A18" s="147"/>
       <c r="B18" s="67" t="s">
         <v>339</v>
@@ -7572,7 +7574,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="140" customFormat="1" ht="93.75">
+    <row r="19" spans="1:18" s="140" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A19" s="150"/>
       <c r="B19" s="131" t="s">
         <v>478</v>
@@ -7621,7 +7623,7 @@
       </c>
       <c r="R19" s="34"/>
     </row>
-    <row r="20" spans="1:18" s="128" customFormat="1" ht="112.5">
+    <row r="20" spans="1:18" s="128" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A20" s="147"/>
       <c r="B20" s="67" t="s">
         <v>341</v>
@@ -7670,7 +7672,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="112.5">
+    <row r="21" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A21" s="150"/>
       <c r="B21" s="14" t="s">
         <v>343</v>
@@ -7716,7 +7718,7 @@
       </c>
       <c r="R21" s="33"/>
     </row>
-    <row r="22" spans="1:18" s="6" customFormat="1" ht="112.5">
+    <row r="22" spans="1:18" s="6" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A22" s="150"/>
       <c r="B22" s="73" t="s">
         <v>345</v>
@@ -7768,7 +7770,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="168.75">
+    <row r="23" spans="1:18" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A23" s="150"/>
       <c r="B23" s="14" t="s">
         <v>347</v>
@@ -7817,7 +7819,7 @@
       </c>
       <c r="R23" s="33"/>
     </row>
-    <row r="24" spans="1:18" ht="281.25">
+    <row r="24" spans="1:18" ht="281.25" x14ac:dyDescent="0.3">
       <c r="A24" s="150"/>
       <c r="B24" s="84" t="s">
         <v>237</v>
@@ -7867,7 +7869,7 @@
       <c r="Q24" s="80"/>
       <c r="R24" s="80"/>
     </row>
-    <row r="25" spans="1:18" ht="150">
+    <row r="25" spans="1:18" ht="150" x14ac:dyDescent="0.3">
       <c r="A25" s="147"/>
       <c r="B25" s="14" t="s">
         <v>351</v>
@@ -7914,7 +7916,7 @@
       <c r="P25" s="6"/>
       <c r="R25" s="31"/>
     </row>
-    <row r="26" spans="1:18" s="6" customFormat="1" ht="225">
+    <row r="26" spans="1:18" s="6" customFormat="1" ht="225" x14ac:dyDescent="0.3">
       <c r="A26" s="150"/>
       <c r="B26" s="90" t="s">
         <v>490</v>
@@ -7962,7 +7964,7 @@
       <c r="Q26" s="88"/>
       <c r="R26" s="94"/>
     </row>
-    <row r="27" spans="1:18" ht="225">
+    <row r="27" spans="1:18" ht="225" x14ac:dyDescent="0.3">
       <c r="A27" s="147" t="s">
         <v>272</v>
       </c>
@@ -8010,7 +8012,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="1:18" ht="187.5">
+    <row r="28" spans="1:18" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A28" s="150"/>
       <c r="B28" s="100" t="s">
         <v>353</v>
@@ -8060,7 +8062,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="131.25">
+    <row r="29" spans="1:18" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A29" s="150"/>
       <c r="B29" s="14" t="s">
         <v>354</v>
@@ -8109,7 +8111,7 @@
       </c>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" ht="150">
+    <row r="30" spans="1:18" ht="150" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="108" t="s">
         <v>356</v>
@@ -8157,7 +8159,7 @@
       <c r="Q30" s="106"/>
       <c r="R30" s="106"/>
     </row>
-    <row r="31" spans="1:18" ht="168.75">
+    <row r="31" spans="1:18" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A31" s="131"/>
       <c r="B31" s="14" t="s">
         <v>359</v>
@@ -8207,7 +8209,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="1:18" ht="150">
+    <row r="32" spans="1:18" ht="150" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="116" t="s">
         <v>159</v>
@@ -8255,7 +8257,7 @@
       <c r="Q32" s="112"/>
       <c r="R32" s="112"/>
     </row>
-    <row r="33" spans="1:18" ht="150">
+    <row r="33" spans="1:18" ht="150" x14ac:dyDescent="0.3">
       <c r="A33" s="131"/>
       <c r="B33" s="30" t="s">
         <v>185</v>
@@ -8305,7 +8307,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
-    <row r="34" spans="1:18" ht="150">
+    <row r="34" spans="1:18" ht="150" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="122" t="s">
         <v>362</v>
@@ -8353,7 +8355,7 @@
       <c r="Q34" s="120"/>
       <c r="R34" s="120"/>
     </row>
-    <row r="35" spans="1:18" ht="131.25">
+    <row r="35" spans="1:18" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="8" t="s">
         <v>364</v>
@@ -8402,7 +8404,7 @@
       </c>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" s="6" customFormat="1" ht="187.5">
+    <row r="36" spans="1:18" s="6" customFormat="1" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A36" s="131"/>
       <c r="B36" s="133" t="s">
         <v>219</v>
@@ -8450,7 +8452,7 @@
       <c r="Q36" s="127"/>
       <c r="R36" s="127"/>
     </row>
-    <row r="37" spans="1:18" ht="318.75">
+    <row r="37" spans="1:18" ht="318.75" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="8" t="s">
         <v>366</v>
@@ -8499,7 +8501,7 @@
       </c>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" ht="409.5">
+    <row r="38" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="136" t="s">
         <v>366</v>
@@ -8548,7 +8550,7 @@
       </c>
       <c r="Q38" s="134"/>
     </row>
-    <row r="39" spans="1:18" ht="318.75">
+    <row r="39" spans="1:18" ht="318.75" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="8" t="s">
         <v>368</v>
@@ -8594,7 +8596,7 @@
       </c>
       <c r="R39"/>
     </row>
-    <row r="40" spans="1:18" s="6" customFormat="1" ht="225">
+    <row r="40" spans="1:18" s="6" customFormat="1" ht="225" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
       <c r="B40" s="142" t="s">
         <v>493</v>
@@ -8642,7 +8644,7 @@
       <c r="Q40" s="140"/>
       <c r="R40" s="140"/>
     </row>
-    <row r="41" spans="1:18" s="6" customFormat="1" ht="262.5">
+    <row r="41" spans="1:18" s="6" customFormat="1" ht="262.5" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
       <c r="B41" s="8" t="s">
         <v>511</v>
@@ -8690,7 +8692,7 @@
       <c r="Q41"/>
       <c r="R41"/>
     </row>
-    <row r="42" spans="1:18" ht="393.75">
+    <row r="42" spans="1:18" ht="393.75" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
       <c r="B42" s="8" t="s">
         <v>370</v>
@@ -8739,7 +8741,7 @@
       </c>
       <c r="R42"/>
     </row>
-    <row r="43" spans="1:18" ht="409.5">
+    <row r="43" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
       <c r="B43" s="8" t="s">
         <v>372</v>
@@ -8788,7 +8790,7 @@
       </c>
       <c r="R43"/>
     </row>
-    <row r="44" spans="1:18" ht="243.75">
+    <row r="44" spans="1:18" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="8" t="s">
         <v>373</v>
@@ -8837,7 +8839,7 @@
       </c>
       <c r="R44"/>
     </row>
-    <row r="45" spans="1:18" ht="375">
+    <row r="45" spans="1:18" ht="375" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="30" t="s">
         <v>224</v>
@@ -8886,7 +8888,7 @@
       </c>
       <c r="R45"/>
     </row>
-    <row r="46" spans="1:18" ht="168.75">
+    <row r="46" spans="1:18" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="8" t="s">
         <v>375</v>
@@ -8934,7 +8936,7 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
     </row>
-    <row r="47" spans="1:18" ht="168.75">
+    <row r="47" spans="1:18" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="8" t="s">
         <v>512</v>
@@ -8980,7 +8982,7 @@
       </c>
       <c r="R47"/>
     </row>
-    <row r="48" spans="1:18" ht="93.75">
+    <row r="48" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A48" s="18"/>
       <c r="B48" s="8" t="s">
         <v>376</v>
@@ -9029,7 +9031,7 @@
       </c>
       <c r="R48"/>
     </row>
-    <row r="49" spans="1:18" ht="356.25">
+    <row r="49" spans="1:18" ht="356.25" x14ac:dyDescent="0.3">
       <c r="A49" s="18"/>
       <c r="B49" s="8" t="s">
         <v>378</v>
@@ -9075,7 +9077,7 @@
       </c>
       <c r="R49"/>
     </row>
-    <row r="50" spans="1:18" ht="262.5">
+    <row r="50" spans="1:18" ht="262.5" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>272</v>
       </c>
@@ -9126,7 +9128,7 @@
       </c>
       <c r="R50"/>
     </row>
-    <row r="51" spans="1:18" s="6" customFormat="1" ht="243.75">
+    <row r="51" spans="1:18" s="6" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="8" t="s">
         <v>381</v>
@@ -9174,7 +9176,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="281.25">
+    <row r="52" spans="1:18" ht="281.25" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
       <c r="B52" s="8" t="s">
         <v>383</v>
@@ -9220,7 +9222,7 @@
       </c>
       <c r="R52"/>
     </row>
-    <row r="53" spans="1:18" ht="112.5">
+    <row r="53" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="8" t="s">
         <v>386</v>
@@ -9268,7 +9270,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="54" spans="1:18" ht="75">
+    <row r="54" spans="1:18" ht="75" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>272</v>
       </c>
@@ -9318,7 +9320,7 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
     </row>
-    <row r="55" spans="1:18" ht="409.5">
+    <row r="55" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="B55" s="8" t="s">
         <v>388</v>
@@ -9367,7 +9369,7 @@
       </c>
       <c r="R55"/>
     </row>
-    <row r="56" spans="1:18" ht="337.5">
+    <row r="56" spans="1:18" ht="337.5" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="B56" s="8" t="s">
         <v>389</v>
@@ -9416,7 +9418,7 @@
       </c>
       <c r="R56"/>
     </row>
-    <row r="57" spans="1:18" ht="225">
+    <row r="57" spans="1:18" ht="225" x14ac:dyDescent="0.3">
       <c r="A57" s="18"/>
       <c r="B57" s="8" t="s">
         <v>545</v>
@@ -9465,7 +9467,7 @@
       </c>
       <c r="R57"/>
     </row>
-    <row r="58" spans="1:18" ht="409.5">
+    <row r="58" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A58" s="18"/>
       <c r="B58" s="8" t="s">
         <v>100</v>
@@ -9514,7 +9516,7 @@
       </c>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:18" ht="112.5">
+    <row r="59" spans="1:18" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A59" s="18"/>
       <c r="B59" s="8" t="s">
         <v>390</v>
@@ -9563,7 +9565,7 @@
       </c>
       <c r="R59"/>
     </row>
-    <row r="60" spans="1:18" ht="409.5">
+    <row r="60" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A60" s="18"/>
       <c r="B60" s="30" t="s">
         <v>193</v>
@@ -9609,7 +9611,7 @@
       </c>
       <c r="R60"/>
     </row>
-    <row r="61" spans="1:18" ht="262.5">
+    <row r="61" spans="1:18" ht="262.5" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="8" t="s">
         <v>391</v>
@@ -9657,7 +9659,7 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
     </row>
-    <row r="62" spans="1:18" ht="375">
+    <row r="62" spans="1:18" ht="375" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="30" t="s">
         <v>240</v>
@@ -9705,7 +9707,7 @@
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
     </row>
-    <row r="63" spans="1:18" s="6" customFormat="1" ht="150">
+    <row r="63" spans="1:18" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
         <v>272</v>
       </c>
@@ -9755,7 +9757,7 @@
       <c r="Q63"/>
       <c r="R63"/>
     </row>
-    <row r="64" spans="1:18" ht="225">
+    <row r="64" spans="1:18" ht="225" x14ac:dyDescent="0.3">
       <c r="A64" s="18"/>
       <c r="B64" s="8" t="s">
         <v>253</v>
@@ -9801,7 +9803,7 @@
       </c>
       <c r="R64"/>
     </row>
-    <row r="65" spans="1:18" ht="206.25">
+    <row r="65" spans="1:18" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="8" t="s">
         <v>392</v>
@@ -9847,7 +9849,7 @@
       </c>
       <c r="R65"/>
     </row>
-    <row r="66" spans="1:18" ht="281.25">
+    <row r="66" spans="1:18" ht="281.25" x14ac:dyDescent="0.3">
       <c r="A66" s="18"/>
       <c r="B66" s="8" t="s">
         <v>393</v>
@@ -9896,7 +9898,7 @@
       </c>
       <c r="R66"/>
     </row>
-    <row r="67" spans="1:18" ht="356.25">
+    <row r="67" spans="1:18" ht="356.25" x14ac:dyDescent="0.3">
       <c r="A67" s="18"/>
       <c r="B67" s="8" t="s">
         <v>517</v>
@@ -9942,7 +9944,7 @@
       </c>
       <c r="R67"/>
     </row>
-    <row r="68" spans="1:18" ht="93.75">
+    <row r="68" spans="1:18" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
       <c r="B68" s="8" t="s">
         <v>420</v>
@@ -9980,7 +9982,7 @@
       <c r="O68" s="8"/>
       <c r="R68"/>
     </row>
-    <row r="69" spans="1:18" ht="337.5">
+    <row r="69" spans="1:18" ht="337.5" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
       <c r="B69" s="8" t="s">
         <v>422</v>
@@ -10029,7 +10031,7 @@
       </c>
       <c r="R69"/>
     </row>
-    <row r="70" spans="1:18" ht="337.5">
+    <row r="70" spans="1:18" ht="337.5" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="8" t="s">
         <v>99</v>
@@ -10077,7 +10079,7 @@
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
     </row>
-    <row r="71" spans="1:18" ht="356.25">
+    <row r="71" spans="1:18" ht="356.25" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="8" t="s">
         <v>426</v>
@@ -10123,7 +10125,7 @@
       </c>
       <c r="R71"/>
     </row>
-    <row r="72" spans="1:18" ht="409.5">
+    <row r="72" spans="1:18" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="8" t="s">
         <v>428</v>
@@ -10170,7 +10172,7 @@
       <c r="P72" s="6"/>
       <c r="R72"/>
     </row>
-    <row r="73" spans="1:18" s="6" customFormat="1" ht="187.5">
+    <row r="73" spans="1:18" s="6" customFormat="1" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="8" t="s">
         <v>514</v>
@@ -10215,7 +10217,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="6" customFormat="1" ht="409.5">
+    <row r="74" spans="1:18" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A74" s="18"/>
       <c r="B74" s="30" t="s">
         <v>163</v>
@@ -10263,7 +10265,7 @@
       <c r="Q74"/>
       <c r="R74"/>
     </row>
-    <row r="75" spans="1:18" ht="150">
+    <row r="75" spans="1:18" ht="150" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
       <c r="B75" s="8" t="s">
         <v>477</v>
@@ -10309,7 +10311,7 @@
       </c>
       <c r="R75"/>
     </row>
-    <row r="76" spans="1:18" ht="262.5">
+    <row r="76" spans="1:18" ht="262.5" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="30" t="s">
         <v>206</v>
@@ -10357,7 +10359,7 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
     </row>
-    <row r="77" spans="1:18" ht="393.75">
+    <row r="77" spans="1:18" ht="393.75" x14ac:dyDescent="0.3">
       <c r="A77" s="18"/>
       <c r="B77" s="8" t="s">
         <v>540</v>
@@ -10403,7 +10405,7 @@
       </c>
       <c r="R77"/>
     </row>
-    <row r="78" spans="1:18" ht="168.75">
+    <row r="78" spans="1:18" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A78" s="18"/>
       <c r="B78" s="8" t="s">
         <v>246</v>
@@ -10449,7 +10451,7 @@
       </c>
       <c r="R78"/>
     </row>
-    <row r="79" spans="1:18" ht="243.75">
+    <row r="79" spans="1:18" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A79" s="18"/>
       <c r="B79" s="8" t="s">
         <v>257</v>
@@ -10498,7 +10500,7 @@
       </c>
       <c r="R79"/>
     </row>
-    <row r="80" spans="1:18" ht="356.25">
+    <row r="80" spans="1:18" ht="356.25" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="8" t="s">
         <v>430</v>
@@ -10545,7 +10547,7 @@
       <c r="P80" s="6"/>
       <c r="R80"/>
     </row>
-    <row r="81" spans="1:18" s="6" customFormat="1" ht="409.5">
+    <row r="81" spans="1:18" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
         <v>272</v>
       </c>
@@ -10597,7 +10599,7 @@
       <c r="Q81"/>
       <c r="R81"/>
     </row>
-    <row r="82" spans="1:18" s="6" customFormat="1" ht="409.5">
+    <row r="82" spans="1:18" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="8" t="s">
         <v>434</v>
@@ -10642,7 +10644,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="83" spans="1:18" s="6" customFormat="1" ht="112.5">
+    <row r="83" spans="1:18" s="6" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A83" s="18"/>
       <c r="B83" s="8" t="s">
         <v>434</v>
@@ -10692,7 +10694,7 @@
       <c r="Q83"/>
       <c r="R83"/>
     </row>
-    <row r="84" spans="1:18" ht="187.5">
+    <row r="84" spans="1:18" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A84" s="18"/>
       <c r="B84" s="8" t="s">
         <v>544</v>
@@ -10742,7 +10744,7 @@
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
     </row>
-    <row r="85" spans="1:18" s="6" customFormat="1" ht="112.5">
+    <row r="85" spans="1:18" s="6" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A85" s="18"/>
       <c r="B85" s="8" t="s">
         <v>440</v>
@@ -10792,7 +10794,7 @@
       <c r="Q85"/>
       <c r="R85"/>
     </row>
-    <row r="86" spans="1:18" s="6" customFormat="1" ht="112.5">
+    <row r="86" spans="1:18" s="6" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A86" s="18"/>
       <c r="B86" s="8" t="s">
         <v>442</v>
@@ -10840,7 +10842,7 @@
       <c r="Q86"/>
       <c r="R86"/>
     </row>
-    <row r="87" spans="1:18" s="8" customFormat="1" ht="225">
+    <row r="87" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
       <c r="A87" s="18"/>
       <c r="B87" s="8" t="s">
         <v>216</v>
@@ -10888,7 +10890,7 @@
       <c r="Q87"/>
       <c r="R87"/>
     </row>
-    <row r="88" spans="1:18" s="8" customFormat="1" ht="337.5">
+    <row r="88" spans="1:18" s="8" customFormat="1" ht="337.5" x14ac:dyDescent="0.3">
       <c r="A88" s="18"/>
       <c r="B88" s="30" t="s">
         <v>216</v>
@@ -10936,7 +10938,7 @@
       <c r="Q88"/>
       <c r="R88"/>
     </row>
-    <row r="89" spans="1:18" s="8" customFormat="1" ht="56.25">
+    <row r="89" spans="1:18" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="8" t="s">
         <v>216</v>
@@ -10984,7 +10986,7 @@
       <c r="Q89"/>
       <c r="R89"/>
     </row>
-    <row r="90" spans="1:18" s="8" customFormat="1" ht="168.75">
+    <row r="90" spans="1:18" s="8" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A90" s="18"/>
       <c r="B90" s="30" t="s">
         <v>197</v>
@@ -11032,7 +11034,7 @@
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
     </row>
-    <row r="91" spans="1:18" s="8" customFormat="1" ht="356.25">
+    <row r="91" spans="1:18" s="8" customFormat="1" ht="356.25" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="8" t="s">
         <v>446</v>
@@ -11082,7 +11084,7 @@
       <c r="Q91"/>
       <c r="R91"/>
     </row>
-    <row r="92" spans="1:18" s="8" customFormat="1" ht="300">
+    <row r="92" spans="1:18" s="8" customFormat="1" ht="300" x14ac:dyDescent="0.3">
       <c r="A92" s="18"/>
       <c r="B92" s="8" t="s">
         <v>450</v>
@@ -11132,7 +11134,7 @@
       <c r="Q92"/>
       <c r="R92"/>
     </row>
-    <row r="93" spans="1:18" s="8" customFormat="1" ht="131.25">
+    <row r="93" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A93" s="18"/>
       <c r="B93" s="8" t="s">
         <v>452</v>
@@ -11182,7 +11184,7 @@
       <c r="Q93"/>
       <c r="R93"/>
     </row>
-    <row r="94" spans="1:18" s="8" customFormat="1" ht="281.25">
+    <row r="94" spans="1:18" s="8" customFormat="1" ht="281.25" x14ac:dyDescent="0.3">
       <c r="A94" s="18"/>
       <c r="B94" s="8" t="s">
         <v>456</v>
@@ -11230,7 +11232,7 @@
       <c r="Q94"/>
       <c r="R94"/>
     </row>
-    <row r="95" spans="1:18" s="8" customFormat="1" ht="318.75">
+    <row r="95" spans="1:18" s="8" customFormat="1" ht="318.75" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
       <c r="B95" s="30" t="s">
         <v>457</v>
@@ -11278,7 +11280,7 @@
       <c r="Q95"/>
       <c r="R95"/>
     </row>
-    <row r="96" spans="1:18" s="8" customFormat="1" ht="318.75">
+    <row r="96" spans="1:18" s="8" customFormat="1" ht="318.75" x14ac:dyDescent="0.3">
       <c r="A96" s="18"/>
       <c r="B96" s="8" t="s">
         <v>233</v>
@@ -11323,7 +11325,7 @@
       <c r="Q96"/>
       <c r="R96"/>
     </row>
-    <row r="97" spans="1:18" s="8" customFormat="1" ht="112.5">
+    <row r="97" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A97" s="37"/>
       <c r="B97" s="38" t="s">
         <v>116</v>
@@ -11369,7 +11371,7 @@
       <c r="Q97" s="40"/>
       <c r="R97" s="40"/>
     </row>
-    <row r="98" spans="1:18" s="8" customFormat="1" ht="393.75">
+    <row r="98" spans="1:18" s="8" customFormat="1" ht="393.75" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="8" t="s">
         <v>459</v>
@@ -11417,7 +11419,7 @@
       <c r="Q98"/>
       <c r="R98"/>
     </row>
-    <row r="99" spans="1:18" s="8" customFormat="1" ht="243.75">
+    <row r="99" spans="1:18" s="8" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A99" s="18"/>
       <c r="B99" s="8" t="s">
         <v>541</v>
@@ -11465,7 +11467,7 @@
       <c r="Q99"/>
       <c r="R99"/>
     </row>
-    <row r="100" spans="1:18" s="8" customFormat="1" ht="131.25">
+    <row r="100" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="8" t="s">
         <v>461</v>
@@ -11513,7 +11515,7 @@
       <c r="Q100"/>
       <c r="R100"/>
     </row>
-    <row r="101" spans="1:18" s="8" customFormat="1" ht="131.25">
+    <row r="101" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A101" s="18"/>
       <c r="B101" s="30" t="s">
         <v>155</v>
@@ -11558,7 +11560,7 @@
       <c r="Q101"/>
       <c r="R101"/>
     </row>
-    <row r="102" spans="1:18" s="8" customFormat="1" ht="262.5">
+    <row r="102" spans="1:18" s="8" customFormat="1" ht="262.5" x14ac:dyDescent="0.3">
       <c r="A102" s="18"/>
       <c r="B102" s="8" t="s">
         <v>155</v>
@@ -11606,7 +11608,7 @@
       <c r="Q102"/>
       <c r="R102"/>
     </row>
-    <row r="103" spans="1:18" s="8" customFormat="1" ht="318.75">
+    <row r="103" spans="1:18" s="8" customFormat="1" ht="318.75" x14ac:dyDescent="0.3">
       <c r="A103" s="18"/>
       <c r="B103" s="8" t="s">
         <v>464</v>
@@ -11654,7 +11656,7 @@
       <c r="Q103"/>
       <c r="R103"/>
     </row>
-    <row r="104" spans="1:18" s="8" customFormat="1" ht="409.5">
+    <row r="104" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A104" s="18"/>
       <c r="B104" s="30" t="s">
         <v>160</v>
@@ -11702,7 +11704,7 @@
       <c r="Q104"/>
       <c r="R104"/>
     </row>
-    <row r="105" spans="1:18" s="8" customFormat="1" ht="337.5">
+    <row r="105" spans="1:18" s="8" customFormat="1" ht="337.5" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="30" t="s">
         <v>135</v>
@@ -11750,7 +11752,7 @@
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
     </row>
-    <row r="106" spans="1:18" s="8" customFormat="1" ht="409.5">
+    <row r="106" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="8" t="s">
         <v>467</v>
@@ -11800,7 +11802,7 @@
       <c r="Q106"/>
       <c r="R106"/>
     </row>
-    <row r="107" spans="1:18" s="8" customFormat="1" ht="281.25">
+    <row r="107" spans="1:18" s="8" customFormat="1" ht="281.25" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="8" t="s">
         <v>468</v>
@@ -11848,7 +11850,7 @@
       <c r="Q107"/>
       <c r="R107"/>
     </row>
-    <row r="108" spans="1:18" s="8" customFormat="1" ht="337.5">
+    <row r="108" spans="1:18" s="8" customFormat="1" ht="337.5" x14ac:dyDescent="0.3">
       <c r="A108" s="18"/>
       <c r="B108" s="8" t="s">
         <v>470</v>
@@ -11896,7 +11898,7 @@
       <c r="Q108"/>
       <c r="R108"/>
     </row>
-    <row r="109" spans="1:18" s="8" customFormat="1" ht="206.25">
+    <row r="109" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
       <c r="A109" s="18"/>
       <c r="B109" s="8" t="s">
         <v>168</v>
@@ -11944,7 +11946,7 @@
       <c r="Q109"/>
       <c r="R109"/>
     </row>
-    <row r="110" spans="1:18" s="8" customFormat="1" ht="262.5">
+    <row r="110" spans="1:18" s="8" customFormat="1" ht="262.5" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
       <c r="B110" s="8" t="s">
         <v>472</v>
@@ -11992,7 +11994,7 @@
       <c r="Q110"/>
       <c r="R110"/>
     </row>
-    <row r="111" spans="1:18" s="8" customFormat="1" ht="409.5">
+    <row r="111" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A111" s="18"/>
       <c r="B111" s="8" t="s">
         <v>473</v>
@@ -12042,7 +12044,7 @@
       <c r="Q111"/>
       <c r="R111"/>
     </row>
-    <row r="112" spans="1:18" s="8" customFormat="1" ht="409.5">
+    <row r="112" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
       <c r="B112" s="8" t="s">
         <v>474</v>
@@ -12092,7 +12094,7 @@
       <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
     </row>
-    <row r="113" spans="1:18" s="8" customFormat="1" ht="375">
+    <row r="113" spans="1:18" s="8" customFormat="1" ht="375" x14ac:dyDescent="0.3">
       <c r="A113" s="18"/>
       <c r="B113" s="8" t="s">
         <v>475</v>
@@ -12140,7 +12142,7 @@
       <c r="Q113"/>
       <c r="R113"/>
     </row>
-    <row r="114" spans="1:18" s="8" customFormat="1" ht="281.25">
+    <row r="114" spans="1:18" s="8" customFormat="1" ht="281.25" x14ac:dyDescent="0.3">
       <c r="A114" s="18"/>
       <c r="B114" s="8" t="s">
         <v>476</v>
@@ -12188,7 +12190,7 @@
       <c r="Q114"/>
       <c r="R114"/>
     </row>
-    <row r="115" spans="1:18" s="8" customFormat="1" ht="93.75">
+    <row r="115" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A115" s="18"/>
       <c r="B115" s="30" t="s">
         <v>179</v>
@@ -12236,7 +12238,7 @@
       <c r="Q115"/>
       <c r="R115"/>
     </row>
-    <row r="116" spans="1:18" s="8" customFormat="1" ht="409.5">
+    <row r="116" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A116" s="14"/>
       <c r="B116" s="35" t="s">
         <v>858</v>
@@ -12283,7 +12285,7 @@
       <c r="Q116"/>
       <c r="R116"/>
     </row>
-    <row r="117" spans="1:18" s="8" customFormat="1" ht="300">
+    <row r="117" spans="1:18" s="8" customFormat="1" ht="300" x14ac:dyDescent="0.3">
       <c r="A117" s="18"/>
       <c r="B117" s="30" t="s">
         <v>835</v>
@@ -12333,7 +12335,7 @@
       <c r="Q117"/>
       <c r="R117"/>
     </row>
-    <row r="118" spans="1:18" s="8" customFormat="1" ht="206.25">
+    <row r="118" spans="1:18" s="8" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>859</v>
       </c>
@@ -12382,7 +12384,7 @@
       <c r="Q118"/>
       <c r="R118"/>
     </row>
-    <row r="119" spans="1:18" s="8" customFormat="1" ht="300">
+    <row r="119" spans="1:18" s="8" customFormat="1" ht="300" x14ac:dyDescent="0.3">
       <c r="A119" s="14"/>
       <c r="B119" s="38" t="s">
         <v>866</v>
@@ -12432,7 +12434,7 @@
       <c r="Q119" s="38"/>
       <c r="R119" s="39"/>
     </row>
-    <row r="120" spans="1:18" s="8" customFormat="1" ht="225">
+    <row r="120" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
       <c r="A120" s="18"/>
       <c r="B120" s="8" t="s">
         <v>501</v>
@@ -12480,7 +12482,7 @@
       <c r="Q120"/>
       <c r="R120"/>
     </row>
-    <row r="121" spans="1:18" s="8" customFormat="1" ht="393.75">
+    <row r="121" spans="1:18" s="8" customFormat="1" ht="393.75" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>495</v>
       </c>
@@ -12529,7 +12531,7 @@
       <c r="Q121"/>
       <c r="R121"/>
     </row>
-    <row r="122" spans="1:18" s="8" customFormat="1" ht="206.25">
+    <row r="122" spans="1:18" s="8" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
       <c r="B122" s="8" t="s">
         <v>495</v>
@@ -12577,7 +12579,7 @@
       <c r="Q122"/>
       <c r="R122"/>
     </row>
-    <row r="123" spans="1:18" s="8" customFormat="1" ht="187.5">
+    <row r="123" spans="1:18" s="8" customFormat="1" ht="187.5" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>877</v>
       </c>
@@ -12623,7 +12625,7 @@
       <c r="Q123"/>
       <c r="R123"/>
     </row>
-    <row r="124" spans="1:18" s="8" customFormat="1" ht="93.75">
+    <row r="124" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
       <c r="B124" s="8" t="s">
         <v>881</v>
@@ -12670,7 +12672,7 @@
       <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
     </row>
-    <row r="125" spans="1:18" s="8" customFormat="1" ht="93.75">
+    <row r="125" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>888</v>
       </c>
@@ -12716,7 +12718,7 @@
       <c r="Q125" s="6"/>
       <c r="R125" s="6"/>
     </row>
-    <row r="126" spans="1:18" s="8" customFormat="1" ht="281.25">
+    <row r="126" spans="1:18" s="8" customFormat="1" ht="281.25" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
       <c r="B126" s="8" t="s">
         <v>267</v>
@@ -12757,7 +12759,7 @@
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
     </row>
-    <row r="127" spans="1:18" s="8" customFormat="1" ht="300">
+    <row r="127" spans="1:18" s="8" customFormat="1" ht="300" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>895</v>
       </c>
@@ -12803,7 +12805,7 @@
       <c r="Q127" s="6"/>
       <c r="R127" s="6"/>
     </row>
-    <row r="128" spans="1:18" s="8" customFormat="1" ht="206.25">
+    <row r="128" spans="1:18" s="8" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
       <c r="B128" s="8" t="s">
         <v>900</v>
@@ -12850,7 +12852,7 @@
       <c r="Q128" s="6"/>
       <c r="R128" s="6"/>
     </row>
-    <row r="129" spans="1:18" s="8" customFormat="1" ht="150">
+    <row r="129" spans="1:18" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>531</v>
       </c>
@@ -12897,7 +12899,7 @@
       <c r="Q129" s="6"/>
       <c r="R129" s="6"/>
     </row>
-    <row r="130" spans="1:18" s="8" customFormat="1" ht="225">
+    <row r="130" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
       <c r="B130" s="8" t="s">
         <v>518</v>
@@ -12945,7 +12947,7 @@
       <c r="Q130"/>
       <c r="R130"/>
     </row>
-    <row r="131" spans="1:18" s="8" customFormat="1" ht="262.5">
+    <row r="131" spans="1:18" s="8" customFormat="1" ht="262.5" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>262</v>
       </c>
@@ -12984,7 +12986,7 @@
       <c r="Q131" s="6"/>
       <c r="R131" s="6"/>
     </row>
-    <row r="132" spans="1:18" s="8" customFormat="1" ht="409.5">
+    <row r="132" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
       <c r="B132" s="8" t="s">
         <v>905</v>
@@ -13031,7 +13033,7 @@
       <c r="Q132" s="6"/>
       <c r="R132" s="6"/>
     </row>
-    <row r="133" spans="1:18" s="8" customFormat="1" ht="225">
+    <row r="133" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>534</v>
       </c>
@@ -13078,7 +13080,7 @@
       <c r="Q133" s="6"/>
       <c r="R133" s="6"/>
     </row>
-    <row r="134" spans="1:18" s="8" customFormat="1" ht="409.5">
+    <row r="134" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
       <c r="B134" s="8" t="s">
         <v>909</v>
@@ -13125,575 +13127,576 @@
       <c r="Q134" s="6"/>
       <c r="R134" s="6"/>
     </row>
-    <row r="135" spans="1:18" s="8" customFormat="1" ht="409.5">
-      <c r="B135" s="32" t="s">
-        <v>909</v>
-      </c>
-      <c r="C135" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D135" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="E135" s="45">
-        <v>3327</v>
-      </c>
-      <c r="F135" s="32" t="s">
-        <v>263</v>
+    <row r="135" spans="1:18" s="8" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
+      <c r="A135" s="7"/>
+      <c r="B135" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="E135" s="9">
+        <v>7345</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>913</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="H135" s="32" t="s">
-        <v>910</v>
-      </c>
-      <c r="I135" s="32" t="s">
-        <v>1240</v>
-      </c>
-      <c r="J135" s="45" t="s">
-        <v>1241</v>
-      </c>
-      <c r="K135" s="45">
-        <v>35427</v>
-      </c>
-      <c r="L135" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="M135" s="45">
-        <v>16275</v>
-      </c>
-      <c r="N135" s="32" t="s">
-        <v>912</v>
-      </c>
-      <c r="O135" s="32" t="s">
-        <v>911</v>
-      </c>
-      <c r="P135" s="39" t="s">
-        <v>1042</v>
-      </c>
-      <c r="Q135" s="38"/>
-      <c r="R135" s="39"/>
-    </row>
-    <row r="136" spans="1:18" s="8" customFormat="1" ht="243.75">
-      <c r="A136" s="7"/>
+      <c r="H135" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J135" s="8" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K135" s="9">
+        <v>33229</v>
+      </c>
+      <c r="L135" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="M135" s="9">
+        <v>15829</v>
+      </c>
+      <c r="N135" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="O135" s="8" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>436</v>
+        <v>144</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>489</v>
+        <v>120</v>
       </c>
       <c r="E136" s="9">
-        <v>7345</v>
+        <v>1881</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>413</v>
+        <v>920</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>792</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>916</v>
+        <v>1040</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>1136</v>
+        <v>1018</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>1310</v>
+        <v>1019</v>
       </c>
       <c r="K136" s="9">
-        <v>33229</v>
+        <v>28228</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>917</v>
-      </c>
-      <c r="M136" s="9">
-        <v>15829</v>
+        <v>14</v>
+      </c>
+      <c r="M136" s="36">
+        <v>15220</v>
       </c>
       <c r="N136" s="8" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="O136" s="8" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" s="8" customFormat="1" ht="150">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" s="8" customFormat="1" ht="237.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="7"/>
       <c r="B137" s="8" t="s">
-        <v>919</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E137" s="9">
-        <v>1881</v>
+        <v>494</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>575</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>920</v>
+        <v>572</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>1040</v>
+        <v>1425</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>1018</v>
+        <v>1029</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K137" s="9">
-        <v>28228</v>
+        <v>576</v>
+      </c>
+      <c r="K137" s="10">
+        <v>25053</v>
       </c>
       <c r="L137" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M137" s="36">
-        <v>15220</v>
+      <c r="M137" s="48">
+        <v>16224</v>
       </c>
       <c r="N137" s="8" t="s">
-        <v>921</v>
+        <v>1422</v>
       </c>
       <c r="O137" s="8" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" s="8" customFormat="1" ht="237.75" customHeight="1">
-      <c r="A138" s="7"/>
+        <v>1421</v>
+      </c>
+      <c r="P137"/>
+    </row>
+    <row r="138" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>194</v>
+        <v>448</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>138</v>
+        <v>469</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>575</v>
+        <v>505</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>1029</v>
+        <v>830</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="K138" s="10">
-        <v>25053</v>
+        <v>17773</v>
       </c>
       <c r="L138" s="8" t="s">
         <v>14</v>
       </c>
       <c r="M138" s="48">
-        <v>16224</v>
+        <v>16285</v>
       </c>
       <c r="N138" s="8" t="s">
-        <v>1422</v>
+        <v>1098</v>
       </c>
       <c r="O138" s="8" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="P138"/>
     </row>
-    <row r="139" spans="1:18" s="8" customFormat="1" ht="112.5">
+    <row r="139" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A139" s="7"/>
       <c r="B139" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>505</v>
+        <v>923</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E139" s="9">
+        <v>7363</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="G139" s="14" t="s">
-        <v>795</v>
+        <v>924</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>1424</v>
+        <v>925</v>
       </c>
       <c r="I139" s="8" t="s">
-        <v>830</v>
+        <v>1242</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="K139" s="10">
-        <v>17773</v>
+        <v>1243</v>
+      </c>
+      <c r="K139" s="9">
+        <v>33817</v>
       </c>
       <c r="L139" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M139" s="48">
-        <v>16285</v>
+      <c r="M139" s="9">
+        <v>15149</v>
       </c>
       <c r="N139" s="8" t="s">
-        <v>1098</v>
+        <v>926</v>
       </c>
       <c r="O139" s="8" t="s">
-        <v>1423</v>
-      </c>
-      <c r="P139"/>
-    </row>
-    <row r="140" spans="1:18" s="8" customFormat="1" ht="93.75">
-      <c r="A140" s="7"/>
-      <c r="B140" s="8" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" s="8" customFormat="1" ht="337.5" x14ac:dyDescent="0.3">
+      <c r="B140" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="C140" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E140" s="9">
-        <v>7363</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>924</v>
-      </c>
-      <c r="G140" s="8" t="s">
+      <c r="C140" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D140" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="E140" s="41">
+        <v>378</v>
+      </c>
+      <c r="F140" s="38" t="s">
+        <v>928</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="H140" s="38" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I140" s="38" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J140" s="38" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K140" s="41">
+        <v>18817</v>
+      </c>
+      <c r="L140" s="38" t="s">
+        <v>777</v>
+      </c>
+      <c r="M140" s="41">
+        <v>15894</v>
+      </c>
+      <c r="N140" s="47" t="s">
+        <v>930</v>
+      </c>
+      <c r="O140" s="38" t="s">
+        <v>929</v>
+      </c>
+      <c r="P140" s="39" t="s">
+        <v>1042</v>
+      </c>
+      <c r="Q140" s="38"/>
+      <c r="R140" s="39"/>
+    </row>
+    <row r="141" spans="1:18" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A141" s="7"/>
+      <c r="B141" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E141" s="9">
+        <v>3998</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="G141" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="H140" s="8" t="s">
-        <v>925</v>
-      </c>
-      <c r="I140" s="8" t="s">
-        <v>1242</v>
-      </c>
-      <c r="J140" s="8" t="s">
-        <v>1243</v>
-      </c>
-      <c r="K140" s="9">
-        <v>33817</v>
-      </c>
-      <c r="L140" s="8" t="s">
+      <c r="H141" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K141" s="9">
+        <v>32969</v>
+      </c>
+      <c r="L141" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M140" s="9">
-        <v>15149</v>
-      </c>
-      <c r="N140" s="8" t="s">
-        <v>926</v>
-      </c>
-      <c r="O140" s="8" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" s="8" customFormat="1" ht="337.5">
-      <c r="B141" s="38" t="s">
-        <v>923</v>
-      </c>
-      <c r="C141" s="38" t="s">
+      <c r="M141" s="9">
+        <v>15599</v>
+      </c>
+      <c r="N141" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="O141" s="8" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" s="8" customFormat="1" ht="281.25" x14ac:dyDescent="0.3">
+      <c r="B142" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E142" s="9">
+        <v>9054</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="J142" s="8" t="s">
+        <v>991</v>
+      </c>
+      <c r="K142" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="O142" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="P142" s="6"/>
+    </row>
+    <row r="143" spans="1:18" s="8" customFormat="1" ht="318.75" x14ac:dyDescent="0.3">
+      <c r="A143" s="7"/>
+      <c r="B143" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="E143" s="9">
+        <v>5704</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="K143" s="9">
+        <v>15491</v>
+      </c>
+      <c r="L143" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="M143" s="9">
+        <v>15491</v>
+      </c>
+      <c r="N143" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="O143" s="8" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="B144" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H144" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J144" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="K144" s="9">
+        <v>17254</v>
+      </c>
+      <c r="P144" s="6"/>
+    </row>
+    <row r="145" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A145" s="7"/>
+      <c r="B145" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="E145" s="9">
+        <v>8485</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J145" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K145" s="9">
+        <v>16547</v>
+      </c>
+      <c r="L145" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="M145" s="9">
+        <v>16547</v>
+      </c>
+      <c r="N145" s="29" t="s">
+        <v>944</v>
+      </c>
+      <c r="O145" s="8" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
+      <c r="B146" s="32" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C146" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D141" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="E141" s="41">
-        <v>378</v>
-      </c>
-      <c r="F141" s="38" t="s">
-        <v>928</v>
-      </c>
-      <c r="G141" s="14" t="s">
-        <v>792</v>
-      </c>
-      <c r="H141" s="38" t="s">
-        <v>1132</v>
-      </c>
-      <c r="I141" s="38" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J141" s="38" t="s">
-        <v>1007</v>
-      </c>
-      <c r="K141" s="41">
-        <v>18817</v>
-      </c>
-      <c r="L141" s="38" t="s">
-        <v>777</v>
-      </c>
-      <c r="M141" s="41">
-        <v>15894</v>
-      </c>
-      <c r="N141" s="47" t="s">
-        <v>930</v>
-      </c>
-      <c r="O141" s="38" t="s">
-        <v>929</v>
-      </c>
-      <c r="P141" s="39" t="s">
-        <v>1042</v>
-      </c>
-      <c r="Q141" s="38"/>
-      <c r="R141" s="39"/>
-    </row>
-    <row r="142" spans="1:18" s="8" customFormat="1" ht="56.25">
-      <c r="A142" s="7"/>
-      <c r="B142" s="8" t="s">
-        <v>931</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E142" s="9">
-        <v>3998</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>918</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="H142" s="8" t="s">
-        <v>934</v>
-      </c>
-      <c r="I142" s="8" t="s">
-        <v>1244</v>
-      </c>
-      <c r="J142" s="9" t="s">
-        <v>1245</v>
-      </c>
-      <c r="K142" s="9">
-        <v>32969</v>
-      </c>
-      <c r="L142" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M142" s="9">
-        <v>15599</v>
-      </c>
-      <c r="N142" s="8" t="s">
-        <v>933</v>
-      </c>
-      <c r="O142" s="8" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" s="8" customFormat="1" ht="243.75">
-      <c r="B143" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E143" s="9">
-        <v>9054</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>1041</v>
-      </c>
-      <c r="H143" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="I143" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="J143" s="8" t="s">
-        <v>991</v>
-      </c>
-      <c r="K143" s="8" t="s">
-        <v>967</v>
-      </c>
-      <c r="O143" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="P143" s="6"/>
-    </row>
-    <row r="144" spans="1:18" s="8" customFormat="1" ht="318.75">
-      <c r="A144" s="7"/>
-      <c r="B144" s="8" t="s">
-        <v>959</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="E144" s="9">
-        <v>5704</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="H144" s="8" t="s">
-        <v>939</v>
-      </c>
-      <c r="I144" s="8" t="s">
-        <v>994</v>
-      </c>
-      <c r="J144" s="8" t="s">
-        <v>993</v>
-      </c>
-      <c r="K144" s="9">
-        <v>15491</v>
-      </c>
-      <c r="L144" s="8" t="s">
-        <v>937</v>
-      </c>
-      <c r="M144" s="9">
-        <v>15491</v>
-      </c>
-      <c r="N144" s="8" t="s">
-        <v>937</v>
-      </c>
-      <c r="O144" s="8" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" s="8" customFormat="1" ht="93.75">
-      <c r="B145" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="G145" s="14" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H145" s="14" t="s">
-        <v>829</v>
-      </c>
-      <c r="I145" s="8" t="s">
-        <v>1246</v>
-      </c>
-      <c r="J145" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="K145" s="9">
-        <v>17254</v>
-      </c>
-      <c r="P145" s="6"/>
-    </row>
-    <row r="146" spans="1:18" s="8" customFormat="1" ht="93.75">
-      <c r="A146" s="7"/>
-      <c r="B146" s="8" t="s">
-        <v>940</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>941</v>
-      </c>
-      <c r="E146" s="9">
-        <v>8485</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>942</v>
+      <c r="D146" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E146" s="45">
+        <v>7959</v>
+      </c>
+      <c r="F146" s="32" t="s">
+        <v>1044</v>
       </c>
       <c r="G146" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="H146" s="8" t="s">
-        <v>946</v>
-      </c>
-      <c r="I146" s="8" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J146" s="8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K146" s="9">
-        <v>16547</v>
-      </c>
-      <c r="L146" s="8" t="s">
-        <v>943</v>
-      </c>
-      <c r="M146" s="9">
-        <v>16547</v>
-      </c>
-      <c r="N146" s="29" t="s">
-        <v>944</v>
-      </c>
-      <c r="O146" s="8" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" s="8" customFormat="1" ht="225">
+      <c r="H146" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I146" s="32" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J146" s="32" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K146" s="45">
+        <v>30838</v>
+      </c>
+      <c r="L146" s="32" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M146" s="42">
+        <v>15676</v>
+      </c>
+      <c r="N146" s="38" t="s">
+        <v>1047</v>
+      </c>
+      <c r="O146" s="38" t="s">
+        <v>1048</v>
+      </c>
+      <c r="P146" s="39" t="s">
+        <v>1042</v>
+      </c>
+      <c r="Q146" s="38"/>
+      <c r="R146" s="39"/>
+    </row>
+    <row r="147" spans="1:18" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.3">
+      <c r="A147" s="7"/>
       <c r="B147" s="32" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>108</v>
+        <v>436</v>
       </c>
       <c r="D147" s="32" t="s">
-        <v>203</v>
+        <v>1050</v>
       </c>
       <c r="E147" s="45">
-        <v>7959</v>
+        <v>7712</v>
       </c>
       <c r="F147" s="32" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="G147" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H147" s="32" t="s">
-        <v>1045</v>
+        <v>1052</v>
       </c>
       <c r="I147" s="32" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="J147" s="32" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="K147" s="45">
-        <v>30838</v>
+        <v>40137</v>
       </c>
       <c r="L147" s="32" t="s">
-        <v>1046</v>
+        <v>14</v>
       </c>
       <c r="M147" s="42">
-        <v>15676</v>
+        <v>15950</v>
       </c>
       <c r="N147" s="38" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="O147" s="38" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="P147" s="39" t="s">
         <v>1042</v>
@@ -13701,381 +13704,380 @@
       <c r="Q147" s="38"/>
       <c r="R147" s="39"/>
     </row>
-    <row r="148" spans="1:18" s="8" customFormat="1" ht="150">
-      <c r="A148" s="7"/>
+    <row r="148" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="B148" s="32" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>436</v>
+        <v>161</v>
       </c>
       <c r="D148" s="32" t="s">
-        <v>1050</v>
+        <v>157</v>
       </c>
       <c r="E148" s="45">
-        <v>7712</v>
+        <v>7445</v>
       </c>
       <c r="F148" s="32" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="G148" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H148" s="32" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="I148" s="32" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="J148" s="32" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="K148" s="45">
-        <v>40137</v>
+        <v>34621</v>
       </c>
       <c r="L148" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M148" s="42">
-        <v>15950</v>
+      <c r="M148" s="41">
+        <v>16427</v>
       </c>
       <c r="N148" s="38" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="O148" s="38" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="P148" s="39" t="s">
-        <v>1042</v>
+        <v>1060</v>
       </c>
       <c r="Q148" s="38"/>
-      <c r="R148" s="39"/>
-    </row>
-    <row r="149" spans="1:18" s="8" customFormat="1" ht="131.25">
-      <c r="B149" s="32" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C149" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="D149" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="E149" s="45">
-        <v>7445</v>
-      </c>
-      <c r="F149" s="32" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G149" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="H149" s="32" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I149" s="32" t="s">
-        <v>1251</v>
-      </c>
-      <c r="J149" s="32" t="s">
-        <v>1252</v>
-      </c>
-      <c r="K149" s="45">
-        <v>34621</v>
-      </c>
-      <c r="L149" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M149" s="41">
-        <v>16427</v>
+      <c r="R148" s="38"/>
+    </row>
+    <row r="149" spans="1:18" s="8" customFormat="1" ht="318.75" x14ac:dyDescent="0.3">
+      <c r="B149" s="38" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C149" s="38" t="s">
+        <v>960</v>
+      </c>
+      <c r="D149" s="38" t="s">
+        <v>961</v>
+      </c>
+      <c r="E149" s="41">
+        <v>2803</v>
+      </c>
+      <c r="F149" s="38" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G149" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H149" s="38" t="s">
+        <v>962</v>
+      </c>
+      <c r="I149" s="41" t="s">
+        <v>963</v>
+      </c>
+      <c r="J149" s="38" t="s">
+        <v>964</v>
+      </c>
+      <c r="K149" s="41">
+        <v>31873</v>
+      </c>
+      <c r="L149" s="38" t="s">
+        <v>777</v>
+      </c>
+      <c r="M149" s="42">
+        <v>16254</v>
       </c>
       <c r="N149" s="38" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="O149" s="38" t="s">
-        <v>1059</v>
-      </c>
-      <c r="P149" s="39" t="s">
-        <v>1060</v>
-      </c>
+        <v>965</v>
+      </c>
+      <c r="P149" s="38"/>
       <c r="Q149" s="38"/>
       <c r="R149" s="38"/>
     </row>
-    <row r="150" spans="1:18" s="8" customFormat="1" ht="318.75">
-      <c r="B150" s="38" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C150" s="38" t="s">
-        <v>960</v>
-      </c>
-      <c r="D150" s="38" t="s">
-        <v>961</v>
-      </c>
-      <c r="E150" s="41">
-        <v>2803</v>
-      </c>
-      <c r="F150" s="38" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G150" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="H150" s="38" t="s">
-        <v>962</v>
-      </c>
-      <c r="I150" s="41" t="s">
-        <v>963</v>
-      </c>
-      <c r="J150" s="38" t="s">
-        <v>964</v>
-      </c>
-      <c r="K150" s="41">
-        <v>31873</v>
-      </c>
-      <c r="L150" s="38" t="s">
-        <v>777</v>
-      </c>
-      <c r="M150" s="42">
-        <v>16254</v>
+    <row r="150" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="A150" s="7"/>
+      <c r="B150" s="32" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C150" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D150" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="E150" s="45">
+        <v>6235</v>
+      </c>
+      <c r="F150" s="32" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="H150" s="32" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I150" s="32" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J150" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K150" s="45">
+        <v>31996</v>
+      </c>
+      <c r="L150" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M150" s="41">
+        <v>15988</v>
       </c>
       <c r="N150" s="38" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="O150" s="38" t="s">
-        <v>965</v>
-      </c>
-      <c r="P150" s="38"/>
+        <v>1067</v>
+      </c>
+      <c r="P150" s="39" t="s">
+        <v>1068</v>
+      </c>
       <c r="Q150" s="38"/>
       <c r="R150" s="38"/>
     </row>
-    <row r="151" spans="1:18" s="8" customFormat="1" ht="75">
-      <c r="A151" s="7"/>
+    <row r="151" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="B151" s="32" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>176</v>
+        <v>1070</v>
       </c>
       <c r="D151" s="32" t="s">
-        <v>469</v>
+        <v>128</v>
       </c>
       <c r="E151" s="45">
-        <v>6235</v>
+        <v>822</v>
       </c>
       <c r="F151" s="32" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="G151" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H151" s="32" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="I151" s="32" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="J151" s="32" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="K151" s="45">
-        <v>31996</v>
+        <v>15155</v>
       </c>
       <c r="L151" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M151" s="41">
-        <v>15988</v>
-      </c>
+        <v>1073</v>
+      </c>
+      <c r="M151" s="38"/>
       <c r="N151" s="38" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="O151" s="38" t="s">
-        <v>1067</v>
-      </c>
-      <c r="P151" s="39" t="s">
-        <v>1068</v>
-      </c>
+        <v>1075</v>
+      </c>
+      <c r="P151" s="38"/>
       <c r="Q151" s="38"/>
       <c r="R151" s="38"/>
     </row>
-    <row r="152" spans="1:18" s="8" customFormat="1" ht="93.75">
-      <c r="B152" s="32" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C152" s="32" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D152" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E152" s="45">
-        <v>822</v>
-      </c>
-      <c r="F152" s="32" t="s">
-        <v>1071</v>
+    <row r="152" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A152" s="7"/>
+      <c r="B152" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E152" s="9">
+        <v>215</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="G152" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H152" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I152" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J152" s="8" t="s">
+        <v>1258</v>
+      </c>
+      <c r="K152" s="10">
+        <v>36848</v>
+      </c>
+      <c r="L152" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M152" s="7"/>
+      <c r="N152" s="29"/>
+      <c r="O152" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="P152"/>
+    </row>
+    <row r="153" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="B153" s="32" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D153" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="E153" s="45">
+        <v>7409</v>
+      </c>
+      <c r="F153" s="32" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G153" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="H152" s="32" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I152" s="32" t="s">
-        <v>1255</v>
-      </c>
-      <c r="J152" s="32" t="s">
-        <v>1256</v>
-      </c>
-      <c r="K152" s="45">
-        <v>15155</v>
-      </c>
-      <c r="L152" s="32" t="s">
-        <v>1073</v>
-      </c>
-      <c r="M152" s="38"/>
-      <c r="N152" s="38" t="s">
-        <v>1074</v>
-      </c>
-      <c r="O152" s="38" t="s">
-        <v>1075</v>
-      </c>
-      <c r="P152" s="38"/>
-      <c r="Q152" s="38"/>
-      <c r="R152" s="38"/>
-    </row>
-    <row r="153" spans="1:18" s="8" customFormat="1" ht="93.75">
-      <c r="A153" s="7"/>
-      <c r="B153" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E153" s="9">
-        <v>215</v>
-      </c>
-      <c r="F153" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G153" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="H153" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="I153" s="8" t="s">
-        <v>1257</v>
-      </c>
-      <c r="J153" s="8" t="s">
-        <v>1258</v>
-      </c>
-      <c r="K153" s="10">
-        <v>36848</v>
-      </c>
-      <c r="L153" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M153" s="7"/>
-      <c r="N153" s="29"/>
-      <c r="O153" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="P153"/>
-    </row>
-    <row r="154" spans="1:18" s="8" customFormat="1" ht="75">
+      <c r="H153" s="32" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I153" s="32" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J153" s="32" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K153" s="45">
+        <v>39233</v>
+      </c>
+      <c r="L153" s="38" t="s">
+        <v>1079</v>
+      </c>
+      <c r="M153" s="41">
+        <v>15598</v>
+      </c>
+      <c r="N153" s="38" t="s">
+        <v>1047</v>
+      </c>
+      <c r="O153" s="38" t="s">
+        <v>1080</v>
+      </c>
+      <c r="P153" s="39" t="s">
+        <v>1081</v>
+      </c>
+      <c r="Q153" s="38"/>
+      <c r="R153" s="38"/>
+    </row>
+    <row r="154" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
+      <c r="A154" s="7"/>
       <c r="B154" s="32" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="D154" s="32" t="s">
-        <v>342</v>
+        <v>497</v>
       </c>
       <c r="E154" s="45">
-        <v>7409</v>
+        <v>6516</v>
       </c>
       <c r="F154" s="32" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H154" s="32" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="I154" s="32" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="J154" s="32" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="K154" s="45">
-        <v>39233</v>
+        <v>17053</v>
       </c>
       <c r="L154" s="38" t="s">
-        <v>1079</v>
-      </c>
-      <c r="M154" s="41">
-        <v>15598</v>
+        <v>1085</v>
+      </c>
+      <c r="M154" s="42">
+        <v>16011</v>
       </c>
       <c r="N154" s="38" t="s">
-        <v>1047</v>
+        <v>1086</v>
       </c>
       <c r="O154" s="38" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="P154" s="39" t="s">
-        <v>1081</v>
+        <v>1042</v>
       </c>
       <c r="Q154" s="38"/>
       <c r="R154" s="38"/>
     </row>
-    <row r="155" spans="1:18" s="8" customFormat="1" ht="225">
-      <c r="A155" s="7"/>
+    <row r="155" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="B155" s="32" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>112</v>
+        <v>1089</v>
       </c>
       <c r="D155" s="32" t="s">
-        <v>497</v>
+        <v>371</v>
       </c>
       <c r="E155" s="45">
-        <v>6516</v>
+        <v>4836</v>
       </c>
       <c r="F155" s="32" t="s">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H155" s="32" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="I155" s="32" t="s">
-        <v>1261</v>
+        <v>1274</v>
       </c>
       <c r="J155" s="32" t="s">
-        <v>1262</v>
+        <v>1275</v>
       </c>
       <c r="K155" s="45">
-        <v>17053</v>
-      </c>
-      <c r="L155" s="38" t="s">
-        <v>1085</v>
-      </c>
-      <c r="M155" s="42">
-        <v>16011</v>
-      </c>
-      <c r="N155" s="38" t="s">
-        <v>1086</v>
-      </c>
-      <c r="O155" s="38" t="s">
-        <v>1087</v>
+        <v>16420</v>
+      </c>
+      <c r="L155" s="32" t="s">
+        <v>1092</v>
+      </c>
+      <c r="M155" s="45">
+        <v>16178</v>
+      </c>
+      <c r="N155" s="32" t="s">
+        <v>1093</v>
+      </c>
+      <c r="O155" s="32" t="s">
+        <v>1094</v>
       </c>
       <c r="P155" s="39" t="s">
         <v>1042</v>
@@ -14083,1353 +14085,1324 @@
       <c r="Q155" s="38"/>
       <c r="R155" s="38"/>
     </row>
-    <row r="156" spans="1:18" s="8" customFormat="1" ht="131.25">
+    <row r="156" spans="1:18" s="8" customFormat="1" ht="356.25" x14ac:dyDescent="0.3">
+      <c r="A156" s="7"/>
       <c r="B156" s="32" t="s">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>1089</v>
+        <v>161</v>
       </c>
       <c r="D156" s="32" t="s">
         <v>371</v>
       </c>
       <c r="E156" s="45">
-        <v>4836</v>
+        <v>8178</v>
       </c>
       <c r="F156" s="32" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="G156" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H156" s="32" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="I156" s="32" t="s">
-        <v>1274</v>
-      </c>
-      <c r="J156" s="32" t="s">
-        <v>1275</v>
+        <v>1308</v>
+      </c>
+      <c r="J156" s="45" t="s">
+        <v>1309</v>
       </c>
       <c r="K156" s="45">
-        <v>16420</v>
+        <v>34023</v>
       </c>
       <c r="L156" s="32" t="s">
-        <v>1092</v>
-      </c>
-      <c r="M156" s="45">
-        <v>16178</v>
-      </c>
-      <c r="N156" s="32" t="s">
-        <v>1093</v>
-      </c>
-      <c r="O156" s="32" t="s">
-        <v>1094</v>
+        <v>14</v>
+      </c>
+      <c r="M156" s="42">
+        <v>16285</v>
+      </c>
+      <c r="N156" s="38" t="s">
+        <v>1098</v>
+      </c>
+      <c r="O156" s="38" t="s">
+        <v>1099</v>
       </c>
       <c r="P156" s="39" t="s">
-        <v>1042</v>
+        <v>1100</v>
       </c>
       <c r="Q156" s="38"/>
       <c r="R156" s="38"/>
     </row>
-    <row r="157" spans="1:18" s="8" customFormat="1" ht="356.25">
-      <c r="A157" s="7"/>
+    <row r="157" spans="1:18" s="8" customFormat="1" ht="243.75" x14ac:dyDescent="0.3">
       <c r="B157" s="32" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>161</v>
+        <v>317</v>
       </c>
       <c r="D157" s="32" t="s">
-        <v>371</v>
+        <v>528</v>
       </c>
       <c r="E157" s="45">
-        <v>8178</v>
+        <v>2758</v>
       </c>
       <c r="F157" s="32" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="G157" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H157" s="32" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="I157" s="32" t="s">
-        <v>1308</v>
-      </c>
-      <c r="J157" s="45" t="s">
-        <v>1309</v>
+        <v>1272</v>
+      </c>
+      <c r="J157" s="32" t="s">
+        <v>1273</v>
       </c>
       <c r="K157" s="45">
-        <v>34023</v>
+        <v>15161</v>
       </c>
       <c r="L157" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M157" s="42">
-        <v>16285</v>
-      </c>
-      <c r="N157" s="38" t="s">
-        <v>1098</v>
-      </c>
-      <c r="O157" s="38" t="s">
-        <v>1099</v>
-      </c>
-      <c r="P157" s="39" t="s">
-        <v>1100</v>
-      </c>
+        <v>1104</v>
+      </c>
+      <c r="M157" s="45">
+        <v>15161</v>
+      </c>
+      <c r="N157" s="32" t="s">
+        <v>1105</v>
+      </c>
+      <c r="O157" s="32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="P157" s="38"/>
       <c r="Q157" s="38"/>
       <c r="R157" s="38"/>
     </row>
-    <row r="158" spans="1:18" s="8" customFormat="1" ht="243.75">
-      <c r="B158" s="32" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C158" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="D158" s="32" t="s">
-        <v>528</v>
-      </c>
-      <c r="E158" s="45">
-        <v>2758</v>
-      </c>
-      <c r="F158" s="32" t="s">
-        <v>1102</v>
+    <row r="158" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A158" s="7"/>
+      <c r="B158" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E158" s="9">
+        <v>6836</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="G158" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="H158" s="32" t="s">
-        <v>1103</v>
-      </c>
-      <c r="I158" s="32" t="s">
-        <v>1272</v>
-      </c>
-      <c r="J158" s="32" t="s">
-        <v>1273</v>
-      </c>
-      <c r="K158" s="45">
-        <v>15161</v>
-      </c>
-      <c r="L158" s="32" t="s">
-        <v>1104</v>
-      </c>
-      <c r="M158" s="45">
-        <v>15161</v>
-      </c>
-      <c r="N158" s="32" t="s">
-        <v>1105</v>
-      </c>
-      <c r="O158" s="32" t="s">
-        <v>1106</v>
-      </c>
-      <c r="P158" s="38"/>
-      <c r="Q158" s="38"/>
-      <c r="R158" s="38"/>
-    </row>
-    <row r="159" spans="1:18" s="8" customFormat="1" ht="112.5">
-      <c r="A159" s="7"/>
-      <c r="B159" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E159" s="9">
-        <v>6836</v>
-      </c>
-      <c r="F159" s="8" t="s">
-        <v>205</v>
+      <c r="H158" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="I158" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J158" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K158" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="L158" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M158" s="7"/>
+      <c r="O158" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="P158"/>
+    </row>
+    <row r="159" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="B159" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C159" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D159" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="E159" s="45">
+        <v>6123</v>
+      </c>
+      <c r="F159" s="32" t="s">
+        <v>1108</v>
       </c>
       <c r="G159" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="H159" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="I159" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J159" s="8" t="s">
-        <v>1307</v>
-      </c>
-      <c r="K159" s="18" t="s">
-        <v>780</v>
-      </c>
-      <c r="L159" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M159" s="7"/>
-      <c r="O159" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="P159"/>
-    </row>
-    <row r="160" spans="1:18" s="8" customFormat="1" ht="93.75">
+      <c r="H159" s="32" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I159" s="32" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J159" s="32" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K159" s="45">
+        <v>38609</v>
+      </c>
+      <c r="L159" s="32" t="s">
+        <v>1110</v>
+      </c>
+      <c r="M159" s="42">
+        <v>15858</v>
+      </c>
+      <c r="N159" s="38" t="s">
+        <v>1111</v>
+      </c>
+      <c r="O159" s="38" t="s">
+        <v>1112</v>
+      </c>
+      <c r="P159" s="38" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Q159" s="38"/>
+      <c r="R159" s="38"/>
+    </row>
+    <row r="160" spans="1:18" s="8" customFormat="1" ht="262.5" x14ac:dyDescent="0.3">
+      <c r="A160" s="7"/>
       <c r="B160" s="32" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>448</v>
+        <v>1115</v>
       </c>
       <c r="D160" s="32" t="s">
-        <v>489</v>
-      </c>
-      <c r="E160" s="45">
-        <v>6123</v>
+        <v>138</v>
+      </c>
+      <c r="E160" s="32" t="s">
+        <v>1116</v>
       </c>
       <c r="F160" s="32" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G160" s="8" t="s">
-        <v>413</v>
+        <v>1117</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>792</v>
       </c>
       <c r="H160" s="32" t="s">
-        <v>1109</v>
+        <v>1129</v>
       </c>
       <c r="I160" s="32" t="s">
-        <v>1305</v>
+        <v>1130</v>
       </c>
       <c r="J160" s="32" t="s">
-        <v>1306</v>
+        <v>1131</v>
       </c>
       <c r="K160" s="45">
-        <v>38609</v>
+        <v>25658</v>
       </c>
       <c r="L160" s="32" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
       <c r="M160" s="42">
-        <v>15858</v>
+        <v>15462</v>
       </c>
       <c r="N160" s="38" t="s">
-        <v>1111</v>
+        <v>227</v>
       </c>
       <c r="O160" s="38" t="s">
-        <v>1112</v>
-      </c>
-      <c r="P160" s="38" t="s">
-        <v>1113</v>
-      </c>
+        <v>1119</v>
+      </c>
+      <c r="P160" s="38"/>
       <c r="Q160" s="38"/>
       <c r="R160" s="38"/>
     </row>
-    <row r="161" spans="1:18" s="8" customFormat="1" ht="262.5">
-      <c r="A161" s="7"/>
-      <c r="B161" s="32" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C161" s="32" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D161" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E161" s="32" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F161" s="32" t="s">
-        <v>1117</v>
-      </c>
-      <c r="G161" s="14" t="s">
-        <v>792</v>
-      </c>
-      <c r="H161" s="32" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I161" s="32" t="s">
-        <v>1130</v>
-      </c>
-      <c r="J161" s="32" t="s">
-        <v>1131</v>
-      </c>
-      <c r="K161" s="45">
-        <v>25658</v>
-      </c>
-      <c r="L161" s="32" t="s">
-        <v>1118</v>
-      </c>
-      <c r="M161" s="42">
-        <v>15462</v>
-      </c>
-      <c r="N161" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="O161" s="38" t="s">
-        <v>1119</v>
-      </c>
-      <c r="P161" s="38"/>
-      <c r="Q161" s="38"/>
-      <c r="R161" s="38"/>
-    </row>
-    <row r="162" spans="1:18" s="8" customFormat="1" ht="168.75">
+    <row r="161" spans="1:18" s="8" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="B161" s="8" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E161" s="9">
+        <v>442</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H161" s="8" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I161" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K161" s="9">
+        <v>32760</v>
+      </c>
+      <c r="L161" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="M161" s="9">
+        <v>15423</v>
+      </c>
+      <c r="N161" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O161" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="P161" s="31" t="s">
+        <v>1143</v>
+      </c>
+      <c r="Q161"/>
+      <c r="R161"/>
+    </row>
+    <row r="162" spans="1:18" s="8" customFormat="1" ht="225" x14ac:dyDescent="0.3">
+      <c r="A162" s="7"/>
       <c r="B162" s="8" t="s">
         <v>1300</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>176</v>
+        <v>447</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>1138</v>
+        <v>177</v>
       </c>
       <c r="E162" s="9">
-        <v>442</v>
+        <v>4367</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>1037</v>
+        <v>413</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>1140</v>
+        <v>1145</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="J162" s="9" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="K162" s="9">
-        <v>32760</v>
+        <v>34165</v>
       </c>
       <c r="L162" s="8" t="s">
-        <v>777</v>
+        <v>263</v>
       </c>
       <c r="M162" s="9">
-        <v>15423</v>
+        <v>15228</v>
       </c>
       <c r="N162" s="8" t="s">
-        <v>1141</v>
+        <v>902</v>
       </c>
       <c r="O162" s="8" t="s">
-        <v>1142</v>
+        <v>1147</v>
       </c>
       <c r="P162" s="31" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="Q162"/>
       <c r="R162"/>
     </row>
-    <row r="163" spans="1:18" s="8" customFormat="1" ht="225">
-      <c r="A163" s="7"/>
+    <row r="163" spans="1:18" s="8" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E163" s="9">
-        <v>4367</v>
+        <v>508</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E163" s="12">
+        <v>212</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G163" s="8" t="s">
-        <v>413</v>
+        <v>570</v>
+      </c>
+      <c r="G163" s="14" t="s">
+        <v>794</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>1145</v>
+        <v>1427</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>1301</v>
-      </c>
-      <c r="J163" s="9" t="s">
-        <v>1302</v>
-      </c>
-      <c r="K163" s="9">
-        <v>34165</v>
+        <v>779</v>
+      </c>
+      <c r="J163" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="K163" s="10">
+        <v>28415</v>
       </c>
       <c r="L163" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="M163" s="9">
-        <v>15228</v>
+        <v>14</v>
+      </c>
+      <c r="M163" s="10">
+        <v>16103</v>
       </c>
       <c r="N163" s="8" t="s">
-        <v>902</v>
+        <v>1428</v>
       </c>
       <c r="O163" s="8" t="s">
-        <v>1147</v>
-      </c>
-      <c r="P163" s="31" t="s">
-        <v>1146</v>
-      </c>
-      <c r="Q163"/>
-      <c r="R163"/>
-    </row>
-    <row r="164" spans="1:18" s="8" customFormat="1" ht="206.25">
+        <v>1426</v>
+      </c>
+      <c r="P163"/>
+    </row>
+    <row r="164" spans="1:18" s="8" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="A164" s="7"/>
       <c r="B164" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C164" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C164" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D164" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E164" s="12">
-        <v>212</v>
+      <c r="E164" s="9">
+        <v>1625</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>570</v>
+        <v>1149</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>1427</v>
+        <v>1150</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="J164" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="K164" s="10">
-        <v>28415</v>
+        <v>1298</v>
+      </c>
+      <c r="J164" s="9" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K164" s="9">
+        <v>33596</v>
       </c>
       <c r="L164" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M164" s="10">
-        <v>16103</v>
+      <c r="M164" s="9">
+        <v>15208</v>
       </c>
       <c r="N164" s="8" t="s">
-        <v>1428</v>
+        <v>1151</v>
       </c>
       <c r="O164" s="8" t="s">
-        <v>1426</v>
-      </c>
-      <c r="P164"/>
-    </row>
-    <row r="165" spans="1:18" s="8" customFormat="1" ht="168.75">
-      <c r="A165" s="7"/>
+        <v>1152</v>
+      </c>
+      <c r="Q164"/>
+      <c r="R164"/>
+    </row>
+    <row r="165" spans="1:18" s="8" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>145</v>
+        <v>371</v>
       </c>
       <c r="E165" s="9">
-        <v>1625</v>
+        <v>4286</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G165" s="14" t="s">
-        <v>792</v>
+        <v>1154</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="K165" s="9">
-        <v>33596</v>
+        <v>32099</v>
       </c>
       <c r="L165" s="8" t="s">
         <v>14</v>
       </c>
       <c r="M165" s="9">
-        <v>15208</v>
+        <v>16274</v>
       </c>
       <c r="N165" s="8" t="s">
-        <v>1151</v>
+        <v>1098</v>
       </c>
       <c r="O165" s="8" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="Q165"/>
       <c r="R165"/>
     </row>
-    <row r="166" spans="1:18" s="8" customFormat="1" ht="206.25">
+    <row r="166" spans="1:18" s="8" customFormat="1" ht="168.75" x14ac:dyDescent="0.3">
+      <c r="A166" s="7"/>
       <c r="B166" s="8" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>112</v>
+        <v>340</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>371</v>
+        <v>203</v>
       </c>
       <c r="E166" s="9">
-        <v>4286</v>
+        <v>5844</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="G166" s="8" t="s">
         <v>167</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>1296</v>
+        <v>1278</v>
       </c>
       <c r="J166" s="9" t="s">
-        <v>1297</v>
+        <v>1279</v>
       </c>
       <c r="K166" s="9">
-        <v>32099</v>
+        <v>16544</v>
       </c>
       <c r="L166" s="8" t="s">
-        <v>14</v>
+        <v>760</v>
       </c>
       <c r="M166" s="9">
-        <v>16274</v>
+        <v>16544</v>
       </c>
       <c r="N166" s="8" t="s">
-        <v>1098</v>
+        <v>1160</v>
       </c>
       <c r="O166" s="8" t="s">
-        <v>1156</v>
+        <v>1161</v>
+      </c>
+      <c r="P166" s="31" t="s">
+        <v>1162</v>
       </c>
       <c r="Q166"/>
       <c r="R166"/>
     </row>
-    <row r="167" spans="1:18" s="8" customFormat="1" ht="168.75">
-      <c r="A167" s="7"/>
-      <c r="B167" s="8" t="s">
-        <v>1157</v>
+    <row r="167" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="B167" s="30" t="s">
+        <v>188</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>340</v>
+        <v>189</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E167" s="9">
-        <v>5844</v>
+        <v>1031</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>1158</v>
+        <v>191</v>
       </c>
       <c r="G167" s="8" t="s">
         <v>167</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>1159</v>
+        <v>196</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>1278</v>
-      </c>
-      <c r="J167" s="9" t="s">
-        <v>1279</v>
-      </c>
-      <c r="K167" s="9">
-        <v>16544</v>
-      </c>
-      <c r="L167" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="M167" s="9">
-        <v>16544</v>
-      </c>
-      <c r="N167" s="8" t="s">
-        <v>1160</v>
-      </c>
-      <c r="O167" s="8" t="s">
-        <v>1161</v>
-      </c>
-      <c r="P167" s="31" t="s">
-        <v>1162</v>
-      </c>
-      <c r="Q167"/>
-      <c r="R167"/>
-    </row>
-    <row r="168" spans="1:18" s="8" customFormat="1" ht="75">
-      <c r="B168" s="30" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="J167" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K167" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="O167" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="P167" s="6"/>
+    </row>
+    <row r="168" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A168" s="7"/>
+      <c r="B168" s="8" t="s">
+        <v>1163</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>189</v>
+        <v>1164</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>190</v>
+        <v>338</v>
       </c>
       <c r="E168" s="9">
-        <v>1031</v>
+        <v>3825</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>191</v>
+        <v>1165</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>167</v>
+        <v>413</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>196</v>
+        <v>1166</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="J168" s="8" t="s">
-        <v>1295</v>
-      </c>
-      <c r="K168" s="8" t="s">
-        <v>966</v>
-      </c>
-      <c r="O168" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="P168" s="6"/>
-    </row>
-    <row r="169" spans="1:18" s="8" customFormat="1" ht="112.5">
-      <c r="A169" s="7"/>
+        <v>1280</v>
+      </c>
+      <c r="J168" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K168" s="9">
+        <v>19559</v>
+      </c>
+      <c r="L168" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M168" s="36">
+        <v>16254</v>
+      </c>
+      <c r="N168" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="O168" s="8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Q168"/>
+      <c r="R168"/>
+    </row>
+    <row r="169" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="E169" s="9">
-        <v>3825</v>
+        <v>367</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>521</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>1165</v>
+        <v>568</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="H169" s="8" t="s">
-        <v>1166</v>
+        <v>1039</v>
+      </c>
+      <c r="H169" s="14" t="s">
+        <v>1432</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>1280</v>
-      </c>
-      <c r="J169" s="9" t="s">
-        <v>1281</v>
-      </c>
-      <c r="K169" s="9">
-        <v>19559</v>
+        <v>778</v>
+      </c>
+      <c r="J169" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="K169" s="10">
+        <v>18486</v>
       </c>
       <c r="L169" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M169" s="36">
-        <v>16254</v>
+      <c r="M169" s="48">
+        <v>16438</v>
       </c>
       <c r="N169" s="8" t="s">
-        <v>943</v>
+        <v>1430</v>
       </c>
       <c r="O169" s="8" t="s">
-        <v>1167</v>
-      </c>
-      <c r="Q169"/>
-      <c r="R169"/>
-    </row>
-    <row r="170" spans="1:18" s="8" customFormat="1" ht="112.5">
+        <v>1429</v>
+      </c>
+      <c r="P169"/>
+    </row>
+    <row r="170" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="A170" s="7"/>
       <c r="B170" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>521</v>
+        <v>1168</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E170" s="9">
+        <v>2308</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>568</v>
+        <v>1169</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H170" s="14" t="s">
-        <v>1432</v>
+        <v>413</v>
+      </c>
+      <c r="H170" s="8" t="s">
+        <v>1170</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>778</v>
+        <v>1286</v>
       </c>
       <c r="J170" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="K170" s="10">
-        <v>18486</v>
+        <v>1287</v>
+      </c>
+      <c r="K170" s="9">
+        <v>27226</v>
       </c>
       <c r="L170" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M170" s="48">
-        <v>16438</v>
+      <c r="M170" s="36">
+        <v>16142</v>
       </c>
       <c r="N170" s="8" t="s">
-        <v>1430</v>
+        <v>1171</v>
       </c>
       <c r="O170" s="8" t="s">
-        <v>1429</v>
-      </c>
-      <c r="P170"/>
-    </row>
-    <row r="171" spans="1:18" s="8" customFormat="1" ht="75">
-      <c r="A171" s="7"/>
+        <v>1172</v>
+      </c>
+      <c r="P170" s="31" t="s">
+        <v>1173</v>
+      </c>
+      <c r="Q170"/>
+      <c r="R170"/>
+    </row>
+    <row r="171" spans="1:18" s="8" customFormat="1" ht="206.25" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>203</v>
+        <v>453</v>
       </c>
       <c r="E171" s="9">
-        <v>2308</v>
+        <v>2724</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>413</v>
+        <v>792</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>1286</v>
-      </c>
-      <c r="J171" s="8" t="s">
-        <v>1287</v>
+        <v>1276</v>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>1277</v>
       </c>
       <c r="K171" s="9">
-        <v>27226</v>
+        <v>16486</v>
       </c>
       <c r="L171" s="8" t="s">
-        <v>14</v>
+        <v>1177</v>
       </c>
       <c r="M171" s="36">
-        <v>16142</v>
+        <v>16266</v>
       </c>
       <c r="N171" s="8" t="s">
-        <v>1171</v>
+        <v>1178</v>
       </c>
       <c r="O171" s="8" t="s">
-        <v>1172</v>
-      </c>
-      <c r="P171" s="31" t="s">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="Q171"/>
       <c r="R171"/>
     </row>
-    <row r="172" spans="1:18" s="8" customFormat="1" ht="206.25">
+    <row r="172" spans="1:18" s="8" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
-        <v>1174</v>
+        <v>506</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>453</v>
+        <v>145</v>
       </c>
       <c r="E172" s="9">
-        <v>2724</v>
+        <v>43</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>1175</v>
+        <v>1180</v>
       </c>
       <c r="G172" s="8" t="s">
         <v>792</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>1176</v>
+        <v>1181</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>1276</v>
+        <v>802</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>1277</v>
+        <v>1288</v>
       </c>
       <c r="K172" s="9">
-        <v>16486</v>
+        <v>30028</v>
       </c>
       <c r="L172" s="8" t="s">
-        <v>1177</v>
+        <v>14</v>
       </c>
       <c r="M172" s="36">
-        <v>16266</v>
+        <v>15596</v>
       </c>
       <c r="N172" s="8" t="s">
-        <v>1178</v>
+        <v>1047</v>
       </c>
       <c r="O172" s="8" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="Q172"/>
       <c r="R172"/>
     </row>
-    <row r="173" spans="1:18" s="8" customFormat="1" ht="409.5">
+    <row r="173" spans="1:18" s="8" customFormat="1" ht="356.25" x14ac:dyDescent="0.3">
+      <c r="A173" s="7"/>
       <c r="B173" s="8" t="s">
-        <v>506</v>
+        <v>1183</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>145</v>
+        <v>1184</v>
       </c>
       <c r="E173" s="9">
-        <v>43</v>
+        <v>5422</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>792</v>
+        <v>1186</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>802</v>
+        <v>1289</v>
       </c>
       <c r="J173" s="9" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="K173" s="9">
-        <v>30028</v>
+        <v>29967</v>
       </c>
       <c r="L173" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M173" s="36">
-        <v>15596</v>
+        <v>186</v>
+      </c>
+      <c r="M173" s="9">
+        <v>16358</v>
       </c>
       <c r="N173" s="8" t="s">
-        <v>1047</v>
+        <v>1188</v>
       </c>
       <c r="O173" s="8" t="s">
-        <v>1182</v>
+        <v>1189</v>
       </c>
       <c r="Q173"/>
       <c r="R173"/>
     </row>
-    <row r="174" spans="1:18" s="8" customFormat="1" ht="356.25">
-      <c r="A174" s="7"/>
+    <row r="174" spans="1:18" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.3">
       <c r="B174" s="8" t="s">
-        <v>1183</v>
+        <v>1190</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>1184</v>
+        <v>177</v>
       </c>
       <c r="E174" s="9">
-        <v>5422</v>
+        <v>8949</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>1186</v>
+        <v>208</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>1187</v>
+        <v>1192</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J174" s="9" t="s">
-        <v>1290</v>
+        <v>1291</v>
+      </c>
+      <c r="J174" s="8" t="s">
+        <v>1292</v>
       </c>
       <c r="K174" s="9">
-        <v>29967</v>
+        <v>30093</v>
       </c>
       <c r="L174" s="8" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="M174" s="9">
-        <v>16358</v>
+        <v>16036</v>
       </c>
       <c r="N174" s="8" t="s">
-        <v>1188</v>
+        <v>1193</v>
       </c>
       <c r="O174" s="8" t="s">
-        <v>1189</v>
+        <v>1194</v>
+      </c>
+      <c r="P174" s="31" t="s">
+        <v>1195</v>
       </c>
       <c r="Q174"/>
       <c r="R174"/>
     </row>
-    <row r="175" spans="1:18" s="8" customFormat="1" ht="150">
+    <row r="175" spans="1:18" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.3">
+      <c r="A175" s="7"/>
       <c r="B175" s="8" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E175" s="9">
-        <v>8949</v>
+        <v>152</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>1191</v>
+        <v>104</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>1192</v>
+        <v>107</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>1291</v>
+        <v>1137</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>1292</v>
-      </c>
-      <c r="K175" s="9">
-        <v>30093</v>
-      </c>
-      <c r="L175" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K175" s="10">
+        <v>19030</v>
+      </c>
+      <c r="M175" s="7"/>
+      <c r="O175" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="P175"/>
+    </row>
+    <row r="176" spans="1:18" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="B176" s="8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E176" s="9">
+        <v>4632</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H176" s="8" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I176" s="8" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J176" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K176" s="9">
+        <v>20701</v>
+      </c>
+      <c r="L176" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M175" s="9">
-        <v>16036</v>
-      </c>
-      <c r="N175" s="8" t="s">
-        <v>1193</v>
-      </c>
-      <c r="O175" s="8" t="s">
-        <v>1194</v>
-      </c>
-      <c r="P175" s="31" t="s">
-        <v>1195</v>
-      </c>
-      <c r="Q175"/>
-      <c r="R175"/>
-    </row>
-    <row r="176" spans="1:18" s="8" customFormat="1" ht="150">
-      <c r="A176" s="7"/>
-      <c r="B176" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E176" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F176" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G176" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H176" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I176" s="8" t="s">
-        <v>1137</v>
-      </c>
-      <c r="J176" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K176" s="10">
-        <v>19030</v>
-      </c>
-      <c r="M176" s="7"/>
-      <c r="O176" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="P176"/>
-    </row>
-    <row r="177" spans="1:18" s="8" customFormat="1" ht="112.5">
+      <c r="M176" s="36">
+        <v>16011</v>
+      </c>
+      <c r="N176" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="O176" s="8" t="s">
+        <v>1200</v>
+      </c>
+      <c r="P176" s="31" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Q176"/>
+      <c r="R176"/>
+    </row>
+    <row r="177" spans="1:18" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
-        <v>1196</v>
+        <v>1202</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>448</v>
+        <v>317</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>145</v>
+        <v>350</v>
       </c>
       <c r="E177" s="9">
-        <v>4632</v>
+        <v>748</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="J177" s="8" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="K177" s="9">
-        <v>20701</v>
+        <v>23118</v>
       </c>
       <c r="L177" s="8" t="s">
-        <v>14</v>
+        <v>777</v>
       </c>
       <c r="M177" s="36">
         <v>16011</v>
       </c>
       <c r="N177" s="8" t="s">
-        <v>1199</v>
+        <v>777</v>
       </c>
       <c r="O177" s="8" t="s">
-        <v>1200</v>
-      </c>
-      <c r="P177" s="31" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="Q177"/>
       <c r="R177"/>
     </row>
-    <row r="178" spans="1:18" s="8" customFormat="1" ht="56.25">
+    <row r="178" spans="1:18" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.3">
       <c r="B178" s="8" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>317</v>
+        <v>148</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="E178" s="9">
-        <v>748</v>
+        <v>4390</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="G178" s="8" t="s">
         <v>167</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>1284</v>
+        <v>1293</v>
       </c>
       <c r="J178" s="8" t="s">
-        <v>1285</v>
+        <v>1294</v>
       </c>
       <c r="K178" s="9">
-        <v>23118</v>
+        <v>28094</v>
       </c>
       <c r="L178" s="8" t="s">
-        <v>777</v>
+        <v>14</v>
       </c>
       <c r="M178" s="36">
-        <v>16011</v>
+        <v>15220</v>
       </c>
       <c r="N178" s="8" t="s">
-        <v>777</v>
+        <v>1209</v>
       </c>
       <c r="O178" s="8" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="Q178"/>
       <c r="R178"/>
     </row>
-    <row r="179" spans="1:18" s="8" customFormat="1" ht="131.25">
+    <row r="179" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
-        <v>1206</v>
+        <v>1436</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>333</v>
+        <v>460</v>
       </c>
       <c r="E179" s="9">
-        <v>4390</v>
+        <v>7719</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>1207</v>
+        <v>1437</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>1208</v>
+        <v>1444</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>1293</v>
-      </c>
-      <c r="J179" s="8" t="s">
-        <v>1294</v>
+        <v>1438</v>
+      </c>
+      <c r="J179" s="93" t="s">
+        <v>1737</v>
       </c>
       <c r="K179" s="9">
-        <v>28094</v>
+        <v>36894</v>
       </c>
       <c r="L179" s="8" t="s">
-        <v>14</v>
+        <v>1323</v>
       </c>
       <c r="M179" s="36">
-        <v>15220</v>
+        <v>15919</v>
       </c>
       <c r="N179" s="8" t="s">
-        <v>1209</v>
+        <v>1047</v>
       </c>
       <c r="O179" s="8" t="s">
-        <v>1210</v>
-      </c>
+        <v>1442</v>
+      </c>
+      <c r="P179"/>
       <c r="Q179"/>
       <c r="R179"/>
     </row>
-    <row r="180" spans="1:18" s="8" customFormat="1" ht="75">
+    <row r="180" spans="1:18" s="8" customFormat="1" ht="93.75" x14ac:dyDescent="0.3">
       <c r="B180" s="8" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>460</v>
+        <v>1441</v>
       </c>
       <c r="E180" s="9">
-        <v>7719</v>
+        <v>3130</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>1437</v>
+        <v>1443</v>
       </c>
       <c r="G180" s="8" t="s">
         <v>172</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>1444</v>
-      </c>
-      <c r="I180" s="8" t="s">
-        <v>1438</v>
-      </c>
-      <c r="J180" s="93" t="s">
-        <v>1737</v>
+        <v>1446</v>
+      </c>
+      <c r="I180" s="31" t="s">
+        <v>1445</v>
+      </c>
+      <c r="J180" s="50" t="s">
+        <v>1736</v>
       </c>
       <c r="K180" s="9">
-        <v>36894</v>
+        <v>31445</v>
       </c>
       <c r="L180" s="8" t="s">
-        <v>1323</v>
+        <v>1439</v>
       </c>
       <c r="M180" s="36">
-        <v>15919</v>
+        <v>16547</v>
       </c>
       <c r="N180" s="8" t="s">
-        <v>1047</v>
+        <v>902</v>
       </c>
       <c r="O180" s="8" t="s">
-        <v>1442</v>
+        <v>1447</v>
       </c>
       <c r="P180"/>
       <c r="Q180"/>
       <c r="R180"/>
     </row>
-    <row r="181" spans="1:18" s="8" customFormat="1" ht="93.75">
-      <c r="B181" s="8" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>1441</v>
-      </c>
-      <c r="E181" s="9">
-        <v>3130</v>
-      </c>
-      <c r="F181" s="8" t="s">
-        <v>1443</v>
-      </c>
-      <c r="G181" s="8" t="s">
+    <row r="181" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="A181" s="140"/>
+      <c r="B181" s="142" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C181" s="142" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D181" s="142" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E181" s="137">
+        <v>6797</v>
+      </c>
+      <c r="F181" s="142" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G181" s="142" t="s">
         <v>172</v>
       </c>
-      <c r="H181" s="8" t="s">
-        <v>1446</v>
-      </c>
-      <c r="I181" s="31" t="s">
-        <v>1445</v>
-      </c>
-      <c r="J181" s="50" t="s">
-        <v>1736</v>
-      </c>
-      <c r="K181" s="9">
-        <v>31445</v>
-      </c>
-      <c r="L181" s="8" t="s">
-        <v>1439</v>
-      </c>
-      <c r="M181" s="36">
-        <v>16547</v>
-      </c>
-      <c r="N181" s="8" t="s">
-        <v>902</v>
-      </c>
-      <c r="O181" s="8" t="s">
-        <v>1447</v>
-      </c>
-      <c r="P181"/>
-      <c r="Q181"/>
-      <c r="R181"/>
-    </row>
-    <row r="182" spans="1:18" s="8" customFormat="1" ht="75">
+      <c r="H181" s="142" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I181" s="93" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J181" s="142" t="s">
+        <v>1738</v>
+      </c>
+      <c r="K181" s="2">
+        <v>36918</v>
+      </c>
+      <c r="L181" s="142" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M181" s="140" t="s">
+        <v>1724</v>
+      </c>
+      <c r="N181" s="142" t="s">
+        <v>1725</v>
+      </c>
+      <c r="O181" s="142" t="s">
+        <v>1726</v>
+      </c>
+      <c r="P181" s="140"/>
+      <c r="Q181" s="140"/>
+      <c r="R181" s="140"/>
+    </row>
+    <row r="182" spans="1:18" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A182" s="140"/>
       <c r="B182" s="142" t="s">
-        <v>1718</v>
+        <v>1727</v>
       </c>
       <c r="C182" s="142" t="s">
-        <v>1719</v>
+        <v>144</v>
       </c>
       <c r="D182" s="142" t="s">
-        <v>1720</v>
+        <v>145</v>
       </c>
       <c r="E182" s="137">
-        <v>6797</v>
+        <v>1338</v>
       </c>
       <c r="F182" s="142" t="s">
-        <v>1721</v>
+        <v>1728</v>
       </c>
       <c r="G182" s="142" t="s">
         <v>172</v>
       </c>
       <c r="H182" s="142" t="s">
-        <v>1722</v>
+        <v>1735</v>
       </c>
       <c r="I182" s="93" t="s">
-        <v>1723</v>
-      </c>
-      <c r="J182" s="142" t="s">
-        <v>1738</v>
-      </c>
-      <c r="K182" s="2">
-        <v>36918</v>
+        <v>1729</v>
+      </c>
+      <c r="J182" s="140"/>
+      <c r="K182" s="137">
+        <v>30994</v>
       </c>
       <c r="L182" s="142" t="s">
         <v>1518</v>
       </c>
-      <c r="M182" s="140" t="s">
-        <v>1724</v>
+      <c r="M182" s="153">
+        <v>1943</v>
       </c>
       <c r="N182" s="142" t="s">
-        <v>1725</v>
+        <v>1047</v>
       </c>
       <c r="O182" s="142" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="P182" s="140"/>
       <c r="Q182" s="140"/>
       <c r="R182" s="140"/>
     </row>
-    <row r="183" spans="1:18" s="8" customFormat="1" ht="56.25">
+    <row r="183" spans="1:18" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A183" s="140"/>
       <c r="B183" s="142" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="C183" s="142" t="s">
-        <v>144</v>
+        <v>1732</v>
       </c>
       <c r="D183" s="142" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="E183" s="137">
-        <v>1338</v>
+        <v>5529</v>
       </c>
       <c r="F183" s="142" t="s">
-        <v>1728</v>
+        <v>1733</v>
       </c>
       <c r="G183" s="142" t="s">
         <v>172</v>
       </c>
-      <c r="H183" s="142" t="s">
-        <v>1735</v>
-      </c>
+      <c r="H183" s="140"/>
       <c r="I183" s="93" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J183" s="140"/>
+        <v>1740</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>1739</v>
+      </c>
       <c r="K183" s="137">
-        <v>30994</v>
+        <v>34195</v>
       </c>
       <c r="L183" s="142" t="s">
         <v>1518</v>
       </c>
-      <c r="M183" s="153">
-        <v>1943</v>
-      </c>
-      <c r="N183" s="142" t="s">
-        <v>1047</v>
-      </c>
+      <c r="M183" s="140"/>
+      <c r="N183" s="140"/>
       <c r="O183" s="142" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="P183" s="140"/>
       <c r="Q183" s="140"/>
       <c r="R183" s="140"/>
     </row>
-    <row r="184" spans="1:18" s="8" customFormat="1" ht="75">
-      <c r="A184" s="140"/>
-      <c r="B184" s="142" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C184" s="142" t="s">
-        <v>1732</v>
-      </c>
-      <c r="D184" s="142" t="s">
-        <v>113</v>
-      </c>
-      <c r="E184" s="137">
-        <v>5529</v>
-      </c>
-      <c r="F184" s="142" t="s">
-        <v>1733</v>
-      </c>
-      <c r="G184" s="142" t="s">
-        <v>172</v>
-      </c>
-      <c r="H184" s="140"/>
-      <c r="I184" s="93" t="s">
-        <v>1740</v>
-      </c>
-      <c r="J184" s="1" t="s">
-        <v>1739</v>
-      </c>
-      <c r="K184" s="137">
-        <v>34195</v>
-      </c>
-      <c r="L184" s="142" t="s">
-        <v>1518</v>
-      </c>
-      <c r="M184" s="140"/>
-      <c r="N184" s="140"/>
-      <c r="O184" s="142" t="s">
-        <v>1734</v>
-      </c>
-      <c r="P184" s="140"/>
-      <c r="Q184" s="140"/>
-      <c r="R184" s="140"/>
-    </row>
-    <row r="185" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="184" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A184"/>
+      <c r="B184"/>
+      <c r="C184"/>
+      <c r="D184"/>
+      <c r="E184"/>
+      <c r="F184"/>
+      <c r="G184"/>
+      <c r="H184"/>
+      <c r="I184"/>
+      <c r="J184"/>
+      <c r="K184"/>
+      <c r="L184"/>
+      <c r="M184"/>
+      <c r="N184"/>
+      <c r="O184"/>
+      <c r="P184"/>
+      <c r="Q184"/>
+      <c r="R184"/>
+    </row>
+    <row r="185" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
@@ -15449,7 +15422,7 @@
       <c r="Q185"/>
       <c r="R185"/>
     </row>
-    <row r="186" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="186" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
@@ -15469,7 +15442,7 @@
       <c r="Q186"/>
       <c r="R186"/>
     </row>
-    <row r="187" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="187" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
@@ -15489,7 +15462,7 @@
       <c r="Q187"/>
       <c r="R187"/>
     </row>
-    <row r="188" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="188" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
@@ -15509,7 +15482,7 @@
       <c r="Q188"/>
       <c r="R188"/>
     </row>
-    <row r="189" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="189" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
@@ -15529,7 +15502,7 @@
       <c r="Q189"/>
       <c r="R189"/>
     </row>
-    <row r="190" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="190" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
@@ -15549,7 +15522,7 @@
       <c r="Q190"/>
       <c r="R190"/>
     </row>
-    <row r="191" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="191" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -15569,7 +15542,7 @@
       <c r="Q191"/>
       <c r="R191"/>
     </row>
-    <row r="192" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="192" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
@@ -15589,7 +15562,7 @@
       <c r="Q192"/>
       <c r="R192"/>
     </row>
-    <row r="193" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="193" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
@@ -15609,7 +15582,7 @@
       <c r="Q193"/>
       <c r="R193"/>
     </row>
-    <row r="194" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="194" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
@@ -15629,7 +15602,7 @@
       <c r="Q194"/>
       <c r="R194"/>
     </row>
-    <row r="195" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="195" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
@@ -15649,7 +15622,7 @@
       <c r="Q195"/>
       <c r="R195"/>
     </row>
-    <row r="196" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="196" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
@@ -15669,7 +15642,7 @@
       <c r="Q196"/>
       <c r="R196"/>
     </row>
-    <row r="197" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="197" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
@@ -15689,7 +15662,7 @@
       <c r="Q197"/>
       <c r="R197"/>
     </row>
-    <row r="198" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="198" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
@@ -15709,7 +15682,7 @@
       <c r="Q198"/>
       <c r="R198"/>
     </row>
-    <row r="199" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="199" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
@@ -15729,7 +15702,7 @@
       <c r="Q199"/>
       <c r="R199"/>
     </row>
-    <row r="200" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="200" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
@@ -15749,7 +15722,7 @@
       <c r="Q200"/>
       <c r="R200"/>
     </row>
-    <row r="201" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="201" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
@@ -15769,7 +15742,7 @@
       <c r="Q201"/>
       <c r="R201"/>
     </row>
-    <row r="202" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="202" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
@@ -15789,7 +15762,7 @@
       <c r="Q202"/>
       <c r="R202"/>
     </row>
-    <row r="203" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="203" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
@@ -15809,7 +15782,7 @@
       <c r="Q203"/>
       <c r="R203"/>
     </row>
-    <row r="204" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="204" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
@@ -15829,7 +15802,7 @@
       <c r="Q204"/>
       <c r="R204"/>
     </row>
-    <row r="205" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="205" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
@@ -15849,7 +15822,7 @@
       <c r="Q205"/>
       <c r="R205"/>
     </row>
-    <row r="206" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="206" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
@@ -15869,7 +15842,7 @@
       <c r="Q206"/>
       <c r="R206"/>
     </row>
-    <row r="207" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="207" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
@@ -15889,7 +15862,7 @@
       <c r="Q207"/>
       <c r="R207"/>
     </row>
-    <row r="208" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="208" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
@@ -15909,7 +15882,7 @@
       <c r="Q208"/>
       <c r="R208"/>
     </row>
-    <row r="209" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="209" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
@@ -15929,7 +15902,7 @@
       <c r="Q209"/>
       <c r="R209"/>
     </row>
-    <row r="210" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="210" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -15949,7 +15922,7 @@
       <c r="Q210"/>
       <c r="R210"/>
     </row>
-    <row r="211" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="211" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
@@ -15969,7 +15942,7 @@
       <c r="Q211"/>
       <c r="R211"/>
     </row>
-    <row r="212" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="212" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
@@ -15989,7 +15962,7 @@
       <c r="Q212"/>
       <c r="R212"/>
     </row>
-    <row r="213" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="213" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -16009,7 +15982,7 @@
       <c r="Q213"/>
       <c r="R213"/>
     </row>
-    <row r="214" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="214" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
@@ -16029,7 +16002,7 @@
       <c r="Q214"/>
       <c r="R214"/>
     </row>
-    <row r="215" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="215" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
@@ -16049,7 +16022,7 @@
       <c r="Q215"/>
       <c r="R215"/>
     </row>
-    <row r="216" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="216" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
@@ -16069,7 +16042,7 @@
       <c r="Q216"/>
       <c r="R216"/>
     </row>
-    <row r="217" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="217" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
@@ -16089,7 +16062,7 @@
       <c r="Q217"/>
       <c r="R217"/>
     </row>
-    <row r="218" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="218" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
@@ -16109,7 +16082,7 @@
       <c r="Q218"/>
       <c r="R218"/>
     </row>
-    <row r="219" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="219" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
@@ -16129,7 +16102,7 @@
       <c r="Q219"/>
       <c r="R219"/>
     </row>
-    <row r="220" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="220" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
@@ -16149,7 +16122,7 @@
       <c r="Q220"/>
       <c r="R220"/>
     </row>
-    <row r="221" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="221" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -16169,7 +16142,7 @@
       <c r="Q221"/>
       <c r="R221"/>
     </row>
-    <row r="222" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="222" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -16189,7 +16162,7 @@
       <c r="Q222"/>
       <c r="R222"/>
     </row>
-    <row r="223" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="223" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -16209,7 +16182,7 @@
       <c r="Q223"/>
       <c r="R223"/>
     </row>
-    <row r="224" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="224" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
@@ -16229,7 +16202,7 @@
       <c r="Q224"/>
       <c r="R224"/>
     </row>
-    <row r="225" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="225" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
@@ -16249,7 +16222,7 @@
       <c r="Q225"/>
       <c r="R225"/>
     </row>
-    <row r="226" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="226" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
@@ -16269,7 +16242,7 @@
       <c r="Q226"/>
       <c r="R226"/>
     </row>
-    <row r="227" spans="1:18" s="8" customFormat="1" ht="18.75">
+    <row r="227" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
@@ -16289,321 +16262,301 @@
       <c r="Q227"/>
       <c r="R227"/>
     </row>
-    <row r="228" spans="1:18" s="8" customFormat="1" ht="18.75">
-      <c r="A228"/>
-      <c r="B228"/>
-      <c r="C228"/>
-      <c r="D228"/>
-      <c r="E228"/>
-      <c r="F228"/>
-      <c r="G228"/>
-      <c r="H228"/>
-      <c r="I228"/>
-      <c r="J228"/>
-      <c r="K228"/>
-      <c r="L228"/>
-      <c r="M228"/>
-      <c r="N228"/>
-      <c r="O228"/>
-      <c r="P228"/>
-      <c r="Q228"/>
-      <c r="R228"/>
-    </row>
-    <row r="229" spans="1:18" s="8" customFormat="1" ht="18.75"/>
-    <row r="230" spans="1:18" s="8" customFormat="1" ht="18.75"/>
-    <row r="231" spans="1:18" s="8" customFormat="1" ht="18.75"/>
-    <row r="232" spans="1:18" s="8" customFormat="1" ht="18.75"/>
-    <row r="233" spans="1:18" s="8" customFormat="1" ht="18.75"/>
-    <row r="234" spans="1:18" s="8" customFormat="1" ht="18.75"/>
-    <row r="235" spans="1:18" s="8" customFormat="1" ht="18.75"/>
-    <row r="236" spans="1:18" s="8" customFormat="1" ht="18.75"/>
-    <row r="237" spans="1:18" s="8" customFormat="1" ht="18.75"/>
-    <row r="238" spans="1:18" s="8" customFormat="1" ht="18.75"/>
-    <row r="239" spans="1:18" s="8" customFormat="1" ht="18.75"/>
-    <row r="240" spans="1:18" s="8" customFormat="1" ht="18.75"/>
-    <row r="241" s="8" customFormat="1" ht="18.75"/>
-    <row r="242" s="8" customFormat="1" ht="18.75"/>
-    <row r="243" s="8" customFormat="1" ht="18.75"/>
-    <row r="244" s="8" customFormat="1" ht="18.75"/>
-    <row r="245" s="8" customFormat="1" ht="18.75"/>
-    <row r="246" s="8" customFormat="1" ht="18.75"/>
-    <row r="247" s="8" customFormat="1" ht="18.75"/>
-    <row r="248" s="8" customFormat="1" ht="18.75"/>
-    <row r="249" s="8" customFormat="1" ht="18.75"/>
-    <row r="250" s="8" customFormat="1" ht="18.75"/>
-    <row r="251" s="8" customFormat="1" ht="18.75"/>
-    <row r="252" s="8" customFormat="1" ht="18.75"/>
-    <row r="253" s="8" customFormat="1" ht="18.75"/>
-    <row r="254" s="8" customFormat="1" ht="18.75"/>
-    <row r="255" s="8" customFormat="1" ht="18.75"/>
-    <row r="256" s="8" customFormat="1" ht="18.75"/>
-    <row r="257" s="8" customFormat="1" ht="18.75"/>
-    <row r="258" s="8" customFormat="1" ht="18.75"/>
-    <row r="259" s="8" customFormat="1" ht="18.75"/>
-    <row r="260" s="8" customFormat="1" ht="18.75"/>
-    <row r="261" s="8" customFormat="1" ht="18.75"/>
-    <row r="262" s="8" customFormat="1" ht="18.75"/>
-    <row r="263" s="8" customFormat="1" ht="18.75"/>
-    <row r="264" s="8" customFormat="1" ht="18.75"/>
-    <row r="265" s="8" customFormat="1" ht="18.75"/>
-    <row r="266" s="8" customFormat="1" ht="18.75"/>
-    <row r="267" s="8" customFormat="1" ht="18.75"/>
-    <row r="268" s="8" customFormat="1" ht="18.75"/>
-    <row r="269" s="8" customFormat="1" ht="18.75"/>
-    <row r="270" s="8" customFormat="1" ht="18.75"/>
-    <row r="271" s="8" customFormat="1" ht="18.75"/>
-    <row r="272" s="8" customFormat="1" ht="18.75"/>
-    <row r="273" s="8" customFormat="1" ht="18.75"/>
-    <row r="274" s="8" customFormat="1" ht="18.75"/>
-    <row r="275" s="8" customFormat="1" ht="18.75"/>
-    <row r="276" s="8" customFormat="1" ht="18.75"/>
-    <row r="277" s="8" customFormat="1" ht="18.75"/>
-    <row r="278" s="8" customFormat="1" ht="18.75"/>
-    <row r="279" s="8" customFormat="1" ht="18.75"/>
-    <row r="280" s="8" customFormat="1" ht="18.75"/>
-    <row r="281" s="8" customFormat="1" ht="18.75"/>
-    <row r="282" s="8" customFormat="1" ht="18.75"/>
-    <row r="283" s="8" customFormat="1" ht="18.75"/>
-    <row r="284" s="8" customFormat="1" ht="18.75"/>
-    <row r="285" s="8" customFormat="1" ht="18.75"/>
-    <row r="286" s="8" customFormat="1" ht="18.75"/>
-    <row r="287" s="8" customFormat="1" ht="18.75"/>
-    <row r="288" s="8" customFormat="1" ht="18.75"/>
-    <row r="289" s="8" customFormat="1" ht="18.75"/>
-    <row r="290" s="8" customFormat="1" ht="18.75"/>
-    <row r="291" s="8" customFormat="1" ht="18.75"/>
-    <row r="292" s="8" customFormat="1" ht="18.75"/>
-    <row r="293" s="8" customFormat="1" ht="18.75"/>
-    <row r="294" s="8" customFormat="1" ht="18.75"/>
-    <row r="295" s="8" customFormat="1" ht="18.75"/>
-    <row r="296" s="8" customFormat="1" ht="18.75"/>
-    <row r="297" s="8" customFormat="1" ht="18.75"/>
-    <row r="298" s="8" customFormat="1" ht="18.75"/>
-    <row r="299" s="8" customFormat="1" ht="18.75"/>
-    <row r="300" s="8" customFormat="1" ht="18.75"/>
-    <row r="301" s="8" customFormat="1" ht="18.75"/>
-    <row r="302" s="8" customFormat="1" ht="18.75"/>
-    <row r="303" s="8" customFormat="1" ht="18.75"/>
-    <row r="304" s="8" customFormat="1" ht="18.75"/>
-    <row r="305" s="8" customFormat="1" ht="18.75"/>
-    <row r="306" s="8" customFormat="1" ht="18.75"/>
-    <row r="307" s="8" customFormat="1" ht="18.75"/>
-    <row r="308" s="8" customFormat="1" ht="18.75"/>
-    <row r="309" s="8" customFormat="1" ht="18.75"/>
-    <row r="310" s="8" customFormat="1" ht="18.75"/>
-    <row r="311" s="8" customFormat="1" ht="18.75"/>
-    <row r="312" s="8" customFormat="1" ht="18.75"/>
-    <row r="313" s="8" customFormat="1" ht="18.75"/>
-    <row r="314" s="8" customFormat="1" ht="18.75"/>
-    <row r="315" s="8" customFormat="1" ht="18.75"/>
-    <row r="316" s="8" customFormat="1" ht="18.75"/>
-    <row r="317" s="8" customFormat="1" ht="18.75"/>
-    <row r="318" s="8" customFormat="1" ht="18.75"/>
-    <row r="319" s="8" customFormat="1" ht="18.75"/>
-    <row r="320" s="8" customFormat="1" ht="18.75"/>
-    <row r="321" s="8" customFormat="1" ht="18.75"/>
-    <row r="322" s="8" customFormat="1" ht="18.75"/>
-    <row r="323" s="8" customFormat="1" ht="18.75"/>
-    <row r="324" s="8" customFormat="1" ht="18.75"/>
-    <row r="325" s="8" customFormat="1" ht="18.75"/>
-    <row r="326" s="8" customFormat="1" ht="18.75"/>
-    <row r="327" s="8" customFormat="1" ht="18.75"/>
-    <row r="328" s="8" customFormat="1" ht="18.75"/>
-    <row r="329" s="8" customFormat="1" ht="18.75"/>
-    <row r="330" s="8" customFormat="1" ht="18.75"/>
-    <row r="331" s="8" customFormat="1" ht="18.75"/>
-    <row r="332" s="8" customFormat="1" ht="18.75"/>
-    <row r="333" s="8" customFormat="1" ht="18.75"/>
-    <row r="334" s="8" customFormat="1" ht="18.75"/>
-    <row r="335" s="8" customFormat="1" ht="18.75"/>
-    <row r="336" s="8" customFormat="1" ht="18.75"/>
-    <row r="337" s="8" customFormat="1" ht="18.75"/>
-    <row r="338" s="8" customFormat="1" ht="18.75"/>
-    <row r="339" s="8" customFormat="1" ht="18.75"/>
-    <row r="340" s="8" customFormat="1" ht="18.75"/>
-    <row r="341" s="8" customFormat="1" ht="18.75"/>
-    <row r="342" s="8" customFormat="1" ht="18.75"/>
-    <row r="343" s="8" customFormat="1" ht="18.75"/>
-    <row r="344" s="8" customFormat="1" ht="18.75"/>
-    <row r="345" s="8" customFormat="1" ht="18.75"/>
-    <row r="346" s="8" customFormat="1" ht="18.75"/>
-    <row r="347" s="8" customFormat="1" ht="18.75"/>
-    <row r="348" s="8" customFormat="1" ht="18.75"/>
-    <row r="349" s="8" customFormat="1" ht="18.75"/>
-    <row r="350" s="8" customFormat="1" ht="18.75"/>
-    <row r="351" s="8" customFormat="1" ht="18.75"/>
-    <row r="352" s="8" customFormat="1" ht="18.75"/>
-    <row r="353" s="8" customFormat="1" ht="18.75"/>
-    <row r="354" s="8" customFormat="1" ht="18.75"/>
-    <row r="355" s="8" customFormat="1" ht="18.75"/>
-    <row r="356" s="8" customFormat="1" ht="18.75"/>
-    <row r="357" s="8" customFormat="1" ht="18.75"/>
-    <row r="358" s="8" customFormat="1" ht="18.75"/>
-    <row r="359" s="8" customFormat="1" ht="18.75"/>
-    <row r="360" s="8" customFormat="1" ht="18.75"/>
-    <row r="361" s="8" customFormat="1" ht="18.75"/>
-    <row r="362" s="8" customFormat="1" ht="18.75"/>
-    <row r="363" s="8" customFormat="1" ht="18.75"/>
-    <row r="364" s="8" customFormat="1" ht="18.75"/>
-    <row r="365" s="8" customFormat="1" ht="18.75"/>
-    <row r="366" s="8" customFormat="1" ht="18.75"/>
-    <row r="367" s="8" customFormat="1" ht="18.75"/>
-    <row r="368" s="8" customFormat="1" ht="18.75"/>
-    <row r="369" s="8" customFormat="1" ht="18.75"/>
-    <row r="370" s="8" customFormat="1" ht="18.75"/>
-    <row r="371" s="8" customFormat="1" ht="18.75"/>
-    <row r="372" s="8" customFormat="1" ht="18.75"/>
-    <row r="373" s="8" customFormat="1" ht="18.75"/>
-    <row r="374" s="8" customFormat="1" ht="18.75"/>
-    <row r="375" s="8" customFormat="1" ht="18.75"/>
-    <row r="376" s="8" customFormat="1" ht="18.75"/>
-    <row r="377" s="8" customFormat="1" ht="18.75"/>
-    <row r="378" s="8" customFormat="1" ht="18.75"/>
-    <row r="379" s="8" customFormat="1" ht="18.75"/>
-    <row r="380" s="8" customFormat="1" ht="18.75"/>
-    <row r="381" s="8" customFormat="1" ht="18.75"/>
-    <row r="382" s="8" customFormat="1" ht="18.75"/>
-    <row r="383" s="8" customFormat="1" ht="18.75"/>
-    <row r="384" s="8" customFormat="1" ht="18.75"/>
-    <row r="385" s="8" customFormat="1" ht="18.75"/>
-    <row r="386" s="8" customFormat="1" ht="18.75"/>
-    <row r="387" s="8" customFormat="1" ht="18.75"/>
-    <row r="388" s="8" customFormat="1" ht="18.75"/>
-    <row r="389" s="8" customFormat="1" ht="18.75"/>
-    <row r="390" s="8" customFormat="1" ht="18.75"/>
-    <row r="391" s="8" customFormat="1" ht="18.75"/>
-    <row r="392" s="8" customFormat="1" ht="18.75"/>
-    <row r="393" s="8" customFormat="1" ht="18.75"/>
-    <row r="394" s="8" customFormat="1" ht="18.75"/>
-    <row r="395" s="8" customFormat="1" ht="18.75"/>
-    <row r="396" s="8" customFormat="1" ht="18.75"/>
-    <row r="397" s="8" customFormat="1" ht="18.75"/>
-    <row r="398" s="8" customFormat="1" ht="18.75"/>
-    <row r="399" s="8" customFormat="1" ht="18.75"/>
-    <row r="400" s="8" customFormat="1" ht="18.75"/>
-    <row r="401" s="8" customFormat="1" ht="18.75"/>
-    <row r="402" s="8" customFormat="1" ht="18.75"/>
-    <row r="403" s="8" customFormat="1" ht="18.75"/>
-    <row r="404" s="8" customFormat="1" ht="18.75"/>
-    <row r="405" s="8" customFormat="1" ht="18.75"/>
-    <row r="406" s="8" customFormat="1" ht="18.75"/>
-    <row r="407" s="8" customFormat="1" ht="18.75"/>
-    <row r="408" s="8" customFormat="1" ht="18.75"/>
-    <row r="409" s="8" customFormat="1" ht="18.75"/>
-    <row r="410" s="8" customFormat="1" ht="18.75"/>
-    <row r="411" s="8" customFormat="1" ht="18.75"/>
-    <row r="412" s="8" customFormat="1" ht="18.75"/>
-    <row r="413" s="8" customFormat="1" ht="18.75"/>
-    <row r="414" s="8" customFormat="1" ht="18.75"/>
-    <row r="415" s="8" customFormat="1" ht="18.75"/>
-    <row r="416" s="8" customFormat="1" ht="18.75"/>
-    <row r="417" s="8" customFormat="1" ht="18.75"/>
-    <row r="418" s="8" customFormat="1" ht="18.75"/>
-    <row r="419" s="8" customFormat="1" ht="18.75"/>
-    <row r="420" s="8" customFormat="1" ht="18.75"/>
-    <row r="421" s="8" customFormat="1" ht="18.75"/>
-    <row r="422" s="8" customFormat="1" ht="18.75"/>
-    <row r="423" s="8" customFormat="1" ht="18.75"/>
-    <row r="424" s="8" customFormat="1" ht="18.75"/>
-    <row r="425" s="8" customFormat="1" ht="18.75"/>
-    <row r="426" s="8" customFormat="1" ht="18.75"/>
-    <row r="427" s="8" customFormat="1" ht="18.75"/>
-    <row r="428" s="8" customFormat="1" ht="18.75"/>
-    <row r="429" s="8" customFormat="1" ht="18.75"/>
-    <row r="430" s="8" customFormat="1" ht="18.75"/>
-    <row r="431" s="8" customFormat="1" ht="18.75"/>
-    <row r="432" s="8" customFormat="1" ht="18.75"/>
-    <row r="433" s="8" customFormat="1" ht="18.75"/>
-    <row r="434" s="8" customFormat="1" ht="18.75"/>
-    <row r="435" s="8" customFormat="1" ht="18.75"/>
-    <row r="436" s="8" customFormat="1" ht="18.75"/>
-    <row r="437" s="8" customFormat="1" ht="18.75"/>
-    <row r="438" s="8" customFormat="1" ht="18.75"/>
-    <row r="439" s="8" customFormat="1" ht="18.75"/>
-    <row r="440" s="8" customFormat="1" ht="18.75"/>
-    <row r="441" s="8" customFormat="1" ht="18.75"/>
-    <row r="442" s="8" customFormat="1" ht="18.75"/>
-    <row r="443" s="8" customFormat="1" ht="18.75"/>
-    <row r="444" s="8" customFormat="1" ht="18.75"/>
-    <row r="445" s="8" customFormat="1" ht="18.75"/>
-    <row r="446" s="8" customFormat="1" ht="18.75"/>
-    <row r="447" s="8" customFormat="1" ht="18.75"/>
-    <row r="448" s="8" customFormat="1" ht="18.75"/>
-    <row r="449" s="8" customFormat="1" ht="18.75"/>
-    <row r="450" s="8" customFormat="1" ht="18.75"/>
-    <row r="451" s="8" customFormat="1" ht="18.75"/>
-    <row r="452" s="8" customFormat="1" ht="18.75"/>
-    <row r="453" s="8" customFormat="1" ht="18.75"/>
-    <row r="454" s="8" customFormat="1" ht="18.75"/>
-    <row r="455" s="8" customFormat="1" ht="18.75"/>
-    <row r="456" s="8" customFormat="1" ht="18.75"/>
-    <row r="457" s="8" customFormat="1" ht="18.75"/>
-    <row r="458" s="8" customFormat="1" ht="18.75"/>
-    <row r="459" s="8" customFormat="1" ht="18.75"/>
-    <row r="460" s="8" customFormat="1" ht="18.75"/>
-    <row r="461" s="8" customFormat="1" ht="18.75"/>
-    <row r="462" s="8" customFormat="1" ht="18.75"/>
-    <row r="463" s="8" customFormat="1" ht="18.75"/>
-    <row r="464" s="8" customFormat="1" ht="18.75"/>
-    <row r="465" s="8" customFormat="1" ht="18.75"/>
-    <row r="466" s="8" customFormat="1" ht="18.75"/>
-    <row r="467" s="8" customFormat="1" ht="18.75"/>
-    <row r="468" s="8" customFormat="1" ht="18.75"/>
-    <row r="469" s="8" customFormat="1" ht="18.75"/>
-    <row r="470" s="8" customFormat="1" ht="18.75"/>
-    <row r="471" s="8" customFormat="1" ht="18.75"/>
-    <row r="472" s="8" customFormat="1" ht="18.75"/>
-    <row r="473" s="8" customFormat="1" ht="18.75"/>
-    <row r="474" s="8" customFormat="1" ht="18.75"/>
-    <row r="475" s="8" customFormat="1" ht="18.75"/>
-    <row r="476" s="8" customFormat="1" ht="18.75"/>
-    <row r="477" s="8" customFormat="1" ht="18.75"/>
-    <row r="478" s="8" customFormat="1" ht="18.75"/>
-    <row r="479" s="8" customFormat="1" ht="18.75"/>
-    <row r="480" s="8" customFormat="1" ht="18.75"/>
-    <row r="481" s="8" customFormat="1" ht="18.75"/>
-    <row r="482" s="8" customFormat="1" ht="18.75"/>
-    <row r="483" s="8" customFormat="1" ht="18.75"/>
-    <row r="484" s="8" customFormat="1" ht="18.75"/>
-    <row r="485" s="8" customFormat="1" ht="18.75"/>
-    <row r="486" s="8" customFormat="1" ht="18.75"/>
-    <row r="487" s="8" customFormat="1" ht="18.75"/>
-    <row r="488" s="8" customFormat="1" ht="18.75"/>
-    <row r="489" s="8" customFormat="1" ht="18.75"/>
-    <row r="490" s="8" customFormat="1" ht="18.75"/>
-    <row r="491" s="8" customFormat="1" ht="18.75"/>
-    <row r="492" s="8" customFormat="1" ht="18.75"/>
-    <row r="493" s="8" customFormat="1" ht="18.75"/>
-    <row r="494" s="8" customFormat="1" ht="18.75"/>
-    <row r="495" s="8" customFormat="1" ht="18.75"/>
-    <row r="496" s="8" customFormat="1" ht="18.75"/>
-    <row r="497" s="8" customFormat="1" ht="18.75"/>
-    <row r="498" s="8" customFormat="1" ht="18.75"/>
-    <row r="499" s="8" customFormat="1" ht="18.75"/>
-    <row r="500" s="8" customFormat="1" ht="18.75"/>
-    <row r="501" s="8" customFormat="1" ht="18.75"/>
-    <row r="502" s="8" customFormat="1" ht="18.75"/>
-    <row r="503" s="8" customFormat="1" ht="18.75"/>
-    <row r="504" s="8" customFormat="1" ht="18.75"/>
-    <row r="505" s="8" customFormat="1" ht="18.75"/>
-    <row r="506" s="8" customFormat="1" ht="18.75"/>
-    <row r="507" s="8" customFormat="1" ht="18.75"/>
-    <row r="508" s="8" customFormat="1" ht="18.75"/>
-    <row r="509" s="8" customFormat="1" ht="18.75"/>
-    <row r="510" s="8" customFormat="1" ht="18.75"/>
-    <row r="511" s="8" customFormat="1" ht="18.75"/>
-    <row r="512" s="8" customFormat="1" ht="18.75"/>
-    <row r="513" s="8" customFormat="1" ht="18.75"/>
-    <row r="514" s="8" customFormat="1" ht="18.75"/>
-    <row r="515" s="8" customFormat="1" ht="18.75"/>
-    <row r="516" s="8" customFormat="1" ht="18.75"/>
-    <row r="517" s="8" customFormat="1" ht="18.75"/>
-    <row r="518" s="8" customFormat="1" ht="18.75"/>
-    <row r="519" s="8" customFormat="1" ht="18.75"/>
-    <row r="520" s="8" customFormat="1" ht="18.75"/>
-    <row r="521" s="8" customFormat="1" ht="18.75"/>
+    <row r="228" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="229" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="230" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="231" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="232" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="233" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="234" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="235" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="236" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="237" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="238" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="239" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="240" spans="1:18" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="241" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="242" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="243" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="244" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="245" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="246" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="247" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="248" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="249" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="250" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="251" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="252" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="253" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="254" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="255" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="256" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="257" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="258" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="259" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="260" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="261" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="262" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="263" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="264" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="265" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="266" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="267" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="268" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="269" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="270" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="271" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="272" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="273" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="274" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="275" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="276" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="277" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="278" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="279" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="280" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="281" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="282" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="283" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="284" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="285" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="286" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="287" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="288" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="289" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="290" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="291" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="292" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="293" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="294" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="295" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="296" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="297" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="298" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="299" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="300" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="301" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="302" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="303" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="304" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="305" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="306" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="307" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="308" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="309" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="310" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="311" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="312" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="313" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="314" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="315" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="316" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="317" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="318" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="319" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="320" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="321" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="322" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="323" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="324" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="325" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="326" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="327" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="328" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="329" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="330" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="331" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="332" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="333" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="334" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="335" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="336" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="337" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="338" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="339" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="340" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="341" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="342" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="343" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="344" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="345" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="346" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="347" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="348" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="349" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="350" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="351" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="352" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="353" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="354" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="355" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="356" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="357" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="358" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="359" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="360" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="361" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="362" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="363" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="364" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="365" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="366" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="367" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="368" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="369" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="370" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="371" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="372" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="373" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="374" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="375" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="376" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="377" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="378" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="379" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="380" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="381" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="382" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="383" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="384" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="385" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="386" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="387" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="388" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="389" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="390" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="391" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="392" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="393" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="394" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="395" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="396" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="397" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="398" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="399" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="400" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="401" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="402" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="403" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="404" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="405" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="406" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="407" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="408" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="409" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="410" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="411" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="412" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="413" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="414" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="415" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="416" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="417" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="418" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="419" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="420" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="421" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="422" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="423" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="424" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="425" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="426" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="427" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="428" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="429" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="430" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="431" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="432" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="433" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="434" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="435" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="436" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="437" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="438" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="439" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="440" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="441" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="442" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="443" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="444" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="445" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="446" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="447" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="448" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="449" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="450" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="451" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="452" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="453" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="454" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="455" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="456" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="457" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="458" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="459" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="460" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="461" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="462" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="463" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="464" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="465" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="466" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="467" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="468" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="469" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="470" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="471" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="472" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="473" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="474" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="475" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="476" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="477" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="478" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="479" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="480" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="481" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="482" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="483" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="484" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="485" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="486" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="487" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="488" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="489" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="490" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="491" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="492" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="493" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="494" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="495" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="496" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="497" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="498" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="499" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="500" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="501" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="502" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="503" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="504" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="505" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="506" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="507" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="508" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="509" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="510" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="511" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="512" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="513" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="514" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="515" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="516" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="517" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="518" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="519" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="520" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:R181">
+  <autoFilter ref="A1:R180">
     <sortState ref="A2:R183">
       <sortCondition ref="B1:B169"/>
     </sortState>
@@ -16612,10 +16565,10 @@
     <sortCondition ref="B2:B38"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="J176" r:id="rId1"/>
+    <hyperlink ref="J175" r:id="rId1"/>
     <hyperlink ref="J50" r:id="rId2"/>
     <hyperlink ref="J58" r:id="rId3"/>
-    <hyperlink ref="I159" r:id="rId4"/>
+    <hyperlink ref="I158" r:id="rId4"/>
     <hyperlink ref="I96" r:id="rId5"/>
     <hyperlink ref="J96" r:id="rId6"/>
     <hyperlink ref="J82" r:id="rId7"/>
@@ -16624,16 +16577,16 @@
     <hyperlink ref="I111" r:id="rId10"/>
     <hyperlink ref="I110" r:id="rId11"/>
     <hyperlink ref="I112" r:id="rId12"/>
-    <hyperlink ref="J143" r:id="rId13"/>
+    <hyperlink ref="J142" r:id="rId13"/>
     <hyperlink ref="J124" r:id="rId14"/>
-    <hyperlink ref="J144" r:id="rId15"/>
-    <hyperlink ref="I144" r:id="rId16"/>
+    <hyperlink ref="J143" r:id="rId15"/>
+    <hyperlink ref="I143" r:id="rId16"/>
     <hyperlink ref="J60" r:id="rId17"/>
     <hyperlink ref="I60" r:id="rId18"/>
     <hyperlink ref="I127" r:id="rId19"/>
     <hyperlink ref="J127" r:id="rId20"/>
-    <hyperlink ref="I146" r:id="rId21"/>
-    <hyperlink ref="J146" r:id="rId22"/>
+    <hyperlink ref="I145" r:id="rId21"/>
+    <hyperlink ref="J145" r:id="rId22"/>
     <hyperlink ref="J33" r:id="rId23"/>
     <hyperlink ref="J118" r:id="rId24"/>
     <hyperlink ref="I118" r:id="rId25"/>
@@ -16643,13 +16596,13 @@
     <hyperlink ref="J27" r:id="rId29"/>
     <hyperlink ref="I125" r:id="rId30"/>
     <hyperlink ref="J125" r:id="rId31"/>
-    <hyperlink ref="I137" r:id="rId32"/>
-    <hyperlink ref="J137" r:id="rId33"/>
+    <hyperlink ref="I136" r:id="rId32"/>
+    <hyperlink ref="J136" r:id="rId33"/>
     <hyperlink ref="I54" r:id="rId34"/>
     <hyperlink ref="J54" r:id="rId35"/>
     <hyperlink ref="I57" r:id="rId36"/>
     <hyperlink ref="I41" r:id="rId37"/>
-    <hyperlink ref="I138" r:id="rId38"/>
+    <hyperlink ref="I137" r:id="rId38"/>
     <hyperlink ref="I87" r:id="rId39"/>
     <hyperlink ref="J88" r:id="rId40"/>
     <hyperlink ref="J117" r:id="rId41"/>
@@ -16657,32 +16610,32 @@
     <hyperlink ref="I86" r:id="rId43"/>
     <hyperlink ref="J97" r:id="rId44"/>
     <hyperlink ref="P119" r:id="rId45"/>
-    <hyperlink ref="P149" r:id="rId46"/>
-    <hyperlink ref="P151" r:id="rId47"/>
-    <hyperlink ref="P154" r:id="rId48"/>
-    <hyperlink ref="P157" r:id="rId49"/>
-    <hyperlink ref="P156" r:id="rId50"/>
-    <hyperlink ref="P155" r:id="rId51"/>
+    <hyperlink ref="P148" r:id="rId46"/>
+    <hyperlink ref="P150" r:id="rId47"/>
+    <hyperlink ref="P153" r:id="rId48"/>
+    <hyperlink ref="P156" r:id="rId49"/>
+    <hyperlink ref="P155" r:id="rId50"/>
+    <hyperlink ref="P154" r:id="rId51"/>
     <hyperlink ref="I81" r:id="rId52"/>
     <hyperlink ref="J81" r:id="rId53"/>
     <hyperlink ref="I88" r:id="rId54"/>
-    <hyperlink ref="I161" r:id="rId55"/>
-    <hyperlink ref="J161" r:id="rId56"/>
-    <hyperlink ref="I141" r:id="rId57"/>
-    <hyperlink ref="J141" r:id="rId58"/>
+    <hyperlink ref="I160" r:id="rId55"/>
+    <hyperlink ref="J160" r:id="rId56"/>
+    <hyperlink ref="I140" r:id="rId57"/>
+    <hyperlink ref="J140" r:id="rId58"/>
     <hyperlink ref="I117" r:id="rId59"/>
-    <hyperlink ref="I136" r:id="rId60"/>
-    <hyperlink ref="I176" r:id="rId61"/>
-    <hyperlink ref="P162" r:id="rId62"/>
-    <hyperlink ref="P163" r:id="rId63"/>
-    <hyperlink ref="P167" r:id="rId64"/>
-    <hyperlink ref="P171" r:id="rId65"/>
-    <hyperlink ref="P175" r:id="rId66"/>
-    <hyperlink ref="P177" r:id="rId67"/>
+    <hyperlink ref="I135" r:id="rId60"/>
+    <hyperlink ref="I175" r:id="rId61"/>
+    <hyperlink ref="P161" r:id="rId62"/>
+    <hyperlink ref="P162" r:id="rId63"/>
+    <hyperlink ref="P166" r:id="rId64"/>
+    <hyperlink ref="P170" r:id="rId65"/>
+    <hyperlink ref="P174" r:id="rId66"/>
+    <hyperlink ref="P176" r:id="rId67"/>
     <hyperlink ref="I45" r:id="rId68"/>
     <hyperlink ref="J45" r:id="rId69"/>
-    <hyperlink ref="I150" r:id="rId70"/>
-    <hyperlink ref="J150" r:id="rId71"/>
+    <hyperlink ref="I149" r:id="rId70"/>
+    <hyperlink ref="J149" r:id="rId71"/>
     <hyperlink ref="I62" r:id="rId72"/>
     <hyperlink ref="J62" r:id="rId73"/>
     <hyperlink ref="I63" r:id="rId74"/>
@@ -16713,196 +16666,194 @@
     <hyperlink ref="J132" r:id="rId99"/>
     <hyperlink ref="I134" r:id="rId100"/>
     <hyperlink ref="J134" r:id="rId101"/>
-    <hyperlink ref="I140" r:id="rId102"/>
-    <hyperlink ref="J140" r:id="rId103"/>
-    <hyperlink ref="I142" r:id="rId104"/>
-    <hyperlink ref="J142" r:id="rId105"/>
-    <hyperlink ref="I145" r:id="rId106"/>
-    <hyperlink ref="I147" r:id="rId107"/>
-    <hyperlink ref="J147" r:id="rId108"/>
-    <hyperlink ref="I148" r:id="rId109"/>
-    <hyperlink ref="J148" r:id="rId110"/>
-    <hyperlink ref="I149" r:id="rId111"/>
-    <hyperlink ref="J149" r:id="rId112"/>
-    <hyperlink ref="I151" r:id="rId113"/>
-    <hyperlink ref="J151" r:id="rId114"/>
-    <hyperlink ref="I152" r:id="rId115"/>
-    <hyperlink ref="J152" r:id="rId116"/>
-    <hyperlink ref="I153" r:id="rId117"/>
-    <hyperlink ref="J153" r:id="rId118"/>
-    <hyperlink ref="I154" r:id="rId119"/>
-    <hyperlink ref="J154" r:id="rId120"/>
-    <hyperlink ref="I155" r:id="rId121"/>
-    <hyperlink ref="J155" r:id="rId122"/>
+    <hyperlink ref="I139" r:id="rId102"/>
+    <hyperlink ref="J139" r:id="rId103"/>
+    <hyperlink ref="I141" r:id="rId104"/>
+    <hyperlink ref="J141" r:id="rId105"/>
+    <hyperlink ref="I144" r:id="rId106"/>
+    <hyperlink ref="I146" r:id="rId107"/>
+    <hyperlink ref="J146" r:id="rId108"/>
+    <hyperlink ref="I147" r:id="rId109"/>
+    <hyperlink ref="J147" r:id="rId110"/>
+    <hyperlink ref="I148" r:id="rId111"/>
+    <hyperlink ref="J148" r:id="rId112"/>
+    <hyperlink ref="I150" r:id="rId113"/>
+    <hyperlink ref="J150" r:id="rId114"/>
+    <hyperlink ref="I151" r:id="rId115"/>
+    <hyperlink ref="J151" r:id="rId116"/>
+    <hyperlink ref="I152" r:id="rId117"/>
+    <hyperlink ref="J152" r:id="rId118"/>
+    <hyperlink ref="I153" r:id="rId119"/>
+    <hyperlink ref="J153" r:id="rId120"/>
+    <hyperlink ref="I154" r:id="rId121"/>
+    <hyperlink ref="J154" r:id="rId122"/>
     <hyperlink ref="I104" r:id="rId123"/>
     <hyperlink ref="J115" r:id="rId124"/>
-    <hyperlink ref="I143" r:id="rId125"/>
+    <hyperlink ref="I142" r:id="rId125"/>
     <hyperlink ref="I105" r:id="rId126"/>
     <hyperlink ref="I116" r:id="rId127"/>
     <hyperlink ref="J116" r:id="rId128"/>
     <hyperlink ref="J105" r:id="rId129"/>
-    <hyperlink ref="I135" r:id="rId130"/>
-    <hyperlink ref="J135" r:id="rId131"/>
-    <hyperlink ref="I158" r:id="rId132"/>
-    <hyperlink ref="J158" r:id="rId133"/>
-    <hyperlink ref="I156" r:id="rId134"/>
-    <hyperlink ref="J156" r:id="rId135"/>
-    <hyperlink ref="I172" r:id="rId136"/>
-    <hyperlink ref="J172" r:id="rId137"/>
-    <hyperlink ref="I167" r:id="rId138"/>
-    <hyperlink ref="J167" r:id="rId139"/>
-    <hyperlink ref="I169" r:id="rId140"/>
-    <hyperlink ref="J169" r:id="rId141"/>
+    <hyperlink ref="I157" r:id="rId130"/>
+    <hyperlink ref="J157" r:id="rId131"/>
+    <hyperlink ref="I155" r:id="rId132"/>
+    <hyperlink ref="J155" r:id="rId133"/>
+    <hyperlink ref="I171" r:id="rId134"/>
+    <hyperlink ref="J171" r:id="rId135"/>
+    <hyperlink ref="I166" r:id="rId136"/>
+    <hyperlink ref="J166" r:id="rId137"/>
+    <hyperlink ref="I168" r:id="rId138"/>
+    <hyperlink ref="J168" r:id="rId139"/>
+    <hyperlink ref="I176" r:id="rId140"/>
+    <hyperlink ref="J176" r:id="rId141"/>
     <hyperlink ref="I177" r:id="rId142"/>
     <hyperlink ref="J177" r:id="rId143"/>
-    <hyperlink ref="I178" r:id="rId144"/>
-    <hyperlink ref="J178" r:id="rId145"/>
-    <hyperlink ref="I171" r:id="rId146"/>
-    <hyperlink ref="J171" r:id="rId147"/>
+    <hyperlink ref="I170" r:id="rId144"/>
+    <hyperlink ref="J170" r:id="rId145"/>
+    <hyperlink ref="I172" r:id="rId146"/>
+    <hyperlink ref="J172" r:id="rId147"/>
     <hyperlink ref="I173" r:id="rId148"/>
     <hyperlink ref="J173" r:id="rId149"/>
     <hyperlink ref="I174" r:id="rId150"/>
     <hyperlink ref="J174" r:id="rId151"/>
-    <hyperlink ref="I175" r:id="rId152"/>
-    <hyperlink ref="J175" r:id="rId153"/>
-    <hyperlink ref="I179" r:id="rId154"/>
-    <hyperlink ref="J179" r:id="rId155"/>
-    <hyperlink ref="J168" r:id="rId156"/>
-    <hyperlink ref="I166" r:id="rId157"/>
-    <hyperlink ref="J166" r:id="rId158"/>
-    <hyperlink ref="I165" r:id="rId159"/>
-    <hyperlink ref="J165" r:id="rId160"/>
-    <hyperlink ref="I163" r:id="rId161"/>
-    <hyperlink ref="J163" r:id="rId162"/>
-    <hyperlink ref="I162" r:id="rId163"/>
-    <hyperlink ref="J162" r:id="rId164"/>
-    <hyperlink ref="I160" r:id="rId165"/>
-    <hyperlink ref="J160" r:id="rId166"/>
-    <hyperlink ref="J159" r:id="rId167"/>
-    <hyperlink ref="I157" r:id="rId168"/>
-    <hyperlink ref="J157" r:id="rId169"/>
-    <hyperlink ref="J136" r:id="rId170"/>
-    <hyperlink ref="I130" r:id="rId171"/>
-    <hyperlink ref="I129" r:id="rId172"/>
-    <hyperlink ref="I113" r:id="rId173"/>
-    <hyperlink ref="I108" r:id="rId174"/>
-    <hyperlink ref="I107" r:id="rId175"/>
-    <hyperlink ref="I106" r:id="rId176"/>
-    <hyperlink ref="I103" r:id="rId177"/>
-    <hyperlink ref="I89" r:id="rId178"/>
-    <hyperlink ref="I80" r:id="rId179"/>
-    <hyperlink ref="I77" r:id="rId180"/>
-    <hyperlink ref="I73" r:id="rId181"/>
-    <hyperlink ref="I72" r:id="rId182"/>
-    <hyperlink ref="I133" r:id="rId183"/>
-    <hyperlink ref="J87" r:id="rId184"/>
-    <hyperlink ref="J89" r:id="rId185"/>
-    <hyperlink ref="P93" r:id="rId186"/>
-    <hyperlink ref="P101" r:id="rId187"/>
-    <hyperlink ref="P97" r:id="rId188"/>
-    <hyperlink ref="P106" r:id="rId189"/>
-    <hyperlink ref="P111" r:id="rId190"/>
-    <hyperlink ref="P112" r:id="rId191"/>
-    <hyperlink ref="I115" r:id="rId192"/>
-    <hyperlink ref="P117" r:id="rId193"/>
-    <hyperlink ref="I120" r:id="rId194"/>
-    <hyperlink ref="I181" r:id="rId195"/>
-    <hyperlink ref="P85" r:id="rId196"/>
-    <hyperlink ref="P84" r:id="rId197"/>
-    <hyperlink ref="I83" r:id="rId198"/>
-    <hyperlink ref="P83" r:id="rId199"/>
-    <hyperlink ref="P81" r:id="rId200"/>
-    <hyperlink ref="I79" r:id="rId201"/>
-    <hyperlink ref="P79" r:id="rId202"/>
-    <hyperlink ref="P69" r:id="rId203"/>
-    <hyperlink ref="P66" r:id="rId204"/>
-    <hyperlink ref="P59" r:id="rId205"/>
-    <hyperlink ref="P58" r:id="rId206"/>
-    <hyperlink ref="P57" r:id="rId207"/>
-    <hyperlink ref="P56" r:id="rId208"/>
-    <hyperlink ref="P55" r:id="rId209"/>
-    <hyperlink ref="P51" r:id="rId210"/>
-    <hyperlink ref="P48" r:id="rId211"/>
-    <hyperlink ref="P45" r:id="rId212"/>
-    <hyperlink ref="P50" r:id="rId213"/>
-    <hyperlink ref="I21" r:id="rId214"/>
-    <hyperlink ref="I23" r:id="rId215"/>
-    <hyperlink ref="P23" r:id="rId216"/>
-    <hyperlink ref="I25" r:id="rId217"/>
-    <hyperlink ref="I29" r:id="rId218"/>
-    <hyperlink ref="P29" r:id="rId219"/>
-    <hyperlink ref="I31" r:id="rId220"/>
-    <hyperlink ref="R22" r:id="rId221" location="id=150038638&amp;tab=navDetailManAward" display="http://www.podvignaroda.ru/? - id=150038638&amp;tab=navDetailManAward"/>
-    <hyperlink ref="I24" r:id="rId222"/>
-    <hyperlink ref="J24" r:id="rId223"/>
-    <hyperlink ref="R28" r:id="rId224" location="id=46245818&amp;tab=navDetailDocument" display="http://www.podvignaroda.ru/? - id=46245818&amp;tab=navDetailDocument"/>
-    <hyperlink ref="I32" r:id="rId225"/>
-    <hyperlink ref="J32" r:id="rId226"/>
-    <hyperlink ref="I36" r:id="rId227"/>
-    <hyperlink ref="J36" r:id="rId228"/>
-    <hyperlink ref="J40" r:id="rId229"/>
-    <hyperlink ref="P43" r:id="rId230"/>
-    <hyperlink ref="P44" r:id="rId231"/>
-    <hyperlink ref="P42" r:id="rId232"/>
-    <hyperlink ref="P38" r:id="rId233"/>
-    <hyperlink ref="P37" r:id="rId234"/>
-    <hyperlink ref="P35" r:id="rId235"/>
-    <hyperlink ref="P31" r:id="rId236"/>
-    <hyperlink ref="I2" r:id="rId237"/>
-    <hyperlink ref="I3" r:id="rId238"/>
-    <hyperlink ref="J4" r:id="rId239"/>
-    <hyperlink ref="I4" r:id="rId240"/>
-    <hyperlink ref="I5" r:id="rId241"/>
-    <hyperlink ref="I6" r:id="rId242"/>
-    <hyperlink ref="J6" r:id="rId243"/>
-    <hyperlink ref="I7" r:id="rId244"/>
-    <hyperlink ref="P7" r:id="rId245"/>
-    <hyperlink ref="I8" r:id="rId246"/>
-    <hyperlink ref="P8" r:id="rId247"/>
-    <hyperlink ref="I9" r:id="rId248"/>
-    <hyperlink ref="P9" r:id="rId249" display="https://topwar.ru/13190-otechestvennye-protivotankovye-ruzhya.html"/>
-    <hyperlink ref="I10" r:id="rId250"/>
-    <hyperlink ref="P10" r:id="rId251"/>
-    <hyperlink ref="I11" r:id="rId252"/>
-    <hyperlink ref="R12" r:id="rId253" location="id=150038530&amp;tab=navDetailDocument"/>
-    <hyperlink ref="I12" r:id="rId254"/>
-    <hyperlink ref="I13" r:id="rId255"/>
-    <hyperlink ref="J14" r:id="rId256"/>
-    <hyperlink ref="R14" r:id="rId257" location="id=150002865&amp;tab=navDetailManAward" display="http://www.podvignaroda.ru/? - id=150002865&amp;tab=navDetailManAward"/>
-    <hyperlink ref="I14" r:id="rId258"/>
-    <hyperlink ref="I15" r:id="rId259"/>
-    <hyperlink ref="P15" r:id="rId260" location="id=46245871&amp;tab=navDetailDocument"/>
-    <hyperlink ref="I16" r:id="rId261"/>
-    <hyperlink ref="R16" r:id="rId262" location="id=150003183&amp;tab=navDetailManAward" display="http://www.podvignaroda.ru/? - id=150003183&amp;tab=navDetailManAward"/>
-    <hyperlink ref="J17" r:id="rId263"/>
-    <hyperlink ref="I17" r:id="rId264"/>
-    <hyperlink ref="P17" r:id="rId265"/>
-    <hyperlink ref="J18" r:id="rId266"/>
-    <hyperlink ref="I18" r:id="rId267"/>
-    <hyperlink ref="R18" r:id="rId268" location="id=150038530&amp;tab=navDetailDocument 70 страница"/>
-    <hyperlink ref="I19" r:id="rId269"/>
-    <hyperlink ref="P19" r:id="rId270" location="id=46991458&amp;tab=navDetailDocument"/>
-    <hyperlink ref="I20" r:id="rId271"/>
-    <hyperlink ref="R20" r:id="rId272" location="id=150038629&amp;tab=navDetailManAward" display="http://www.podvignaroda.ru/? - id=150038629&amp;tab=navDetailManAward"/>
-    <hyperlink ref="I22" r:id="rId273"/>
-    <hyperlink ref="I26" r:id="rId274"/>
-    <hyperlink ref="I28" r:id="rId275"/>
+    <hyperlink ref="I178" r:id="rId152"/>
+    <hyperlink ref="J178" r:id="rId153"/>
+    <hyperlink ref="J167" r:id="rId154"/>
+    <hyperlink ref="I165" r:id="rId155"/>
+    <hyperlink ref="J165" r:id="rId156"/>
+    <hyperlink ref="I164" r:id="rId157"/>
+    <hyperlink ref="J164" r:id="rId158"/>
+    <hyperlink ref="I162" r:id="rId159"/>
+    <hyperlink ref="J162" r:id="rId160"/>
+    <hyperlink ref="I161" r:id="rId161"/>
+    <hyperlink ref="J161" r:id="rId162"/>
+    <hyperlink ref="I159" r:id="rId163"/>
+    <hyperlink ref="J159" r:id="rId164"/>
+    <hyperlink ref="J158" r:id="rId165"/>
+    <hyperlink ref="I156" r:id="rId166"/>
+    <hyperlink ref="J156" r:id="rId167"/>
+    <hyperlink ref="J135" r:id="rId168"/>
+    <hyperlink ref="I130" r:id="rId169"/>
+    <hyperlink ref="I129" r:id="rId170"/>
+    <hyperlink ref="I113" r:id="rId171"/>
+    <hyperlink ref="I108" r:id="rId172"/>
+    <hyperlink ref="I107" r:id="rId173"/>
+    <hyperlink ref="I106" r:id="rId174"/>
+    <hyperlink ref="I103" r:id="rId175"/>
+    <hyperlink ref="I89" r:id="rId176"/>
+    <hyperlink ref="I80" r:id="rId177"/>
+    <hyperlink ref="I77" r:id="rId178"/>
+    <hyperlink ref="I73" r:id="rId179"/>
+    <hyperlink ref="I72" r:id="rId180"/>
+    <hyperlink ref="I133" r:id="rId181"/>
+    <hyperlink ref="J87" r:id="rId182"/>
+    <hyperlink ref="J89" r:id="rId183"/>
+    <hyperlink ref="P93" r:id="rId184"/>
+    <hyperlink ref="P101" r:id="rId185"/>
+    <hyperlink ref="P97" r:id="rId186"/>
+    <hyperlink ref="P106" r:id="rId187"/>
+    <hyperlink ref="P111" r:id="rId188"/>
+    <hyperlink ref="P112" r:id="rId189"/>
+    <hyperlink ref="I115" r:id="rId190"/>
+    <hyperlink ref="P117" r:id="rId191"/>
+    <hyperlink ref="I120" r:id="rId192"/>
+    <hyperlink ref="I180" r:id="rId193"/>
+    <hyperlink ref="P85" r:id="rId194"/>
+    <hyperlink ref="P84" r:id="rId195"/>
+    <hyperlink ref="I83" r:id="rId196"/>
+    <hyperlink ref="P83" r:id="rId197"/>
+    <hyperlink ref="P81" r:id="rId198"/>
+    <hyperlink ref="I79" r:id="rId199"/>
+    <hyperlink ref="P79" r:id="rId200"/>
+    <hyperlink ref="P69" r:id="rId201"/>
+    <hyperlink ref="P66" r:id="rId202"/>
+    <hyperlink ref="P59" r:id="rId203"/>
+    <hyperlink ref="P58" r:id="rId204"/>
+    <hyperlink ref="P57" r:id="rId205"/>
+    <hyperlink ref="P56" r:id="rId206"/>
+    <hyperlink ref="P55" r:id="rId207"/>
+    <hyperlink ref="P51" r:id="rId208"/>
+    <hyperlink ref="P48" r:id="rId209"/>
+    <hyperlink ref="P45" r:id="rId210"/>
+    <hyperlink ref="P50" r:id="rId211"/>
+    <hyperlink ref="I21" r:id="rId212"/>
+    <hyperlink ref="I23" r:id="rId213"/>
+    <hyperlink ref="P23" r:id="rId214"/>
+    <hyperlink ref="I25" r:id="rId215"/>
+    <hyperlink ref="I29" r:id="rId216"/>
+    <hyperlink ref="P29" r:id="rId217"/>
+    <hyperlink ref="I31" r:id="rId218"/>
+    <hyperlink ref="R22" r:id="rId219" location="id=150038638&amp;tab=navDetailManAward" display="http://www.podvignaroda.ru/? - id=150038638&amp;tab=navDetailManAward"/>
+    <hyperlink ref="I24" r:id="rId220"/>
+    <hyperlink ref="J24" r:id="rId221"/>
+    <hyperlink ref="R28" r:id="rId222" location="id=46245818&amp;tab=navDetailDocument" display="http://www.podvignaroda.ru/? - id=46245818&amp;tab=navDetailDocument"/>
+    <hyperlink ref="I32" r:id="rId223"/>
+    <hyperlink ref="J32" r:id="rId224"/>
+    <hyperlink ref="I36" r:id="rId225"/>
+    <hyperlink ref="J36" r:id="rId226"/>
+    <hyperlink ref="J40" r:id="rId227"/>
+    <hyperlink ref="P43" r:id="rId228"/>
+    <hyperlink ref="P44" r:id="rId229"/>
+    <hyperlink ref="P42" r:id="rId230"/>
+    <hyperlink ref="P38" r:id="rId231"/>
+    <hyperlink ref="P37" r:id="rId232"/>
+    <hyperlink ref="P35" r:id="rId233"/>
+    <hyperlink ref="P31" r:id="rId234"/>
+    <hyperlink ref="I2" r:id="rId235"/>
+    <hyperlink ref="I3" r:id="rId236"/>
+    <hyperlink ref="J4" r:id="rId237"/>
+    <hyperlink ref="I4" r:id="rId238"/>
+    <hyperlink ref="I5" r:id="rId239"/>
+    <hyperlink ref="I6" r:id="rId240"/>
+    <hyperlink ref="J6" r:id="rId241"/>
+    <hyperlink ref="I7" r:id="rId242"/>
+    <hyperlink ref="P7" r:id="rId243"/>
+    <hyperlink ref="I8" r:id="rId244"/>
+    <hyperlink ref="P8" r:id="rId245"/>
+    <hyperlink ref="I9" r:id="rId246"/>
+    <hyperlink ref="P9" r:id="rId247" display="https://topwar.ru/13190-otechestvennye-protivotankovye-ruzhya.html"/>
+    <hyperlink ref="I10" r:id="rId248"/>
+    <hyperlink ref="P10" r:id="rId249"/>
+    <hyperlink ref="I11" r:id="rId250"/>
+    <hyperlink ref="R12" r:id="rId251" location="id=150038530&amp;tab=navDetailDocument"/>
+    <hyperlink ref="I12" r:id="rId252"/>
+    <hyperlink ref="I13" r:id="rId253"/>
+    <hyperlink ref="J14" r:id="rId254"/>
+    <hyperlink ref="R14" r:id="rId255" location="id=150002865&amp;tab=navDetailManAward" display="http://www.podvignaroda.ru/? - id=150002865&amp;tab=navDetailManAward"/>
+    <hyperlink ref="I14" r:id="rId256"/>
+    <hyperlink ref="I15" r:id="rId257"/>
+    <hyperlink ref="P15" r:id="rId258" location="id=46245871&amp;tab=navDetailDocument"/>
+    <hyperlink ref="I16" r:id="rId259"/>
+    <hyperlink ref="R16" r:id="rId260" location="id=150003183&amp;tab=navDetailManAward" display="http://www.podvignaroda.ru/? - id=150003183&amp;tab=navDetailManAward"/>
+    <hyperlink ref="J17" r:id="rId261"/>
+    <hyperlink ref="I17" r:id="rId262"/>
+    <hyperlink ref="P17" r:id="rId263"/>
+    <hyperlink ref="J18" r:id="rId264"/>
+    <hyperlink ref="I18" r:id="rId265"/>
+    <hyperlink ref="R18" r:id="rId266" location="id=150038530&amp;tab=navDetailDocument 70 страница"/>
+    <hyperlink ref="I19" r:id="rId267"/>
+    <hyperlink ref="P19" r:id="rId268" location="id=46991458&amp;tab=navDetailDocument"/>
+    <hyperlink ref="I20" r:id="rId269"/>
+    <hyperlink ref="R20" r:id="rId270" location="id=150038629&amp;tab=navDetailManAward" display="http://www.podvignaroda.ru/? - id=150038629&amp;tab=navDetailManAward"/>
+    <hyperlink ref="I22" r:id="rId271"/>
+    <hyperlink ref="I26" r:id="rId272"/>
+    <hyperlink ref="I28" r:id="rId273"/>
+    <hyperlink ref="I182" r:id="rId274"/>
+    <hyperlink ref="I181" r:id="rId275"/>
     <hyperlink ref="I183" r:id="rId276"/>
-    <hyperlink ref="I182" r:id="rId277"/>
-    <hyperlink ref="I184" r:id="rId278"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId279"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId277"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16910,12 +16861,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16923,19 +16874,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1:AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -16946,7 +16897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE2" t="s">
         <v>9</v>
       </c>
@@ -16954,7 +16905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE3" t="s">
         <v>11</v>
       </c>
@@ -16962,7 +16913,7 @@
         <v>15245</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="39.75" customHeight="1">
+    <row r="34" spans="1:34" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="154" t="s">
         <v>2</v>
       </c>
@@ -16983,7 +16934,7 @@
       <c r="P34" s="154"/>
       <c r="Q34" s="154"/>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="154" t="s">
         <v>3</v>
       </c>
@@ -17004,7 +16955,7 @@
       <c r="P36" s="154"/>
       <c r="Q36" s="154"/>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="154"/>
       <c r="B37" s="154"/>
       <c r="C37" s="154"/>
@@ -17023,7 +16974,7 @@
       <c r="P37" s="154"/>
       <c r="Q37" s="154"/>
     </row>
-    <row r="38" spans="1:34" ht="183" customHeight="1">
+    <row r="38" spans="1:34" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="155" t="s">
         <v>4</v>
       </c>
@@ -17060,7 +17011,7 @@
       <c r="AG38" s="157"/>
       <c r="AH38" s="157"/>
     </row>
-    <row r="39" spans="1:34" ht="66.75" customHeight="1">
+    <row r="39" spans="1:34" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="155" t="s">
         <v>5</v>
       </c>
@@ -17095,7 +17046,7 @@
       <c r="AG39" s="157"/>
       <c r="AH39" s="157"/>
     </row>
-    <row r="40" spans="1:34" ht="30.75" customHeight="1">
+    <row r="40" spans="1:34" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="155" t="s">
         <v>6</v>
       </c>
@@ -17130,7 +17081,7 @@
       <c r="AG40" s="157"/>
       <c r="AH40" s="157"/>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="154"/>
       <c r="B41" s="154"/>
       <c r="C41" s="154"/>
@@ -17149,7 +17100,7 @@
       <c r="P41" s="154"/>
       <c r="Q41" s="154"/>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
   </sheetData>
@@ -17169,29 +17120,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U3" t="s">
         <v>7</v>
       </c>
@@ -17199,7 +17150,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U4" t="s">
         <v>9</v>
       </c>
@@ -17207,7 +17158,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U5" t="s">
         <v>11</v>
       </c>
@@ -17215,47 +17166,47 @@
         <v>28403</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="16.5">
+    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="16.5">
+    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -17268,19 +17219,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O1" t="s">
         <v>7</v>
       </c>
@@ -17288,7 +17239,7 @@
         <v>32552</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O2" t="s">
         <v>9</v>
       </c>
@@ -17296,7 +17247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="O3" t="s">
         <v>11</v>
       </c>
@@ -17304,12 +17255,12 @@
         <v>18168</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="204.75" customHeight="1">
+    <row r="14" spans="1:25" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="156" t="s">
         <v>13</v>
       </c>
@@ -17334,7 +17285,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -17343,7 +17294,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -17355,7 +17306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -17367,7 +17318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -17379,7 +17330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -17391,7 +17342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -17403,7 +17354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -17415,7 +17366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -17427,7 +17378,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -17439,7 +17390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -17451,7 +17402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -17463,7 +17414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -17475,7 +17426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -17487,7 +17438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -17499,7 +17450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -17511,257 +17462,257 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="12:12">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="12:12">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="12:12">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="12:12">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="12:12">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="12:12">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="12:12">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="12:12">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="12:12">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="12:12">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="12:12">
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="12:12">
+    <row r="44" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="12:12">
+    <row r="45" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="12:12">
+    <row r="46" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="12:12">
+    <row r="47" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="12:12">
+    <row r="48" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="12:12">
+    <row r="49" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="12:12">
+    <row r="50" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="12:12">
+    <row r="51" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="12:12">
+    <row r="52" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="12:12">
+    <row r="53" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="12:12">
+    <row r="54" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="12:12">
+    <row r="55" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="12:12">
+    <row r="56" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="12:12">
+    <row r="57" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="12:12">
+    <row r="58" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="12:12">
+    <row r="59" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="12:12">
+    <row r="60" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="12:12">
+    <row r="61" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="12:12">
+    <row r="62" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="12:12">
+    <row r="63" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="12:12">
+    <row r="64" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="12:12">
+    <row r="65" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="12:12">
+    <row r="66" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="12:12">
+    <row r="67" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="12:12">
+    <row r="68" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="12:12">
+    <row r="69" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="12:12">
+    <row r="70" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="12:12">
+    <row r="71" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="12:12">
+    <row r="72" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="12:12">
+    <row r="73" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="12:12">
+    <row r="74" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="12:12">
+    <row r="75" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="12:12">
+    <row r="76" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="12:12">
+    <row r="77" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="12:12">
+    <row r="78" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="12:12">
+    <row r="79" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="12:12">
+    <row r="80" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L80" t="s">
         <v>79</v>
       </c>
